--- a/front-end/TLTLocalize.xlsx
+++ b/front-end/TLTLocalize.xlsx
@@ -4,6 +4,8 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="home" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="template" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="dashboard" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="99">
   <si>
     <t>key</t>
   </si>
@@ -144,6 +146,171 @@
   <si>
     <t>Export your new resume, CV or application letter in one of the available formats. PDF will provide you with the best and most consistent visual formatting. Word files allow you to edit the document further or submit the resume to an online application system. You can also share your career updates online.</t>
   </si>
+  <si>
+    <t>template-create-button</t>
+  </si>
+  <si>
+    <t>template-all-tab</t>
+  </si>
+  <si>
+    <t>All templates</t>
+  </si>
+  <si>
+    <t>template-creative-tab</t>
+  </si>
+  <si>
+    <t>Creative</t>
+  </si>
+  <si>
+    <t>template-simple-tab</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>template-professional-tab</t>
+  </si>
+  <si>
+    <t>Professional</t>
+  </si>
+  <si>
+    <t>template-modern-tab</t>
+  </si>
+  <si>
+    <t>Modern</t>
+  </si>
+  <si>
+    <t>template-all-header</t>
+  </si>
+  <si>
+    <t>Job-winning resume templates</t>
+  </si>
+  <si>
+    <t>template-all-description</t>
+  </si>
+  <si>
+    <t>Each resume template is expertly designed and follows the exact “resume rules” hiring managers look for. Stand out and get hired faster with field-tested resume templates.</t>
+  </si>
+  <si>
+    <t>template-creative-header</t>
+  </si>
+  <si>
+    <t>Job-winning creative resume templates</t>
+  </si>
+  <si>
+    <t>template-creative-description</t>
+  </si>
+  <si>
+    <t>Each template is expertly designed and follows the exact “resume rules” hiring managers look for. Stand out and get hired faster with field-tested resume templates.</t>
+  </si>
+  <si>
+    <t>template-simple-header</t>
+  </si>
+  <si>
+    <t>Job-winning simple resume templates</t>
+  </si>
+  <si>
+    <t>template-simple-description</t>
+  </si>
+  <si>
+    <t>template-professional-header</t>
+  </si>
+  <si>
+    <t>Job-winning professional resume templates</t>
+  </si>
+  <si>
+    <t>template-professional-description</t>
+  </si>
+  <si>
+    <t>template-modern-header</t>
+  </si>
+  <si>
+    <t>Job-winning modern resume templates</t>
+  </si>
+  <si>
+    <t>template-modern-description</t>
+  </si>
+  <si>
+    <t>dashboard-header</t>
+  </si>
+  <si>
+    <t>Resumes</t>
+  </si>
+  <si>
+    <t>dashboard-import</t>
+  </si>
+  <si>
+    <t>+ Import</t>
+  </si>
+  <si>
+    <t>+ Nhập</t>
+  </si>
+  <si>
+    <t>dashboard-create-new</t>
+  </si>
+  <si>
+    <t>+ Create New</t>
+  </si>
+  <si>
+    <t>dashboard-upload-file</t>
+  </si>
+  <si>
+    <t>Click or drag file to this area to upload</t>
+  </si>
+  <si>
+    <t>dashboard-import-title</t>
+  </si>
+  <si>
+    <t>Import Resume</t>
+  </si>
+  <si>
+    <t>dashboard-edit</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Chỉnh sửa</t>
+  </si>
+  <si>
+    <t>dashboard-duplicate</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
+  </si>
+  <si>
+    <t>dashboard-delete</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>dashboard-delete-text</t>
+  </si>
+  <si>
+    <t>dashboard-cancel-text</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>dashboard-confirm-text</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>dashboard-delete-title</t>
+  </si>
+  <si>
+    <t>Delete Resume</t>
+  </si>
+  <si>
+    <t>dashboard-delete-description</t>
+  </si>
+  <si>
+    <t>Are you sure you want to delete this resume?</t>
+  </si>
 </sst>
 </file>
 
@@ -223,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -293,6 +460,12 @@
     <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -302,6 +475,14 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -18250,4 +18431,4939 @@
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="19.5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$C$1))"),"Erstellen Sie meinen Lebenslauf")</f>
+        <v>Erstellen Sie meinen Lebenslauf</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$D$1))"),"Crea mi currículum")</f>
+        <v>Crea mi currículum</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$E$1))"),"Créer mon CV")</f>
+        <v>Créer mon CV</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$F$1))"),"Buat resume saya")</f>
+        <v>Buat resume saya</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$G$1))"),"Crea il mio curriculum")</f>
+        <v>Crea il mio curriculum</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$H$1))"),"履歴書を作成します")</f>
+        <v>履歴書を作成します</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$I$1))"),"내 이력서를 만듭니다")</f>
+        <v>내 이력서를 만듭니다</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$J$1))"),"Crie meu currículo")</f>
+        <v>Crie meu currículo</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$K$1))"),"Создайте мое резюме")</f>
+        <v>Создайте мое резюме</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$L$1))"),"สร้างประวัติย่อของฉัน")</f>
+        <v>สร้างประวัติย่อของฉัน</v>
+      </c>
+      <c r="M2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$M$1))"),"Özgeçmişimi yarat")</f>
+        <v>Özgeçmişimi yarat</v>
+      </c>
+      <c r="N2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$N$1))"),"Tạo sơ yếu lý lịch của tôi")</f>
+        <v>Tạo sơ yếu lý lịch của tôi</v>
+      </c>
+      <c r="O2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$O$1))"),"创建我的简历")</f>
+        <v>创建我的简历</v>
+      </c>
+      <c r="P2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$P$1))"),"創建我的簡歷")</f>
+        <v>創建我的簡歷</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$C$1))"),"Alle Vorlagen")</f>
+        <v>Alle Vorlagen</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$D$1))"),"Todas las plantillas")</f>
+        <v>Todas las plantillas</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$E$1))"),"Tous les modèles")</f>
+        <v>Tous les modèles</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$F$1))"),"Semua templat")</f>
+        <v>Semua templat</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$G$1))"),"Tutti i modelli")</f>
+        <v>Tutti i modelli</v>
+      </c>
+      <c r="H3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$H$1))"),"すべてのテンプレート")</f>
+        <v>すべてのテンプレート</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$I$1))"),"모든 템플릿")</f>
+        <v>모든 템플릿</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$J$1))"),"Todos os modelos")</f>
+        <v>Todos os modelos</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$K$1))"),"Все шаблоны")</f>
+        <v>Все шаблоны</v>
+      </c>
+      <c r="L3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$L$1))"),"เทมเพลตทั้งหมด")</f>
+        <v>เทมเพลตทั้งหมด</v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$M$1))"),"Tüm şablonlar")</f>
+        <v>Tüm şablonlar</v>
+      </c>
+      <c r="N3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$N$1))"),"Tất cả các mẫu")</f>
+        <v>Tất cả các mẫu</v>
+      </c>
+      <c r="O3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$O$1))"),"所有模板")</f>
+        <v>所有模板</v>
+      </c>
+      <c r="P3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$P$1))"),"所有模板")</f>
+        <v>所有模板</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$C$1))"),"Kreativ")</f>
+        <v>Kreativ</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$D$1))"),"Creativo")</f>
+        <v>Creativo</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$E$1))"),"Créatif")</f>
+        <v>Créatif</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$F$1))"),"Kreatif")</f>
+        <v>Kreatif</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$G$1))"),"Creativo")</f>
+        <v>Creativo</v>
+      </c>
+      <c r="H4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$H$1))"),"クリエイティブ")</f>
+        <v>クリエイティブ</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$I$1))"),"창의적인")</f>
+        <v>창의적인</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$J$1))"),"Criativo")</f>
+        <v>Criativo</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$K$1))"),"творческий")</f>
+        <v>творческий</v>
+      </c>
+      <c r="L4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$L$1))"),"ความคิดสร้างสรรค์")</f>
+        <v>ความคิดสร้างสรรค์</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$M$1))"),"Yaratıcı")</f>
+        <v>Yaratıcı</v>
+      </c>
+      <c r="N4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$N$1))"),"Sáng tạo")</f>
+        <v>Sáng tạo</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$O$1))"),"有创造力的")</f>
+        <v>有创造力的</v>
+      </c>
+      <c r="P4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$P$1))"),"有創造力的")</f>
+        <v>有創造力的</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$C$1))"),"Einfach")</f>
+        <v>Einfach</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$D$1))"),"Simple")</f>
+        <v>Simple</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$E$1))"),"Simple")</f>
+        <v>Simple</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$F$1))"),"Sederhana")</f>
+        <v>Sederhana</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$G$1))"),"Semplice")</f>
+        <v>Semplice</v>
+      </c>
+      <c r="H5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$H$1))"),"単純")</f>
+        <v>単純</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$I$1))"),"단순한")</f>
+        <v>단순한</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$J$1))"),"Simples")</f>
+        <v>Simples</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$K$1))"),"Простой")</f>
+        <v>Простой</v>
+      </c>
+      <c r="L5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$L$1))"),"เรียบง่าย")</f>
+        <v>เรียบง่าย</v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$M$1))"),"Basit")</f>
+        <v>Basit</v>
+      </c>
+      <c r="N5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$N$1))"),"Đơn giản")</f>
+        <v>Đơn giản</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$O$1))"),"简单的")</f>
+        <v>简单的</v>
+      </c>
+      <c r="P5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$P$1))"),"簡單的")</f>
+        <v>簡單的</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$C$1))"),"Fachmann")</f>
+        <v>Fachmann</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$D$1))"),"Profesional")</f>
+        <v>Profesional</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$E$1))"),"Professionnel")</f>
+        <v>Professionnel</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$F$1))"),"Profesional")</f>
+        <v>Profesional</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$G$1))"),"Professionale")</f>
+        <v>Professionale</v>
+      </c>
+      <c r="H6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$H$1))"),"プロ")</f>
+        <v>プロ</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$I$1))"),"전문적인")</f>
+        <v>전문적인</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$J$1))"),"Profissional")</f>
+        <v>Profissional</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$K$1))"),"Профессионал")</f>
+        <v>Профессионал</v>
+      </c>
+      <c r="L6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$L$1))"),"มืออาชีพ")</f>
+        <v>มืออาชีพ</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$M$1))"),"Profesyonel")</f>
+        <v>Profesyonel</v>
+      </c>
+      <c r="N6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$N$1))"),"Chuyên nghiệp")</f>
+        <v>Chuyên nghiệp</v>
+      </c>
+      <c r="O6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$O$1))"),"专业的")</f>
+        <v>专业的</v>
+      </c>
+      <c r="P6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$P$1))"),"專業的")</f>
+        <v>專業的</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$C$1))"),"Modern")</f>
+        <v>Modern</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$D$1))"),"Moderno")</f>
+        <v>Moderno</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$E$1))"),"Moderne")</f>
+        <v>Moderne</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$F$1))"),"Modern")</f>
+        <v>Modern</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$G$1))"),"Moderno")</f>
+        <v>Moderno</v>
+      </c>
+      <c r="H7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$H$1))"),"モダン")</f>
+        <v>モダン</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$I$1))"),"현대의")</f>
+        <v>현대의</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$J$1))"),"Moderno")</f>
+        <v>Moderno</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$K$1))"),"Современный")</f>
+        <v>Современный</v>
+      </c>
+      <c r="L7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$L$1))"),"ทันสมัย")</f>
+        <v>ทันสมัย</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$M$1))"),"Modern")</f>
+        <v>Modern</v>
+      </c>
+      <c r="N7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$N$1))"),"Hiện đại")</f>
+        <v>Hiện đại</v>
+      </c>
+      <c r="O7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$O$1))"),"现代的")</f>
+        <v>现代的</v>
+      </c>
+      <c r="P7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$P$1))"),"現代的")</f>
+        <v>現代的</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$C$1))"),"Jobs Vorlagen mit dem Arbeitsplatz")</f>
+        <v>Jobs Vorlagen mit dem Arbeitsplatz</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$D$1))"),"Plantillas de currículum ganadoras de trabajo")</f>
+        <v>Plantillas de currículum ganadoras de trabajo</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$E$1))"),"Modèles de CV gagnants")</f>
+        <v>Modèles de CV gagnants</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$F$1))"),"Template resume pemenang pekerjaan")</f>
+        <v>Template resume pemenang pekerjaan</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$G$1))"),"Modelli di curriculum vincitori del lavoro")</f>
+        <v>Modelli di curriculum vincitori del lavoro</v>
+      </c>
+      <c r="H8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$H$1))"),"就職活動の履歴書テンプレート")</f>
+        <v>就職活動の履歴書テンプレート</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$I$1))"),"작업을 수상한 이력서 템플릿")</f>
+        <v>작업을 수상한 이력서 템플릿</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$J$1))"),"Modelos de currículo vencedor do trabalho")</f>
+        <v>Modelos de currículo vencedor do trabalho</v>
+      </c>
+      <c r="K8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$K$1))"),"Завоевавшие работы шаблоны резюме")</f>
+        <v>Завоевавшие работы шаблоны резюме</v>
+      </c>
+      <c r="L8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$L$1))"),"เทมเพลตเรซูเม่ที่ได้รับรางวัลงาน")</f>
+        <v>เทมเพลตเรซูเม่ที่ได้รับรางวัลงาน</v>
+      </c>
+      <c r="M8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$M$1))"),"İş kazanan özgeçmiş şablonları")</f>
+        <v>İş kazanan özgeçmiş şablonları</v>
+      </c>
+      <c r="N8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$N$1))"),"Mẫu sơ yếu lý lịch giành được công việc")</f>
+        <v>Mẫu sơ yếu lý lịch giành được công việc</v>
+      </c>
+      <c r="O8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$O$1))"),"赢得工作的简历模板")</f>
+        <v>赢得工作的简历模板</v>
+      </c>
+      <c r="P8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$P$1))"),"贏得工作的簡歷模板")</f>
+        <v>贏得工作的簡歷模板</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$C$1))"),"Jede Lebenslaufvorlage ist fachmännisch gestaltet und folgt den genauen Einstellungsmanagern „Lebenslaufregeln“. Stechen Sie heraus und lassen Sie sich schneller mit Feldvorlagen mit Feldnahrungsläufen einstellen.")</f>
+        <v>Jede Lebenslaufvorlage ist fachmännisch gestaltet und folgt den genauen Einstellungsmanagern „Lebenslaufregeln“. Stechen Sie heraus und lassen Sie sich schneller mit Feldvorlagen mit Feldnahrungsläufen einstellen.</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$D$1))"),"Cada plantilla de currículum está diseñada de manera experta y sigue las ""reglas de currículum"" que buscan los gerentes de contratación. Destaca y es contratado más rápido con plantillas de currículum probadas en campo.")</f>
+        <v>Cada plantilla de currículum está diseñada de manera experta y sigue las "reglas de currículum" que buscan los gerentes de contratación. Destaca y es contratado más rápido con plantillas de currículum probadas en campo.</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$E$1))"),"Chaque modèle de curriculum vitae est conçu de manière experte et suit les gestionnaires de recrutement des «règles de CV» exacts. Se démarquez et soyez embauché plus rapidement avec des modèles de curriculum vitae testés sur le terrain.")</f>
+        <v>Chaque modèle de curriculum vitae est conçu de manière experte et suit les gestionnaires de recrutement des «règles de CV» exacts. Se démarquez et soyez embauché plus rapidement avec des modèles de curriculum vitae testés sur le terrain.</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$F$1))"),"Setiap template resume dirancang dengan ahli dan mengikuti ""aturan resume"" yang tepat yang dicari oleh manajer. Menonjol dan dipekerjakan lebih cepat dengan templat resume yang telah teruji di lapangan.")</f>
+        <v>Setiap template resume dirancang dengan ahli dan mengikuti "aturan resume" yang tepat yang dicari oleh manajer. Menonjol dan dipekerjakan lebih cepat dengan templat resume yang telah teruji di lapangan.</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$G$1))"),"Ogni modello di curriculum è progettato con competenza e segue l'esatta ""REGOLE REGOLE"" che i gestori delle assunzioni cercano. Distinguiti e fatti assumere più velocemente con modelli di curriculum testati sul campo.")</f>
+        <v>Ogni modello di curriculum è progettato con competenza e segue l'esatta "REGOLE REGOLE" che i gestori delle assunzioni cercano. Distinguiti e fatti assumere più velocemente con modelli di curriculum testati sul campo.</v>
+      </c>
+      <c r="H9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$H$1))"),"各履歴書テンプレートは専門的に設計されており、正確な「履歴書ルール」マネージャーが探しています。目立つと、フィールドテスト式の履歴書テンプレートを使用して、より速く雇われます。")</f>
+        <v>各履歴書テンプレートは専門的に設計されており、正確な「履歴書ルール」マネージャーが探しています。目立つと、フィールドテスト式の履歴書テンプレートを使用して、より速く雇われます。</v>
+      </c>
+      <c r="I9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$I$1))"),"각 이력서 템플릿은 전문적으로 설계되었으며 정확한 ""이력서 규칙""채용 관리자가 찾는 것입니다. 필드 테스트 이력서 템플릿으로 눈에 띄고 더 빨리 고용됩니다.")</f>
+        <v>각 이력서 템플릿은 전문적으로 설계되었으며 정확한 "이력서 규칙"채용 관리자가 찾는 것입니다. 필드 테스트 이력서 템플릿으로 눈에 띄고 더 빨리 고용됩니다.</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$J$1))"),"Cada modelo de currículo é projetado com habilidade e segue os gerentes exatos de contratação de ""Regras de currículo"" procuram. Destaque-se e seja contratado mais rápido com modelos de currículo testados em campo.")</f>
+        <v>Cada modelo de currículo é projetado com habilidade e segue os gerentes exatos de contratação de "Regras de currículo" procuram. Destaque-se e seja contratado mais rápido com modelos de currículo testados em campo.</v>
+      </c>
+      <c r="K9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$K$1))"),"Каждый шаблон резюме опытный и следит за тем, как ищут точные менеджеры по найму «Правила резюме». Выделитесь и нанимайте быстрее с проверенными на полевых шаблонах резюме.")</f>
+        <v>Каждый шаблон резюме опытный и следит за тем, как ищут точные менеджеры по найму «Правила резюме». Выделитесь и нанимайте быстрее с проверенными на полевых шаблонах резюме.</v>
+      </c>
+      <c r="L9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$L$1))"),"เทมเพลตเรซูเม่แต่ละรายการได้รับการออกแบบอย่างเชี่ยวชาญและติดตามผู้จัดการการจ้างงาน“ Resume Resume” ที่แน่นอน โดดเด่นและได้รับการว่าจ้างเร็วขึ้นด้วยเทมเพลตเรซูเม่ที่ผ่านการทดสอบภาคสนาม")</f>
+        <v>เทมเพลตเรซูเม่แต่ละรายการได้รับการออกแบบอย่างเชี่ยวชาญและติดตามผู้จัดการการจ้างงาน“ Resume Resume” ที่แน่นอน โดดเด่นและได้รับการว่าจ้างเร็วขึ้นด้วยเทมเพลตเรซูเม่ที่ผ่านการทดสอบภาคสนาม</v>
+      </c>
+      <c r="M9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$M$1))"),"Her özgeçmiş şablonu ustaca tasarlanmıştır ve işe alım yöneticilerinin aradığı tam “özgeçmiş kurallarını” takip eder. Saha tarafından test edilmiş özgeçmiş şablonları ile öne çıkın ve daha hızlı işe alın.")</f>
+        <v>Her özgeçmiş şablonu ustaca tasarlanmıştır ve işe alım yöneticilerinin aradığı tam “özgeçmiş kurallarını” takip eder. Saha tarafından test edilmiş özgeçmiş şablonları ile öne çıkın ve daha hızlı işe alın.</v>
+      </c>
+      <c r="N9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$N$1))"),"Mỗi mẫu sơ yếu lý lịch được thiết kế một cách chuyên nghiệp và tuân theo các quy tắc sơ yếu lý lịch chính xác của các nhà quản lý tuyển dụng. Nổi bật và được thuê nhanh hơn với các mẫu sơ yếu lý lịch thử nghiệm trường.")</f>
+        <v>Mỗi mẫu sơ yếu lý lịch được thiết kế một cách chuyên nghiệp và tuân theo các quy tắc sơ yếu lý lịch chính xác của các nhà quản lý tuyển dụng. Nổi bật và được thuê nhanh hơn với các mẫu sơ yếu lý lịch thử nghiệm trường.</v>
+      </c>
+      <c r="O9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$O$1))"),"每个简历模板都是专业设计的，并遵循确切的“简历规则”雇用经理的要求。脱颖而出，使用现场测试的简历模板更快地雇用。")</f>
+        <v>每个简历模板都是专业设计的，并遵循确切的“简历规则”雇用经理的要求。脱颖而出，使用现场测试的简历模板更快地雇用。</v>
+      </c>
+      <c r="P9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$P$1))"),"每個簡歷模板都是專業設計的，並遵循確切的“簡歷規則”僱用經理的要求。脫穎而出，使用現場測試的簡歷模板更快地僱用。")</f>
+        <v>每個簡歷模板都是專業設計的，並遵循確切的“簡歷規則”僱用經理的要求。脫穎而出，使用現場測試的簡歷模板更快地僱用。</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$C$1))"),"Arbeitspunkte kreative Lebenslaufvorlagen")</f>
+        <v>Arbeitspunkte kreative Lebenslaufvorlagen</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$D$1))"),"Plantillas de currículum creativas ganadoras de trabajo")</f>
+        <v>Plantillas de currículum creativas ganadoras de trabajo</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$E$1))"),"Modèles de CV créatifs gagnants")</f>
+        <v>Modèles de CV créatifs gagnants</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$F$1))"),"Template resume kreatif yang memenangkan pekerjaan")</f>
+        <v>Template resume kreatif yang memenangkan pekerjaan</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$G$1))"),"Modelli di curriculum creativi vincitori di lavoro")</f>
+        <v>Modelli di curriculum creativi vincitori di lavoro</v>
+      </c>
+      <c r="H10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$H$1))"),"就職活動のクリエイティブ履歴書テンプレート")</f>
+        <v>就職活動のクリエイティブ履歴書テンプレート</v>
+      </c>
+      <c r="I10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$I$1))"),"직업을 얻은 창조적 인 이력서 템플릿")</f>
+        <v>직업을 얻은 창조적 인 이력서 템플릿</v>
+      </c>
+      <c r="J10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$J$1))"),"Modelos de currículo criativo vencedor do trabalho")</f>
+        <v>Modelos de currículo criativo vencedor do trabalho</v>
+      </c>
+      <c r="K10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$K$1))"),"Завоеванные рабочие творческие шаблоны резюме")</f>
+        <v>Завоеванные рабочие творческие шаблоны резюме</v>
+      </c>
+      <c r="L10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$L$1))"),"เทมเพลตเรซูเม่ที่สร้างสรรค์ที่ได้รับรางวัลงาน")</f>
+        <v>เทมเพลตเรซูเม่ที่สร้างสรรค์ที่ได้รับรางวัลงาน</v>
+      </c>
+      <c r="M10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$M$1))"),"İş kazanan yaratıcı özgeçmiş şablonları")</f>
+        <v>İş kazanan yaratıcı özgeçmiş şablonları</v>
+      </c>
+      <c r="N10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$N$1))"),"Mẫu sơ yếu lý lịch sáng tạo giành được công việc")</f>
+        <v>Mẫu sơ yếu lý lịch sáng tạo giành được công việc</v>
+      </c>
+      <c r="O10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$O$1))"),"赢得工作的创意简历模板")</f>
+        <v>赢得工作的创意简历模板</v>
+      </c>
+      <c r="P10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$P$1))"),"贏得工作的創意簡歷模板")</f>
+        <v>贏得工作的創意簡歷模板</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$C$1))"),"Jede Vorlage ist fachmännisch gestaltet und folgt den genauen Einstellungsmanagern „Lebenslaufregeln“. Stechen Sie heraus und lassen Sie sich schneller mit Feldvorlagen mit Feldnahrungsläufen einstellen.")</f>
+        <v>Jede Vorlage ist fachmännisch gestaltet und folgt den genauen Einstellungsmanagern „Lebenslaufregeln“. Stechen Sie heraus und lassen Sie sich schneller mit Feldvorlagen mit Feldnahrungsläufen einstellen.</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$D$1))"),"Cada plantilla está diseñada por expertos y sigue las ""reglas de reanudación"" exacta que buscan los gerentes. Destaca y es contratado más rápido con plantillas de currículum probadas en campo.")</f>
+        <v>Cada plantilla está diseñada por expertos y sigue las "reglas de reanudación" exacta que buscan los gerentes. Destaca y es contratado más rápido con plantillas de currículum probadas en campo.</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$E$1))"),"Chaque modèle est conçu de manière experte et suit les «règles de curriculum vitae», les gestionnaires d'embauche exacts recherchent. Se démarquez et soyez embauché plus rapidement avec des modèles de curriculum vitae testés sur le terrain.")</f>
+        <v>Chaque modèle est conçu de manière experte et suit les «règles de curriculum vitae», les gestionnaires d'embauche exacts recherchent. Se démarquez et soyez embauché plus rapidement avec des modèles de curriculum vitae testés sur le terrain.</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$F$1))"),"Setiap template dirancang dengan ahli dan mengikuti ""aturan resume"" yang tepat yang dicari oleh manajer. Menonjol dan dipekerjakan lebih cepat dengan templat resume yang telah teruji di lapangan.")</f>
+        <v>Setiap template dirancang dengan ahli dan mengikuti "aturan resume" yang tepat yang dicari oleh manajer. Menonjol dan dipekerjakan lebih cepat dengan templat resume yang telah teruji di lapangan.</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$G$1))"),"Ogni modello è progettato con competenza e segue le esatte ""REGOLE REGOLE"" che cercano i responsabili delle assunzioni. Distinguiti e fatti assumere più velocemente con modelli di curriculum testati sul campo.")</f>
+        <v>Ogni modello è progettato con competenza e segue le esatte "REGOLE REGOLE" che cercano i responsabili delle assunzioni. Distinguiti e fatti assumere più velocemente con modelli di curriculum testati sul campo.</v>
+      </c>
+      <c r="H11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$H$1))"),"各テンプレートは巧みに設計されており、正確な「ルール」マネージャーが探している採用者に従います。目立つと、フィールドテスト式の履歴書テンプレートを使用して、より速く雇われます。")</f>
+        <v>各テンプレートは巧みに設計されており、正確な「ルール」マネージャーが探している採用者に従います。目立つと、フィールドテスト式の履歴書テンプレートを使用して、より速く雇われます。</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$I$1))"),"각 템플릿은 전문적으로 설계되었으며 정확한 ""이력서 규칙""고용 관리자가 찾는 것입니다. 필드 테스트 이력서 템플릿으로 눈에 띄고 더 빨리 고용됩니다.")</f>
+        <v>각 템플릿은 전문적으로 설계되었으며 정확한 "이력서 규칙"고용 관리자가 찾는 것입니다. 필드 테스트 이력서 템플릿으로 눈에 띄고 더 빨리 고용됩니다.</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$J$1))"),"Cada modelo é projetado com habilidade e segue os gerentes exatos de contratação de ""Regras de retomar"". Destaque-se e seja contratado mais rápido com modelos de currículo testados em campo.")</f>
+        <v>Cada modelo é projetado com habilidade e segue os gerentes exatos de contratação de "Regras de retomar". Destaque-se e seja contratado mais rápido com modelos de currículo testados em campo.</v>
+      </c>
+      <c r="K11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$K$1))"),"Каждый шаблон искусно спроектирован и следует за точными менеджерами по найму «правил резюме». Выделитесь и нанимайте быстрее с проверенными на полевых шаблонах резюме.")</f>
+        <v>Каждый шаблон искусно спроектирован и следует за точными менеджерами по найму «правил резюме». Выделитесь и нанимайте быстрее с проверенными на полевых шаблонах резюме.</v>
+      </c>
+      <c r="L11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$L$1))"),"แต่ละเทมเพลตได้รับการออกแบบอย่างเชี่ยวชาญและติดตามผู้จัดการการจ้างงาน“ เรซูเม่” ที่แน่นอน โดดเด่นและได้รับการว่าจ้างเร็วขึ้นด้วยเทมเพลตเรซูเม่ที่ผ่านการทดสอบภาคสนาม")</f>
+        <v>แต่ละเทมเพลตได้รับการออกแบบอย่างเชี่ยวชาญและติดตามผู้จัดการการจ้างงาน“ เรซูเม่” ที่แน่นอน โดดเด่นและได้รับการว่าจ้างเร็วขึ้นด้วยเทมเพลตเรซูเม่ที่ผ่านการทดสอบภาคสนาม</v>
+      </c>
+      <c r="M11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$M$1))"),"Her şablon ustaca tasarlanmıştır ve işe alım yöneticilerinin aradığı “Özgeçmiş Kuralları” nı takip eder. Saha tarafından test edilmiş özgeçmiş şablonları ile öne çıkın ve daha hızlı işe alın.")</f>
+        <v>Her şablon ustaca tasarlanmıştır ve işe alım yöneticilerinin aradığı “Özgeçmiş Kuralları” nı takip eder. Saha tarafından test edilmiş özgeçmiş şablonları ile öne çıkın ve daha hızlı işe alın.</v>
+      </c>
+      <c r="N11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$N$1))"),"Mỗi mẫu được thiết kế một cách chuyên nghiệp và tuân theo các quy tắc sơ yếu lý lịch chính xác của các nhà quản lý tuyển dụng. Nổi bật và được thuê nhanh hơn với các mẫu sơ yếu lý lịch thử nghiệm trường.")</f>
+        <v>Mỗi mẫu được thiết kế một cách chuyên nghiệp và tuân theo các quy tắc sơ yếu lý lịch chính xác của các nhà quản lý tuyển dụng. Nổi bật và được thuê nhanh hơn với các mẫu sơ yếu lý lịch thử nghiệm trường.</v>
+      </c>
+      <c r="O11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$O$1))"),"每个模板都是专业设计的，并遵循确切的“简历规则”招聘经理的要求。脱颖而出，使用现场测试的简历模板更快地雇用。")</f>
+        <v>每个模板都是专业设计的，并遵循确切的“简历规则”招聘经理的要求。脱颖而出，使用现场测试的简历模板更快地雇用。</v>
+      </c>
+      <c r="P11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$P$1))"),"每個模板都是專業設計的，並遵循確切的“簡歷規則”招聘經理的要求。脫穎而出，使用現場測試的簡歷模板更快地僱用。")</f>
+        <v>每個模板都是專業設計的，並遵循確切的“簡歷規則”招聘經理的要求。脫穎而出，使用現場測試的簡歷模板更快地僱用。</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$C$1))"),"Arbeitspunkte einfache Lebenslaufvorlagen")</f>
+        <v>Arbeitspunkte einfache Lebenslaufvorlagen</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$D$1))"),"Plantillas de currículum simples ganadoras de trabajo")</f>
+        <v>Plantillas de currículum simples ganadoras de trabajo</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$E$1))"),"Modèles de CV simple gagnants")</f>
+        <v>Modèles de CV simple gagnants</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$F$1))"),"Template resume sederhana yang memenangkan pekerjaan")</f>
+        <v>Template resume sederhana yang memenangkan pekerjaan</v>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$G$1))"),"Modelli di curriculum semplici vincitori del lavoro")</f>
+        <v>Modelli di curriculum semplici vincitori del lavoro</v>
+      </c>
+      <c r="H12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$H$1))"),"就職活動中の単純な履歴書テンプレート")</f>
+        <v>就職活動中の単純な履歴書テンプレート</v>
+      </c>
+      <c r="I12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$I$1))"),"직업을 얻은 간단한 이력서 템플릿")</f>
+        <v>직업을 얻은 간단한 이력서 템플릿</v>
+      </c>
+      <c r="J12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$J$1))"),"Modelos de currículo simples vencedores de emprego")</f>
+        <v>Modelos de currículo simples vencedores de emprego</v>
+      </c>
+      <c r="K12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$K$1))"),"Простые шаблоны, удостоенные работы")</f>
+        <v>Простые шаблоны, удостоенные работы</v>
+      </c>
+      <c r="L12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$L$1))"),"เทมเพลตเรซูเม่แบบง่าย ๆ ที่ได้รับรางวัลงาน")</f>
+        <v>เทมเพลตเรซูเม่แบบง่าย ๆ ที่ได้รับรางวัลงาน</v>
+      </c>
+      <c r="M12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$M$1))"),"İş kazanan basit özgeçmiş şablonları")</f>
+        <v>İş kazanan basit özgeçmiş şablonları</v>
+      </c>
+      <c r="N12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$N$1))"),"Mẫu sơ yếu lý lịch đơn giản giành được công việc")</f>
+        <v>Mẫu sơ yếu lý lịch đơn giản giành được công việc</v>
+      </c>
+      <c r="O12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$O$1))"),"赢得工作简单简历模板")</f>
+        <v>赢得工作简单简历模板</v>
+      </c>
+      <c r="P12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$P$1))"),"贏得工作簡單簡歷模板")</f>
+        <v>贏得工作簡單簡歷模板</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$C$1))"),"Jede Vorlage ist fachmännisch gestaltet und folgt den genauen Einstellungsmanagern „Lebenslaufregeln“. Stechen Sie heraus und lassen Sie sich schneller mit Feldvorlagen mit Feldnahrungsläufen einstellen.")</f>
+        <v>Jede Vorlage ist fachmännisch gestaltet und folgt den genauen Einstellungsmanagern „Lebenslaufregeln“. Stechen Sie heraus und lassen Sie sich schneller mit Feldvorlagen mit Feldnahrungsläufen einstellen.</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$D$1))"),"Cada plantilla está diseñada por expertos y sigue las ""reglas de reanudación"" exacta que buscan los gerentes. Destaca y es contratado más rápido con plantillas de currículum probadas en campo.")</f>
+        <v>Cada plantilla está diseñada por expertos y sigue las "reglas de reanudación" exacta que buscan los gerentes. Destaca y es contratado más rápido con plantillas de currículum probadas en campo.</v>
+      </c>
+      <c r="E13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$E$1))"),"Chaque modèle est conçu de manière experte et suit les «règles de curriculum vitae», les gestionnaires d'embauche exacts recherchent. Se démarquez et soyez embauché plus rapidement avec des modèles de curriculum vitae testés sur le terrain.")</f>
+        <v>Chaque modèle est conçu de manière experte et suit les «règles de curriculum vitae», les gestionnaires d'embauche exacts recherchent. Se démarquez et soyez embauché plus rapidement avec des modèles de curriculum vitae testés sur le terrain.</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$F$1))"),"Setiap template dirancang dengan ahli dan mengikuti ""aturan resume"" yang tepat yang dicari oleh manajer. Menonjol dan dipekerjakan lebih cepat dengan templat resume yang telah teruji di lapangan.")</f>
+        <v>Setiap template dirancang dengan ahli dan mengikuti "aturan resume" yang tepat yang dicari oleh manajer. Menonjol dan dipekerjakan lebih cepat dengan templat resume yang telah teruji di lapangan.</v>
+      </c>
+      <c r="G13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$G$1))"),"Ogni modello è progettato con competenza e segue le esatte ""REGOLE REGOLE"" che cercano i responsabili delle assunzioni. Distinguiti e fatti assumere più velocemente con modelli di curriculum testati sul campo.")</f>
+        <v>Ogni modello è progettato con competenza e segue le esatte "REGOLE REGOLE" che cercano i responsabili delle assunzioni. Distinguiti e fatti assumere più velocemente con modelli di curriculum testati sul campo.</v>
+      </c>
+      <c r="H13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$H$1))"),"各テンプレートは巧みに設計されており、正確な「ルール」マネージャーが探している採用者に従います。目立つと、フィールドテスト式の履歴書テンプレートを使用して、より速く雇われます。")</f>
+        <v>各テンプレートは巧みに設計されており、正確な「ルール」マネージャーが探している採用者に従います。目立つと、フィールドテスト式の履歴書テンプレートを使用して、より速く雇われます。</v>
+      </c>
+      <c r="I13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$I$1))"),"각 템플릿은 전문적으로 설계되었으며 정확한 ""이력서 규칙""고용 관리자가 찾는 것입니다. 필드 테스트 이력서 템플릿으로 눈에 띄고 더 빨리 고용됩니다.")</f>
+        <v>각 템플릿은 전문적으로 설계되었으며 정확한 "이력서 규칙"고용 관리자가 찾는 것입니다. 필드 테스트 이력서 템플릿으로 눈에 띄고 더 빨리 고용됩니다.</v>
+      </c>
+      <c r="J13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$J$1))"),"Cada modelo é projetado com habilidade e segue os gerentes exatos de contratação de ""Regras de retomar"". Destaque-se e seja contratado mais rápido com modelos de currículo testados em campo.")</f>
+        <v>Cada modelo é projetado com habilidade e segue os gerentes exatos de contratação de "Regras de retomar". Destaque-se e seja contratado mais rápido com modelos de currículo testados em campo.</v>
+      </c>
+      <c r="K13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$K$1))"),"Каждый шаблон искусно спроектирован и следует за точными менеджерами по найму «правил резюме». Выделитесь и нанимайте быстрее с проверенными на полевых шаблонах резюме.")</f>
+        <v>Каждый шаблон искусно спроектирован и следует за точными менеджерами по найму «правил резюме». Выделитесь и нанимайте быстрее с проверенными на полевых шаблонах резюме.</v>
+      </c>
+      <c r="L13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$L$1))"),"แต่ละเทมเพลตได้รับการออกแบบอย่างเชี่ยวชาญและติดตามผู้จัดการการจ้างงาน“ เรซูเม่” ที่แน่นอน โดดเด่นและได้รับการว่าจ้างเร็วขึ้นด้วยเทมเพลตเรซูเม่ที่ผ่านการทดสอบภาคสนาม")</f>
+        <v>แต่ละเทมเพลตได้รับการออกแบบอย่างเชี่ยวชาญและติดตามผู้จัดการการจ้างงาน“ เรซูเม่” ที่แน่นอน โดดเด่นและได้รับการว่าจ้างเร็วขึ้นด้วยเทมเพลตเรซูเม่ที่ผ่านการทดสอบภาคสนาม</v>
+      </c>
+      <c r="M13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$M$1))"),"Her şablon ustaca tasarlanmıştır ve işe alım yöneticilerinin aradığı “Özgeçmiş Kuralları” nı takip eder. Saha tarafından test edilmiş özgeçmiş şablonları ile öne çıkın ve daha hızlı işe alın.")</f>
+        <v>Her şablon ustaca tasarlanmıştır ve işe alım yöneticilerinin aradığı “Özgeçmiş Kuralları” nı takip eder. Saha tarafından test edilmiş özgeçmiş şablonları ile öne çıkın ve daha hızlı işe alın.</v>
+      </c>
+      <c r="N13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$N$1))"),"Mỗi mẫu được thiết kế một cách chuyên nghiệp và tuân theo các quy tắc sơ yếu lý lịch chính xác của các nhà quản lý tuyển dụng. Nổi bật và được thuê nhanh hơn với các mẫu sơ yếu lý lịch thử nghiệm trường.")</f>
+        <v>Mỗi mẫu được thiết kế một cách chuyên nghiệp và tuân theo các quy tắc sơ yếu lý lịch chính xác của các nhà quản lý tuyển dụng. Nổi bật và được thuê nhanh hơn với các mẫu sơ yếu lý lịch thử nghiệm trường.</v>
+      </c>
+      <c r="O13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$O$1))"),"每个模板都是专业设计的，并遵循确切的“简历规则”招聘经理的要求。脱颖而出，使用现场测试的简历模板更快地雇用。")</f>
+        <v>每个模板都是专业设计的，并遵循确切的“简历规则”招聘经理的要求。脱颖而出，使用现场测试的简历模板更快地雇用。</v>
+      </c>
+      <c r="P13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$P$1))"),"每個模板都是專業設計的，並遵循確切的“簡歷規則”招聘經理的要求。脫穎而出，使用現場測試的簡歷模板更快地僱用。")</f>
+        <v>每個模板都是專業設計的，並遵循確切的“簡歷規則”招聘經理的要求。脫穎而出，使用現場測試的簡歷模板更快地僱用。</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$C$1))"),"Berufsgekrönte professionelle Lebenslaufvorlagen")</f>
+        <v>Berufsgekrönte professionelle Lebenslaufvorlagen</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$D$1))"),"Plantillas de currículum vitae profesional ganadoras de empleo")</f>
+        <v>Plantillas de currículum vitae profesional ganadoras de empleo</v>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$E$1))"),"Modèles de CV professionnels gagnants")</f>
+        <v>Modèles de CV professionnels gagnants</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$F$1))"),"Template resume profesional pemenang pekerjaan")</f>
+        <v>Template resume profesional pemenang pekerjaan</v>
+      </c>
+      <c r="G14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$G$1))"),"Modelli di curriculum professionisti vincitori di lavoro")</f>
+        <v>Modelli di curriculum professionisti vincitori di lavoro</v>
+      </c>
+      <c r="H14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$H$1))"),"就職活動中のプロの履歴書テンプレート")</f>
+        <v>就職活動中のプロの履歴書テンプレート</v>
+      </c>
+      <c r="I14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$I$1))"),"직업을 얻은 전문 이력서 템플릿")</f>
+        <v>직업을 얻은 전문 이력서 템플릿</v>
+      </c>
+      <c r="J14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$J$1))"),"Modelos de currículo profissional vencedor de empregos")</f>
+        <v>Modelos de currículo profissional vencedor de empregos</v>
+      </c>
+      <c r="K14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$K$1))"),"Завоеванные рабочие профессиональные шаблоны резюме")</f>
+        <v>Завоеванные рабочие профессиональные шаблоны резюме</v>
+      </c>
+      <c r="L14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$L$1))"),"เทมเพลตเรซูเม่มืออาชีพที่ชนะงาน")</f>
+        <v>เทมเพลตเรซูเม่มืออาชีพที่ชนะงาน</v>
+      </c>
+      <c r="M14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$M$1))"),"İş kazanan profesyonel özgeçmiş şablonları")</f>
+        <v>İş kazanan profesyonel özgeçmiş şablonları</v>
+      </c>
+      <c r="N14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$N$1))"),"Mẫu sơ yếu lý lịch chuyên nghiệp giành được công việc")</f>
+        <v>Mẫu sơ yếu lý lịch chuyên nghiệp giành được công việc</v>
+      </c>
+      <c r="O14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$O$1))"),"赢得职业的专业简历模板")</f>
+        <v>赢得职业的专业简历模板</v>
+      </c>
+      <c r="P14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$P$1))"),"贏得職業的專業簡歷模板")</f>
+        <v>贏得職業的專業簡歷模板</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$C$1))"),"Jede Vorlage ist fachmännisch gestaltet und folgt den genauen Einstellungsmanagern „Lebenslaufregeln“. Stechen Sie heraus und lassen Sie sich schneller mit Feldvorlagen mit Feldnahrungsläufen einstellen.")</f>
+        <v>Jede Vorlage ist fachmännisch gestaltet und folgt den genauen Einstellungsmanagern „Lebenslaufregeln“. Stechen Sie heraus und lassen Sie sich schneller mit Feldvorlagen mit Feldnahrungsläufen einstellen.</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$D$1))"),"Cada plantilla está diseñada por expertos y sigue las ""reglas de reanudación"" exacta que buscan los gerentes. Destaca y es contratado más rápido con plantillas de currículum probadas en campo.")</f>
+        <v>Cada plantilla está diseñada por expertos y sigue las "reglas de reanudación" exacta que buscan los gerentes. Destaca y es contratado más rápido con plantillas de currículum probadas en campo.</v>
+      </c>
+      <c r="E15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$E$1))"),"Chaque modèle est conçu de manière experte et suit les «règles de curriculum vitae», les gestionnaires d'embauche exacts recherchent. Se démarquez et soyez embauché plus rapidement avec des modèles de curriculum vitae testés sur le terrain.")</f>
+        <v>Chaque modèle est conçu de manière experte et suit les «règles de curriculum vitae», les gestionnaires d'embauche exacts recherchent. Se démarquez et soyez embauché plus rapidement avec des modèles de curriculum vitae testés sur le terrain.</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$F$1))"),"Setiap template dirancang dengan ahli dan mengikuti ""aturan resume"" yang tepat yang dicari oleh manajer. Menonjol dan dipekerjakan lebih cepat dengan templat resume yang telah teruji di lapangan.")</f>
+        <v>Setiap template dirancang dengan ahli dan mengikuti "aturan resume" yang tepat yang dicari oleh manajer. Menonjol dan dipekerjakan lebih cepat dengan templat resume yang telah teruji di lapangan.</v>
+      </c>
+      <c r="G15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$G$1))"),"Ogni modello è progettato con competenza e segue le esatte ""REGOLE REGOLE"" che cercano i responsabili delle assunzioni. Distinguiti e fatti assumere più velocemente con modelli di curriculum testati sul campo.")</f>
+        <v>Ogni modello è progettato con competenza e segue le esatte "REGOLE REGOLE" che cercano i responsabili delle assunzioni. Distinguiti e fatti assumere più velocemente con modelli di curriculum testati sul campo.</v>
+      </c>
+      <c r="H15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$H$1))"),"各テンプレートは巧みに設計されており、正確な「ルール」マネージャーが探している採用者に従います。目立つと、フィールドテスト式の履歴書テンプレートを使用して、より速く雇われます。")</f>
+        <v>各テンプレートは巧みに設計されており、正確な「ルール」マネージャーが探している採用者に従います。目立つと、フィールドテスト式の履歴書テンプレートを使用して、より速く雇われます。</v>
+      </c>
+      <c r="I15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$I$1))"),"각 템플릿은 전문적으로 설계되었으며 정확한 ""이력서 규칙""고용 관리자가 찾는 것입니다. 필드 테스트 이력서 템플릿으로 눈에 띄고 더 빨리 고용됩니다.")</f>
+        <v>각 템플릿은 전문적으로 설계되었으며 정확한 "이력서 규칙"고용 관리자가 찾는 것입니다. 필드 테스트 이력서 템플릿으로 눈에 띄고 더 빨리 고용됩니다.</v>
+      </c>
+      <c r="J15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$J$1))"),"Cada modelo é projetado com habilidade e segue os gerentes exatos de contratação de ""Regras de retomar"". Destaque-se e seja contratado mais rápido com modelos de currículo testados em campo.")</f>
+        <v>Cada modelo é projetado com habilidade e segue os gerentes exatos de contratação de "Regras de retomar". Destaque-se e seja contratado mais rápido com modelos de currículo testados em campo.</v>
+      </c>
+      <c r="K15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$K$1))"),"Каждый шаблон искусно спроектирован и следует за точными менеджерами по найму «правил резюме». Выделитесь и нанимайте быстрее с проверенными на полевых шаблонах резюме.")</f>
+        <v>Каждый шаблон искусно спроектирован и следует за точными менеджерами по найму «правил резюме». Выделитесь и нанимайте быстрее с проверенными на полевых шаблонах резюме.</v>
+      </c>
+      <c r="L15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$L$1))"),"แต่ละเทมเพลตได้รับการออกแบบอย่างเชี่ยวชาญและติดตามผู้จัดการการจ้างงาน“ เรซูเม่” ที่แน่นอน โดดเด่นและได้รับการว่าจ้างเร็วขึ้นด้วยเทมเพลตเรซูเม่ที่ผ่านการทดสอบภาคสนาม")</f>
+        <v>แต่ละเทมเพลตได้รับการออกแบบอย่างเชี่ยวชาญและติดตามผู้จัดการการจ้างงาน“ เรซูเม่” ที่แน่นอน โดดเด่นและได้รับการว่าจ้างเร็วขึ้นด้วยเทมเพลตเรซูเม่ที่ผ่านการทดสอบภาคสนาม</v>
+      </c>
+      <c r="M15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$M$1))"),"Her şablon ustaca tasarlanmıştır ve işe alım yöneticilerinin aradığı “Özgeçmiş Kuralları” nı takip eder. Saha tarafından test edilmiş özgeçmiş şablonları ile öne çıkın ve daha hızlı işe alın.")</f>
+        <v>Her şablon ustaca tasarlanmıştır ve işe alım yöneticilerinin aradığı “Özgeçmiş Kuralları” nı takip eder. Saha tarafından test edilmiş özgeçmiş şablonları ile öne çıkın ve daha hızlı işe alın.</v>
+      </c>
+      <c r="N15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$N$1))"),"Mỗi mẫu được thiết kế một cách chuyên nghiệp và tuân theo các quy tắc sơ yếu lý lịch chính xác của các nhà quản lý tuyển dụng. Nổi bật và được thuê nhanh hơn với các mẫu sơ yếu lý lịch thử nghiệm trường.")</f>
+        <v>Mỗi mẫu được thiết kế một cách chuyên nghiệp và tuân theo các quy tắc sơ yếu lý lịch chính xác của các nhà quản lý tuyển dụng. Nổi bật và được thuê nhanh hơn với các mẫu sơ yếu lý lịch thử nghiệm trường.</v>
+      </c>
+      <c r="O15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$O$1))"),"每个模板都是专业设计的，并遵循确切的“简历规则”招聘经理的要求。脱颖而出，使用现场测试的简历模板更快地雇用。")</f>
+        <v>每个模板都是专业设计的，并遵循确切的“简历规则”招聘经理的要求。脱颖而出，使用现场测试的简历模板更快地雇用。</v>
+      </c>
+      <c r="P15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$P$1))"),"每個模板都是專業設計的，並遵循確切的“簡歷規則”招聘經理的要求。脫穎而出，使用現場測試的簡歷模板更快地僱用。")</f>
+        <v>每個模板都是專業設計的，並遵循確切的“簡歷規則”招聘經理的要求。脫穎而出，使用現場測試的簡歷模板更快地僱用。</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$C$1))"),"Jobs mit dem Arbeitsplatz mit modernen Lebenslaufvorlagen")</f>
+        <v>Jobs mit dem Arbeitsplatz mit modernen Lebenslaufvorlagen</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$D$1))"),"Plantillas de currículum modernas ganadoras de empleo")</f>
+        <v>Plantillas de currículum modernas ganadoras de empleo</v>
+      </c>
+      <c r="E16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$E$1))"),"Modèles de CV modernes gagnants")</f>
+        <v>Modèles de CV modernes gagnants</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$F$1))"),"Template resume modern pemenang pekerjaan")</f>
+        <v>Template resume modern pemenang pekerjaan</v>
+      </c>
+      <c r="G16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$G$1))"),"Modelli di curriculum moderni vincitori di lavoro")</f>
+        <v>Modelli di curriculum moderni vincitori di lavoro</v>
+      </c>
+      <c r="H16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$H$1))"),"就職活動中の最新の履歴書テンプレート")</f>
+        <v>就職活動中の最新の履歴書テンプレート</v>
+      </c>
+      <c r="I16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$I$1))"),"직업을 얻는 현대 이력서 템플릿")</f>
+        <v>직업을 얻는 현대 이력서 템플릿</v>
+      </c>
+      <c r="J16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$J$1))"),"Modelos de currículo modernos vencedores")</f>
+        <v>Modelos de currículo modernos vencedores</v>
+      </c>
+      <c r="K16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$K$1))"),"Завоеванные работы современные шаблоны резюме")</f>
+        <v>Завоеванные работы современные шаблоны резюме</v>
+      </c>
+      <c r="L16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$L$1))"),"เทมเพลตเรซูเม่ที่ทันสมัยที่ได้รับรางวัลงาน")</f>
+        <v>เทมเพลตเรซูเม่ที่ทันสมัยที่ได้รับรางวัลงาน</v>
+      </c>
+      <c r="M16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$M$1))"),"İş kazanan modern özgeçmiş şablonları")</f>
+        <v>İş kazanan modern özgeçmiş şablonları</v>
+      </c>
+      <c r="N16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$N$1))"),"Mẫu sơ yếu lý lịch hiện đại giành được công việc")</f>
+        <v>Mẫu sơ yếu lý lịch hiện đại giành được công việc</v>
+      </c>
+      <c r="O16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$O$1))"),"赢得工作的现代简历模板")</f>
+        <v>赢得工作的现代简历模板</v>
+      </c>
+      <c r="P16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$P$1))"),"贏得工作的現代簡歷模板")</f>
+        <v>贏得工作的現代簡歷模板</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$C$1))"),"Jede Vorlage ist fachmännisch gestaltet und folgt den genauen Einstellungsmanagern „Lebenslaufregeln“. Stechen Sie heraus und lassen Sie sich schneller mit Feldvorlagen mit Feldnahrungsläufen einstellen.")</f>
+        <v>Jede Vorlage ist fachmännisch gestaltet und folgt den genauen Einstellungsmanagern „Lebenslaufregeln“. Stechen Sie heraus und lassen Sie sich schneller mit Feldvorlagen mit Feldnahrungsläufen einstellen.</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$D$1))"),"Cada plantilla está diseñada por expertos y sigue las ""reglas de reanudación"" exacta que buscan los gerentes. Destaca y es contratado más rápido con plantillas de currículum probadas en campo.")</f>
+        <v>Cada plantilla está diseñada por expertos y sigue las "reglas de reanudación" exacta que buscan los gerentes. Destaca y es contratado más rápido con plantillas de currículum probadas en campo.</v>
+      </c>
+      <c r="E17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$E$1))"),"Chaque modèle est conçu de manière experte et suit les «règles de curriculum vitae», les gestionnaires d'embauche exacts recherchent. Se démarquez et soyez embauché plus rapidement avec des modèles de curriculum vitae testés sur le terrain.")</f>
+        <v>Chaque modèle est conçu de manière experte et suit les «règles de curriculum vitae», les gestionnaires d'embauche exacts recherchent. Se démarquez et soyez embauché plus rapidement avec des modèles de curriculum vitae testés sur le terrain.</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$F$1))"),"Setiap template dirancang dengan ahli dan mengikuti ""aturan resume"" yang tepat yang dicari oleh manajer. Menonjol dan dipekerjakan lebih cepat dengan templat resume yang telah teruji di lapangan.")</f>
+        <v>Setiap template dirancang dengan ahli dan mengikuti "aturan resume" yang tepat yang dicari oleh manajer. Menonjol dan dipekerjakan lebih cepat dengan templat resume yang telah teruji di lapangan.</v>
+      </c>
+      <c r="G17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$G$1))"),"Ogni modello è progettato con competenza e segue le esatte ""REGOLE REGOLE"" che cercano i responsabili delle assunzioni. Distinguiti e fatti assumere più velocemente con modelli di curriculum testati sul campo.")</f>
+        <v>Ogni modello è progettato con competenza e segue le esatte "REGOLE REGOLE" che cercano i responsabili delle assunzioni. Distinguiti e fatti assumere più velocemente con modelli di curriculum testati sul campo.</v>
+      </c>
+      <c r="H17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$H$1))"),"各テンプレートは巧みに設計されており、正確な「ルール」マネージャーが探している採用者に従います。目立つと、フィールドテスト式の履歴書テンプレートを使用して、より速く雇われます。")</f>
+        <v>各テンプレートは巧みに設計されており、正確な「ルール」マネージャーが探している採用者に従います。目立つと、フィールドテスト式の履歴書テンプレートを使用して、より速く雇われます。</v>
+      </c>
+      <c r="I17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$I$1))"),"각 템플릿은 전문적으로 설계되었으며 정확한 ""이력서 규칙""고용 관리자가 찾는 것입니다. 필드 테스트 이력서 템플릿으로 눈에 띄고 더 빨리 고용됩니다.")</f>
+        <v>각 템플릿은 전문적으로 설계되었으며 정확한 "이력서 규칙"고용 관리자가 찾는 것입니다. 필드 테스트 이력서 템플릿으로 눈에 띄고 더 빨리 고용됩니다.</v>
+      </c>
+      <c r="J17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$J$1))"),"Cada modelo é projetado com habilidade e segue os gerentes exatos de contratação de ""Regras de retomar"". Destaque-se e seja contratado mais rápido com modelos de currículo testados em campo.")</f>
+        <v>Cada modelo é projetado com habilidade e segue os gerentes exatos de contratação de "Regras de retomar". Destaque-se e seja contratado mais rápido com modelos de currículo testados em campo.</v>
+      </c>
+      <c r="K17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$K$1))"),"Каждый шаблон искусно спроектирован и следует за точными менеджерами по найму «правил резюме». Выделитесь и нанимайте быстрее с проверенными на полевых шаблонах резюме.")</f>
+        <v>Каждый шаблон искусно спроектирован и следует за точными менеджерами по найму «правил резюме». Выделитесь и нанимайте быстрее с проверенными на полевых шаблонах резюме.</v>
+      </c>
+      <c r="L17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$L$1))"),"แต่ละเทมเพลตได้รับการออกแบบอย่างเชี่ยวชาญและติดตามผู้จัดการการจ้างงาน“ เรซูเม่” ที่แน่นอน โดดเด่นและได้รับการว่าจ้างเร็วขึ้นด้วยเทมเพลตเรซูเม่ที่ผ่านการทดสอบภาคสนาม")</f>
+        <v>แต่ละเทมเพลตได้รับการออกแบบอย่างเชี่ยวชาญและติดตามผู้จัดการการจ้างงาน“ เรซูเม่” ที่แน่นอน โดดเด่นและได้รับการว่าจ้างเร็วขึ้นด้วยเทมเพลตเรซูเม่ที่ผ่านการทดสอบภาคสนาม</v>
+      </c>
+      <c r="M17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$M$1))"),"Her şablon ustaca tasarlanmıştır ve işe alım yöneticilerinin aradığı “Özgeçmiş Kuralları” nı takip eder. Saha tarafından test edilmiş özgeçmiş şablonları ile öne çıkın ve daha hızlı işe alın.")</f>
+        <v>Her şablon ustaca tasarlanmıştır ve işe alım yöneticilerinin aradığı “Özgeçmiş Kuralları” nı takip eder. Saha tarafından test edilmiş özgeçmiş şablonları ile öne çıkın ve daha hızlı işe alın.</v>
+      </c>
+      <c r="N17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$N$1))"),"Mỗi mẫu được thiết kế một cách chuyên nghiệp và tuân theo các quy tắc sơ yếu lý lịch chính xác của các nhà quản lý tuyển dụng. Nổi bật và được thuê nhanh hơn với các mẫu sơ yếu lý lịch thử nghiệm trường.")</f>
+        <v>Mỗi mẫu được thiết kế một cách chuyên nghiệp và tuân theo các quy tắc sơ yếu lý lịch chính xác của các nhà quản lý tuyển dụng. Nổi bật và được thuê nhanh hơn với các mẫu sơ yếu lý lịch thử nghiệm trường.</v>
+      </c>
+      <c r="O17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$O$1))"),"每个模板都是专业设计的，并遵循确切的“简历规则”招聘经理的要求。脱颖而出，使用现场测试的简历模板更快地雇用。")</f>
+        <v>每个模板都是专业设计的，并遵循确切的“简历规则”招聘经理的要求。脱颖而出，使用现场测试的简历模板更快地雇用。</v>
+      </c>
+      <c r="P17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$P$1))"),"每個模板都是專業設計的，並遵循確切的“簡歷規則”招聘經理的要求。脫穎而出，使用現場測試的簡歷模板更快地僱用。")</f>
+        <v>每個模板都是專業設計的，並遵循確切的“簡歷規則”招聘經理的要求。脫穎而出，使用現場測試的簡歷模板更快地僱用。</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="14"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="14"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="14"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="14"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="14"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="14"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="14"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="14"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="14"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="14"/>
+    </row>
+    <row r="28">
+      <c r="B28" s="14"/>
+    </row>
+    <row r="29">
+      <c r="B29" s="14"/>
+    </row>
+    <row r="30">
+      <c r="B30" s="14"/>
+    </row>
+    <row r="31">
+      <c r="B31" s="14"/>
+    </row>
+    <row r="32">
+      <c r="B32" s="14"/>
+    </row>
+    <row r="33">
+      <c r="B33" s="14"/>
+    </row>
+    <row r="34">
+      <c r="B34" s="14"/>
+    </row>
+    <row r="35">
+      <c r="B35" s="14"/>
+    </row>
+    <row r="36">
+      <c r="B36" s="14"/>
+    </row>
+    <row r="37">
+      <c r="B37" s="14"/>
+    </row>
+    <row r="38">
+      <c r="B38" s="14"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="14"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="14"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="14"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="14"/>
+    </row>
+    <row r="43">
+      <c r="B43" s="14"/>
+    </row>
+    <row r="44">
+      <c r="B44" s="14"/>
+    </row>
+    <row r="45">
+      <c r="B45" s="14"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="14"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="14"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="14"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="14"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="14"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="14"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="14"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="14"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="14"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="14"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="14"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="14"/>
+    </row>
+    <row r="58">
+      <c r="B58" s="14"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="14"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="14"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="14"/>
+    </row>
+    <row r="62">
+      <c r="B62" s="14"/>
+    </row>
+    <row r="63">
+      <c r="B63" s="14"/>
+    </row>
+    <row r="64">
+      <c r="B64" s="14"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="14"/>
+    </row>
+    <row r="66">
+      <c r="B66" s="14"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="14"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="14"/>
+    </row>
+    <row r="69">
+      <c r="B69" s="14"/>
+    </row>
+    <row r="70">
+      <c r="B70" s="14"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="14"/>
+    </row>
+    <row r="72">
+      <c r="B72" s="14"/>
+    </row>
+    <row r="73">
+      <c r="B73" s="14"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="14"/>
+    </row>
+    <row r="75">
+      <c r="B75" s="14"/>
+    </row>
+    <row r="76">
+      <c r="B76" s="14"/>
+    </row>
+    <row r="77">
+      <c r="B77" s="14"/>
+    </row>
+    <row r="78">
+      <c r="B78" s="14"/>
+    </row>
+    <row r="79">
+      <c r="B79" s="14"/>
+    </row>
+    <row r="80">
+      <c r="B80" s="14"/>
+    </row>
+    <row r="81">
+      <c r="B81" s="14"/>
+    </row>
+    <row r="82">
+      <c r="B82" s="14"/>
+    </row>
+    <row r="83">
+      <c r="B83" s="14"/>
+    </row>
+    <row r="84">
+      <c r="B84" s="14"/>
+    </row>
+    <row r="85">
+      <c r="B85" s="14"/>
+    </row>
+    <row r="86">
+      <c r="B86" s="14"/>
+    </row>
+    <row r="87">
+      <c r="B87" s="14"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="14"/>
+    </row>
+    <row r="89">
+      <c r="B89" s="14"/>
+    </row>
+    <row r="90">
+      <c r="B90" s="14"/>
+    </row>
+    <row r="91">
+      <c r="B91" s="14"/>
+    </row>
+    <row r="92">
+      <c r="B92" s="14"/>
+    </row>
+    <row r="93">
+      <c r="B93" s="14"/>
+    </row>
+    <row r="94">
+      <c r="B94" s="14"/>
+    </row>
+    <row r="95">
+      <c r="B95" s="14"/>
+    </row>
+    <row r="96">
+      <c r="B96" s="14"/>
+    </row>
+    <row r="97">
+      <c r="B97" s="14"/>
+    </row>
+    <row r="98">
+      <c r="B98" s="14"/>
+    </row>
+    <row r="99">
+      <c r="B99" s="14"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="14"/>
+    </row>
+    <row r="101">
+      <c r="B101" s="14"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="14"/>
+    </row>
+    <row r="103">
+      <c r="B103" s="14"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="14"/>
+    </row>
+    <row r="105">
+      <c r="B105" s="14"/>
+    </row>
+    <row r="106">
+      <c r="B106" s="14"/>
+    </row>
+    <row r="107">
+      <c r="B107" s="14"/>
+    </row>
+    <row r="108">
+      <c r="B108" s="14"/>
+    </row>
+    <row r="109">
+      <c r="B109" s="14"/>
+    </row>
+    <row r="110">
+      <c r="B110" s="14"/>
+    </row>
+    <row r="111">
+      <c r="B111" s="14"/>
+    </row>
+    <row r="112">
+      <c r="B112" s="14"/>
+    </row>
+    <row r="113">
+      <c r="B113" s="14"/>
+    </row>
+    <row r="114">
+      <c r="B114" s="14"/>
+    </row>
+    <row r="115">
+      <c r="B115" s="14"/>
+    </row>
+    <row r="116">
+      <c r="B116" s="14"/>
+    </row>
+    <row r="117">
+      <c r="B117" s="14"/>
+    </row>
+    <row r="118">
+      <c r="B118" s="14"/>
+    </row>
+    <row r="119">
+      <c r="B119" s="14"/>
+    </row>
+    <row r="120">
+      <c r="B120" s="14"/>
+    </row>
+    <row r="121">
+      <c r="B121" s="14"/>
+    </row>
+    <row r="122">
+      <c r="B122" s="14"/>
+    </row>
+    <row r="123">
+      <c r="B123" s="14"/>
+    </row>
+    <row r="124">
+      <c r="B124" s="14"/>
+    </row>
+    <row r="125">
+      <c r="B125" s="14"/>
+    </row>
+    <row r="126">
+      <c r="B126" s="14"/>
+    </row>
+    <row r="127">
+      <c r="B127" s="14"/>
+    </row>
+    <row r="128">
+      <c r="B128" s="14"/>
+    </row>
+    <row r="129">
+      <c r="B129" s="14"/>
+    </row>
+    <row r="130">
+      <c r="B130" s="14"/>
+    </row>
+    <row r="131">
+      <c r="B131" s="14"/>
+    </row>
+    <row r="132">
+      <c r="B132" s="14"/>
+    </row>
+    <row r="133">
+      <c r="B133" s="14"/>
+    </row>
+    <row r="134">
+      <c r="B134" s="14"/>
+    </row>
+    <row r="135">
+      <c r="B135" s="14"/>
+    </row>
+    <row r="136">
+      <c r="B136" s="14"/>
+    </row>
+    <row r="137">
+      <c r="B137" s="14"/>
+    </row>
+    <row r="138">
+      <c r="B138" s="14"/>
+    </row>
+    <row r="139">
+      <c r="B139" s="14"/>
+    </row>
+    <row r="140">
+      <c r="B140" s="14"/>
+    </row>
+    <row r="141">
+      <c r="B141" s="14"/>
+    </row>
+    <row r="142">
+      <c r="B142" s="14"/>
+    </row>
+    <row r="143">
+      <c r="B143" s="14"/>
+    </row>
+    <row r="144">
+      <c r="B144" s="14"/>
+    </row>
+    <row r="145">
+      <c r="B145" s="14"/>
+    </row>
+    <row r="146">
+      <c r="B146" s="14"/>
+    </row>
+    <row r="147">
+      <c r="B147" s="14"/>
+    </row>
+    <row r="148">
+      <c r="B148" s="14"/>
+    </row>
+    <row r="149">
+      <c r="B149" s="14"/>
+    </row>
+    <row r="150">
+      <c r="B150" s="14"/>
+    </row>
+    <row r="151">
+      <c r="B151" s="14"/>
+    </row>
+    <row r="152">
+      <c r="B152" s="14"/>
+    </row>
+    <row r="153">
+      <c r="B153" s="14"/>
+    </row>
+    <row r="154">
+      <c r="B154" s="14"/>
+    </row>
+    <row r="155">
+      <c r="B155" s="14"/>
+    </row>
+    <row r="156">
+      <c r="B156" s="14"/>
+    </row>
+    <row r="157">
+      <c r="B157" s="14"/>
+    </row>
+    <row r="158">
+      <c r="B158" s="14"/>
+    </row>
+    <row r="159">
+      <c r="B159" s="14"/>
+    </row>
+    <row r="160">
+      <c r="B160" s="14"/>
+    </row>
+    <row r="161">
+      <c r="B161" s="14"/>
+    </row>
+    <row r="162">
+      <c r="B162" s="14"/>
+    </row>
+    <row r="163">
+      <c r="B163" s="14"/>
+    </row>
+    <row r="164">
+      <c r="B164" s="14"/>
+    </row>
+    <row r="165">
+      <c r="B165" s="14"/>
+    </row>
+    <row r="166">
+      <c r="B166" s="14"/>
+    </row>
+    <row r="167">
+      <c r="B167" s="14"/>
+    </row>
+    <row r="168">
+      <c r="B168" s="14"/>
+    </row>
+    <row r="169">
+      <c r="B169" s="14"/>
+    </row>
+    <row r="170">
+      <c r="B170" s="14"/>
+    </row>
+    <row r="171">
+      <c r="B171" s="14"/>
+    </row>
+    <row r="172">
+      <c r="B172" s="14"/>
+    </row>
+    <row r="173">
+      <c r="B173" s="14"/>
+    </row>
+    <row r="174">
+      <c r="B174" s="14"/>
+    </row>
+    <row r="175">
+      <c r="B175" s="14"/>
+    </row>
+    <row r="176">
+      <c r="B176" s="14"/>
+    </row>
+    <row r="177">
+      <c r="B177" s="14"/>
+    </row>
+    <row r="178">
+      <c r="B178" s="14"/>
+    </row>
+    <row r="179">
+      <c r="B179" s="14"/>
+    </row>
+    <row r="180">
+      <c r="B180" s="14"/>
+    </row>
+    <row r="181">
+      <c r="B181" s="14"/>
+    </row>
+    <row r="182">
+      <c r="B182" s="14"/>
+    </row>
+    <row r="183">
+      <c r="B183" s="14"/>
+    </row>
+    <row r="184">
+      <c r="B184" s="14"/>
+    </row>
+    <row r="185">
+      <c r="B185" s="14"/>
+    </row>
+    <row r="186">
+      <c r="B186" s="14"/>
+    </row>
+    <row r="187">
+      <c r="B187" s="14"/>
+    </row>
+    <row r="188">
+      <c r="B188" s="14"/>
+    </row>
+    <row r="189">
+      <c r="B189" s="14"/>
+    </row>
+    <row r="190">
+      <c r="B190" s="14"/>
+    </row>
+    <row r="191">
+      <c r="B191" s="14"/>
+    </row>
+    <row r="192">
+      <c r="B192" s="14"/>
+    </row>
+    <row r="193">
+      <c r="B193" s="14"/>
+    </row>
+    <row r="194">
+      <c r="B194" s="14"/>
+    </row>
+    <row r="195">
+      <c r="B195" s="14"/>
+    </row>
+    <row r="196">
+      <c r="B196" s="14"/>
+    </row>
+    <row r="197">
+      <c r="B197" s="14"/>
+    </row>
+    <row r="198">
+      <c r="B198" s="14"/>
+    </row>
+    <row r="199">
+      <c r="B199" s="14"/>
+    </row>
+    <row r="200">
+      <c r="B200" s="14"/>
+    </row>
+    <row r="201">
+      <c r="B201" s="14"/>
+    </row>
+    <row r="202">
+      <c r="B202" s="14"/>
+    </row>
+    <row r="203">
+      <c r="B203" s="14"/>
+    </row>
+    <row r="204">
+      <c r="B204" s="14"/>
+    </row>
+    <row r="205">
+      <c r="B205" s="14"/>
+    </row>
+    <row r="206">
+      <c r="B206" s="14"/>
+    </row>
+    <row r="207">
+      <c r="B207" s="14"/>
+    </row>
+    <row r="208">
+      <c r="B208" s="14"/>
+    </row>
+    <row r="209">
+      <c r="B209" s="14"/>
+    </row>
+    <row r="210">
+      <c r="B210" s="14"/>
+    </row>
+    <row r="211">
+      <c r="B211" s="14"/>
+    </row>
+    <row r="212">
+      <c r="B212" s="14"/>
+    </row>
+    <row r="213">
+      <c r="B213" s="14"/>
+    </row>
+    <row r="214">
+      <c r="B214" s="14"/>
+    </row>
+    <row r="215">
+      <c r="B215" s="14"/>
+    </row>
+    <row r="216">
+      <c r="B216" s="14"/>
+    </row>
+    <row r="217">
+      <c r="B217" s="14"/>
+    </row>
+    <row r="218">
+      <c r="B218" s="14"/>
+    </row>
+    <row r="219">
+      <c r="B219" s="14"/>
+    </row>
+    <row r="220">
+      <c r="B220" s="14"/>
+    </row>
+    <row r="221">
+      <c r="B221" s="14"/>
+    </row>
+    <row r="222">
+      <c r="B222" s="14"/>
+    </row>
+    <row r="223">
+      <c r="B223" s="14"/>
+    </row>
+    <row r="224">
+      <c r="B224" s="14"/>
+    </row>
+    <row r="225">
+      <c r="B225" s="14"/>
+    </row>
+    <row r="226">
+      <c r="B226" s="14"/>
+    </row>
+    <row r="227">
+      <c r="B227" s="14"/>
+    </row>
+    <row r="228">
+      <c r="B228" s="14"/>
+    </row>
+    <row r="229">
+      <c r="B229" s="14"/>
+    </row>
+    <row r="230">
+      <c r="B230" s="14"/>
+    </row>
+    <row r="231">
+      <c r="B231" s="14"/>
+    </row>
+    <row r="232">
+      <c r="B232" s="14"/>
+    </row>
+    <row r="233">
+      <c r="B233" s="14"/>
+    </row>
+    <row r="234">
+      <c r="B234" s="14"/>
+    </row>
+    <row r="235">
+      <c r="B235" s="14"/>
+    </row>
+    <row r="236">
+      <c r="B236" s="14"/>
+    </row>
+    <row r="237">
+      <c r="B237" s="14"/>
+    </row>
+    <row r="238">
+      <c r="B238" s="14"/>
+    </row>
+    <row r="239">
+      <c r="B239" s="14"/>
+    </row>
+    <row r="240">
+      <c r="B240" s="14"/>
+    </row>
+    <row r="241">
+      <c r="B241" s="14"/>
+    </row>
+    <row r="242">
+      <c r="B242" s="14"/>
+    </row>
+    <row r="243">
+      <c r="B243" s="14"/>
+    </row>
+    <row r="244">
+      <c r="B244" s="14"/>
+    </row>
+    <row r="245">
+      <c r="B245" s="14"/>
+    </row>
+    <row r="246">
+      <c r="B246" s="14"/>
+    </row>
+    <row r="247">
+      <c r="B247" s="14"/>
+    </row>
+    <row r="248">
+      <c r="B248" s="14"/>
+    </row>
+    <row r="249">
+      <c r="B249" s="14"/>
+    </row>
+    <row r="250">
+      <c r="B250" s="14"/>
+    </row>
+    <row r="251">
+      <c r="B251" s="14"/>
+    </row>
+    <row r="252">
+      <c r="B252" s="14"/>
+    </row>
+    <row r="253">
+      <c r="B253" s="14"/>
+    </row>
+    <row r="254">
+      <c r="B254" s="14"/>
+    </row>
+    <row r="255">
+      <c r="B255" s="14"/>
+    </row>
+    <row r="256">
+      <c r="B256" s="14"/>
+    </row>
+    <row r="257">
+      <c r="B257" s="14"/>
+    </row>
+    <row r="258">
+      <c r="B258" s="14"/>
+    </row>
+    <row r="259">
+      <c r="B259" s="14"/>
+    </row>
+    <row r="260">
+      <c r="B260" s="14"/>
+    </row>
+    <row r="261">
+      <c r="B261" s="14"/>
+    </row>
+    <row r="262">
+      <c r="B262" s="14"/>
+    </row>
+    <row r="263">
+      <c r="B263" s="14"/>
+    </row>
+    <row r="264">
+      <c r="B264" s="14"/>
+    </row>
+    <row r="265">
+      <c r="B265" s="14"/>
+    </row>
+    <row r="266">
+      <c r="B266" s="14"/>
+    </row>
+    <row r="267">
+      <c r="B267" s="14"/>
+    </row>
+    <row r="268">
+      <c r="B268" s="14"/>
+    </row>
+    <row r="269">
+      <c r="B269" s="14"/>
+    </row>
+    <row r="270">
+      <c r="B270" s="14"/>
+    </row>
+    <row r="271">
+      <c r="B271" s="14"/>
+    </row>
+    <row r="272">
+      <c r="B272" s="14"/>
+    </row>
+    <row r="273">
+      <c r="B273" s="14"/>
+    </row>
+    <row r="274">
+      <c r="B274" s="14"/>
+    </row>
+    <row r="275">
+      <c r="B275" s="14"/>
+    </row>
+    <row r="276">
+      <c r="B276" s="14"/>
+    </row>
+    <row r="277">
+      <c r="B277" s="14"/>
+    </row>
+    <row r="278">
+      <c r="B278" s="14"/>
+    </row>
+    <row r="279">
+      <c r="B279" s="14"/>
+    </row>
+    <row r="280">
+      <c r="B280" s="14"/>
+    </row>
+    <row r="281">
+      <c r="B281" s="14"/>
+    </row>
+    <row r="282">
+      <c r="B282" s="14"/>
+    </row>
+    <row r="283">
+      <c r="B283" s="14"/>
+    </row>
+    <row r="284">
+      <c r="B284" s="14"/>
+    </row>
+    <row r="285">
+      <c r="B285" s="14"/>
+    </row>
+    <row r="286">
+      <c r="B286" s="14"/>
+    </row>
+    <row r="287">
+      <c r="B287" s="14"/>
+    </row>
+    <row r="288">
+      <c r="B288" s="14"/>
+    </row>
+    <row r="289">
+      <c r="B289" s="14"/>
+    </row>
+    <row r="290">
+      <c r="B290" s="14"/>
+    </row>
+    <row r="291">
+      <c r="B291" s="14"/>
+    </row>
+    <row r="292">
+      <c r="B292" s="14"/>
+    </row>
+    <row r="293">
+      <c r="B293" s="14"/>
+    </row>
+    <row r="294">
+      <c r="B294" s="14"/>
+    </row>
+    <row r="295">
+      <c r="B295" s="14"/>
+    </row>
+    <row r="296">
+      <c r="B296" s="14"/>
+    </row>
+    <row r="297">
+      <c r="B297" s="14"/>
+    </row>
+    <row r="298">
+      <c r="B298" s="14"/>
+    </row>
+    <row r="299">
+      <c r="B299" s="14"/>
+    </row>
+    <row r="300">
+      <c r="B300" s="14"/>
+    </row>
+    <row r="301">
+      <c r="B301" s="14"/>
+    </row>
+    <row r="302">
+      <c r="B302" s="14"/>
+    </row>
+    <row r="303">
+      <c r="B303" s="14"/>
+    </row>
+    <row r="304">
+      <c r="B304" s="14"/>
+    </row>
+    <row r="305">
+      <c r="B305" s="14"/>
+    </row>
+    <row r="306">
+      <c r="B306" s="14"/>
+    </row>
+    <row r="307">
+      <c r="B307" s="14"/>
+    </row>
+    <row r="308">
+      <c r="B308" s="14"/>
+    </row>
+    <row r="309">
+      <c r="B309" s="14"/>
+    </row>
+    <row r="310">
+      <c r="B310" s="14"/>
+    </row>
+    <row r="311">
+      <c r="B311" s="14"/>
+    </row>
+    <row r="312">
+      <c r="B312" s="14"/>
+    </row>
+    <row r="313">
+      <c r="B313" s="14"/>
+    </row>
+    <row r="314">
+      <c r="B314" s="14"/>
+    </row>
+    <row r="315">
+      <c r="B315" s="14"/>
+    </row>
+    <row r="316">
+      <c r="B316" s="14"/>
+    </row>
+    <row r="317">
+      <c r="B317" s="14"/>
+    </row>
+    <row r="318">
+      <c r="B318" s="14"/>
+    </row>
+    <row r="319">
+      <c r="B319" s="14"/>
+    </row>
+    <row r="320">
+      <c r="B320" s="14"/>
+    </row>
+    <row r="321">
+      <c r="B321" s="14"/>
+    </row>
+    <row r="322">
+      <c r="B322" s="14"/>
+    </row>
+    <row r="323">
+      <c r="B323" s="14"/>
+    </row>
+    <row r="324">
+      <c r="B324" s="14"/>
+    </row>
+    <row r="325">
+      <c r="B325" s="14"/>
+    </row>
+    <row r="326">
+      <c r="B326" s="14"/>
+    </row>
+    <row r="327">
+      <c r="B327" s="14"/>
+    </row>
+    <row r="328">
+      <c r="B328" s="14"/>
+    </row>
+    <row r="329">
+      <c r="B329" s="14"/>
+    </row>
+    <row r="330">
+      <c r="B330" s="14"/>
+    </row>
+    <row r="331">
+      <c r="B331" s="14"/>
+    </row>
+    <row r="332">
+      <c r="B332" s="14"/>
+    </row>
+    <row r="333">
+      <c r="B333" s="14"/>
+    </row>
+    <row r="334">
+      <c r="B334" s="14"/>
+    </row>
+    <row r="335">
+      <c r="B335" s="14"/>
+    </row>
+    <row r="336">
+      <c r="B336" s="14"/>
+    </row>
+    <row r="337">
+      <c r="B337" s="14"/>
+    </row>
+    <row r="338">
+      <c r="B338" s="14"/>
+    </row>
+    <row r="339">
+      <c r="B339" s="14"/>
+    </row>
+    <row r="340">
+      <c r="B340" s="14"/>
+    </row>
+    <row r="341">
+      <c r="B341" s="14"/>
+    </row>
+    <row r="342">
+      <c r="B342" s="14"/>
+    </row>
+    <row r="343">
+      <c r="B343" s="14"/>
+    </row>
+    <row r="344">
+      <c r="B344" s="14"/>
+    </row>
+    <row r="345">
+      <c r="B345" s="14"/>
+    </row>
+    <row r="346">
+      <c r="B346" s="14"/>
+    </row>
+    <row r="347">
+      <c r="B347" s="14"/>
+    </row>
+    <row r="348">
+      <c r="B348" s="14"/>
+    </row>
+    <row r="349">
+      <c r="B349" s="14"/>
+    </row>
+    <row r="350">
+      <c r="B350" s="14"/>
+    </row>
+    <row r="351">
+      <c r="B351" s="14"/>
+    </row>
+    <row r="352">
+      <c r="B352" s="14"/>
+    </row>
+    <row r="353">
+      <c r="B353" s="14"/>
+    </row>
+    <row r="354">
+      <c r="B354" s="14"/>
+    </row>
+    <row r="355">
+      <c r="B355" s="14"/>
+    </row>
+    <row r="356">
+      <c r="B356" s="14"/>
+    </row>
+    <row r="357">
+      <c r="B357" s="14"/>
+    </row>
+    <row r="358">
+      <c r="B358" s="14"/>
+    </row>
+    <row r="359">
+      <c r="B359" s="14"/>
+    </row>
+    <row r="360">
+      <c r="B360" s="14"/>
+    </row>
+    <row r="361">
+      <c r="B361" s="14"/>
+    </row>
+    <row r="362">
+      <c r="B362" s="14"/>
+    </row>
+    <row r="363">
+      <c r="B363" s="14"/>
+    </row>
+    <row r="364">
+      <c r="B364" s="14"/>
+    </row>
+    <row r="365">
+      <c r="B365" s="14"/>
+    </row>
+    <row r="366">
+      <c r="B366" s="14"/>
+    </row>
+    <row r="367">
+      <c r="B367" s="14"/>
+    </row>
+    <row r="368">
+      <c r="B368" s="14"/>
+    </row>
+    <row r="369">
+      <c r="B369" s="14"/>
+    </row>
+    <row r="370">
+      <c r="B370" s="14"/>
+    </row>
+    <row r="371">
+      <c r="B371" s="14"/>
+    </row>
+    <row r="372">
+      <c r="B372" s="14"/>
+    </row>
+    <row r="373">
+      <c r="B373" s="14"/>
+    </row>
+    <row r="374">
+      <c r="B374" s="14"/>
+    </row>
+    <row r="375">
+      <c r="B375" s="14"/>
+    </row>
+    <row r="376">
+      <c r="B376" s="14"/>
+    </row>
+    <row r="377">
+      <c r="B377" s="14"/>
+    </row>
+    <row r="378">
+      <c r="B378" s="14"/>
+    </row>
+    <row r="379">
+      <c r="B379" s="14"/>
+    </row>
+    <row r="380">
+      <c r="B380" s="14"/>
+    </row>
+    <row r="381">
+      <c r="B381" s="14"/>
+    </row>
+    <row r="382">
+      <c r="B382" s="14"/>
+    </row>
+    <row r="383">
+      <c r="B383" s="14"/>
+    </row>
+    <row r="384">
+      <c r="B384" s="14"/>
+    </row>
+    <row r="385">
+      <c r="B385" s="14"/>
+    </row>
+    <row r="386">
+      <c r="B386" s="14"/>
+    </row>
+    <row r="387">
+      <c r="B387" s="14"/>
+    </row>
+    <row r="388">
+      <c r="B388" s="14"/>
+    </row>
+    <row r="389">
+      <c r="B389" s="14"/>
+    </row>
+    <row r="390">
+      <c r="B390" s="14"/>
+    </row>
+    <row r="391">
+      <c r="B391" s="14"/>
+    </row>
+    <row r="392">
+      <c r="B392" s="14"/>
+    </row>
+    <row r="393">
+      <c r="B393" s="14"/>
+    </row>
+    <row r="394">
+      <c r="B394" s="14"/>
+    </row>
+    <row r="395">
+      <c r="B395" s="14"/>
+    </row>
+    <row r="396">
+      <c r="B396" s="14"/>
+    </row>
+    <row r="397">
+      <c r="B397" s="14"/>
+    </row>
+    <row r="398">
+      <c r="B398" s="14"/>
+    </row>
+    <row r="399">
+      <c r="B399" s="14"/>
+    </row>
+    <row r="400">
+      <c r="B400" s="14"/>
+    </row>
+    <row r="401">
+      <c r="B401" s="14"/>
+    </row>
+    <row r="402">
+      <c r="B402" s="14"/>
+    </row>
+    <row r="403">
+      <c r="B403" s="14"/>
+    </row>
+    <row r="404">
+      <c r="B404" s="14"/>
+    </row>
+    <row r="405">
+      <c r="B405" s="14"/>
+    </row>
+    <row r="406">
+      <c r="B406" s="14"/>
+    </row>
+    <row r="407">
+      <c r="B407" s="14"/>
+    </row>
+    <row r="408">
+      <c r="B408" s="14"/>
+    </row>
+    <row r="409">
+      <c r="B409" s="14"/>
+    </row>
+    <row r="410">
+      <c r="B410" s="14"/>
+    </row>
+    <row r="411">
+      <c r="B411" s="14"/>
+    </row>
+    <row r="412">
+      <c r="B412" s="14"/>
+    </row>
+    <row r="413">
+      <c r="B413" s="14"/>
+    </row>
+    <row r="414">
+      <c r="B414" s="14"/>
+    </row>
+    <row r="415">
+      <c r="B415" s="14"/>
+    </row>
+    <row r="416">
+      <c r="B416" s="14"/>
+    </row>
+    <row r="417">
+      <c r="B417" s="14"/>
+    </row>
+    <row r="418">
+      <c r="B418" s="14"/>
+    </row>
+    <row r="419">
+      <c r="B419" s="14"/>
+    </row>
+    <row r="420">
+      <c r="B420" s="14"/>
+    </row>
+    <row r="421">
+      <c r="B421" s="14"/>
+    </row>
+    <row r="422">
+      <c r="B422" s="14"/>
+    </row>
+    <row r="423">
+      <c r="B423" s="14"/>
+    </row>
+    <row r="424">
+      <c r="B424" s="14"/>
+    </row>
+    <row r="425">
+      <c r="B425" s="14"/>
+    </row>
+    <row r="426">
+      <c r="B426" s="14"/>
+    </row>
+    <row r="427">
+      <c r="B427" s="14"/>
+    </row>
+    <row r="428">
+      <c r="B428" s="14"/>
+    </row>
+    <row r="429">
+      <c r="B429" s="14"/>
+    </row>
+    <row r="430">
+      <c r="B430" s="14"/>
+    </row>
+    <row r="431">
+      <c r="B431" s="14"/>
+    </row>
+    <row r="432">
+      <c r="B432" s="14"/>
+    </row>
+    <row r="433">
+      <c r="B433" s="14"/>
+    </row>
+    <row r="434">
+      <c r="B434" s="14"/>
+    </row>
+    <row r="435">
+      <c r="B435" s="14"/>
+    </row>
+    <row r="436">
+      <c r="B436" s="14"/>
+    </row>
+    <row r="437">
+      <c r="B437" s="14"/>
+    </row>
+    <row r="438">
+      <c r="B438" s="14"/>
+    </row>
+    <row r="439">
+      <c r="B439" s="14"/>
+    </row>
+    <row r="440">
+      <c r="B440" s="14"/>
+    </row>
+    <row r="441">
+      <c r="B441" s="14"/>
+    </row>
+    <row r="442">
+      <c r="B442" s="14"/>
+    </row>
+    <row r="443">
+      <c r="B443" s="14"/>
+    </row>
+    <row r="444">
+      <c r="B444" s="14"/>
+    </row>
+    <row r="445">
+      <c r="B445" s="14"/>
+    </row>
+    <row r="446">
+      <c r="B446" s="14"/>
+    </row>
+    <row r="447">
+      <c r="B447" s="14"/>
+    </row>
+    <row r="448">
+      <c r="B448" s="14"/>
+    </row>
+    <row r="449">
+      <c r="B449" s="14"/>
+    </row>
+    <row r="450">
+      <c r="B450" s="14"/>
+    </row>
+    <row r="451">
+      <c r="B451" s="14"/>
+    </row>
+    <row r="452">
+      <c r="B452" s="14"/>
+    </row>
+    <row r="453">
+      <c r="B453" s="14"/>
+    </row>
+    <row r="454">
+      <c r="B454" s="14"/>
+    </row>
+    <row r="455">
+      <c r="B455" s="14"/>
+    </row>
+    <row r="456">
+      <c r="B456" s="14"/>
+    </row>
+    <row r="457">
+      <c r="B457" s="14"/>
+    </row>
+    <row r="458">
+      <c r="B458" s="14"/>
+    </row>
+    <row r="459">
+      <c r="B459" s="14"/>
+    </row>
+    <row r="460">
+      <c r="B460" s="14"/>
+    </row>
+    <row r="461">
+      <c r="B461" s="14"/>
+    </row>
+    <row r="462">
+      <c r="B462" s="14"/>
+    </row>
+    <row r="463">
+      <c r="B463" s="14"/>
+    </row>
+    <row r="464">
+      <c r="B464" s="14"/>
+    </row>
+    <row r="465">
+      <c r="B465" s="14"/>
+    </row>
+    <row r="466">
+      <c r="B466" s="14"/>
+    </row>
+    <row r="467">
+      <c r="B467" s="14"/>
+    </row>
+    <row r="468">
+      <c r="B468" s="14"/>
+    </row>
+    <row r="469">
+      <c r="B469" s="14"/>
+    </row>
+    <row r="470">
+      <c r="B470" s="14"/>
+    </row>
+    <row r="471">
+      <c r="B471" s="14"/>
+    </row>
+    <row r="472">
+      <c r="B472" s="14"/>
+    </row>
+    <row r="473">
+      <c r="B473" s="14"/>
+    </row>
+    <row r="474">
+      <c r="B474" s="14"/>
+    </row>
+    <row r="475">
+      <c r="B475" s="14"/>
+    </row>
+    <row r="476">
+      <c r="B476" s="14"/>
+    </row>
+    <row r="477">
+      <c r="B477" s="14"/>
+    </row>
+    <row r="478">
+      <c r="B478" s="14"/>
+    </row>
+    <row r="479">
+      <c r="B479" s="14"/>
+    </row>
+    <row r="480">
+      <c r="B480" s="14"/>
+    </row>
+    <row r="481">
+      <c r="B481" s="14"/>
+    </row>
+    <row r="482">
+      <c r="B482" s="14"/>
+    </row>
+    <row r="483">
+      <c r="B483" s="14"/>
+    </row>
+    <row r="484">
+      <c r="B484" s="14"/>
+    </row>
+    <row r="485">
+      <c r="B485" s="14"/>
+    </row>
+    <row r="486">
+      <c r="B486" s="14"/>
+    </row>
+    <row r="487">
+      <c r="B487" s="14"/>
+    </row>
+    <row r="488">
+      <c r="B488" s="14"/>
+    </row>
+    <row r="489">
+      <c r="B489" s="14"/>
+    </row>
+    <row r="490">
+      <c r="B490" s="14"/>
+    </row>
+    <row r="491">
+      <c r="B491" s="14"/>
+    </row>
+    <row r="492">
+      <c r="B492" s="14"/>
+    </row>
+    <row r="493">
+      <c r="B493" s="14"/>
+    </row>
+    <row r="494">
+      <c r="B494" s="14"/>
+    </row>
+    <row r="495">
+      <c r="B495" s="14"/>
+    </row>
+    <row r="496">
+      <c r="B496" s="14"/>
+    </row>
+    <row r="497">
+      <c r="B497" s="14"/>
+    </row>
+    <row r="498">
+      <c r="B498" s="14"/>
+    </row>
+    <row r="499">
+      <c r="B499" s="14"/>
+    </row>
+    <row r="500">
+      <c r="B500" s="14"/>
+    </row>
+    <row r="501">
+      <c r="B501" s="14"/>
+    </row>
+    <row r="502">
+      <c r="B502" s="14"/>
+    </row>
+    <row r="503">
+      <c r="B503" s="14"/>
+    </row>
+    <row r="504">
+      <c r="B504" s="14"/>
+    </row>
+    <row r="505">
+      <c r="B505" s="14"/>
+    </row>
+    <row r="506">
+      <c r="B506" s="14"/>
+    </row>
+    <row r="507">
+      <c r="B507" s="14"/>
+    </row>
+    <row r="508">
+      <c r="B508" s="14"/>
+    </row>
+    <row r="509">
+      <c r="B509" s="14"/>
+    </row>
+    <row r="510">
+      <c r="B510" s="14"/>
+    </row>
+    <row r="511">
+      <c r="B511" s="14"/>
+    </row>
+    <row r="512">
+      <c r="B512" s="14"/>
+    </row>
+    <row r="513">
+      <c r="B513" s="14"/>
+    </row>
+    <row r="514">
+      <c r="B514" s="14"/>
+    </row>
+    <row r="515">
+      <c r="B515" s="14"/>
+    </row>
+    <row r="516">
+      <c r="B516" s="14"/>
+    </row>
+    <row r="517">
+      <c r="B517" s="14"/>
+    </row>
+    <row r="518">
+      <c r="B518" s="14"/>
+    </row>
+    <row r="519">
+      <c r="B519" s="14"/>
+    </row>
+    <row r="520">
+      <c r="B520" s="14"/>
+    </row>
+    <row r="521">
+      <c r="B521" s="14"/>
+    </row>
+    <row r="522">
+      <c r="B522" s="14"/>
+    </row>
+    <row r="523">
+      <c r="B523" s="14"/>
+    </row>
+    <row r="524">
+      <c r="B524" s="14"/>
+    </row>
+    <row r="525">
+      <c r="B525" s="14"/>
+    </row>
+    <row r="526">
+      <c r="B526" s="14"/>
+    </row>
+    <row r="527">
+      <c r="B527" s="14"/>
+    </row>
+    <row r="528">
+      <c r="B528" s="14"/>
+    </row>
+    <row r="529">
+      <c r="B529" s="14"/>
+    </row>
+    <row r="530">
+      <c r="B530" s="14"/>
+    </row>
+    <row r="531">
+      <c r="B531" s="14"/>
+    </row>
+    <row r="532">
+      <c r="B532" s="14"/>
+    </row>
+    <row r="533">
+      <c r="B533" s="14"/>
+    </row>
+    <row r="534">
+      <c r="B534" s="14"/>
+    </row>
+    <row r="535">
+      <c r="B535" s="14"/>
+    </row>
+    <row r="536">
+      <c r="B536" s="14"/>
+    </row>
+    <row r="537">
+      <c r="B537" s="14"/>
+    </row>
+    <row r="538">
+      <c r="B538" s="14"/>
+    </row>
+    <row r="539">
+      <c r="B539" s="14"/>
+    </row>
+    <row r="540">
+      <c r="B540" s="14"/>
+    </row>
+    <row r="541">
+      <c r="B541" s="14"/>
+    </row>
+    <row r="542">
+      <c r="B542" s="14"/>
+    </row>
+    <row r="543">
+      <c r="B543" s="14"/>
+    </row>
+    <row r="544">
+      <c r="B544" s="14"/>
+    </row>
+    <row r="545">
+      <c r="B545" s="14"/>
+    </row>
+    <row r="546">
+      <c r="B546" s="14"/>
+    </row>
+    <row r="547">
+      <c r="B547" s="14"/>
+    </row>
+    <row r="548">
+      <c r="B548" s="14"/>
+    </row>
+    <row r="549">
+      <c r="B549" s="14"/>
+    </row>
+    <row r="550">
+      <c r="B550" s="14"/>
+    </row>
+    <row r="551">
+      <c r="B551" s="14"/>
+    </row>
+    <row r="552">
+      <c r="B552" s="14"/>
+    </row>
+    <row r="553">
+      <c r="B553" s="14"/>
+    </row>
+    <row r="554">
+      <c r="B554" s="14"/>
+    </row>
+    <row r="555">
+      <c r="B555" s="14"/>
+    </row>
+    <row r="556">
+      <c r="B556" s="14"/>
+    </row>
+    <row r="557">
+      <c r="B557" s="14"/>
+    </row>
+    <row r="558">
+      <c r="B558" s="14"/>
+    </row>
+    <row r="559">
+      <c r="B559" s="14"/>
+    </row>
+    <row r="560">
+      <c r="B560" s="14"/>
+    </row>
+    <row r="561">
+      <c r="B561" s="14"/>
+    </row>
+    <row r="562">
+      <c r="B562" s="14"/>
+    </row>
+    <row r="563">
+      <c r="B563" s="14"/>
+    </row>
+    <row r="564">
+      <c r="B564" s="14"/>
+    </row>
+    <row r="565">
+      <c r="B565" s="14"/>
+    </row>
+    <row r="566">
+      <c r="B566" s="14"/>
+    </row>
+    <row r="567">
+      <c r="B567" s="14"/>
+    </row>
+    <row r="568">
+      <c r="B568" s="14"/>
+    </row>
+    <row r="569">
+      <c r="B569" s="14"/>
+    </row>
+    <row r="570">
+      <c r="B570" s="14"/>
+    </row>
+    <row r="571">
+      <c r="B571" s="14"/>
+    </row>
+    <row r="572">
+      <c r="B572" s="14"/>
+    </row>
+    <row r="573">
+      <c r="B573" s="14"/>
+    </row>
+    <row r="574">
+      <c r="B574" s="14"/>
+    </row>
+    <row r="575">
+      <c r="B575" s="14"/>
+    </row>
+    <row r="576">
+      <c r="B576" s="14"/>
+    </row>
+    <row r="577">
+      <c r="B577" s="14"/>
+    </row>
+    <row r="578">
+      <c r="B578" s="14"/>
+    </row>
+    <row r="579">
+      <c r="B579" s="14"/>
+    </row>
+    <row r="580">
+      <c r="B580" s="14"/>
+    </row>
+    <row r="581">
+      <c r="B581" s="14"/>
+    </row>
+    <row r="582">
+      <c r="B582" s="14"/>
+    </row>
+    <row r="583">
+      <c r="B583" s="14"/>
+    </row>
+    <row r="584">
+      <c r="B584" s="14"/>
+    </row>
+    <row r="585">
+      <c r="B585" s="14"/>
+    </row>
+    <row r="586">
+      <c r="B586" s="14"/>
+    </row>
+    <row r="587">
+      <c r="B587" s="14"/>
+    </row>
+    <row r="588">
+      <c r="B588" s="14"/>
+    </row>
+    <row r="589">
+      <c r="B589" s="14"/>
+    </row>
+    <row r="590">
+      <c r="B590" s="14"/>
+    </row>
+    <row r="591">
+      <c r="B591" s="14"/>
+    </row>
+    <row r="592">
+      <c r="B592" s="14"/>
+    </row>
+    <row r="593">
+      <c r="B593" s="14"/>
+    </row>
+    <row r="594">
+      <c r="B594" s="14"/>
+    </row>
+    <row r="595">
+      <c r="B595" s="14"/>
+    </row>
+    <row r="596">
+      <c r="B596" s="14"/>
+    </row>
+    <row r="597">
+      <c r="B597" s="14"/>
+    </row>
+    <row r="598">
+      <c r="B598" s="14"/>
+    </row>
+    <row r="599">
+      <c r="B599" s="14"/>
+    </row>
+    <row r="600">
+      <c r="B600" s="14"/>
+    </row>
+    <row r="601">
+      <c r="B601" s="14"/>
+    </row>
+    <row r="602">
+      <c r="B602" s="14"/>
+    </row>
+    <row r="603">
+      <c r="B603" s="14"/>
+    </row>
+    <row r="604">
+      <c r="B604" s="14"/>
+    </row>
+    <row r="605">
+      <c r="B605" s="14"/>
+    </row>
+    <row r="606">
+      <c r="B606" s="14"/>
+    </row>
+    <row r="607">
+      <c r="B607" s="14"/>
+    </row>
+    <row r="608">
+      <c r="B608" s="14"/>
+    </row>
+    <row r="609">
+      <c r="B609" s="14"/>
+    </row>
+    <row r="610">
+      <c r="B610" s="14"/>
+    </row>
+    <row r="611">
+      <c r="B611" s="14"/>
+    </row>
+    <row r="612">
+      <c r="B612" s="14"/>
+    </row>
+    <row r="613">
+      <c r="B613" s="14"/>
+    </row>
+    <row r="614">
+      <c r="B614" s="14"/>
+    </row>
+    <row r="615">
+      <c r="B615" s="14"/>
+    </row>
+    <row r="616">
+      <c r="B616" s="14"/>
+    </row>
+    <row r="617">
+      <c r="B617" s="14"/>
+    </row>
+    <row r="618">
+      <c r="B618" s="14"/>
+    </row>
+    <row r="619">
+      <c r="B619" s="14"/>
+    </row>
+    <row r="620">
+      <c r="B620" s="14"/>
+    </row>
+    <row r="621">
+      <c r="B621" s="14"/>
+    </row>
+    <row r="622">
+      <c r="B622" s="14"/>
+    </row>
+    <row r="623">
+      <c r="B623" s="14"/>
+    </row>
+    <row r="624">
+      <c r="B624" s="14"/>
+    </row>
+    <row r="625">
+      <c r="B625" s="14"/>
+    </row>
+    <row r="626">
+      <c r="B626" s="14"/>
+    </row>
+    <row r="627">
+      <c r="B627" s="14"/>
+    </row>
+    <row r="628">
+      <c r="B628" s="14"/>
+    </row>
+    <row r="629">
+      <c r="B629" s="14"/>
+    </row>
+    <row r="630">
+      <c r="B630" s="14"/>
+    </row>
+    <row r="631">
+      <c r="B631" s="14"/>
+    </row>
+    <row r="632">
+      <c r="B632" s="14"/>
+    </row>
+    <row r="633">
+      <c r="B633" s="14"/>
+    </row>
+    <row r="634">
+      <c r="B634" s="14"/>
+    </row>
+    <row r="635">
+      <c r="B635" s="14"/>
+    </row>
+    <row r="636">
+      <c r="B636" s="14"/>
+    </row>
+    <row r="637">
+      <c r="B637" s="14"/>
+    </row>
+    <row r="638">
+      <c r="B638" s="14"/>
+    </row>
+    <row r="639">
+      <c r="B639" s="14"/>
+    </row>
+    <row r="640">
+      <c r="B640" s="14"/>
+    </row>
+    <row r="641">
+      <c r="B641" s="14"/>
+    </row>
+    <row r="642">
+      <c r="B642" s="14"/>
+    </row>
+    <row r="643">
+      <c r="B643" s="14"/>
+    </row>
+    <row r="644">
+      <c r="B644" s="14"/>
+    </row>
+    <row r="645">
+      <c r="B645" s="14"/>
+    </row>
+    <row r="646">
+      <c r="B646" s="14"/>
+    </row>
+    <row r="647">
+      <c r="B647" s="14"/>
+    </row>
+    <row r="648">
+      <c r="B648" s="14"/>
+    </row>
+    <row r="649">
+      <c r="B649" s="14"/>
+    </row>
+    <row r="650">
+      <c r="B650" s="14"/>
+    </row>
+    <row r="651">
+      <c r="B651" s="14"/>
+    </row>
+    <row r="652">
+      <c r="B652" s="14"/>
+    </row>
+    <row r="653">
+      <c r="B653" s="14"/>
+    </row>
+    <row r="654">
+      <c r="B654" s="14"/>
+    </row>
+    <row r="655">
+      <c r="B655" s="14"/>
+    </row>
+    <row r="656">
+      <c r="B656" s="14"/>
+    </row>
+    <row r="657">
+      <c r="B657" s="14"/>
+    </row>
+    <row r="658">
+      <c r="B658" s="14"/>
+    </row>
+    <row r="659">
+      <c r="B659" s="14"/>
+    </row>
+    <row r="660">
+      <c r="B660" s="14"/>
+    </row>
+    <row r="661">
+      <c r="B661" s="14"/>
+    </row>
+    <row r="662">
+      <c r="B662" s="14"/>
+    </row>
+    <row r="663">
+      <c r="B663" s="14"/>
+    </row>
+    <row r="664">
+      <c r="B664" s="14"/>
+    </row>
+    <row r="665">
+      <c r="B665" s="14"/>
+    </row>
+    <row r="666">
+      <c r="B666" s="14"/>
+    </row>
+    <row r="667">
+      <c r="B667" s="14"/>
+    </row>
+    <row r="668">
+      <c r="B668" s="14"/>
+    </row>
+    <row r="669">
+      <c r="B669" s="14"/>
+    </row>
+    <row r="670">
+      <c r="B670" s="14"/>
+    </row>
+    <row r="671">
+      <c r="B671" s="14"/>
+    </row>
+    <row r="672">
+      <c r="B672" s="14"/>
+    </row>
+    <row r="673">
+      <c r="B673" s="14"/>
+    </row>
+    <row r="674">
+      <c r="B674" s="14"/>
+    </row>
+    <row r="675">
+      <c r="B675" s="14"/>
+    </row>
+    <row r="676">
+      <c r="B676" s="14"/>
+    </row>
+    <row r="677">
+      <c r="B677" s="14"/>
+    </row>
+    <row r="678">
+      <c r="B678" s="14"/>
+    </row>
+    <row r="679">
+      <c r="B679" s="14"/>
+    </row>
+    <row r="680">
+      <c r="B680" s="14"/>
+    </row>
+    <row r="681">
+      <c r="B681" s="14"/>
+    </row>
+    <row r="682">
+      <c r="B682" s="14"/>
+    </row>
+    <row r="683">
+      <c r="B683" s="14"/>
+    </row>
+    <row r="684">
+      <c r="B684" s="14"/>
+    </row>
+    <row r="685">
+      <c r="B685" s="14"/>
+    </row>
+    <row r="686">
+      <c r="B686" s="14"/>
+    </row>
+    <row r="687">
+      <c r="B687" s="14"/>
+    </row>
+    <row r="688">
+      <c r="B688" s="14"/>
+    </row>
+    <row r="689">
+      <c r="B689" s="14"/>
+    </row>
+    <row r="690">
+      <c r="B690" s="14"/>
+    </row>
+    <row r="691">
+      <c r="B691" s="14"/>
+    </row>
+    <row r="692">
+      <c r="B692" s="14"/>
+    </row>
+    <row r="693">
+      <c r="B693" s="14"/>
+    </row>
+    <row r="694">
+      <c r="B694" s="14"/>
+    </row>
+    <row r="695">
+      <c r="B695" s="14"/>
+    </row>
+    <row r="696">
+      <c r="B696" s="14"/>
+    </row>
+    <row r="697">
+      <c r="B697" s="14"/>
+    </row>
+    <row r="698">
+      <c r="B698" s="14"/>
+    </row>
+    <row r="699">
+      <c r="B699" s="14"/>
+    </row>
+    <row r="700">
+      <c r="B700" s="14"/>
+    </row>
+    <row r="701">
+      <c r="B701" s="14"/>
+    </row>
+    <row r="702">
+      <c r="B702" s="14"/>
+    </row>
+    <row r="703">
+      <c r="B703" s="14"/>
+    </row>
+    <row r="704">
+      <c r="B704" s="14"/>
+    </row>
+    <row r="705">
+      <c r="B705" s="14"/>
+    </row>
+    <row r="706">
+      <c r="B706" s="14"/>
+    </row>
+    <row r="707">
+      <c r="B707" s="14"/>
+    </row>
+    <row r="708">
+      <c r="B708" s="14"/>
+    </row>
+    <row r="709">
+      <c r="B709" s="14"/>
+    </row>
+    <row r="710">
+      <c r="B710" s="14"/>
+    </row>
+    <row r="711">
+      <c r="B711" s="14"/>
+    </row>
+    <row r="712">
+      <c r="B712" s="14"/>
+    </row>
+    <row r="713">
+      <c r="B713" s="14"/>
+    </row>
+    <row r="714">
+      <c r="B714" s="14"/>
+    </row>
+    <row r="715">
+      <c r="B715" s="14"/>
+    </row>
+    <row r="716">
+      <c r="B716" s="14"/>
+    </row>
+    <row r="717">
+      <c r="B717" s="14"/>
+    </row>
+    <row r="718">
+      <c r="B718" s="14"/>
+    </row>
+    <row r="719">
+      <c r="B719" s="14"/>
+    </row>
+    <row r="720">
+      <c r="B720" s="14"/>
+    </row>
+    <row r="721">
+      <c r="B721" s="14"/>
+    </row>
+    <row r="722">
+      <c r="B722" s="14"/>
+    </row>
+    <row r="723">
+      <c r="B723" s="14"/>
+    </row>
+    <row r="724">
+      <c r="B724" s="14"/>
+    </row>
+    <row r="725">
+      <c r="B725" s="14"/>
+    </row>
+    <row r="726">
+      <c r="B726" s="14"/>
+    </row>
+    <row r="727">
+      <c r="B727" s="14"/>
+    </row>
+    <row r="728">
+      <c r="B728" s="14"/>
+    </row>
+    <row r="729">
+      <c r="B729" s="14"/>
+    </row>
+    <row r="730">
+      <c r="B730" s="14"/>
+    </row>
+    <row r="731">
+      <c r="B731" s="14"/>
+    </row>
+    <row r="732">
+      <c r="B732" s="14"/>
+    </row>
+    <row r="733">
+      <c r="B733" s="14"/>
+    </row>
+    <row r="734">
+      <c r="B734" s="14"/>
+    </row>
+    <row r="735">
+      <c r="B735" s="14"/>
+    </row>
+    <row r="736">
+      <c r="B736" s="14"/>
+    </row>
+    <row r="737">
+      <c r="B737" s="14"/>
+    </row>
+    <row r="738">
+      <c r="B738" s="14"/>
+    </row>
+    <row r="739">
+      <c r="B739" s="14"/>
+    </row>
+    <row r="740">
+      <c r="B740" s="14"/>
+    </row>
+    <row r="741">
+      <c r="B741" s="14"/>
+    </row>
+    <row r="742">
+      <c r="B742" s="14"/>
+    </row>
+    <row r="743">
+      <c r="B743" s="14"/>
+    </row>
+    <row r="744">
+      <c r="B744" s="14"/>
+    </row>
+    <row r="745">
+      <c r="B745" s="14"/>
+    </row>
+    <row r="746">
+      <c r="B746" s="14"/>
+    </row>
+    <row r="747">
+      <c r="B747" s="14"/>
+    </row>
+    <row r="748">
+      <c r="B748" s="14"/>
+    </row>
+    <row r="749">
+      <c r="B749" s="14"/>
+    </row>
+    <row r="750">
+      <c r="B750" s="14"/>
+    </row>
+    <row r="751">
+      <c r="B751" s="14"/>
+    </row>
+    <row r="752">
+      <c r="B752" s="14"/>
+    </row>
+    <row r="753">
+      <c r="B753" s="14"/>
+    </row>
+    <row r="754">
+      <c r="B754" s="14"/>
+    </row>
+    <row r="755">
+      <c r="B755" s="14"/>
+    </row>
+    <row r="756">
+      <c r="B756" s="14"/>
+    </row>
+    <row r="757">
+      <c r="B757" s="14"/>
+    </row>
+    <row r="758">
+      <c r="B758" s="14"/>
+    </row>
+    <row r="759">
+      <c r="B759" s="14"/>
+    </row>
+    <row r="760">
+      <c r="B760" s="14"/>
+    </row>
+    <row r="761">
+      <c r="B761" s="14"/>
+    </row>
+    <row r="762">
+      <c r="B762" s="14"/>
+    </row>
+    <row r="763">
+      <c r="B763" s="14"/>
+    </row>
+    <row r="764">
+      <c r="B764" s="14"/>
+    </row>
+    <row r="765">
+      <c r="B765" s="14"/>
+    </row>
+    <row r="766">
+      <c r="B766" s="14"/>
+    </row>
+    <row r="767">
+      <c r="B767" s="14"/>
+    </row>
+    <row r="768">
+      <c r="B768" s="14"/>
+    </row>
+    <row r="769">
+      <c r="B769" s="14"/>
+    </row>
+    <row r="770">
+      <c r="B770" s="14"/>
+    </row>
+    <row r="771">
+      <c r="B771" s="14"/>
+    </row>
+    <row r="772">
+      <c r="B772" s="14"/>
+    </row>
+    <row r="773">
+      <c r="B773" s="14"/>
+    </row>
+    <row r="774">
+      <c r="B774" s="14"/>
+    </row>
+    <row r="775">
+      <c r="B775" s="14"/>
+    </row>
+    <row r="776">
+      <c r="B776" s="14"/>
+    </row>
+    <row r="777">
+      <c r="B777" s="14"/>
+    </row>
+    <row r="778">
+      <c r="B778" s="14"/>
+    </row>
+    <row r="779">
+      <c r="B779" s="14"/>
+    </row>
+    <row r="780">
+      <c r="B780" s="14"/>
+    </row>
+    <row r="781">
+      <c r="B781" s="14"/>
+    </row>
+    <row r="782">
+      <c r="B782" s="14"/>
+    </row>
+    <row r="783">
+      <c r="B783" s="14"/>
+    </row>
+    <row r="784">
+      <c r="B784" s="14"/>
+    </row>
+    <row r="785">
+      <c r="B785" s="14"/>
+    </row>
+    <row r="786">
+      <c r="B786" s="14"/>
+    </row>
+    <row r="787">
+      <c r="B787" s="14"/>
+    </row>
+    <row r="788">
+      <c r="B788" s="14"/>
+    </row>
+    <row r="789">
+      <c r="B789" s="14"/>
+    </row>
+    <row r="790">
+      <c r="B790" s="14"/>
+    </row>
+    <row r="791">
+      <c r="B791" s="14"/>
+    </row>
+    <row r="792">
+      <c r="B792" s="14"/>
+    </row>
+    <row r="793">
+      <c r="B793" s="14"/>
+    </row>
+    <row r="794">
+      <c r="B794" s="14"/>
+    </row>
+    <row r="795">
+      <c r="B795" s="14"/>
+    </row>
+    <row r="796">
+      <c r="B796" s="14"/>
+    </row>
+    <row r="797">
+      <c r="B797" s="14"/>
+    </row>
+    <row r="798">
+      <c r="B798" s="14"/>
+    </row>
+    <row r="799">
+      <c r="B799" s="14"/>
+    </row>
+    <row r="800">
+      <c r="B800" s="14"/>
+    </row>
+    <row r="801">
+      <c r="B801" s="14"/>
+    </row>
+    <row r="802">
+      <c r="B802" s="14"/>
+    </row>
+    <row r="803">
+      <c r="B803" s="14"/>
+    </row>
+    <row r="804">
+      <c r="B804" s="14"/>
+    </row>
+    <row r="805">
+      <c r="B805" s="14"/>
+    </row>
+    <row r="806">
+      <c r="B806" s="14"/>
+    </row>
+    <row r="807">
+      <c r="B807" s="14"/>
+    </row>
+    <row r="808">
+      <c r="B808" s="14"/>
+    </row>
+    <row r="809">
+      <c r="B809" s="14"/>
+    </row>
+    <row r="810">
+      <c r="B810" s="14"/>
+    </row>
+    <row r="811">
+      <c r="B811" s="14"/>
+    </row>
+    <row r="812">
+      <c r="B812" s="14"/>
+    </row>
+    <row r="813">
+      <c r="B813" s="14"/>
+    </row>
+    <row r="814">
+      <c r="B814" s="14"/>
+    </row>
+    <row r="815">
+      <c r="B815" s="14"/>
+    </row>
+    <row r="816">
+      <c r="B816" s="14"/>
+    </row>
+    <row r="817">
+      <c r="B817" s="14"/>
+    </row>
+    <row r="818">
+      <c r="B818" s="14"/>
+    </row>
+    <row r="819">
+      <c r="B819" s="14"/>
+    </row>
+    <row r="820">
+      <c r="B820" s="14"/>
+    </row>
+    <row r="821">
+      <c r="B821" s="14"/>
+    </row>
+    <row r="822">
+      <c r="B822" s="14"/>
+    </row>
+    <row r="823">
+      <c r="B823" s="14"/>
+    </row>
+    <row r="824">
+      <c r="B824" s="14"/>
+    </row>
+    <row r="825">
+      <c r="B825" s="14"/>
+    </row>
+    <row r="826">
+      <c r="B826" s="14"/>
+    </row>
+    <row r="827">
+      <c r="B827" s="14"/>
+    </row>
+    <row r="828">
+      <c r="B828" s="14"/>
+    </row>
+    <row r="829">
+      <c r="B829" s="14"/>
+    </row>
+    <row r="830">
+      <c r="B830" s="14"/>
+    </row>
+    <row r="831">
+      <c r="B831" s="14"/>
+    </row>
+    <row r="832">
+      <c r="B832" s="14"/>
+    </row>
+    <row r="833">
+      <c r="B833" s="14"/>
+    </row>
+    <row r="834">
+      <c r="B834" s="14"/>
+    </row>
+    <row r="835">
+      <c r="B835" s="14"/>
+    </row>
+    <row r="836">
+      <c r="B836" s="14"/>
+    </row>
+    <row r="837">
+      <c r="B837" s="14"/>
+    </row>
+    <row r="838">
+      <c r="B838" s="14"/>
+    </row>
+    <row r="839">
+      <c r="B839" s="14"/>
+    </row>
+    <row r="840">
+      <c r="B840" s="14"/>
+    </row>
+    <row r="841">
+      <c r="B841" s="14"/>
+    </row>
+    <row r="842">
+      <c r="B842" s="14"/>
+    </row>
+    <row r="843">
+      <c r="B843" s="14"/>
+    </row>
+    <row r="844">
+      <c r="B844" s="14"/>
+    </row>
+    <row r="845">
+      <c r="B845" s="14"/>
+    </row>
+    <row r="846">
+      <c r="B846" s="14"/>
+    </row>
+    <row r="847">
+      <c r="B847" s="14"/>
+    </row>
+    <row r="848">
+      <c r="B848" s="14"/>
+    </row>
+    <row r="849">
+      <c r="B849" s="14"/>
+    </row>
+    <row r="850">
+      <c r="B850" s="14"/>
+    </row>
+    <row r="851">
+      <c r="B851" s="14"/>
+    </row>
+    <row r="852">
+      <c r="B852" s="14"/>
+    </row>
+    <row r="853">
+      <c r="B853" s="14"/>
+    </row>
+    <row r="854">
+      <c r="B854" s="14"/>
+    </row>
+    <row r="855">
+      <c r="B855" s="14"/>
+    </row>
+    <row r="856">
+      <c r="B856" s="14"/>
+    </row>
+    <row r="857">
+      <c r="B857" s="14"/>
+    </row>
+    <row r="858">
+      <c r="B858" s="14"/>
+    </row>
+    <row r="859">
+      <c r="B859" s="14"/>
+    </row>
+    <row r="860">
+      <c r="B860" s="14"/>
+    </row>
+    <row r="861">
+      <c r="B861" s="14"/>
+    </row>
+    <row r="862">
+      <c r="B862" s="14"/>
+    </row>
+    <row r="863">
+      <c r="B863" s="14"/>
+    </row>
+    <row r="864">
+      <c r="B864" s="14"/>
+    </row>
+    <row r="865">
+      <c r="B865" s="14"/>
+    </row>
+    <row r="866">
+      <c r="B866" s="14"/>
+    </row>
+    <row r="867">
+      <c r="B867" s="14"/>
+    </row>
+    <row r="868">
+      <c r="B868" s="14"/>
+    </row>
+    <row r="869">
+      <c r="B869" s="14"/>
+    </row>
+    <row r="870">
+      <c r="B870" s="14"/>
+    </row>
+    <row r="871">
+      <c r="B871" s="14"/>
+    </row>
+    <row r="872">
+      <c r="B872" s="14"/>
+    </row>
+    <row r="873">
+      <c r="B873" s="14"/>
+    </row>
+    <row r="874">
+      <c r="B874" s="14"/>
+    </row>
+    <row r="875">
+      <c r="B875" s="14"/>
+    </row>
+    <row r="876">
+      <c r="B876" s="14"/>
+    </row>
+    <row r="877">
+      <c r="B877" s="14"/>
+    </row>
+    <row r="878">
+      <c r="B878" s="14"/>
+    </row>
+    <row r="879">
+      <c r="B879" s="14"/>
+    </row>
+    <row r="880">
+      <c r="B880" s="14"/>
+    </row>
+    <row r="881">
+      <c r="B881" s="14"/>
+    </row>
+    <row r="882">
+      <c r="B882" s="14"/>
+    </row>
+    <row r="883">
+      <c r="B883" s="14"/>
+    </row>
+    <row r="884">
+      <c r="B884" s="14"/>
+    </row>
+    <row r="885">
+      <c r="B885" s="14"/>
+    </row>
+    <row r="886">
+      <c r="B886" s="14"/>
+    </row>
+    <row r="887">
+      <c r="B887" s="14"/>
+    </row>
+    <row r="888">
+      <c r="B888" s="14"/>
+    </row>
+    <row r="889">
+      <c r="B889" s="14"/>
+    </row>
+    <row r="890">
+      <c r="B890" s="14"/>
+    </row>
+    <row r="891">
+      <c r="B891" s="14"/>
+    </row>
+    <row r="892">
+      <c r="B892" s="14"/>
+    </row>
+    <row r="893">
+      <c r="B893" s="14"/>
+    </row>
+    <row r="894">
+      <c r="B894" s="14"/>
+    </row>
+    <row r="895">
+      <c r="B895" s="14"/>
+    </row>
+    <row r="896">
+      <c r="B896" s="14"/>
+    </row>
+    <row r="897">
+      <c r="B897" s="14"/>
+    </row>
+    <row r="898">
+      <c r="B898" s="14"/>
+    </row>
+    <row r="899">
+      <c r="B899" s="14"/>
+    </row>
+    <row r="900">
+      <c r="B900" s="14"/>
+    </row>
+    <row r="901">
+      <c r="B901" s="14"/>
+    </row>
+    <row r="902">
+      <c r="B902" s="14"/>
+    </row>
+    <row r="903">
+      <c r="B903" s="14"/>
+    </row>
+    <row r="904">
+      <c r="B904" s="14"/>
+    </row>
+    <row r="905">
+      <c r="B905" s="14"/>
+    </row>
+    <row r="906">
+      <c r="B906" s="14"/>
+    </row>
+    <row r="907">
+      <c r="B907" s="14"/>
+    </row>
+    <row r="908">
+      <c r="B908" s="14"/>
+    </row>
+    <row r="909">
+      <c r="B909" s="14"/>
+    </row>
+    <row r="910">
+      <c r="B910" s="14"/>
+    </row>
+    <row r="911">
+      <c r="B911" s="14"/>
+    </row>
+    <row r="912">
+      <c r="B912" s="14"/>
+    </row>
+    <row r="913">
+      <c r="B913" s="14"/>
+    </row>
+    <row r="914">
+      <c r="B914" s="14"/>
+    </row>
+    <row r="915">
+      <c r="B915" s="14"/>
+    </row>
+    <row r="916">
+      <c r="B916" s="14"/>
+    </row>
+    <row r="917">
+      <c r="B917" s="14"/>
+    </row>
+    <row r="918">
+      <c r="B918" s="14"/>
+    </row>
+    <row r="919">
+      <c r="B919" s="14"/>
+    </row>
+    <row r="920">
+      <c r="B920" s="14"/>
+    </row>
+    <row r="921">
+      <c r="B921" s="14"/>
+    </row>
+    <row r="922">
+      <c r="B922" s="14"/>
+    </row>
+    <row r="923">
+      <c r="B923" s="14"/>
+    </row>
+    <row r="924">
+      <c r="B924" s="14"/>
+    </row>
+    <row r="925">
+      <c r="B925" s="14"/>
+    </row>
+    <row r="926">
+      <c r="B926" s="14"/>
+    </row>
+    <row r="927">
+      <c r="B927" s="14"/>
+    </row>
+    <row r="928">
+      <c r="B928" s="14"/>
+    </row>
+    <row r="929">
+      <c r="B929" s="14"/>
+    </row>
+    <row r="930">
+      <c r="B930" s="14"/>
+    </row>
+    <row r="931">
+      <c r="B931" s="14"/>
+    </row>
+    <row r="932">
+      <c r="B932" s="14"/>
+    </row>
+    <row r="933">
+      <c r="B933" s="14"/>
+    </row>
+    <row r="934">
+      <c r="B934" s="14"/>
+    </row>
+    <row r="935">
+      <c r="B935" s="14"/>
+    </row>
+    <row r="936">
+      <c r="B936" s="14"/>
+    </row>
+    <row r="937">
+      <c r="B937" s="14"/>
+    </row>
+    <row r="938">
+      <c r="B938" s="14"/>
+    </row>
+    <row r="939">
+      <c r="B939" s="14"/>
+    </row>
+    <row r="940">
+      <c r="B940" s="14"/>
+    </row>
+    <row r="941">
+      <c r="B941" s="14"/>
+    </row>
+    <row r="942">
+      <c r="B942" s="14"/>
+    </row>
+    <row r="943">
+      <c r="B943" s="14"/>
+    </row>
+    <row r="944">
+      <c r="B944" s="14"/>
+    </row>
+    <row r="945">
+      <c r="B945" s="14"/>
+    </row>
+    <row r="946">
+      <c r="B946" s="14"/>
+    </row>
+    <row r="947">
+      <c r="B947" s="14"/>
+    </row>
+    <row r="948">
+      <c r="B948" s="14"/>
+    </row>
+    <row r="949">
+      <c r="B949" s="14"/>
+    </row>
+    <row r="950">
+      <c r="B950" s="14"/>
+    </row>
+    <row r="951">
+      <c r="B951" s="14"/>
+    </row>
+    <row r="952">
+      <c r="B952" s="14"/>
+    </row>
+    <row r="953">
+      <c r="B953" s="14"/>
+    </row>
+    <row r="954">
+      <c r="B954" s="14"/>
+    </row>
+    <row r="955">
+      <c r="B955" s="14"/>
+    </row>
+    <row r="956">
+      <c r="B956" s="14"/>
+    </row>
+    <row r="957">
+      <c r="B957" s="14"/>
+    </row>
+    <row r="958">
+      <c r="B958" s="14"/>
+    </row>
+    <row r="959">
+      <c r="B959" s="14"/>
+    </row>
+    <row r="960">
+      <c r="B960" s="14"/>
+    </row>
+    <row r="961">
+      <c r="B961" s="14"/>
+    </row>
+    <row r="962">
+      <c r="B962" s="14"/>
+    </row>
+    <row r="963">
+      <c r="B963" s="14"/>
+    </row>
+    <row r="964">
+      <c r="B964" s="14"/>
+    </row>
+    <row r="965">
+      <c r="B965" s="14"/>
+    </row>
+    <row r="966">
+      <c r="B966" s="14"/>
+    </row>
+    <row r="967">
+      <c r="B967" s="14"/>
+    </row>
+    <row r="968">
+      <c r="B968" s="14"/>
+    </row>
+    <row r="969">
+      <c r="B969" s="14"/>
+    </row>
+    <row r="970">
+      <c r="B970" s="14"/>
+    </row>
+    <row r="971">
+      <c r="B971" s="14"/>
+    </row>
+    <row r="972">
+      <c r="B972" s="14"/>
+    </row>
+    <row r="973">
+      <c r="B973" s="14"/>
+    </row>
+    <row r="974">
+      <c r="B974" s="14"/>
+    </row>
+    <row r="975">
+      <c r="B975" s="14"/>
+    </row>
+    <row r="976">
+      <c r="B976" s="14"/>
+    </row>
+    <row r="977">
+      <c r="B977" s="14"/>
+    </row>
+    <row r="978">
+      <c r="B978" s="14"/>
+    </row>
+    <row r="979">
+      <c r="B979" s="14"/>
+    </row>
+    <row r="980">
+      <c r="B980" s="14"/>
+    </row>
+    <row r="981">
+      <c r="B981" s="14"/>
+    </row>
+    <row r="982">
+      <c r="B982" s="14"/>
+    </row>
+    <row r="983">
+      <c r="B983" s="14"/>
+    </row>
+    <row r="984">
+      <c r="B984" s="14"/>
+    </row>
+    <row r="985">
+      <c r="B985" s="14"/>
+    </row>
+    <row r="986">
+      <c r="B986" s="14"/>
+    </row>
+    <row r="987">
+      <c r="B987" s="14"/>
+    </row>
+    <row r="988">
+      <c r="B988" s="14"/>
+    </row>
+    <row r="989">
+      <c r="B989" s="14"/>
+    </row>
+    <row r="990">
+      <c r="B990" s="14"/>
+    </row>
+    <row r="991">
+      <c r="B991" s="14"/>
+    </row>
+    <row r="992">
+      <c r="B992" s="14"/>
+    </row>
+    <row r="993">
+      <c r="B993" s="14"/>
+    </row>
+    <row r="994">
+      <c r="B994" s="14"/>
+    </row>
+    <row r="995">
+      <c r="B995" s="14"/>
+    </row>
+    <row r="996">
+      <c r="B996" s="14"/>
+    </row>
+    <row r="997">
+      <c r="B997" s="14"/>
+    </row>
+    <row r="998">
+      <c r="B998" s="14"/>
+    </row>
+    <row r="999">
+      <c r="B999" s="14"/>
+    </row>
+    <row r="1000">
+      <c r="B1000" s="14"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$C$1))"),"Lebensläufe")</f>
+        <v>Lebensläufe</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$D$1))"),"Currículums")</f>
+        <v>Currículums</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$E$1))"),"Curriculum vitae")</f>
+        <v>Curriculum vitae</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$F$1))"),"Resume")</f>
+        <v>Resume</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$G$1))"),"Riprende")</f>
+        <v>Riprende</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$H$1))"),"履歴書")</f>
+        <v>履歴書</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$I$1))"),"재개")</f>
+        <v>재개</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$J$1))"),"Resumos")</f>
+        <v>Resumos</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$K$1))"),"Резюме")</f>
+        <v>Резюме</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$L$1))"),"ประวัติย่อ")</f>
+        <v>ประวัติย่อ</v>
+      </c>
+      <c r="M2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$M$1))"),"Özgeçmişler")</f>
+        <v>Özgeçmişler</v>
+      </c>
+      <c r="N2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$N$1))"),"Sơ yếu lý lịch")</f>
+        <v>Sơ yếu lý lịch</v>
+      </c>
+      <c r="O2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$O$1))"),"简历")</f>
+        <v>简历</v>
+      </c>
+      <c r="P2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$P$1))"),"簡歷")</f>
+        <v>簡歷</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$C$1))"),"+ Import")</f>
+        <v>+ Import</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$D$1))"),"+ Importación")</f>
+        <v>+ Importación</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$E$1))"),"+ Importation")</f>
+        <v>+ Importation</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$F$1))"),"+ Impor")</f>
+        <v>+ Impor</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$G$1))"),"+ Importazione")</f>
+        <v>+ Importazione</v>
+      </c>
+      <c r="H3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$H$1))"),"+インポート")</f>
+        <v>+インポート</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$I$1))"),"+ 가져 오기")</f>
+        <v>+ 가져 오기</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$J$1))"),"+ Importação")</f>
+        <v>+ Importação</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$K$1))"),"+ Импорт")</f>
+        <v>+ Импорт</v>
+      </c>
+      <c r="L3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$L$1))"),"+ นำเข้า")</f>
+        <v>+ นำเข้า</v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$M$1))"),"+ İthalat")</f>
+        <v>+ İthalat</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="O3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$O$1))"),"+导入")</f>
+        <v>+导入</v>
+      </c>
+      <c r="P3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$P$1))"),"+導入")</f>
+        <v>+導入</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$C$1))"),"+ Neu erstellen")</f>
+        <v>+ Neu erstellen</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$D$1))"),"+ Crear nuevo")</f>
+        <v>+ Crear nuevo</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$E$1))"),"+ Créer nouveau")</f>
+        <v>+ Créer nouveau</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$F$1))"),"+ Buat baru")</f>
+        <v>+ Buat baru</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$G$1))"),"+ Crea nuovo")</f>
+        <v>+ Crea nuovo</v>
+      </c>
+      <c r="H4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$H$1))"),"+新規を作成します")</f>
+        <v>+新規を作成します</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$I$1))"),"+ 새 생성")</f>
+        <v>+ 새 생성</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$J$1))"),"+ Crie novo")</f>
+        <v>+ Crie novo</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$K$1))"),"+ Создать новый")</f>
+        <v>+ Создать новый</v>
+      </c>
+      <c r="L4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$L$1))"),"+ สร้างใหม่")</f>
+        <v>+ สร้างใหม่</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$M$1))"),"+ Yeni Oluştur")</f>
+        <v>+ Yeni Oluştur</v>
+      </c>
+      <c r="N4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$N$1))"),"+ Tạo mới")</f>
+        <v>+ Tạo mới</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$O$1))"),"+创建新的")</f>
+        <v>+创建新的</v>
+      </c>
+      <c r="P4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$P$1))"),"+創建新的")</f>
+        <v>+創建新的</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$C$1))"),"Klicken oder ziehen Sie Datei in diesen Bereich, um hochzuladen")</f>
+        <v>Klicken oder ziehen Sie Datei in diesen Bereich, um hochzuladen</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$D$1))"),"Haga clic o arrastre el archivo a esta área para cargar")</f>
+        <v>Haga clic o arrastre el archivo a esta área para cargar</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$E$1))"),"Cliquez sur ou faites glisser le fichier vers cette zone pour télécharger")</f>
+        <v>Cliquez sur ou faites glisser le fichier vers cette zone pour télécharger</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$F$1))"),"Klik atau seret file ke area ini untuk diunggah")</f>
+        <v>Klik atau seret file ke area ini untuk diunggah</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$G$1))"),"Fare clic o trascinare il file in quest'area per caricare")</f>
+        <v>Fare clic o trascinare il file in quest'area per caricare</v>
+      </c>
+      <c r="H5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$H$1))"),"[ファイル]をクリックまたはドラッグこの領域にアップロードします")</f>
+        <v>[ファイル]をクリックまたはドラッグこの領域にアップロードします</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$I$1))"),"이 영역으로 파일을 클릭하거나 드래그하여 업로드하십시오")</f>
+        <v>이 영역으로 파일을 클릭하거나 드래그하여 업로드하십시오</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$J$1))"),"Clique ou arraste o arquivo para esta área para fazer upload")</f>
+        <v>Clique ou arraste o arquivo para esta área para fazer upload</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$K$1))"),"Нажмите или перетащите файл в эту область, чтобы загрузить")</f>
+        <v>Нажмите или перетащите файл в эту область, чтобы загрузить</v>
+      </c>
+      <c r="L5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$L$1))"),"คลิกหรือลากไฟล์ไปยังพื้นที่นี้เพื่ออัปโหลด")</f>
+        <v>คลิกหรือลากไฟล์ไปยังพื้นที่นี้เพื่ออัปโหลด</v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$M$1))"),"Yüklemek için bu alana dosyayı tıklayın veya sürükleyin")</f>
+        <v>Yüklemek için bu alana dosyayı tıklayın veya sürükleyin</v>
+      </c>
+      <c r="N5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$N$1))"),"Nhấp hoặc kéo tệp đến khu vực này để tải lên")</f>
+        <v>Nhấp hoặc kéo tệp đến khu vực này để tải lên</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$O$1))"),"单击或将文件拖到此区域上传")</f>
+        <v>单击或将文件拖到此区域上传</v>
+      </c>
+      <c r="P5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$P$1))"),"單擊或將文件拖到此區域上傳")</f>
+        <v>單擊或將文件拖到此區域上傳</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$C$1))"),"Lebenslauf importieren")</f>
+        <v>Lebenslauf importieren</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$D$1))"),"Currículum de importación")</f>
+        <v>Currículum de importación</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$E$1))"),"CV IMPORT")</f>
+        <v>CV IMPORT</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$F$1))"),"Impor resume")</f>
+        <v>Impor resume</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$G$1))"),"Riprendi l'importazione")</f>
+        <v>Riprendi l'importazione</v>
+      </c>
+      <c r="H6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$H$1))"),"履歴書を輸入します")</f>
+        <v>履歴書を輸入します</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$I$1))"),"수입 이력서")</f>
+        <v>수입 이력서</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$J$1))"),"Importar currículo")</f>
+        <v>Importar currículo</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$K$1))"),"Импортировать резюме")</f>
+        <v>Импортировать резюме</v>
+      </c>
+      <c r="L6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$L$1))"),"นำเข้าเรซูเม่")</f>
+        <v>นำเข้าเรซูเม่</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$M$1))"),"İthalat Özgeçmişi")</f>
+        <v>İthalat Özgeçmişi</v>
+      </c>
+      <c r="N6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$N$1))"),"Nhập sơ yếu lý lịch")</f>
+        <v>Nhập sơ yếu lý lịch</v>
+      </c>
+      <c r="O6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$O$1))"),"导入简历")</f>
+        <v>导入简历</v>
+      </c>
+      <c r="P6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$P$1))"),"導入簡歷")</f>
+        <v>導入簡歷</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$C$1))"),"Bearbeiten")</f>
+        <v>Bearbeiten</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$D$1))"),"Editar")</f>
+        <v>Editar</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$E$1))"),"Modifier")</f>
+        <v>Modifier</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$F$1))"),"Edit")</f>
+        <v>Edit</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$G$1))"),"Modificare")</f>
+        <v>Modificare</v>
+      </c>
+      <c r="H7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$H$1))"),"編集")</f>
+        <v>編集</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$I$1))"),"편집하다")</f>
+        <v>편집하다</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$J$1))"),"Editar")</f>
+        <v>Editar</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$K$1))"),"Редактировать")</f>
+        <v>Редактировать</v>
+      </c>
+      <c r="L7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$L$1))"),"แก้ไข")</f>
+        <v>แก้ไข</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$M$1))"),"Düzenlemek")</f>
+        <v>Düzenlemek</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$O$1))"),"编辑")</f>
+        <v>编辑</v>
+      </c>
+      <c r="P7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$P$1))"),"編輯")</f>
+        <v>編輯</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$C$1))"),"Duplikat")</f>
+        <v>Duplikat</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$D$1))"),"Duplicar")</f>
+        <v>Duplicar</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$E$1))"),"Dupliquer")</f>
+        <v>Dupliquer</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$F$1))"),"Duplikat")</f>
+        <v>Duplikat</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$G$1))"),"Duplicare")</f>
+        <v>Duplicare</v>
+      </c>
+      <c r="H8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$H$1))"),"複製")</f>
+        <v>複製</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$I$1))"),"복제하다")</f>
+        <v>복제하다</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$J$1))"),"Duplicado")</f>
+        <v>Duplicado</v>
+      </c>
+      <c r="K8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$K$1))"),"Дублировать")</f>
+        <v>Дублировать</v>
+      </c>
+      <c r="L8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$L$1))"),"ทำซ้ำ")</f>
+        <v>ทำซ้ำ</v>
+      </c>
+      <c r="M8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$M$1))"),"Kopyalamak")</f>
+        <v>Kopyalamak</v>
+      </c>
+      <c r="N8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$N$1))"),"Nhân bản")</f>
+        <v>Nhân bản</v>
+      </c>
+      <c r="O8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$O$1))"),"复制")</f>
+        <v>复制</v>
+      </c>
+      <c r="P8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$P$1))"),"複製")</f>
+        <v>複製</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$C$1))"),"Löschen")</f>
+        <v>Löschen</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$D$1))"),"Borrar")</f>
+        <v>Borrar</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$E$1))"),"Supprimer")</f>
+        <v>Supprimer</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$F$1))"),"Menghapus")</f>
+        <v>Menghapus</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$G$1))"),"Eliminare")</f>
+        <v>Eliminare</v>
+      </c>
+      <c r="H9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$H$1))"),"消去")</f>
+        <v>消去</v>
+      </c>
+      <c r="I9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$I$1))"),"삭제")</f>
+        <v>삭제</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$J$1))"),"Excluir")</f>
+        <v>Excluir</v>
+      </c>
+      <c r="K9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$K$1))"),"Удалить")</f>
+        <v>Удалить</v>
+      </c>
+      <c r="L9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$L$1))"),"ลบ")</f>
+        <v>ลบ</v>
+      </c>
+      <c r="M9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$M$1))"),"Silmek")</f>
+        <v>Silmek</v>
+      </c>
+      <c r="N9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$N$1))"),"Xóa bỏ")</f>
+        <v>Xóa bỏ</v>
+      </c>
+      <c r="O9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$O$1))"),"删除")</f>
+        <v>删除</v>
+      </c>
+      <c r="P9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$P$1))"),"刪除")</f>
+        <v>刪除</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$C$1))"),"Löschen")</f>
+        <v>Löschen</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$D$1))"),"Borrar")</f>
+        <v>Borrar</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$E$1))"),"Supprimer")</f>
+        <v>Supprimer</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$F$1))"),"Menghapus")</f>
+        <v>Menghapus</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$G$1))"),"Eliminare")</f>
+        <v>Eliminare</v>
+      </c>
+      <c r="H10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$H$1))"),"消去")</f>
+        <v>消去</v>
+      </c>
+      <c r="I10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$I$1))"),"삭제")</f>
+        <v>삭제</v>
+      </c>
+      <c r="J10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$J$1))"),"Excluir")</f>
+        <v>Excluir</v>
+      </c>
+      <c r="K10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$K$1))"),"Удалить")</f>
+        <v>Удалить</v>
+      </c>
+      <c r="L10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$L$1))"),"ลบ")</f>
+        <v>ลบ</v>
+      </c>
+      <c r="M10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$M$1))"),"Silmek")</f>
+        <v>Silmek</v>
+      </c>
+      <c r="N10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$N$1))"),"Xóa bỏ")</f>
+        <v>Xóa bỏ</v>
+      </c>
+      <c r="O10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$O$1))"),"删除")</f>
+        <v>删除</v>
+      </c>
+      <c r="P10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$P$1))"),"刪除")</f>
+        <v>刪除</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$C$1))"),"Stornieren")</f>
+        <v>Stornieren</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$D$1))"),"Cancelar")</f>
+        <v>Cancelar</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$E$1))"),"Annuler")</f>
+        <v>Annuler</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$F$1))"),"Membatalkan")</f>
+        <v>Membatalkan</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$G$1))"),"Annulla")</f>
+        <v>Annulla</v>
+      </c>
+      <c r="H11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$H$1))"),"キャンセル")</f>
+        <v>キャンセル</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$I$1))"),"취소")</f>
+        <v>취소</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$J$1))"),"Cancelar")</f>
+        <v>Cancelar</v>
+      </c>
+      <c r="K11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$K$1))"),"Отмена")</f>
+        <v>Отмена</v>
+      </c>
+      <c r="L11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$L$1))"),"ยกเลิก")</f>
+        <v>ยกเลิก</v>
+      </c>
+      <c r="M11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$M$1))"),"İptal etmek")</f>
+        <v>İptal etmek</v>
+      </c>
+      <c r="N11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$N$1))"),"Hủy bỏ")</f>
+        <v>Hủy bỏ</v>
+      </c>
+      <c r="O11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$O$1))"),"取消")</f>
+        <v>取消</v>
+      </c>
+      <c r="P11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$P$1))"),"取消")</f>
+        <v>取消</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$C$1))"),"OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$D$1))"),"DE ACUERDO")</f>
+        <v>DE ACUERDO</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$E$1))"),"D'ACCORD")</f>
+        <v>D'ACCORD</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$F$1))"),"OKE")</f>
+        <v>OKE</v>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$G$1))"),"OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="H12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$H$1))"),"OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="I12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$I$1))"),"좋아요")</f>
+        <v>좋아요</v>
+      </c>
+      <c r="J12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$J$1))"),"OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="K12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$K$1))"),"ХОРОШО")</f>
+        <v>ХОРОШО</v>
+      </c>
+      <c r="L12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$L$1))"),"ตกลง")</f>
+        <v>ตกลง</v>
+      </c>
+      <c r="M12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$M$1))"),"TAMAM")</f>
+        <v>TAMAM</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$O$1))"),"好的")</f>
+        <v>好的</v>
+      </c>
+      <c r="P12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$P$1))"),"好的")</f>
+        <v>好的</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$C$1))"),"Lebenslauf löschen")</f>
+        <v>Lebenslauf löschen</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$D$1))"),"Eliminar currículum")</f>
+        <v>Eliminar currículum</v>
+      </c>
+      <c r="E13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$E$1))"),"Supprimer le CV")</f>
+        <v>Supprimer le CV</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$F$1))"),"Hapus resume")</f>
+        <v>Hapus resume</v>
+      </c>
+      <c r="G13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$G$1))"),"Elimina il curriculum")</f>
+        <v>Elimina il curriculum</v>
+      </c>
+      <c r="H13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$H$1))"),"履歴書を削除します")</f>
+        <v>履歴書を削除します</v>
+      </c>
+      <c r="I13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$I$1))"),"이력서 삭제")</f>
+        <v>이력서 삭제</v>
+      </c>
+      <c r="J13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$J$1))"),"Exclua currículo")</f>
+        <v>Exclua currículo</v>
+      </c>
+      <c r="K13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$K$1))"),"Удалить резюме")</f>
+        <v>Удалить резюме</v>
+      </c>
+      <c r="L13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$L$1))"),"ลบเรซูเม่")</f>
+        <v>ลบเรซูเม่</v>
+      </c>
+      <c r="M13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$M$1))"),"Özgeçmişi Sil")</f>
+        <v>Özgeçmişi Sil</v>
+      </c>
+      <c r="N13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$N$1))"),"Xóa sơ yếu lý lịch")</f>
+        <v>Xóa sơ yếu lý lịch</v>
+      </c>
+      <c r="O13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$O$1))"),"删除简历")</f>
+        <v>删除简历</v>
+      </c>
+      <c r="P13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$P$1))"),"刪除簡歷")</f>
+        <v>刪除簡歷</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$C$1))"),"Sind Sie sicher, dass Sie diesen Lebenslauf löschen möchten?")</f>
+        <v>Sind Sie sicher, dass Sie diesen Lebenslauf löschen möchten?</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$D$1))"),"¿Estás seguro de que quieres eliminar este currículum?")</f>
+        <v>¿Estás seguro de que quieres eliminar este currículum?</v>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$E$1))"),"Êtes-vous sûr de vouloir supprimer ce curriculum vitae?")</f>
+        <v>Êtes-vous sûr de vouloir supprimer ce curriculum vitae?</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$F$1))"),"Apakah Anda yakin ingin menghapus resume ini?")</f>
+        <v>Apakah Anda yakin ingin menghapus resume ini?</v>
+      </c>
+      <c r="G14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$G$1))"),"Sei sicuro di voler eliminare questo curriculum?")</f>
+        <v>Sei sicuro di voler eliminare questo curriculum?</v>
+      </c>
+      <c r="H14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$H$1))"),"この履歴書を削除したいですか？")</f>
+        <v>この履歴書を削除したいですか？</v>
+      </c>
+      <c r="I14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$I$1))"),"이 이력서를 삭제 하시겠습니까?")</f>
+        <v>이 이력서를 삭제 하시겠습니까?</v>
+      </c>
+      <c r="J14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$J$1))"),"Tem certeza de que deseja excluir este currículo?")</f>
+        <v>Tem certeza de que deseja excluir este currículo?</v>
+      </c>
+      <c r="K14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$K$1))"),"Вы уверены, что хотите удалить это резюме?")</f>
+        <v>Вы уверены, что хотите удалить это резюме?</v>
+      </c>
+      <c r="L14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$L$1))"),"แน่ใจหรือว่าต้องการลบประวัติย่อนี้?")</f>
+        <v>แน่ใจหรือว่าต้องการลบประวัติย่อนี้?</v>
+      </c>
+      <c r="M14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$M$1))"),"Bu özgeçmişi silmek istediğinden emin misiniz?")</f>
+        <v>Bu özgeçmişi silmek istediğinden emin misiniz?</v>
+      </c>
+      <c r="N14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$N$1))"),"Bạn có chắc là bạn muốn xóa sơ yếu lý lịch này?")</f>
+        <v>Bạn có chắc là bạn muốn xóa sơ yếu lý lịch này?</v>
+      </c>
+      <c r="O14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$O$1))"),"您确定要删除此简历吗？")</f>
+        <v>您确定要删除此简历吗？</v>
+      </c>
+      <c r="P14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$P$1))"),"您確定要刪除此簡歷嗎？")</f>
+        <v>您確定要刪除此簡歷嗎？</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/front-end/TLTLocalize.xlsx
+++ b/front-end/TLTLocalize.xlsx
@@ -6,6 +6,7 @@
     <sheet state="visible" name="home" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="template" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="dashboard" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="edit" sheetId="4" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -13,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="195">
   <si>
     <t>key</t>
   </si>
@@ -311,6 +312,294 @@
   <si>
     <t>Are you sure you want to delete this resume?</t>
   </si>
+  <si>
+    <t>edit-wanted-job-title</t>
+  </si>
+  <si>
+    <t>Wanted Job Title</t>
+  </si>
+  <si>
+    <t>Công việc mong muốn</t>
+  </si>
+  <si>
+    <t>edit-first-name</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>edit-last-name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>edit-email</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>edit-phone</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>edit-country</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>edit-city</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>edit-address</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>edit-postal-code</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>edit-driving-license</t>
+  </si>
+  <si>
+    <t>Driving License</t>
+  </si>
+  <si>
+    <t>edit-nationality</t>
+  </si>
+  <si>
+    <t>Nationality</t>
+  </si>
+  <si>
+    <t>edit-place-of-birth</t>
+  </si>
+  <si>
+    <t>Place Of Birth</t>
+  </si>
+  <si>
+    <t>eidt-date-of-birth</t>
+  </si>
+  <si>
+    <t>Date Of Birth</t>
+  </si>
+  <si>
+    <t>edit-show-add-details</t>
+  </si>
+  <si>
+    <t>Edit additional details</t>
+  </si>
+  <si>
+    <t>edit-hide-add-details</t>
+  </si>
+  <si>
+    <t>Hide additional details</t>
+  </si>
+  <si>
+    <t>edit-summary-description</t>
+  </si>
+  <si>
+    <t>Write 2-4 short &amp; energetic sentences to interest the reader! Mention your role, experience &amp; most importantly - your biggest achievements, best qualities and skills.</t>
+  </si>
+  <si>
+    <t>Viết 2-4 câu ngắn &amp; năng lượng để thu hút người đọc! Đề cập đến vai trò, kinh nghiệm và quan trọng nhất của bạn - thành tích lớn nhất của bạn, phẩm chất và kỹ năng tốt nhất.</t>
+  </si>
+  <si>
+    <t>edit-employment-description</t>
+  </si>
+  <si>
+    <t>Show your relevant experience (last 10 years). Use bullet points to note your achievements, if possible - use numbers/facts (Achieved X, measured by Y, by doing Z).</t>
+  </si>
+  <si>
+    <t>edit-education-description</t>
+  </si>
+  <si>
+    <t>A varied education on your resume sums up the value that your learnings and background will bring to job.</t>
+  </si>
+  <si>
+    <t>edit-link-description</t>
+  </si>
+  <si>
+    <t>You can add links to websites you want hiring managers to see! Perhaps It will be  a link to your portfolio, LinkedIn profile, or personal website.</t>
+  </si>
+  <si>
+    <t>eidt-skill-description</t>
+  </si>
+  <si>
+    <t>Choose 5 of the most important skills to show your talents! Make sure they match the keywords of the job listing if applying via an online system.</t>
+  </si>
+  <si>
+    <t>edit-job-title</t>
+  </si>
+  <si>
+    <t>Job Title</t>
+  </si>
+  <si>
+    <t>edit-employer</t>
+  </si>
+  <si>
+    <t>Employer</t>
+  </si>
+  <si>
+    <t>edit-start-date</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>edit-end-date</t>
+  </si>
+  <si>
+    <t>End Date</t>
+  </si>
+  <si>
+    <t>Ngày kết thúc</t>
+  </si>
+  <si>
+    <t>edit-description</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Mô tả</t>
+  </si>
+  <si>
+    <t>edit-school</t>
+  </si>
+  <si>
+    <t>School</t>
+  </si>
+  <si>
+    <t>edit-degree</t>
+  </si>
+  <si>
+    <t>Degree</t>
+  </si>
+  <si>
+    <t>edit-label</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>edit-link</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>edit-skills</t>
+  </si>
+  <si>
+    <t>Skills</t>
+  </si>
+  <si>
+    <t>edit-level</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>edit-level-1</t>
+  </si>
+  <si>
+    <t>Novice</t>
+  </si>
+  <si>
+    <t>Người mới</t>
+  </si>
+  <si>
+    <t>edit-level-2</t>
+  </si>
+  <si>
+    <t>Beginner</t>
+  </si>
+  <si>
+    <t>edit-level-3</t>
+  </si>
+  <si>
+    <t>Skillful</t>
+  </si>
+  <si>
+    <t>Nhiều kinh nghiệm</t>
+  </si>
+  <si>
+    <t>edit-level-4</t>
+  </si>
+  <si>
+    <t>Experienced</t>
+  </si>
+  <si>
+    <t>Thành thạo</t>
+  </si>
+  <si>
+    <t>edit-level-5</t>
+  </si>
+  <si>
+    <t>Expert</t>
+  </si>
+  <si>
+    <t>edit-dont-show-experience-level</t>
+  </si>
+  <si>
+    <t>Don't show experience level</t>
+  </si>
+  <si>
+    <t>edit-not-specified</t>
+  </si>
+  <si>
+    <t>Not specified</t>
+  </si>
+  <si>
+    <t>edit-add-one-more-employment</t>
+  </si>
+  <si>
+    <t>Add one more employment</t>
+  </si>
+  <si>
+    <t>Thêm một kinh nghiệm làm việc nữa</t>
+  </si>
+  <si>
+    <t>edit-add-one-more-education</t>
+  </si>
+  <si>
+    <t>Add one more education</t>
+  </si>
+  <si>
+    <t>Thêm một học vấn nữa</t>
+  </si>
+  <si>
+    <t>edit-add-one-more-links</t>
+  </si>
+  <si>
+    <t>Add one more links</t>
+  </si>
+  <si>
+    <t>edit-add-one-more-skills</t>
+  </si>
+  <si>
+    <t>Add one more skills</t>
+  </si>
+  <si>
+    <t>edit-save-resume</t>
+  </si>
+  <si>
+    <t>Save Resume</t>
+  </si>
 </sst>
 </file>
 
@@ -483,6 +772,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -833,8 +1126,8 @@
         <v>Use plantillas de currículum probadas en campo profesionales que sigan las 'reglas de currículum' exactas que los empleadores buscan</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$E$1))"),"Utilisez des modèles de CV professionnels testés sur le terrain qui suivent les employeurs exacts des «règles de curriculum vitae» recherche")</f>
-        <v>Utilisez des modèles de CV professionnels testés sur le terrain qui suivent les employeurs exacts des «règles de curriculum vitae» recherche</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$E$1))"),"Utilisez des modèles de CV professionnels testés sur le terrain qui suivent les employeurs exacts des «règles de curriculum vitae»")</f>
+        <v>Utilisez des modèles de CV professionnels testés sur le terrain qui suivent les employeurs exacts des «règles de curriculum vitae»</v>
       </c>
       <c r="F3" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$F$1))"),"Gunakan template resume yang telah teruji di lapangan yang mengikuti yang tepat pencarian 'aturan resume' yang tepat")</f>
@@ -969,8 +1262,8 @@
         <v>Buat resume sempurna untuk pasar kerja modern</v>
       </c>
       <c r="G5" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$G$1))"),"Crea curriculum perfetti per il moderno mercato del lavoro")</f>
-        <v>Crea curriculum perfetti per il moderno mercato del lavoro</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$G$1))"),"Crea curriculum perfetto per il moderno mercato del lavoro")</f>
+        <v>Crea curriculum perfetto per il moderno mercato del lavoro</v>
       </c>
       <c r="H5" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$H$1))"),"近代的な雇用市場に最適な履歴書を作成します")</f>
@@ -18888,8 +19181,8 @@
         <v>56</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$C$1))"),"Jobs Vorlagen mit dem Arbeitsplatz")</f>
-        <v>Jobs Vorlagen mit dem Arbeitsplatz</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$C$1))"),"Job-Preisträger-Lebenslaufvorlagen")</f>
+        <v>Job-Preisträger-Lebenslaufvorlagen</v>
       </c>
       <c r="D8" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$D$1))"),"Plantillas de currículum ganadoras de trabajo")</f>
@@ -18912,8 +19205,8 @@
         <v>就職活動の履歴書テンプレート</v>
       </c>
       <c r="I8" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$I$1))"),"작업을 수상한 이력서 템플릿")</f>
-        <v>작업을 수상한 이력서 템플릿</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$I$1))"),"직업 이력서 이력서 템플릿")</f>
+        <v>직업 이력서 이력서 템플릿</v>
       </c>
       <c r="J8" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$J$1))"),"Modelos de currículo vencedor do trabalho")</f>
@@ -18952,16 +19245,16 @@
         <v>58</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$C$1))"),"Jede Lebenslaufvorlage ist fachmännisch gestaltet und folgt den genauen Einstellungsmanagern „Lebenslaufregeln“. Stechen Sie heraus und lassen Sie sich schneller mit Feldvorlagen mit Feldnahrungsläufen einstellen.")</f>
-        <v>Jede Lebenslaufvorlage ist fachmännisch gestaltet und folgt den genauen Einstellungsmanagern „Lebenslaufregeln“. Stechen Sie heraus und lassen Sie sich schneller mit Feldvorlagen mit Feldnahrungsläufen einstellen.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$C$1))"),"Jede Lebenslaufvorlage ist fachmännisch gestaltet und folgt den genauen „Lebenslaufregeln“ -Mietmanagern, nach denen suchen. Stechen Sie heraus und lassen Sie sich schneller mit Feldvorlagen mit Feldnahrungsläufen einstellen.")</f>
+        <v>Jede Lebenslaufvorlage ist fachmännisch gestaltet und folgt den genauen „Lebenslaufregeln“ -Mietmanagern, nach denen suchen. Stechen Sie heraus und lassen Sie sich schneller mit Feldvorlagen mit Feldnahrungsläufen einstellen.</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$D$1))"),"Cada plantilla de currículum está diseñada de manera experta y sigue las ""reglas de currículum"" que buscan los gerentes de contratación. Destaca y es contratado más rápido con plantillas de currículum probadas en campo.")</f>
-        <v>Cada plantilla de currículum está diseñada de manera experta y sigue las "reglas de currículum" que buscan los gerentes de contratación. Destaca y es contratado más rápido con plantillas de currículum probadas en campo.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$D$1))"),"Cada plantilla de currículum está diseñada de manera experta y sigue las ""reglas de currículum"" exacta que buscan los gerentes. Destaca y es contratado más rápido con plantillas de currículum probadas en campo.")</f>
+        <v>Cada plantilla de currículum está diseñada de manera experta y sigue las "reglas de currículum" exacta que buscan los gerentes. Destaca y es contratado más rápido con plantillas de currículum probadas en campo.</v>
       </c>
       <c r="E9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$E$1))"),"Chaque modèle de curriculum vitae est conçu de manière experte et suit les gestionnaires de recrutement des «règles de CV» exacts. Se démarquez et soyez embauché plus rapidement avec des modèles de curriculum vitae testés sur le terrain.")</f>
-        <v>Chaque modèle de curriculum vitae est conçu de manière experte et suit les gestionnaires de recrutement des «règles de CV» exacts. Se démarquez et soyez embauché plus rapidement avec des modèles de curriculum vitae testés sur le terrain.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$E$1))"),"Chaque modèle de curriculum vitae est conçu de manière experte et suit les gestionnaires de recrutement des «règles de curriculum vitae» exacts. Se démarquez et soyez embauché plus rapidement avec des modèles de curriculum vitae testés sur le terrain.")</f>
+        <v>Chaque modèle de curriculum vitae est conçu de manière experte et suit les gestionnaires de recrutement des «règles de curriculum vitae» exacts. Se démarquez et soyez embauché plus rapidement avec des modèles de curriculum vitae testés sur le terrain.</v>
       </c>
       <c r="F9" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$F$1))"),"Setiap template resume dirancang dengan ahli dan mengikuti ""aturan resume"" yang tepat yang dicari oleh manajer. Menonjol dan dipekerjakan lebih cepat dengan templat resume yang telah teruji di lapangan.")</f>
@@ -18972,28 +19265,28 @@
         <v>Ogni modello di curriculum è progettato con competenza e segue l'esatta "REGOLE REGOLE" che i gestori delle assunzioni cercano. Distinguiti e fatti assumere più velocemente con modelli di curriculum testati sul campo.</v>
       </c>
       <c r="H9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$H$1))"),"各履歴書テンプレートは専門的に設計されており、正確な「履歴書ルール」マネージャーが探しています。目立つと、フィールドテスト式の履歴書テンプレートを使用して、より速く雇われます。")</f>
-        <v>各履歴書テンプレートは専門的に設計されており、正確な「履歴書ルール」マネージャーが探しています。目立つと、フィールドテスト式の履歴書テンプレートを使用して、より速く雇われます。</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$H$1))"),"各履歴書テンプレートは巧みに設計されており、マネージャーが探している正確な「履歴書ルール」に従います。目立つと、フィールドテスト式の履歴書テンプレートを使用して、より速く雇われます。")</f>
+        <v>各履歴書テンプレートは巧みに設計されており、マネージャーが探している正確な「履歴書ルール」に従います。目立つと、フィールドテスト式の履歴書テンプレートを使用して、より速く雇われます。</v>
       </c>
       <c r="I9" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$I$1))"),"각 이력서 템플릿은 전문적으로 설계되었으며 정확한 ""이력서 규칙""채용 관리자가 찾는 것입니다. 필드 테스트 이력서 템플릿으로 눈에 띄고 더 빨리 고용됩니다.")</f>
         <v>각 이력서 템플릿은 전문적으로 설계되었으며 정확한 "이력서 규칙"채용 관리자가 찾는 것입니다. 필드 테스트 이력서 템플릿으로 눈에 띄고 더 빨리 고용됩니다.</v>
       </c>
       <c r="J9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$J$1))"),"Cada modelo de currículo é projetado com habilidade e segue os gerentes exatos de contratação de ""Regras de currículo"" procuram. Destaque-se e seja contratado mais rápido com modelos de currículo testados em campo.")</f>
-        <v>Cada modelo de currículo é projetado com habilidade e segue os gerentes exatos de contratação de "Regras de currículo" procuram. Destaque-se e seja contratado mais rápido com modelos de currículo testados em campo.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$J$1))"),"Cada modelo de currículo é projetado com habilidade e segue os gerentes de contratação exatos de “Regras de currículo” procuram. Destaque-se e seja contratado mais rápido com modelos de currículo testados em campo.")</f>
+        <v>Cada modelo de currículo é projetado com habilidade e segue os gerentes de contratação exatos de “Regras de currículo” procuram. Destaque-se e seja contratado mais rápido com modelos de currículo testados em campo.</v>
       </c>
       <c r="K9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$K$1))"),"Каждый шаблон резюме опытный и следит за тем, как ищут точные менеджеры по найму «Правила резюме». Выделитесь и нанимайте быстрее с проверенными на полевых шаблонах резюме.")</f>
-        <v>Каждый шаблон резюме опытный и следит за тем, как ищут точные менеджеры по найму «Правила резюме». Выделитесь и нанимайте быстрее с проверенными на полевых шаблонах резюме.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$K$1))"),"Каждый шаблон резюме опытный и следит за точными менеджерами по найму «Правил резюме». Выделитесь и нанимайте быстрее с проверенными на полевых шаблонах резюме.")</f>
+        <v>Каждый шаблон резюме опытный и следит за точными менеджерами по найму «Правил резюме». Выделитесь и нанимайте быстрее с проверенными на полевых шаблонах резюме.</v>
       </c>
       <c r="L9" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$L$1))"),"เทมเพลตเรซูเม่แต่ละรายการได้รับการออกแบบอย่างเชี่ยวชาญและติดตามผู้จัดการการจ้างงาน“ Resume Resume” ที่แน่นอน โดดเด่นและได้รับการว่าจ้างเร็วขึ้นด้วยเทมเพลตเรซูเม่ที่ผ่านการทดสอบภาคสนาม")</f>
         <v>เทมเพลตเรซูเม่แต่ละรายการได้รับการออกแบบอย่างเชี่ยวชาญและติดตามผู้จัดการการจ้างงาน“ Resume Resume” ที่แน่นอน โดดเด่นและได้รับการว่าจ้างเร็วขึ้นด้วยเทมเพลตเรซูเม่ที่ผ่านการทดสอบภาคสนาม</v>
       </c>
       <c r="M9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$M$1))"),"Her özgeçmiş şablonu ustaca tasarlanmıştır ve işe alım yöneticilerinin aradığı tam “özgeçmiş kurallarını” takip eder. Saha tarafından test edilmiş özgeçmiş şablonları ile öne çıkın ve daha hızlı işe alın.")</f>
-        <v>Her özgeçmiş şablonu ustaca tasarlanmıştır ve işe alım yöneticilerinin aradığı tam “özgeçmiş kurallarını” takip eder. Saha tarafından test edilmiş özgeçmiş şablonları ile öne çıkın ve daha hızlı işe alın.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$M$1))"),"Her özgeçmiş şablonu ustaca tasarlanmıştır ve işe alım yöneticilerinin aradığı “özgeçmiş kuralları” nı takip eder. Saha tarafından test edilmiş özgeçmiş şablonları ile öne çıkın ve daha hızlı işe alın.")</f>
+        <v>Her özgeçmiş şablonu ustaca tasarlanmıştır ve işe alım yöneticilerinin aradığı “özgeçmiş kuralları” nı takip eder. Saha tarafından test edilmiş özgeçmiş şablonları ile öne çıkın ve daha hızlı işe alın.</v>
       </c>
       <c r="N9" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$N$1))"),"Mỗi mẫu sơ yếu lý lịch được thiết kế một cách chuyên nghiệp và tuân theo các quy tắc sơ yếu lý lịch chính xác của các nhà quản lý tuyển dụng. Nổi bật và được thuê nhanh hơn với các mẫu sơ yếu lý lịch thử nghiệm trường.")</f>
@@ -19028,24 +19321,24 @@
         <v>Modèles de CV créatifs gagnants</v>
       </c>
       <c r="F10" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$F$1))"),"Template resume kreatif yang memenangkan pekerjaan")</f>
-        <v>Template resume kreatif yang memenangkan pekerjaan</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$F$1))"),"Template resume kreatif pemenang pekerjaan")</f>
+        <v>Template resume kreatif pemenang pekerjaan</v>
       </c>
       <c r="G10" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$G$1))"),"Modelli di curriculum creativi vincitori di lavoro")</f>
         <v>Modelli di curriculum creativi vincitori di lavoro</v>
       </c>
       <c r="H10" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$H$1))"),"就職活動のクリエイティブ履歴書テンプレート")</f>
-        <v>就職活動のクリエイティブ履歴書テンプレート</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$H$1))"),"就職活動中のクリエイティブ履歴書テンプレート")</f>
+        <v>就職活動中のクリエイティブ履歴書テンプレート</v>
       </c>
       <c r="I10" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$I$1))"),"직업을 얻은 창조적 인 이력서 템플릿")</f>
         <v>직업을 얻은 창조적 인 이력서 템플릿</v>
       </c>
       <c r="J10" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$J$1))"),"Modelos de currículo criativo vencedor do trabalho")</f>
-        <v>Modelos de currículo criativo vencedor do trabalho</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$J$1))"),"Modelos de currículo criativo vencedor")</f>
+        <v>Modelos de currículo criativo vencedor</v>
       </c>
       <c r="K10" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$K$1))"),"Завоеванные рабочие творческие шаблоны резюме")</f>
@@ -19108,8 +19401,8 @@
         <v>각 템플릿은 전문적으로 설계되었으며 정확한 "이력서 규칙"고용 관리자가 찾는 것입니다. 필드 테스트 이력서 템플릿으로 눈에 띄고 더 빨리 고용됩니다.</v>
       </c>
       <c r="J11" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$J$1))"),"Cada modelo é projetado com habilidade e segue os gerentes exatos de contratação de ""Regras de retomar"". Destaque-se e seja contratado mais rápido com modelos de currículo testados em campo.")</f>
-        <v>Cada modelo é projetado com habilidade e segue os gerentes exatos de contratação de "Regras de retomar". Destaque-se e seja contratado mais rápido com modelos de currículo testados em campo.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$J$1))"),"Cada modelo é projetado com habilidade e segue os gerentes exatos de contratação de ""Regras de currículo"" procuram. Destaque-se e seja contratado mais rápido com modelos de currículo testados em campo.")</f>
+        <v>Cada modelo é projetado com habilidade e segue os gerentes exatos de contratação de "Regras de currículo" procuram. Destaque-se e seja contratado mais rápido com modelos de currículo testados em campo.</v>
       </c>
       <c r="K11" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$K$1))"),"Каждый шаблон искусно спроектирован и следует за точными менеджерами по найму «правил резюме». Выделитесь и нанимайте быстрее с проверенными на полевых шаблонах резюме.")</f>
@@ -19236,8 +19529,8 @@
         <v>각 템플릿은 전문적으로 설계되었으며 정확한 "이력서 규칙"고용 관리자가 찾는 것입니다. 필드 테스트 이력서 템플릿으로 눈에 띄고 더 빨리 고용됩니다.</v>
       </c>
       <c r="J13" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$J$1))"),"Cada modelo é projetado com habilidade e segue os gerentes exatos de contratação de ""Regras de retomar"". Destaque-se e seja contratado mais rápido com modelos de currículo testados em campo.")</f>
-        <v>Cada modelo é projetado com habilidade e segue os gerentes exatos de contratação de "Regras de retomar". Destaque-se e seja contratado mais rápido com modelos de currículo testados em campo.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$J$1))"),"Cada modelo é projetado com habilidade e segue os gerentes exatos de contratação de ""Regras de currículo"" procuram. Destaque-se e seja contratado mais rápido com modelos de currículo testados em campo.")</f>
+        <v>Cada modelo é projetado com habilidade e segue os gerentes exatos de contratação de "Regras de currículo" procuram. Destaque-se e seja contratado mais rápido com modelos de currículo testados em campo.</v>
       </c>
       <c r="K13" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$K$1))"),"Каждый шаблон искусно спроектирован и следует за точными менеджерами по найму «правил резюме». Выделитесь и нанимайте быстрее с проверенными на полевых шаблонах резюме.")</f>
@@ -19276,8 +19569,8 @@
         <v>Berufsgekrönte professionelle Lebenslaufvorlagen</v>
       </c>
       <c r="D14" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$D$1))"),"Plantillas de currículum vitae profesional ganadoras de empleo")</f>
-        <v>Plantillas de currículum vitae profesional ganadoras de empleo</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$D$1))"),"Plantillas de currículums profesionales ganadores de empleo")</f>
+        <v>Plantillas de currículums profesionales ganadores de empleo</v>
       </c>
       <c r="E14" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$E$1))"),"Modèles de CV professionnels gagnants")</f>
@@ -19292,16 +19585,16 @@
         <v>Modelli di curriculum professionisti vincitori di lavoro</v>
       </c>
       <c r="H14" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$H$1))"),"就職活動中のプロの履歴書テンプレート")</f>
-        <v>就職活動中のプロの履歴書テンプレート</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$H$1))"),"仕事に勝つプロの履歴書テンプレート")</f>
+        <v>仕事に勝つプロの履歴書テンプレート</v>
       </c>
       <c r="I14" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$I$1))"),"직업을 얻은 전문 이력서 템플릿")</f>
         <v>직업을 얻은 전문 이력서 템플릿</v>
       </c>
       <c r="J14" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$J$1))"),"Modelos de currículo profissional vencedor de empregos")</f>
-        <v>Modelos de currículo profissional vencedor de empregos</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$J$1))"),"Modelos de currículo profissional vencedor do emprego")</f>
+        <v>Modelos de currículo profissional vencedor do emprego</v>
       </c>
       <c r="K14" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$K$1))"),"Завоеванные рабочие профессиональные шаблоны резюме")</f>
@@ -19364,8 +19657,8 @@
         <v>각 템플릿은 전문적으로 설계되었으며 정확한 "이력서 규칙"고용 관리자가 찾는 것입니다. 필드 테스트 이력서 템플릿으로 눈에 띄고 더 빨리 고용됩니다.</v>
       </c>
       <c r="J15" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$J$1))"),"Cada modelo é projetado com habilidade e segue os gerentes exatos de contratação de ""Regras de retomar"". Destaque-se e seja contratado mais rápido com modelos de currículo testados em campo.")</f>
-        <v>Cada modelo é projetado com habilidade e segue os gerentes exatos de contratação de "Regras de retomar". Destaque-se e seja contratado mais rápido com modelos de currículo testados em campo.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$J$1))"),"Cada modelo é projetado com habilidade e segue os gerentes exatos de contratação de ""Regras de currículo"" procuram. Destaque-se e seja contratado mais rápido com modelos de currículo testados em campo.")</f>
+        <v>Cada modelo é projetado com habilidade e segue os gerentes exatos de contratação de "Regras de currículo" procuram. Destaque-se e seja contratado mais rápido com modelos de currículo testados em campo.</v>
       </c>
       <c r="K15" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$K$1))"),"Каждый шаблон искусно спроектирован и следует за точными менеджерами по найму «правил резюме». Выделитесь и нанимайте быстрее с проверенными на полевых шаблонах резюме.")</f>
@@ -19400,12 +19693,12 @@
         <v>70</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$C$1))"),"Jobs mit dem Arbeitsplatz mit modernen Lebenslaufvorlagen")</f>
-        <v>Jobs mit dem Arbeitsplatz mit modernen Lebenslaufvorlagen</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$C$1))"),"Jobs im Arbeitsplatz moderne Lebenslaufvorlagen")</f>
+        <v>Jobs im Arbeitsplatz moderne Lebenslaufvorlagen</v>
       </c>
       <c r="D16" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$D$1))"),"Plantillas de currículum modernas ganadoras de empleo")</f>
-        <v>Plantillas de currículum modernas ganadoras de empleo</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$D$1))"),"Plantillas de currículum modernas ganadoras de trabajo")</f>
+        <v>Plantillas de currículum modernas ganadoras de trabajo</v>
       </c>
       <c r="E16" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$E$1))"),"Modèles de CV modernes gagnants")</f>
@@ -19432,8 +19725,8 @@
         <v>Modelos de currículo modernos vencedores</v>
       </c>
       <c r="K16" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$K$1))"),"Завоеванные работы современные шаблоны резюме")</f>
-        <v>Завоеванные работы современные шаблоны резюме</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$K$1))"),"Завоеванные работой шаблоны современных резюме")</f>
+        <v>Завоеванные работой шаблоны современных резюме</v>
       </c>
       <c r="L16" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$L$1))"),"เทมเพลตเรซูเม่ที่ทันสมัยที่ได้รับรางวัลงาน")</f>
@@ -19492,8 +19785,8 @@
         <v>각 템플릿은 전문적으로 설계되었으며 정확한 "이력서 규칙"고용 관리자가 찾는 것입니다. 필드 테스트 이력서 템플릿으로 눈에 띄고 더 빨리 고용됩니다.</v>
       </c>
       <c r="J17" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$J$1))"),"Cada modelo é projetado com habilidade e segue os gerentes exatos de contratação de ""Regras de retomar"". Destaque-se e seja contratado mais rápido com modelos de currículo testados em campo.")</f>
-        <v>Cada modelo é projetado com habilidade e segue os gerentes exatos de contratação de "Regras de retomar". Destaque-se e seja contratado mais rápido com modelos de currículo testados em campo.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$J$1))"),"Cada modelo é projetado com habilidade e segue os gerentes exatos de contratação de ""Regras de currículo"" procuram. Destaque-se e seja contratado mais rápido com modelos de currículo testados em campo.")</f>
+        <v>Cada modelo é projetado com habilidade e segue os gerentes exatos de contratação de "Regras de currículo" procuram. Destaque-se e seja contratado mais rápido com modelos de currículo testados em campo.</v>
       </c>
       <c r="K17" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$K$1))"),"Каждый шаблон искусно спроектирован и следует за точными менеджерами по найму «правил резюме». Выделитесь и нанимайте быстрее с проверенными на полевых шаблонах резюме.")</f>
@@ -22634,8 +22927,8 @@
         <v>+ 가져 오기</v>
       </c>
       <c r="J3" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$J$1))"),"+ Importação")</f>
-        <v>+ Importação</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$J$1))"),"+ Importar")</f>
+        <v>+ Importar</v>
       </c>
       <c r="K3" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$K$1))"),"+ Импорт")</f>
@@ -23362,6 +23655,5678 @@
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$P$1))"),"您確定要刪除此簡歷嗎？")</f>
         <v>您確定要刪除此簡歷嗎？</v>
       </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$C$1))"),"Wollte Berufsbezeichnung")</f>
+        <v>Wollte Berufsbezeichnung</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$D$1))"),"QUERIDO TÍTULO DE TRABAJO")</f>
+        <v>QUERIDO TÍTULO DE TRABAJO</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$E$1))"),"Titre de poste recherché")</f>
+        <v>Titre de poste recherché</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$F$1))"),"Diinginkan gelar pekerjaan")</f>
+        <v>Diinginkan gelar pekerjaan</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$G$1))"),"Desiderato titolo di lavoro")</f>
+        <v>Desiderato titolo di lavoro</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$H$1))"),"募集役職")</f>
+        <v>募集役職</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$I$1))"),"원하는 직업 소유권")</f>
+        <v>원하는 직업 소유권</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$J$1))"),"Título do trabalho queria")</f>
+        <v>Título do trabalho queria</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$K$1))"),"Разыскивается должность")</f>
+        <v>Разыскивается должность</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$L$1))"),"ต้องการตำแหน่งงาน")</f>
+        <v>ต้องการตำแหน่งงาน</v>
+      </c>
+      <c r="M2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$M$1))"),"Aranan iş unvanı")</f>
+        <v>Aranan iş unvanı</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$O$1))"),"想要职位")</f>
+        <v>想要职位</v>
+      </c>
+      <c r="P2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$P$1))"),"想要職位")</f>
+        <v>想要職位</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$C$1))"),"Vorname")</f>
+        <v>Vorname</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$D$1))"),"Nombre de pila")</f>
+        <v>Nombre de pila</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$E$1))"),"Prénom")</f>
+        <v>Prénom</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$F$1))"),"Nama depan")</f>
+        <v>Nama depan</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$G$1))"),"Nome di battesimo")</f>
+        <v>Nome di battesimo</v>
+      </c>
+      <c r="H3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$H$1))"),"ファーストネーム")</f>
+        <v>ファーストネーム</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$I$1))"),"이름")</f>
+        <v>이름</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$J$1))"),"Primeiro nome")</f>
+        <v>Primeiro nome</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$K$1))"),"Имя")</f>
+        <v>Имя</v>
+      </c>
+      <c r="L3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$L$1))"),"ชื่อจริง")</f>
+        <v>ชื่อจริง</v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$M$1))"),"İlk adı")</f>
+        <v>İlk adı</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="O3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$O$1))"),"名")</f>
+        <v>名</v>
+      </c>
+      <c r="P3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$P$1))"),"名")</f>
+        <v>名</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$C$1))"),"Familienname, Nachname")</f>
+        <v>Familienname, Nachname</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$D$1))"),"Apellido")</f>
+        <v>Apellido</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$E$1))"),"Nom de famille")</f>
+        <v>Nom de famille</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$F$1))"),"Nama keluarga")</f>
+        <v>Nama keluarga</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$G$1))"),"Cognome")</f>
+        <v>Cognome</v>
+      </c>
+      <c r="H4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$H$1))"),"苗字")</f>
+        <v>苗字</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$I$1))"),"성")</f>
+        <v>성</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$J$1))"),"Sobrenome")</f>
+        <v>Sobrenome</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$K$1))"),"Фамилия")</f>
+        <v>Фамилия</v>
+      </c>
+      <c r="L4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$L$1))"),"นามสกุล")</f>
+        <v>นามสกุล</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$M$1))"),"Soy isim")</f>
+        <v>Soy isim</v>
+      </c>
+      <c r="N4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$N$1))"),"Họ")</f>
+        <v>Họ</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$O$1))"),"姓")</f>
+        <v>姓</v>
+      </c>
+      <c r="P4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$P$1))"),"姓")</f>
+        <v>姓</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$C$1))"),"Email")</f>
+        <v>Email</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$D$1))"),"Correo electrónico")</f>
+        <v>Correo electrónico</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$E$1))"),"E-mail")</f>
+        <v>E-mail</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$F$1))"),"Surel")</f>
+        <v>Surel</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$G$1))"),"E-mail")</f>
+        <v>E-mail</v>
+      </c>
+      <c r="H5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$H$1))"),"Eメール")</f>
+        <v>Eメール</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$I$1))"),"이메일")</f>
+        <v>이메일</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$J$1))"),"E-mail")</f>
+        <v>E-mail</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$K$1))"),"Электронная почта")</f>
+        <v>Электронная почта</v>
+      </c>
+      <c r="L5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$L$1))"),"อีเมล")</f>
+        <v>อีเมล</v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$M$1))"),"E -posta")</f>
+        <v>E -posta</v>
+      </c>
+      <c r="N5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$N$1))"),"E-mail")</f>
+        <v>E-mail</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$O$1))"),"电子邮件")</f>
+        <v>电子邮件</v>
+      </c>
+      <c r="P5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$P$1))"),"電子郵件")</f>
+        <v>電子郵件</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$C$1))"),"Telefon")</f>
+        <v>Telefon</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$D$1))"),"Teléfono")</f>
+        <v>Teléfono</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$E$1))"),"Téléphone")</f>
+        <v>Téléphone</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$F$1))"),"Telepon")</f>
+        <v>Telepon</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$G$1))"),"Telefono")</f>
+        <v>Telefono</v>
+      </c>
+      <c r="H6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$H$1))"),"電話")</f>
+        <v>電話</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$I$1))"),"핸드폰")</f>
+        <v>핸드폰</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$J$1))"),"Telefone")</f>
+        <v>Telefone</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$K$1))"),"Телефон")</f>
+        <v>Телефон</v>
+      </c>
+      <c r="L6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$L$1))"),"โทรศัพท์")</f>
+        <v>โทรศัพท์</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$M$1))"),"Telefon")</f>
+        <v>Telefon</v>
+      </c>
+      <c r="N6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$N$1))"),"Điện thoại")</f>
+        <v>Điện thoại</v>
+      </c>
+      <c r="O6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$O$1))"),"电话")</f>
+        <v>电话</v>
+      </c>
+      <c r="P6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$P$1))"),"電話")</f>
+        <v>電話</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$C$1))"),"Land")</f>
+        <v>Land</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$D$1))"),"País")</f>
+        <v>País</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$E$1))"),"Pays")</f>
+        <v>Pays</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$F$1))"),"Negara")</f>
+        <v>Negara</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$G$1))"),"Paese")</f>
+        <v>Paese</v>
+      </c>
+      <c r="H7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$H$1))"),"国")</f>
+        <v>国</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$I$1))"),"국가")</f>
+        <v>국가</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$J$1))"),"País")</f>
+        <v>País</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$K$1))"),"Страна")</f>
+        <v>Страна</v>
+      </c>
+      <c r="L7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$L$1))"),"ประเทศ")</f>
+        <v>ประเทศ</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$M$1))"),"Ülke")</f>
+        <v>Ülke</v>
+      </c>
+      <c r="N7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$N$1))"),"Quốc gia")</f>
+        <v>Quốc gia</v>
+      </c>
+      <c r="O7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$O$1))"),"国家")</f>
+        <v>国家</v>
+      </c>
+      <c r="P7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$P$1))"),"國家")</f>
+        <v>國家</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$C$1))"),"Stadt")</f>
+        <v>Stadt</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$D$1))"),"Ciudad")</f>
+        <v>Ciudad</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$E$1))"),"Ville")</f>
+        <v>Ville</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$F$1))"),"Kota")</f>
+        <v>Kota</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$G$1))"),"Città")</f>
+        <v>Città</v>
+      </c>
+      <c r="H8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$H$1))"),"街")</f>
+        <v>街</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$I$1))"),"도시")</f>
+        <v>도시</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$J$1))"),"Cidade")</f>
+        <v>Cidade</v>
+      </c>
+      <c r="K8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$K$1))"),"Город")</f>
+        <v>Город</v>
+      </c>
+      <c r="L8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$L$1))"),"เมือง")</f>
+        <v>เมือง</v>
+      </c>
+      <c r="M8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$M$1))"),"Şehir")</f>
+        <v>Şehir</v>
+      </c>
+      <c r="N8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$N$1))"),"Thành phố")</f>
+        <v>Thành phố</v>
+      </c>
+      <c r="O8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$O$1))"),"城市")</f>
+        <v>城市</v>
+      </c>
+      <c r="P8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$P$1))"),"城市")</f>
+        <v>城市</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$C$1))"),"Adresse")</f>
+        <v>Adresse</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$D$1))"),"DIRECCIÓN")</f>
+        <v>DIRECCIÓN</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$E$1))"),"Adresse")</f>
+        <v>Adresse</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$F$1))"),"Alamat")</f>
+        <v>Alamat</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$G$1))"),"Indirizzo")</f>
+        <v>Indirizzo</v>
+      </c>
+      <c r="H9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$H$1))"),"住所")</f>
+        <v>住所</v>
+      </c>
+      <c r="I9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$I$1))"),"주소")</f>
+        <v>주소</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$J$1))"),"Endereço")</f>
+        <v>Endereço</v>
+      </c>
+      <c r="K9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$K$1))"),"Адрес")</f>
+        <v>Адрес</v>
+      </c>
+      <c r="L9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$L$1))"),"ที่อยู่")</f>
+        <v>ที่อยู่</v>
+      </c>
+      <c r="M9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$M$1))"),"Adres")</f>
+        <v>Adres</v>
+      </c>
+      <c r="N9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$N$1))"),"Địa chỉ")</f>
+        <v>Địa chỉ</v>
+      </c>
+      <c r="O9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$O$1))"),"地址")</f>
+        <v>地址</v>
+      </c>
+      <c r="P9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$P$1))"),"地址")</f>
+        <v>地址</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$C$1))"),"Postleitzahl")</f>
+        <v>Postleitzahl</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$D$1))"),"Código Postal")</f>
+        <v>Código Postal</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$E$1))"),"Code Postal")</f>
+        <v>Code Postal</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$F$1))"),"Kode Pos")</f>
+        <v>Kode Pos</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$G$1))"),"Codice Postale")</f>
+        <v>Codice Postale</v>
+      </c>
+      <c r="H10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$H$1))"),"郵便番号")</f>
+        <v>郵便番号</v>
+      </c>
+      <c r="I10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$I$1))"),"우편 번호")</f>
+        <v>우편 번호</v>
+      </c>
+      <c r="J10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$J$1))"),"Código postal")</f>
+        <v>Código postal</v>
+      </c>
+      <c r="K10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$K$1))"),"Почтовый индекс")</f>
+        <v>Почтовый индекс</v>
+      </c>
+      <c r="L10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$L$1))"),"รหัสไปรษณีย์")</f>
+        <v>รหัสไปรษณีย์</v>
+      </c>
+      <c r="M10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$M$1))"),"Posta Kodu")</f>
+        <v>Posta Kodu</v>
+      </c>
+      <c r="N10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$N$1))"),"Mã bưu điện")</f>
+        <v>Mã bưu điện</v>
+      </c>
+      <c r="O10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$O$1))"),"邮政编码")</f>
+        <v>邮政编码</v>
+      </c>
+      <c r="P10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$P$1))"),"郵政編碼")</f>
+        <v>郵政編碼</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$C$1))"),"Fahrerlaubnis")</f>
+        <v>Fahrerlaubnis</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$D$1))"),"Licencia de conducir")</f>
+        <v>Licencia de conducir</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$E$1))"),"Permis de conduire")</f>
+        <v>Permis de conduire</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$F$1))"),"Surat ijin Mengemudi")</f>
+        <v>Surat ijin Mengemudi</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$G$1))"),"Patente di guida")</f>
+        <v>Patente di guida</v>
+      </c>
+      <c r="H11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$H$1))"),"運転免許証")</f>
+        <v>運転免許証</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$I$1))"),"운전 면허증")</f>
+        <v>운전 면허증</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$J$1))"),"Carteira de motorista")</f>
+        <v>Carteira de motorista</v>
+      </c>
+      <c r="K11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$K$1))"),"Водительские права")</f>
+        <v>Водительские права</v>
+      </c>
+      <c r="L11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$L$1))"),"ใบขับขี่")</f>
+        <v>ใบขับขี่</v>
+      </c>
+      <c r="M11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$M$1))"),"Sürücü ehliyeti")</f>
+        <v>Sürücü ehliyeti</v>
+      </c>
+      <c r="N11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$N$1))"),"Bằng lái xe")</f>
+        <v>Bằng lái xe</v>
+      </c>
+      <c r="O11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$O$1))"),"驾驶执照")</f>
+        <v>驾驶执照</v>
+      </c>
+      <c r="P11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$P$1))"),"駕駛執照")</f>
+        <v>駕駛執照</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$C$1))"),"Staatsangehörigkeit")</f>
+        <v>Staatsangehörigkeit</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$D$1))"),"Nacionalidad")</f>
+        <v>Nacionalidad</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$E$1))"),"Nationalité")</f>
+        <v>Nationalité</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$F$1))"),"Kebangsaan")</f>
+        <v>Kebangsaan</v>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$G$1))"),"Nazionalità")</f>
+        <v>Nazionalità</v>
+      </c>
+      <c r="H12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$H$1))"),"国籍")</f>
+        <v>国籍</v>
+      </c>
+      <c r="I12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$I$1))"),"국적")</f>
+        <v>국적</v>
+      </c>
+      <c r="J12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$J$1))"),"Nacionalidade")</f>
+        <v>Nacionalidade</v>
+      </c>
+      <c r="K12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$K$1))"),"Национальность")</f>
+        <v>Национальность</v>
+      </c>
+      <c r="L12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$L$1))"),"สัญชาติ")</f>
+        <v>สัญชาติ</v>
+      </c>
+      <c r="M12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$M$1))"),"Milliyet")</f>
+        <v>Milliyet</v>
+      </c>
+      <c r="N12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$N$1))"),"Quốc tịch")</f>
+        <v>Quốc tịch</v>
+      </c>
+      <c r="O12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$O$1))"),"国籍")</f>
+        <v>国籍</v>
+      </c>
+      <c r="P12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$P$1))"),"國籍")</f>
+        <v>國籍</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$C$1))"),"Geburtsort")</f>
+        <v>Geburtsort</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$D$1))"),"Lugar de nacimiento")</f>
+        <v>Lugar de nacimiento</v>
+      </c>
+      <c r="E13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$E$1))"),"Lieu de naissance")</f>
+        <v>Lieu de naissance</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$F$1))"),"Tempat Lahir")</f>
+        <v>Tempat Lahir</v>
+      </c>
+      <c r="G13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$G$1))"),"Luogo di nascita")</f>
+        <v>Luogo di nascita</v>
+      </c>
+      <c r="H13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$H$1))"),"出生地")</f>
+        <v>出生地</v>
+      </c>
+      <c r="I13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$I$1))"),"출생지")</f>
+        <v>출생지</v>
+      </c>
+      <c r="J13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$J$1))"),"Local de nascimento")</f>
+        <v>Local de nascimento</v>
+      </c>
+      <c r="K13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$K$1))"),"Место рождения")</f>
+        <v>Место рождения</v>
+      </c>
+      <c r="L13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$L$1))"),"สถานที่เกิด")</f>
+        <v>สถานที่เกิด</v>
+      </c>
+      <c r="M13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$M$1))"),"Doğum yeri")</f>
+        <v>Doğum yeri</v>
+      </c>
+      <c r="N13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$N$1))"),"Nơi sinh")</f>
+        <v>Nơi sinh</v>
+      </c>
+      <c r="O13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$O$1))"),"出生地")</f>
+        <v>出生地</v>
+      </c>
+      <c r="P13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$P$1))"),"出生地")</f>
+        <v>出生地</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$C$1))"),"Geburtsdatum")</f>
+        <v>Geburtsdatum</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$D$1))"),"Fecha de nacimiento")</f>
+        <v>Fecha de nacimiento</v>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$E$1))"),"Date de naissance")</f>
+        <v>Date de naissance</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$F$1))"),"Tanggal lahir")</f>
+        <v>Tanggal lahir</v>
+      </c>
+      <c r="G14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$G$1))"),"Data di nascita")</f>
+        <v>Data di nascita</v>
+      </c>
+      <c r="H14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$H$1))"),"生年月日")</f>
+        <v>生年月日</v>
+      </c>
+      <c r="I14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$I$1))"),"생일")</f>
+        <v>생일</v>
+      </c>
+      <c r="J14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$J$1))"),"Data de nascimento")</f>
+        <v>Data de nascimento</v>
+      </c>
+      <c r="K14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$K$1))"),"Дата рождения")</f>
+        <v>Дата рождения</v>
+      </c>
+      <c r="L14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$L$1))"),"วันเกิด")</f>
+        <v>วันเกิด</v>
+      </c>
+      <c r="M14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$M$1))"),"Doğum tarihi")</f>
+        <v>Doğum tarihi</v>
+      </c>
+      <c r="N14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$N$1))"),"Ngày sinh")</f>
+        <v>Ngày sinh</v>
+      </c>
+      <c r="O14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$O$1))"),"出生日期")</f>
+        <v>出生日期</v>
+      </c>
+      <c r="P14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$P$1))"),"出生日期")</f>
+        <v>出生日期</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$C$1))"),"Weitere Details bearbeiten")</f>
+        <v>Weitere Details bearbeiten</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$D$1))"),"Editar detalles adicionales")</f>
+        <v>Editar detalles adicionales</v>
+      </c>
+      <c r="E15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$E$1))"),"Modifier les détails supplémentaires")</f>
+        <v>Modifier les détails supplémentaires</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$F$1))"),"Edit detail tambahan")</f>
+        <v>Edit detail tambahan</v>
+      </c>
+      <c r="G15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$G$1))"),"Modifica ulteriori dettagli")</f>
+        <v>Modifica ulteriori dettagli</v>
+      </c>
+      <c r="H15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$H$1))"),"追加の詳細を編集します")</f>
+        <v>追加の詳細を編集します</v>
+      </c>
+      <c r="I15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$I$1))"),"추가 세부 정보를 편집하십시오")</f>
+        <v>추가 세부 정보를 편집하십시오</v>
+      </c>
+      <c r="J15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$J$1))"),"Edite detalhes adicionais")</f>
+        <v>Edite detalhes adicionais</v>
+      </c>
+      <c r="K15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$K$1))"),"Редактировать дополнительные данные")</f>
+        <v>Редактировать дополнительные данные</v>
+      </c>
+      <c r="L15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$L$1))"),"แก้ไขรายละเอียดเพิ่มเติม")</f>
+        <v>แก้ไขรายละเอียดเพิ่มเติม</v>
+      </c>
+      <c r="M15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$M$1))"),"Ek Ayrıntıları Düzenle")</f>
+        <v>Ek Ayrıntıları Düzenle</v>
+      </c>
+      <c r="N15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$N$1))"),"Chỉnh sửa chi tiết bổ sung")</f>
+        <v>Chỉnh sửa chi tiết bổ sung</v>
+      </c>
+      <c r="O15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$O$1))"),"编辑其他详细信息")</f>
+        <v>编辑其他详细信息</v>
+      </c>
+      <c r="P15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$P$1))"),"編輯其他詳細信息")</f>
+        <v>編輯其他詳細信息</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$C$1))"),"Weitere Details verbergen")</f>
+        <v>Weitere Details verbergen</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$D$1))"),"Ocultar detalles adicionales")</f>
+        <v>Ocultar detalles adicionales</v>
+      </c>
+      <c r="E16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$E$1))"),"Masquer des détails supplémentaires")</f>
+        <v>Masquer des détails supplémentaires</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$F$1))"),"Sembunyikan detail tambahan")</f>
+        <v>Sembunyikan detail tambahan</v>
+      </c>
+      <c r="G16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$G$1))"),"Nascondi ulteriori dettagli")</f>
+        <v>Nascondi ulteriori dettagli</v>
+      </c>
+      <c r="H16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$H$1))"),"追加の詳細を非表示にします")</f>
+        <v>追加の詳細を非表示にします</v>
+      </c>
+      <c r="I16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$I$1))"),"추가 세부 정보를 숨 깁니다")</f>
+        <v>추가 세부 정보를 숨 깁니다</v>
+      </c>
+      <c r="J16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$J$1))"),"Ocultar detalhes adicionais")</f>
+        <v>Ocultar detalhes adicionais</v>
+      </c>
+      <c r="K16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$K$1))"),"Скрыть дополнительные данные")</f>
+        <v>Скрыть дополнительные данные</v>
+      </c>
+      <c r="L16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$L$1))"),"ซ่อนรายละเอียดเพิ่มเติม")</f>
+        <v>ซ่อนรายละเอียดเพิ่มเติม</v>
+      </c>
+      <c r="M16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$M$1))"),"Ek ayrıntıları gizle")</f>
+        <v>Ek ayrıntıları gizle</v>
+      </c>
+      <c r="N16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$N$1))"),"Ẩn chi tiết bổ sung")</f>
+        <v>Ẩn chi tiết bổ sung</v>
+      </c>
+      <c r="O16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$O$1))"),"隐藏其他细节")</f>
+        <v>隐藏其他细节</v>
+      </c>
+      <c r="P16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$P$1))"),"隱藏其他細節")</f>
+        <v>隱藏其他細節</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$C$1))"),"Schreiben Sie 2-4 kurze und energische Sätze, um den Leser zu interessieren! Erwähnen Sie Ihre Rolle, Erfahrung und am wichtigsten - Ihre größten Errungenschaften, besten Qualitäten und Fähigkeiten.")</f>
+        <v>Schreiben Sie 2-4 kurze und energische Sätze, um den Leser zu interessieren! Erwähnen Sie Ihre Rolle, Erfahrung und am wichtigsten - Ihre größten Errungenschaften, besten Qualitäten und Fähigkeiten.</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$D$1))"),"¡Escribe 2-4 oraciones cortas y enérgicas para interesar al lector! Mencione su papel, experiencia y lo más importante: sus mayores logros, mejores cualidades y habilidades.")</f>
+        <v>¡Escribe 2-4 oraciones cortas y enérgicas para interesar al lector! Mencione su papel, experiencia y lo más importante: sus mayores logros, mejores cualidades y habilidades.</v>
+      </c>
+      <c r="E17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$E$1))"),"Écrivez 2-4 phrases courtes et énergiques pour intéresser le lecteur! Mentionnez votre rôle, votre expérience et surtout - vos plus grandes réalisations, les meilleures qualités et compétences.")</f>
+        <v>Écrivez 2-4 phrases courtes et énergiques pour intéresser le lecteur! Mentionnez votre rôle, votre expérience et surtout - vos plus grandes réalisations, les meilleures qualités et compétences.</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$F$1))"),"Tulis 2-4 kalimat pendek &amp; energik untuk menarik minat pembaca! Sebutkan peran, pengalaman &amp; yang paling penting - pencapaian terbesar Anda, kualitas dan keterampilan terbaik.")</f>
+        <v>Tulis 2-4 kalimat pendek &amp; energik untuk menarik minat pembaca! Sebutkan peran, pengalaman &amp; yang paling penting - pencapaian terbesar Anda, kualitas dan keterampilan terbaik.</v>
+      </c>
+      <c r="G17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$G$1))"),"Scrivi 2-4 frasi brevi ed energiche per interessare il lettore! Menziona il tuo ruolo, esperienza e soprattutto: i tuoi maggiori risultati, migliori qualità e competenze.")</f>
+        <v>Scrivi 2-4 frasi brevi ed energiche per interessare il lettore! Menziona il tuo ruolo, esperienza e soprattutto: i tuoi maggiori risultati, migliori qualità e competenze.</v>
+      </c>
+      <c r="H17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$H$1))"),"読者に興味を持って、2-4の短くてエネルギッシュな文章を書いてください！あなたの役割、経験、そして最も重要なことに、あなたの最大の成果、最高の資質とスキルに言及してください。")</f>
+        <v>読者に興味を持って、2-4の短くてエネルギッシュな文章を書いてください！あなたの役割、経験、そして最も重要なことに、あなたの最大の成果、最高の資質とスキルに言及してください。</v>
+      </c>
+      <c r="I17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$I$1))"),"독자에게 관심을 갖도록 2-4 짧고 활기찬 문장을 작성하십시오! 귀하의 역할, 경험 및 가장 중요한 것은 가장 큰 성과, 최고의 자질 및 기술을 언급하십시오.")</f>
+        <v>독자에게 관심을 갖도록 2-4 짧고 활기찬 문장을 작성하십시오! 귀하의 역할, 경험 및 가장 중요한 것은 가장 큰 성과, 최고의 자질 및 기술을 언급하십시오.</v>
+      </c>
+      <c r="J17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$J$1))"),"Escreva 2-4 frases curtas e energéticas para interessar o leitor! Mencione seu papel, experiência e o mais importante - suas maiores conquistas, melhores qualidades e habilidades.")</f>
+        <v>Escreva 2-4 frases curtas e energéticas para interessar o leitor! Mencione seu papel, experiência e o mais importante - suas maiores conquistas, melhores qualidades e habilidades.</v>
+      </c>
+      <c r="K17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$K$1))"),"Напишите 2-4 короткие и энергичные предложения, чтобы заинтересовать читателя! Упомяните свою роль, опыт и самое главное - ваши самые большие достижения, лучшие качества и навыки.")</f>
+        <v>Напишите 2-4 короткие и энергичные предложения, чтобы заинтересовать читателя! Упомяните свою роль, опыт и самое главное - ваши самые большие достижения, лучшие качества и навыки.</v>
+      </c>
+      <c r="L17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$L$1))"),"เขียนประโยคสั้น ๆ และมีพลัง 2-4 ประโยคเพื่อความสนใจของผู้อ่าน! พูดถึงบทบาทประสบการณ์และที่สำคัญที่สุด - ความสำเร็จที่ยิ่งใหญ่ที่สุดของคุณคุณสมบัติและทักษะที่ดีที่สุด")</f>
+        <v>เขียนประโยคสั้น ๆ และมีพลัง 2-4 ประโยคเพื่อความสนใจของผู้อ่าน! พูดถึงบทบาทประสบการณ์และที่สำคัญที่สุด - ความสำเร็จที่ยิ่งใหญ่ที่สุดของคุณคุณสมบัติและทักษะที่ดีที่สุด</v>
+      </c>
+      <c r="M17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$M$1))"),"Okuyucuyu ilgilendirmek için 2-4 kısa ve enerjik cümle yazın! Rolünüzden, deneyiminizden ve en önemlisi - en büyük başarılarınız, en iyi nitelikleriniz ve becerilerinizden bahsedin.")</f>
+        <v>Okuyucuyu ilgilendirmek için 2-4 kısa ve enerjik cümle yazın! Rolünüzden, deneyiminizden ve en önemlisi - en büyük başarılarınız, en iyi nitelikleriniz ve becerilerinizden bahsedin.</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="O17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$O$1))"),"写2-4个简短且充满活力的句子，以使读者感兴趣！提及您的角色，经验，最重要的是 - 您的最大成就，最佳素质和技能。")</f>
+        <v>写2-4个简短且充满活力的句子，以使读者感兴趣！提及您的角色，经验，最重要的是 - 您的最大成就，最佳素质和技能。</v>
+      </c>
+      <c r="P17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$P$1))"),"寫2-4個簡短且充滿活力的句子，以使讀者感興趣！提及您的角色，經驗，最重要的是 - 您的最大成就，最佳素質和技能。")</f>
+        <v>寫2-4個簡短且充滿活力的句子，以使讀者感興趣！提及您的角色，經驗，最重要的是 - 您的最大成就，最佳素質和技能。</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B18,$B$1,$C$1))"),"Zeigen Sie Ihre relevante Erfahrung (letzten 10 Jahre). Verwenden Sie Aufzählungszeichen, um Ihre Erfolge nach Möglichkeit zu beachten. Verwenden Sie Nummern/Fakten (erreicht x, gemessen durch y, indem Sie Z durchführen).")</f>
+        <v>Zeigen Sie Ihre relevante Erfahrung (letzten 10 Jahre). Verwenden Sie Aufzählungszeichen, um Ihre Erfolge nach Möglichkeit zu beachten. Verwenden Sie Nummern/Fakten (erreicht x, gemessen durch y, indem Sie Z durchführen).</v>
+      </c>
+      <c r="D18" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B18,$B$1,$D$1))"),"Muestre su experiencia relevante (los últimos 10 años). Use puntos de bala para anotar sus logros, si es posible: use números/hechos (logrados x, medidos por y, haciendo z).")</f>
+        <v>Muestre su experiencia relevante (los últimos 10 años). Use puntos de bala para anotar sus logros, si es posible: use números/hechos (logrados x, medidos por y, haciendo z).</v>
+      </c>
+      <c r="E18" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B18,$B$1,$E$1))"),"Montrez votre expérience pertinente (10 dernières années). Utilisez des puces pour noter vos réalisations, si possible - utilisez des nombres / faits (obtenu x, mesuré par y, en faisant z).")</f>
+        <v>Montrez votre expérience pertinente (10 dernières années). Utilisez des puces pour noter vos réalisations, si possible - utilisez des nombres / faits (obtenu x, mesuré par y, en faisant z).</v>
+      </c>
+      <c r="F18" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B18,$B$1,$F$1))"),"Tunjukkan pengalaman Anda yang relevan (10 tahun terakhir). Gunakan poin -poin untuk mencatat pencapaian Anda, jika memungkinkan - gunakan angka/fakta (dicapai x, diukur dengan y, dengan melakukan z).")</f>
+        <v>Tunjukkan pengalaman Anda yang relevan (10 tahun terakhir). Gunakan poin -poin untuk mencatat pencapaian Anda, jika memungkinkan - gunakan angka/fakta (dicapai x, diukur dengan y, dengan melakukan z).</v>
+      </c>
+      <c r="G18" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B18,$B$1,$G$1))"),"Mostra la tua esperienza pertinente (ultimi 10 anni). Usa i punti elenco per notare i risultati, se possibile: utilizzare numeri/fatti (raggiunto x, misurato da y, facendo z).")</f>
+        <v>Mostra la tua esperienza pertinente (ultimi 10 anni). Usa i punti elenco per notare i risultati, se possibile: utilizzare numeri/fatti (raggiunto x, misurato da y, facendo z).</v>
+      </c>
+      <c r="H18" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B18,$B$1,$H$1))"),"関連する経験を示します（過去10年間）。箇条書きを使用して、可能であれば成果に注意してください - 数字/ファクトを使用します（Z、Yで測定し、Zを実行することで測定）。")</f>
+        <v>関連する経験を示します（過去10年間）。箇条書きを使用して、可能であれば成果に注意してください - 数字/ファクトを使用します（Z、Yで測定し、Zを実行することで測定）。</v>
+      </c>
+      <c r="I18" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B18,$B$1,$I$1))"),"관련 경험을 보여주십시오 (지난 10 년). 총알 포인트를 사용하여 가능한 경우 성과를 기록하십시오 (숫자/사실을 사용하여 Z로 측정).")</f>
+        <v>관련 경험을 보여주십시오 (지난 10 년). 총알 포인트를 사용하여 가능한 경우 성과를 기록하십시오 (숫자/사실을 사용하여 Z로 측정).</v>
+      </c>
+      <c r="J18" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B18,$B$1,$J$1))"),"Mostre sua experiência relevante (últimos 10 anos). Use pontos de bala para observar suas realizações, se possível - use números/fatos (alcançado x, medido por y, fazendo z).")</f>
+        <v>Mostre sua experiência relevante (últimos 10 anos). Use pontos de bala para observar suas realizações, se possível - use números/fatos (alcançado x, medido por y, fazendo z).</v>
+      </c>
+      <c r="K18" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B18,$B$1,$K$1))"),"Покажите свой соответствующий опыт (последние 10 лет). Используйте пули, чтобы отметить свои достижения, если это возможно - используйте числа/факты (достигнутые x, измеренные с помощью y, выполнив z).")</f>
+        <v>Покажите свой соответствующий опыт (последние 10 лет). Используйте пули, чтобы отметить свои достижения, если это возможно - используйте числа/факты (достигнутые x, измеренные с помощью y, выполнив z).</v>
+      </c>
+      <c r="L18" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B18,$B$1,$L$1))"),"แสดงประสบการณ์ที่เกี่ยวข้องของคุณ (10 ปีที่ผ่านมา) ใช้สัญลักษณ์แสดงหัวข้อย่อยเพื่อจดบันทึกความสำเร็จของคุณถ้าเป็นไปได้ - ใช้ตัวเลข/ข้อเท็จจริง (ทำได้ X, วัดโดย Y โดยทำ Z)")</f>
+        <v>แสดงประสบการณ์ที่เกี่ยวข้องของคุณ (10 ปีที่ผ่านมา) ใช้สัญลักษณ์แสดงหัวข้อย่อยเพื่อจดบันทึกความสำเร็จของคุณถ้าเป็นไปได้ - ใช้ตัวเลข/ข้อเท็จจริง (ทำได้ X, วัดโดย Y โดยทำ Z)</v>
+      </c>
+      <c r="M18" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B18,$B$1,$M$1))"),"İlgili deneyiminizi gösterin (son 10 yıl). Mümkünse başarılarınızı not etmek için mermi noktalarını kullanın - sayıları/gerçekleri kullanın (Z ile ölçülen x, Z yaparak).")</f>
+        <v>İlgili deneyiminizi gösterin (son 10 yıl). Mümkünse başarılarınızı not etmek için mermi noktalarını kullanın - sayıları/gerçekleri kullanın (Z ile ölçülen x, Z yaparak).</v>
+      </c>
+      <c r="N18" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B18,$B$1,$N$1))"),"Hiển thị kinh nghiệm có liên quan của bạn (10 năm qua). Sử dụng các điểm cao để lưu ý thành tích của bạn, nếu có thể - sử dụng số/sự kiện (đạt được x, được đo bằng y, bằng cách thực hiện z).")</f>
+        <v>Hiển thị kinh nghiệm có liên quan của bạn (10 năm qua). Sử dụng các điểm cao để lưu ý thành tích của bạn, nếu có thể - sử dụng số/sự kiện (đạt được x, được đo bằng y, bằng cách thực hiện z).</v>
+      </c>
+      <c r="O18" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B18,$B$1,$O$1))"),"展示您的相关经验（最近10年）。如果可能的话，请使用项目符号点来注意您的成就 - 使用数字/事实（通过y来衡量的X实现x）。")</f>
+        <v>展示您的相关经验（最近10年）。如果可能的话，请使用项目符号点来注意您的成就 - 使用数字/事实（通过y来衡量的X实现x）。</v>
+      </c>
+      <c r="P18" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B18,$B$1,$P$1))"),"展示您的相關經驗（最近10年）。如果可能的話，請使用項目符號點來注意您的成就 - 使用數字/事實（通過y來衡量的X實現x）。")</f>
+        <v>展示您的相關經驗（最近10年）。如果可能的話，請使用項目符號點來注意您的成就 - 使用數字/事實（通過y來衡量的X實現x）。</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B19,$B$1,$C$1))"),"Eine abwechslungsreiche Ausbildung in Ihrem Lebenslauf fasst den Wert zusammen, den Ihre Erkenntnisse und Ihr Hintergrund für den Job bringen werden.")</f>
+        <v>Eine abwechslungsreiche Ausbildung in Ihrem Lebenslauf fasst den Wert zusammen, den Ihre Erkenntnisse und Ihr Hintergrund für den Job bringen werden.</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B19,$B$1,$D$1))"),"Una educación variada en su currículum resume el valor que sus aprendizajes y antecedentes aportarán al trabajo.")</f>
+        <v>Una educación variada en su currículum resume el valor que sus aprendizajes y antecedentes aportarán al trabajo.</v>
+      </c>
+      <c r="E19" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B19,$B$1,$E$1))"),"Une éducation variée sur votre CV résume la valeur que vos apprentissages et vos antécédents apporteront à l'emploi.")</f>
+        <v>Une éducation variée sur votre CV résume la valeur que vos apprentissages et vos antécédents apporteront à l'emploi.</v>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B19,$B$1,$F$1))"),"Pendidikan yang bervariasi pada resume Anda merangkum nilai yang akan dibawa oleh pembelajaran dan latar belakang Anda.")</f>
+        <v>Pendidikan yang bervariasi pada resume Anda merangkum nilai yang akan dibawa oleh pembelajaran dan latar belakang Anda.</v>
+      </c>
+      <c r="G19" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B19,$B$1,$G$1))"),"Un'educazione variegata sul tuo curriculum riassume il valore che gli apprendimenti e il background porteranno al lavoro.")</f>
+        <v>Un'educazione variegata sul tuo curriculum riassume il valore che gli apprendimenti e il background porteranno al lavoro.</v>
+      </c>
+      <c r="H19" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B19,$B$1,$H$1))"),"履歴書のさまざまな教育は、学習と背景が仕事にもたらす価値を要約します。")</f>
+        <v>履歴書のさまざまな教育は、学習と背景が仕事にもたらす価値を要約します。</v>
+      </c>
+      <c r="I19" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B19,$B$1,$I$1))"),"이력서에 대한 다양한 교육은 학습과 배경이 직장에 가져올 가치를 요약합니다.")</f>
+        <v>이력서에 대한 다양한 교육은 학습과 배경이 직장에 가져올 가치를 요약합니다.</v>
+      </c>
+      <c r="J19" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B19,$B$1,$J$1))"),"Uma educação variada em seu currículo resume o valor que seus aprendizados e antecedentes trarão para o trabalho.")</f>
+        <v>Uma educação variada em seu currículo resume o valor que seus aprendizados e antecedentes trarão para o trabalho.</v>
+      </c>
+      <c r="K19" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B19,$B$1,$K$1))"),"Разнообразное образование в вашем резюме подводит итог, что ваши знания и опыт принесут на работу.")</f>
+        <v>Разнообразное образование в вашем резюме подводит итог, что ваши знания и опыт принесут на работу.</v>
+      </c>
+      <c r="L19" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B19,$B$1,$L$1))"),"การศึกษาที่หลากหลายเกี่ยวกับประวัติย่อของคุณรวมถึงคุณค่าที่การเรียนรู้และภูมิหลังของคุณจะนำไปสู่งาน")</f>
+        <v>การศึกษาที่หลากหลายเกี่ยวกับประวัติย่อของคุณรวมถึงคุณค่าที่การเรียนรู้และภูมิหลังของคุณจะนำไปสู่งาน</v>
+      </c>
+      <c r="M19" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B19,$B$1,$M$1))"),"Özgeçmişinizdeki çeşitli eğitim, öğrenimlerinizin ve geçmişinizin işe getireceği değeri özetler.")</f>
+        <v>Özgeçmişinizdeki çeşitli eğitim, öğrenimlerinizin ve geçmişinizin işe getireceği değeri özetler.</v>
+      </c>
+      <c r="N19" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B19,$B$1,$N$1))"),"Một nền giáo dục đa dạng về sơ yếu lý lịch của bạn tổng hợp giá trị mà việc học và nền tảng của bạn sẽ mang lại cho công việc.")</f>
+        <v>Một nền giáo dục đa dạng về sơ yếu lý lịch của bạn tổng hợp giá trị mà việc học và nền tảng của bạn sẽ mang lại cho công việc.</v>
+      </c>
+      <c r="O19" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B19,$B$1,$O$1))"),"您的简历上的多种教育总结了您的学习和背景会带来工作的价值。")</f>
+        <v>您的简历上的多种教育总结了您的学习和背景会带来工作的价值。</v>
+      </c>
+      <c r="P19" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B19,$B$1,$P$1))"),"您的簡歷上的多種教育總結了您的學習和背景會帶來工作的價值。")</f>
+        <v>您的簡歷上的多種教育總結了您的學習和背景會帶來工作的價值。</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B20,$B$1,$C$1))"),"Sie können Links zu Websites hinzufügen, die Einstellungsmanager sehen sollen! Möglicherweise handelt es sich um einen Link zu Ihrem Portfolio, Ihrem LinkedIn -Profil oder Ihrem persönlichen Website.")</f>
+        <v>Sie können Links zu Websites hinzufügen, die Einstellungsmanager sehen sollen! Möglicherweise handelt es sich um einen Link zu Ihrem Portfolio, Ihrem LinkedIn -Profil oder Ihrem persönlichen Website.</v>
+      </c>
+      <c r="D20" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B20,$B$1,$D$1))"),"¡Puede agregar enlaces a los sitios web que desea que los gerentes de contratación vean! Quizás sea un enlace a su cartera, perfil de LinkedIn o sitio web personal.")</f>
+        <v>¡Puede agregar enlaces a los sitios web que desea que los gerentes de contratación vean! Quizás sea un enlace a su cartera, perfil de LinkedIn o sitio web personal.</v>
+      </c>
+      <c r="E20" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B20,$B$1,$E$1))"),"Vous pouvez ajouter des liens vers des sites Web que vous souhaitez que les gestionnaires d'embauche voient! Ce sera peut-être un lien vers votre portefeuille, votre profil LinkedIn ou votre site Web personnel.")</f>
+        <v>Vous pouvez ajouter des liens vers des sites Web que vous souhaitez que les gestionnaires d'embauche voient! Ce sera peut-être un lien vers votre portefeuille, votre profil LinkedIn ou votre site Web personnel.</v>
+      </c>
+      <c r="F20" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B20,$B$1,$F$1))"),"Anda dapat menambahkan tautan ke situs web yang ingin Anda lihat oleh manajer! Mungkin itu akan menjadi tautan ke portofolio Anda, profil LinkedIn, atau situs web pribadi.")</f>
+        <v>Anda dapat menambahkan tautan ke situs web yang ingin Anda lihat oleh manajer! Mungkin itu akan menjadi tautan ke portofolio Anda, profil LinkedIn, atau situs web pribadi.</v>
+      </c>
+      <c r="G20" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B20,$B$1,$G$1))"),"Puoi aggiungere collegamenti ai siti Web che desideri assumere manager per vedere! Forse sarà un link al tuo portafoglio, profilo LinkedIn o sito Web personale.")</f>
+        <v>Puoi aggiungere collegamenti ai siti Web che desideri assumere manager per vedere! Forse sarà un link al tuo portafoglio, profilo LinkedIn o sito Web personale.</v>
+      </c>
+      <c r="H20" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B20,$B$1,$H$1))"),"雇用マネージャーに見たいWebサイトにリンクを追加できます！おそらく、それはあなたのポートフォリオ、LinkedInプロフィール、または個人のウェブサイトへのリンクになるでしょう。")</f>
+        <v>雇用マネージャーに見たいWebサイトにリンクを追加できます！おそらく、それはあなたのポートフォリオ、LinkedInプロフィール、または個人のウェブサイトへのリンクになるでしょう。</v>
+      </c>
+      <c r="I20" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B20,$B$1,$I$1))"),"고용 관리자가보고 싶은 웹 사이트에 링크를 추가 할 수 있습니다! 아마도 포트폴리오, LinkedIn 프로필 또는 개인 웹 사이트에 대한 링크 일 것입니다.")</f>
+        <v>고용 관리자가보고 싶은 웹 사이트에 링크를 추가 할 수 있습니다! 아마도 포트폴리오, LinkedIn 프로필 또는 개인 웹 사이트에 대한 링크 일 것입니다.</v>
+      </c>
+      <c r="J20" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B20,$B$1,$J$1))"),"Você pode adicionar links para sites que deseja que os gerentes de contratação vejam! Talvez seja um link para seu portfólio, perfil do LinkedIn ou site pessoal.")</f>
+        <v>Você pode adicionar links para sites que deseja que os gerentes de contratação vejam! Talvez seja um link para seu portfólio, perfil do LinkedIn ou site pessoal.</v>
+      </c>
+      <c r="K20" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B20,$B$1,$K$1))"),"Вы можете добавить ссылки на веб -сайты, которые вы хотите, чтобы менеджеры по найму! Возможно, это будет ссылка на ваш портфолио, профиль LinkedIn или личный веб -сайт.")</f>
+        <v>Вы можете добавить ссылки на веб -сайты, которые вы хотите, чтобы менеджеры по найму! Возможно, это будет ссылка на ваш портфолио, профиль LinkedIn или личный веб -сайт.</v>
+      </c>
+      <c r="L20" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B20,$B$1,$L$1))"),"คุณสามารถเพิ่มลิงค์ไปยังเว็บไซต์ที่คุณต้องการให้ผู้จัดการเห็นได้! บางทีมันอาจจะเป็นลิงค์ไปยังพอร์ตโฟลิโอของคุณโปรไฟล์ LinkedIn หรือเว็บไซต์ส่วนตัว")</f>
+        <v>คุณสามารถเพิ่มลิงค์ไปยังเว็บไซต์ที่คุณต้องการให้ผู้จัดการเห็นได้! บางทีมันอาจจะเป็นลิงค์ไปยังพอร์ตโฟลิโอของคุณโปรไฟล์ LinkedIn หรือเว็บไซต์ส่วนตัว</v>
+      </c>
+      <c r="M20" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B20,$B$1,$M$1))"),"İşe alım yöneticilerinin görmesini istediğiniz web sitelerine bağlantılar ekleyebilirsiniz! Belki de portföyünüze, LinkedIn profilinize veya kişisel web sitenize bir bağlantı olacaktır.")</f>
+        <v>İşe alım yöneticilerinin görmesini istediğiniz web sitelerine bağlantılar ekleyebilirsiniz! Belki de portföyünüze, LinkedIn profilinize veya kişisel web sitenize bir bağlantı olacaktır.</v>
+      </c>
+      <c r="N20" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B20,$B$1,$N$1))"),"Bạn có thể thêm các liên kết đến các trang web bạn muốn người quản lý tuyển dụng để xem! Có lẽ nó sẽ là một liên kết đến danh mục đầu tư của bạn, hồ sơ LinkedIn hoặc trang web cá nhân.")</f>
+        <v>Bạn có thể thêm các liên kết đến các trang web bạn muốn người quản lý tuyển dụng để xem! Có lẽ nó sẽ là một liên kết đến danh mục đầu tư của bạn, hồ sơ LinkedIn hoặc trang web cá nhân.</v>
+      </c>
+      <c r="O20" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B20,$B$1,$O$1))"),"您可以添加到想要招聘经理看到的网站的链接！也许它将是您的投资组合，LinkedIn个人资料或个人网站的链接。")</f>
+        <v>您可以添加到想要招聘经理看到的网站的链接！也许它将是您的投资组合，LinkedIn个人资料或个人网站的链接。</v>
+      </c>
+      <c r="P20" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B20,$B$1,$P$1))"),"您可以添加到想要招聘經理看到的網站的鏈接！也許它將是您的投資組合，LinkedIn個人資料或個人網站的鏈接。")</f>
+        <v>您可以添加到想要招聘經理看到的網站的鏈接！也許它將是您的投資組合，LinkedIn個人資料或個人網站的鏈接。</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C21" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B21,$B$1,$C$1))"),"Wählen Sie 5 der wichtigsten Fähigkeiten, um Ihre Talente zu zeigen! Stellen Sie sicher, dass sie die Schlüsselwörter der Jobliste entsprechen, wenn sie sich über ein Online -System bewerben.")</f>
+        <v>Wählen Sie 5 der wichtigsten Fähigkeiten, um Ihre Talente zu zeigen! Stellen Sie sicher, dass sie die Schlüsselwörter der Jobliste entsprechen, wenn sie sich über ein Online -System bewerben.</v>
+      </c>
+      <c r="D21" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B21,$B$1,$D$1))"),"¡Elija 5 de las habilidades más importantes para mostrar sus talentos! Asegúrese de que coincidan con las palabras clave del listado de trabajo si se aplican a través de un sistema en línea.")</f>
+        <v>¡Elija 5 de las habilidades más importantes para mostrar sus talentos! Asegúrese de que coincidan con las palabras clave del listado de trabajo si se aplican a través de un sistema en línea.</v>
+      </c>
+      <c r="E21" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B21,$B$1,$E$1))"),"Choisissez 5 des compétences les plus importantes pour montrer vos talents! Assurez-vous qu'ils correspondent aux mots clés de la liste des travaux si vous postulez via un système en ligne.")</f>
+        <v>Choisissez 5 des compétences les plus importantes pour montrer vos talents! Assurez-vous qu'ils correspondent aux mots clés de la liste des travaux si vous postulez via un système en ligne.</v>
+      </c>
+      <c r="F21" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B21,$B$1,$F$1))"),"Pilih 5 keterampilan terpenting untuk menunjukkan bakat Anda! Pastikan mereka cocok dengan kata kunci dari daftar pekerjaan jika melamar melalui sistem online.")</f>
+        <v>Pilih 5 keterampilan terpenting untuk menunjukkan bakat Anda! Pastikan mereka cocok dengan kata kunci dari daftar pekerjaan jika melamar melalui sistem online.</v>
+      </c>
+      <c r="G21" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B21,$B$1,$G$1))"),"Scegli 5 delle abilità più importanti per mostrare i tuoi talenti! Assicurati che abbinano le parole chiave dell'elenco dei lavori se si applica tramite un sistema online.")</f>
+        <v>Scegli 5 delle abilità più importanti per mostrare i tuoi talenti! Assicurati che abbinano le parole chiave dell'elenco dei lavori se si applica tramite un sistema online.</v>
+      </c>
+      <c r="H21" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B21,$B$1,$H$1))"),"あなたの才能を示すために5つの最も重要なスキルを選択してください！オンラインシステムを介して適用する場合は、ジョブリストのキーワードと一致するようにしてください。")</f>
+        <v>あなたの才能を示すために5つの最も重要なスキルを選択してください！オンラインシステムを介して適用する場合は、ジョブリストのキーワードと一致するようにしてください。</v>
+      </c>
+      <c r="I21" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B21,$B$1,$I$1))"),"재능을 보여줄 가장 중요한 기술 중 5 개를 선택하십시오! 온라인 시스템을 통해 신청하는 경우 작업 목록의 키워드와 일치해야합니다.")</f>
+        <v>재능을 보여줄 가장 중요한 기술 중 5 개를 선택하십시오! 온라인 시스템을 통해 신청하는 경우 작업 목록의 키워드와 일치해야합니다.</v>
+      </c>
+      <c r="J21" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B21,$B$1,$J$1))"),"Escolha 5 das habilidades mais importantes para mostrar seus talentos! Certifique -se de corresponder às palavras -chave da listagem de empregos se se inscrever através de um sistema on -line.")</f>
+        <v>Escolha 5 das habilidades mais importantes para mostrar seus talentos! Certifique -se de corresponder às palavras -chave da listagem de empregos se se inscrever através de um sistema on -line.</v>
+      </c>
+      <c r="K21" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B21,$B$1,$K$1))"),"Выберите 5 самых важных навыков, чтобы показать свои таланты! Убедитесь, что они соответствуют ключевым словам списка заданий, если применять через онлайн -систему.")</f>
+        <v>Выберите 5 самых важных навыков, чтобы показать свои таланты! Убедитесь, что они соответствуют ключевым словам списка заданий, если применять через онлайн -систему.</v>
+      </c>
+      <c r="L21" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B21,$B$1,$L$1))"),"เลือก 5 ทักษะที่สำคัญที่สุดเพื่อแสดงความสามารถของคุณ! ตรวจสอบให้แน่ใจว่าตรงกับคำหลักของรายการงานหากสมัครผ่านระบบออนไลน์")</f>
+        <v>เลือก 5 ทักษะที่สำคัญที่สุดเพื่อแสดงความสามารถของคุณ! ตรวจสอบให้แน่ใจว่าตรงกับคำหลักของรายการงานหากสมัครผ่านระบบออนไลน์</v>
+      </c>
+      <c r="M21" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B21,$B$1,$M$1))"),"Yeteneklerinizi göstermek için en önemli becerilerin 5'ini seçin! Çevrimiçi bir sistem aracılığıyla başvuruyorsanız, iş listesinin anahtar kelimeleriyle eşleştiklerinden emin olun.")</f>
+        <v>Yeteneklerinizi göstermek için en önemli becerilerin 5'ini seçin! Çevrimiçi bir sistem aracılığıyla başvuruyorsanız, iş listesinin anahtar kelimeleriyle eşleştiklerinden emin olun.</v>
+      </c>
+      <c r="N21" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B21,$B$1,$N$1))"),"Chọn 5 trong số các kỹ năng quan trọng nhất để thể hiện tài năng của bạn! Hãy chắc chắn rằng chúng phù hợp với các từ khóa của danh sách công việc nếu áp dụng qua một hệ thống trực tuyến.")</f>
+        <v>Chọn 5 trong số các kỹ năng quan trọng nhất để thể hiện tài năng của bạn! Hãy chắc chắn rằng chúng phù hợp với các từ khóa của danh sách công việc nếu áp dụng qua một hệ thống trực tuyến.</v>
+      </c>
+      <c r="O21" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B21,$B$1,$O$1))"),"选择5个最重要的技能来展示您的才能！如果通过在线系统申请，请确保它们匹配作业清单的关键字。")</f>
+        <v>选择5个最重要的技能来展示您的才能！如果通过在线系统申请，请确保它们匹配作业清单的关键字。</v>
+      </c>
+      <c r="P21" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B21,$B$1,$P$1))"),"選擇5個最重要的技能來展示您的才能！如果通過在線系統申請，請確保它們匹配作業清單的關鍵字。")</f>
+        <v>選擇5個最重要的技能來展示您的才能！如果通過在線系統申請，請確保它們匹配作業清單的關鍵字。</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B22,$B$1,$C$1))"),"Berufsbezeichnung")</f>
+        <v>Berufsbezeichnung</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B22,$B$1,$D$1))"),"Título profesional")</f>
+        <v>Título profesional</v>
+      </c>
+      <c r="E22" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B22,$B$1,$E$1))"),"Titre d'emploi")</f>
+        <v>Titre d'emploi</v>
+      </c>
+      <c r="F22" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B22,$B$1,$F$1))"),"Judul pekerjaan")</f>
+        <v>Judul pekerjaan</v>
+      </c>
+      <c r="G22" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B22,$B$1,$G$1))"),"Titolo di lavoro")</f>
+        <v>Titolo di lavoro</v>
+      </c>
+      <c r="H22" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B22,$B$1,$H$1))"),"職名")</f>
+        <v>職名</v>
+      </c>
+      <c r="I22" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B22,$B$1,$I$1))"),"직위")</f>
+        <v>직위</v>
+      </c>
+      <c r="J22" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B22,$B$1,$J$1))"),"Cargo")</f>
+        <v>Cargo</v>
+      </c>
+      <c r="K22" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B22,$B$1,$K$1))"),"Должность")</f>
+        <v>Должность</v>
+      </c>
+      <c r="L22" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B22,$B$1,$L$1))"),"ตำแหน่งงาน")</f>
+        <v>ตำแหน่งงาน</v>
+      </c>
+      <c r="M22" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B22,$B$1,$M$1))"),"İş unvanı")</f>
+        <v>İş unvanı</v>
+      </c>
+      <c r="N22" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B22,$B$1,$N$1))"),"Tiêu đề công việc")</f>
+        <v>Tiêu đề công việc</v>
+      </c>
+      <c r="O22" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B22,$B$1,$O$1))"),"职称")</f>
+        <v>职称</v>
+      </c>
+      <c r="P22" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B22,$B$1,$P$1))"),"職稱")</f>
+        <v>職稱</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B23,$B$1,$C$1))"),"Arbeitgeber")</f>
+        <v>Arbeitgeber</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B23,$B$1,$D$1))"),"Empleador")</f>
+        <v>Empleador</v>
+      </c>
+      <c r="E23" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B23,$B$1,$E$1))"),"Employeur")</f>
+        <v>Employeur</v>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B23,$B$1,$F$1))"),"Pemberi pekerjaan")</f>
+        <v>Pemberi pekerjaan</v>
+      </c>
+      <c r="G23" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B23,$B$1,$G$1))"),"Datore di lavoro")</f>
+        <v>Datore di lavoro</v>
+      </c>
+      <c r="H23" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B23,$B$1,$H$1))"),"雇用者")</f>
+        <v>雇用者</v>
+      </c>
+      <c r="I23" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B23,$B$1,$I$1))"),"고용주")</f>
+        <v>고용주</v>
+      </c>
+      <c r="J23" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B23,$B$1,$J$1))"),"Empregador")</f>
+        <v>Empregador</v>
+      </c>
+      <c r="K23" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B23,$B$1,$K$1))"),"Работодатель")</f>
+        <v>Работодатель</v>
+      </c>
+      <c r="L23" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B23,$B$1,$L$1))"),"นายจ้าง")</f>
+        <v>นายจ้าง</v>
+      </c>
+      <c r="M23" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B23,$B$1,$M$1))"),"İş veren")</f>
+        <v>İş veren</v>
+      </c>
+      <c r="N23" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B23,$B$1,$N$1))"),"Nhà tuyển dụng")</f>
+        <v>Nhà tuyển dụng</v>
+      </c>
+      <c r="O23" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B23,$B$1,$O$1))"),"雇主")</f>
+        <v>雇主</v>
+      </c>
+      <c r="P23" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B23,$B$1,$P$1))"),"雇主")</f>
+        <v>雇主</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B24,$B$1,$C$1))"),"Startdatum")</f>
+        <v>Startdatum</v>
+      </c>
+      <c r="D24" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B24,$B$1,$D$1))"),"Fecha de inicio")</f>
+        <v>Fecha de inicio</v>
+      </c>
+      <c r="E24" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B24,$B$1,$E$1))"),"Date de début")</f>
+        <v>Date de début</v>
+      </c>
+      <c r="F24" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B24,$B$1,$F$1))"),"Mulai tanggal")</f>
+        <v>Mulai tanggal</v>
+      </c>
+      <c r="G24" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B24,$B$1,$G$1))"),"Data d'inizio")</f>
+        <v>Data d'inizio</v>
+      </c>
+      <c r="H24" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B24,$B$1,$H$1))"),"開始日")</f>
+        <v>開始日</v>
+      </c>
+      <c r="I24" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B24,$B$1,$I$1))"),"시작 날짜")</f>
+        <v>시작 날짜</v>
+      </c>
+      <c r="J24" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B24,$B$1,$J$1))"),"Data de início")</f>
+        <v>Data de início</v>
+      </c>
+      <c r="K24" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B24,$B$1,$K$1))"),"Дата начала")</f>
+        <v>Дата начала</v>
+      </c>
+      <c r="L24" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B24,$B$1,$L$1))"),"วันที่เริ่มต้น")</f>
+        <v>วันที่เริ่มต้น</v>
+      </c>
+      <c r="M24" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B24,$B$1,$M$1))"),"Başlangıç ​​tarihi")</f>
+        <v>Başlangıç ​​tarihi</v>
+      </c>
+      <c r="N24" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B24,$B$1,$N$1))"),"Ngày bắt đầu")</f>
+        <v>Ngày bắt đầu</v>
+      </c>
+      <c r="O24" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B24,$B$1,$O$1))"),"开始日期")</f>
+        <v>开始日期</v>
+      </c>
+      <c r="P24" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B24,$B$1,$P$1))"),"開始日期")</f>
+        <v>開始日期</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B25,$B$1,$C$1))"),"Endtermin")</f>
+        <v>Endtermin</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B25,$B$1,$D$1))"),"Fecha final")</f>
+        <v>Fecha final</v>
+      </c>
+      <c r="E25" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B25,$B$1,$E$1))"),"Date de fin")</f>
+        <v>Date de fin</v>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B25,$B$1,$F$1))"),"Tanggal akhir")</f>
+        <v>Tanggal akhir</v>
+      </c>
+      <c r="G25" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B25,$B$1,$G$1))"),"Data di fine")</f>
+        <v>Data di fine</v>
+      </c>
+      <c r="H25" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B25,$B$1,$H$1))"),"終了日")</f>
+        <v>終了日</v>
+      </c>
+      <c r="I25" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B25,$B$1,$I$1))"),"종료 날짜")</f>
+        <v>종료 날짜</v>
+      </c>
+      <c r="J25" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B25,$B$1,$J$1))"),"Data final")</f>
+        <v>Data final</v>
+      </c>
+      <c r="K25" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B25,$B$1,$K$1))"),"Дата окончания")</f>
+        <v>Дата окончания</v>
+      </c>
+      <c r="L25" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B25,$B$1,$L$1))"),"วันที่สิ้นสุด")</f>
+        <v>วันที่สิ้นสุด</v>
+      </c>
+      <c r="M25" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B25,$B$1,$M$1))"),"Bitiş tarihi")</f>
+        <v>Bitiş tarihi</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="O25" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B25,$B$1,$O$1))"),"结束日期")</f>
+        <v>结束日期</v>
+      </c>
+      <c r="P25" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B25,$B$1,$P$1))"),"結束日期")</f>
+        <v>結束日期</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C26" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B26,$B$1,$C$1))"),"Beschreibung")</f>
+        <v>Beschreibung</v>
+      </c>
+      <c r="D26" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B26,$B$1,$D$1))"),"Descripción")</f>
+        <v>Descripción</v>
+      </c>
+      <c r="E26" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B26,$B$1,$E$1))"),"Description")</f>
+        <v>Description</v>
+      </c>
+      <c r="F26" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B26,$B$1,$F$1))"),"Keterangan")</f>
+        <v>Keterangan</v>
+      </c>
+      <c r="G26" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B26,$B$1,$G$1))"),"Descrizione")</f>
+        <v>Descrizione</v>
+      </c>
+      <c r="H26" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B26,$B$1,$H$1))"),"説明")</f>
+        <v>説明</v>
+      </c>
+      <c r="I26" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B26,$B$1,$I$1))"),"설명")</f>
+        <v>설명</v>
+      </c>
+      <c r="J26" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B26,$B$1,$J$1))"),"Descrição")</f>
+        <v>Descrição</v>
+      </c>
+      <c r="K26" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B26,$B$1,$K$1))"),"Описание")</f>
+        <v>Описание</v>
+      </c>
+      <c r="L26" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B26,$B$1,$L$1))"),"คำอธิบาย")</f>
+        <v>คำอธิบาย</v>
+      </c>
+      <c r="M26" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B26,$B$1,$M$1))"),"Tanım")</f>
+        <v>Tanım</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="O26" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B26,$B$1,$O$1))"),"描述")</f>
+        <v>描述</v>
+      </c>
+      <c r="P26" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B26,$B$1,$P$1))"),"描述")</f>
+        <v>描述</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="C27" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B27,$B$1,$C$1))"),"Schule")</f>
+        <v>Schule</v>
+      </c>
+      <c r="D27" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B27,$B$1,$D$1))"),"Escuela")</f>
+        <v>Escuela</v>
+      </c>
+      <c r="E27" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B27,$B$1,$E$1))"),"École")</f>
+        <v>École</v>
+      </c>
+      <c r="F27" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B27,$B$1,$F$1))"),"Sekolah")</f>
+        <v>Sekolah</v>
+      </c>
+      <c r="G27" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B27,$B$1,$G$1))"),"Scuola")</f>
+        <v>Scuola</v>
+      </c>
+      <c r="H27" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B27,$B$1,$H$1))"),"学校")</f>
+        <v>学校</v>
+      </c>
+      <c r="I27" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B27,$B$1,$I$1))"),"학교")</f>
+        <v>학교</v>
+      </c>
+      <c r="J27" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B27,$B$1,$J$1))"),"Escola")</f>
+        <v>Escola</v>
+      </c>
+      <c r="K27" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B27,$B$1,$K$1))"),"Школа")</f>
+        <v>Школа</v>
+      </c>
+      <c r="L27" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B27,$B$1,$L$1))"),"โรงเรียน")</f>
+        <v>โรงเรียน</v>
+      </c>
+      <c r="M27" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B27,$B$1,$M$1))"),"Okul")</f>
+        <v>Okul</v>
+      </c>
+      <c r="N27" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B27,$B$1,$N$1))"),"Trường học")</f>
+        <v>Trường học</v>
+      </c>
+      <c r="O27" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B27,$B$1,$O$1))"),"学校")</f>
+        <v>学校</v>
+      </c>
+      <c r="P27" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B27,$B$1,$P$1))"),"學校")</f>
+        <v>學校</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B28,$B$1,$C$1))"),"Grad")</f>
+        <v>Grad</v>
+      </c>
+      <c r="D28" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B28,$B$1,$D$1))"),"Grado")</f>
+        <v>Grado</v>
+      </c>
+      <c r="E28" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B28,$B$1,$E$1))"),"Degré")</f>
+        <v>Degré</v>
+      </c>
+      <c r="F28" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B28,$B$1,$F$1))"),"Derajat")</f>
+        <v>Derajat</v>
+      </c>
+      <c r="G28" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B28,$B$1,$G$1))"),"Grado")</f>
+        <v>Grado</v>
+      </c>
+      <c r="H28" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B28,$B$1,$H$1))"),"程度")</f>
+        <v>程度</v>
+      </c>
+      <c r="I28" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B28,$B$1,$I$1))"),"도")</f>
+        <v>도</v>
+      </c>
+      <c r="J28" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B28,$B$1,$J$1))"),"Grau")</f>
+        <v>Grau</v>
+      </c>
+      <c r="K28" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B28,$B$1,$K$1))"),"Степень")</f>
+        <v>Степень</v>
+      </c>
+      <c r="L28" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B28,$B$1,$L$1))"),"ระดับ")</f>
+        <v>ระดับ</v>
+      </c>
+      <c r="M28" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B28,$B$1,$M$1))"),"Derece")</f>
+        <v>Derece</v>
+      </c>
+      <c r="N28" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B28,$B$1,$N$1))"),"Bằng cấp")</f>
+        <v>Bằng cấp</v>
+      </c>
+      <c r="O28" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B28,$B$1,$O$1))"),"程度")</f>
+        <v>程度</v>
+      </c>
+      <c r="P28" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B28,$B$1,$P$1))"),"程度")</f>
+        <v>程度</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="C29" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B29,$B$1,$C$1))"),"Etikett")</f>
+        <v>Etikett</v>
+      </c>
+      <c r="D29" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B29,$B$1,$D$1))"),"Etiqueta")</f>
+        <v>Etiqueta</v>
+      </c>
+      <c r="E29" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B29,$B$1,$E$1))"),"Étiqueter")</f>
+        <v>Étiqueter</v>
+      </c>
+      <c r="F29" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B29,$B$1,$F$1))"),"Label")</f>
+        <v>Label</v>
+      </c>
+      <c r="G29" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B29,$B$1,$G$1))"),"Etichetta")</f>
+        <v>Etichetta</v>
+      </c>
+      <c r="H29" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B29,$B$1,$H$1))"),"ラベル")</f>
+        <v>ラベル</v>
+      </c>
+      <c r="I29" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B29,$B$1,$I$1))"),"상표")</f>
+        <v>상표</v>
+      </c>
+      <c r="J29" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B29,$B$1,$J$1))"),"Rótulo")</f>
+        <v>Rótulo</v>
+      </c>
+      <c r="K29" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B29,$B$1,$K$1))"),"Этикетка")</f>
+        <v>Этикетка</v>
+      </c>
+      <c r="L29" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B29,$B$1,$L$1))"),"ฉลาก")</f>
+        <v>ฉลาก</v>
+      </c>
+      <c r="M29" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B29,$B$1,$M$1))"),"Etiket")</f>
+        <v>Etiket</v>
+      </c>
+      <c r="N29" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B29,$B$1,$N$1))"),"Nhãn")</f>
+        <v>Nhãn</v>
+      </c>
+      <c r="O29" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B29,$B$1,$O$1))"),"标签")</f>
+        <v>标签</v>
+      </c>
+      <c r="P29" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B29,$B$1,$P$1))"),"標籤")</f>
+        <v>標籤</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C30" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B30,$B$1,$C$1))"),"Verknüpfung")</f>
+        <v>Verknüpfung</v>
+      </c>
+      <c r="D30" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B30,$B$1,$D$1))"),"Enlace")</f>
+        <v>Enlace</v>
+      </c>
+      <c r="E30" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B30,$B$1,$E$1))"),"Lien")</f>
+        <v>Lien</v>
+      </c>
+      <c r="F30" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B30,$B$1,$F$1))"),"Tautan")</f>
+        <v>Tautan</v>
+      </c>
+      <c r="G30" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B30,$B$1,$G$1))"),"Collegamento")</f>
+        <v>Collegamento</v>
+      </c>
+      <c r="H30" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B30,$B$1,$H$1))"),"リンク")</f>
+        <v>リンク</v>
+      </c>
+      <c r="I30" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B30,$B$1,$I$1))"),"링크")</f>
+        <v>링크</v>
+      </c>
+      <c r="J30" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B30,$B$1,$J$1))"),"Link")</f>
+        <v>Link</v>
+      </c>
+      <c r="K30" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B30,$B$1,$K$1))"),"Связь")</f>
+        <v>Связь</v>
+      </c>
+      <c r="L30" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B30,$B$1,$L$1))"),"การเชื่อมโยง")</f>
+        <v>การเชื่อมโยง</v>
+      </c>
+      <c r="M30" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B30,$B$1,$M$1))"),"Bağlantı")</f>
+        <v>Bağlantı</v>
+      </c>
+      <c r="N30" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B30,$B$1,$N$1))"),"Liên kết")</f>
+        <v>Liên kết</v>
+      </c>
+      <c r="O30" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B30,$B$1,$O$1))"),"关联")</f>
+        <v>关联</v>
+      </c>
+      <c r="P30" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B30,$B$1,$P$1))"),"關聯")</f>
+        <v>關聯</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B31,$B$1,$C$1))"),"Fähigkeiten")</f>
+        <v>Fähigkeiten</v>
+      </c>
+      <c r="D31" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B31,$B$1,$D$1))"),"Habilidades")</f>
+        <v>Habilidades</v>
+      </c>
+      <c r="E31" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B31,$B$1,$E$1))"),"Compétences")</f>
+        <v>Compétences</v>
+      </c>
+      <c r="F31" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B31,$B$1,$F$1))"),"Keterampilan")</f>
+        <v>Keterampilan</v>
+      </c>
+      <c r="G31" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B31,$B$1,$G$1))"),"Competenze")</f>
+        <v>Competenze</v>
+      </c>
+      <c r="H31" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B31,$B$1,$H$1))"),"スキル")</f>
+        <v>スキル</v>
+      </c>
+      <c r="I31" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B31,$B$1,$I$1))"),"기술")</f>
+        <v>기술</v>
+      </c>
+      <c r="J31" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B31,$B$1,$J$1))"),"Habilidades")</f>
+        <v>Habilidades</v>
+      </c>
+      <c r="K31" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B31,$B$1,$K$1))"),"Навыки")</f>
+        <v>Навыки</v>
+      </c>
+      <c r="L31" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B31,$B$1,$L$1))"),"ทักษะ")</f>
+        <v>ทักษะ</v>
+      </c>
+      <c r="M31" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B31,$B$1,$M$1))"),"Yetenekler")</f>
+        <v>Yetenekler</v>
+      </c>
+      <c r="N31" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B31,$B$1,$N$1))"),"Kỹ năng")</f>
+        <v>Kỹ năng</v>
+      </c>
+      <c r="O31" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B31,$B$1,$O$1))"),"技能")</f>
+        <v>技能</v>
+      </c>
+      <c r="P31" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B31,$B$1,$P$1))"),"技能")</f>
+        <v>技能</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C32" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B32,$B$1,$C$1))"),"Eben")</f>
+        <v>Eben</v>
+      </c>
+      <c r="D32" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B32,$B$1,$D$1))"),"Nivel")</f>
+        <v>Nivel</v>
+      </c>
+      <c r="E32" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B32,$B$1,$E$1))"),"Niveau")</f>
+        <v>Niveau</v>
+      </c>
+      <c r="F32" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B32,$B$1,$F$1))"),"Tingkat")</f>
+        <v>Tingkat</v>
+      </c>
+      <c r="G32" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B32,$B$1,$G$1))"),"Livello")</f>
+        <v>Livello</v>
+      </c>
+      <c r="H32" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B32,$B$1,$H$1))"),"レベル")</f>
+        <v>レベル</v>
+      </c>
+      <c r="I32" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B32,$B$1,$I$1))"),"수준")</f>
+        <v>수준</v>
+      </c>
+      <c r="J32" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B32,$B$1,$J$1))"),"Nível")</f>
+        <v>Nível</v>
+      </c>
+      <c r="K32" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B32,$B$1,$K$1))"),"Уровень")</f>
+        <v>Уровень</v>
+      </c>
+      <c r="L32" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B32,$B$1,$L$1))"),"ระดับ")</f>
+        <v>ระดับ</v>
+      </c>
+      <c r="M32" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B32,$B$1,$M$1))"),"Seviyesi")</f>
+        <v>Seviyesi</v>
+      </c>
+      <c r="N32" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B32,$B$1,$N$1))"),"Mức độ")</f>
+        <v>Mức độ</v>
+      </c>
+      <c r="O32" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B32,$B$1,$O$1))"),"等级")</f>
+        <v>等级</v>
+      </c>
+      <c r="P32" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B32,$B$1,$P$1))"),"等級")</f>
+        <v>等級</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C33" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B33,$B$1,$C$1))"),"Anfänger")</f>
+        <v>Anfänger</v>
+      </c>
+      <c r="D33" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B33,$B$1,$D$1))"),"Principiante")</f>
+        <v>Principiante</v>
+      </c>
+      <c r="E33" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B33,$B$1,$E$1))"),"Novice")</f>
+        <v>Novice</v>
+      </c>
+      <c r="F33" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B33,$B$1,$F$1))"),"Pemula")</f>
+        <v>Pemula</v>
+      </c>
+      <c r="G33" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B33,$B$1,$G$1))"),"Novizio")</f>
+        <v>Novizio</v>
+      </c>
+      <c r="H33" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B33,$B$1,$H$1))"),"初心者")</f>
+        <v>初心者</v>
+      </c>
+      <c r="I33" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B33,$B$1,$I$1))"),"초심자")</f>
+        <v>초심자</v>
+      </c>
+      <c r="J33" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B33,$B$1,$J$1))"),"Novato")</f>
+        <v>Novato</v>
+      </c>
+      <c r="K33" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B33,$B$1,$K$1))"),"Новичок")</f>
+        <v>Новичок</v>
+      </c>
+      <c r="L33" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B33,$B$1,$L$1))"),"สามเณร")</f>
+        <v>สามเณร</v>
+      </c>
+      <c r="M33" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B33,$B$1,$M$1))"),"Acemi")</f>
+        <v>Acemi</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="O33" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B33,$B$1,$O$1))"),"新手")</f>
+        <v>新手</v>
+      </c>
+      <c r="P33" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B33,$B$1,$P$1))"),"新手")</f>
+        <v>新手</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B34,$B$1,$C$1))"),"Anfänger")</f>
+        <v>Anfänger</v>
+      </c>
+      <c r="D34" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B34,$B$1,$D$1))"),"Principiante")</f>
+        <v>Principiante</v>
+      </c>
+      <c r="E34" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B34,$B$1,$E$1))"),"Débutant")</f>
+        <v>Débutant</v>
+      </c>
+      <c r="F34" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B34,$B$1,$F$1))"),"Pemula")</f>
+        <v>Pemula</v>
+      </c>
+      <c r="G34" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B34,$B$1,$G$1))"),"Principiante")</f>
+        <v>Principiante</v>
+      </c>
+      <c r="H34" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B34,$B$1,$H$1))"),"初心者")</f>
+        <v>初心者</v>
+      </c>
+      <c r="I34" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B34,$B$1,$I$1))"),"초보자")</f>
+        <v>초보자</v>
+      </c>
+      <c r="J34" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B34,$B$1,$J$1))"),"Principiante")</f>
+        <v>Principiante</v>
+      </c>
+      <c r="K34" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B34,$B$1,$K$1))"),"Новичок")</f>
+        <v>Новичок</v>
+      </c>
+      <c r="L34" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B34,$B$1,$L$1))"),"ผู้เริ่มต้น")</f>
+        <v>ผู้เริ่มต้น</v>
+      </c>
+      <c r="M34" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B34,$B$1,$M$1))"),"Acemi")</f>
+        <v>Acemi</v>
+      </c>
+      <c r="N34" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B34,$B$1,$N$1))"),"Người bắt đầu")</f>
+        <v>Người bắt đầu</v>
+      </c>
+      <c r="O34" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B34,$B$1,$O$1))"),"初学者")</f>
+        <v>初学者</v>
+      </c>
+      <c r="P34" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B34,$B$1,$P$1))"),"初學者")</f>
+        <v>初學者</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="C35" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B35,$B$1,$C$1))"),"Geschickt")</f>
+        <v>Geschickt</v>
+      </c>
+      <c r="D35" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B35,$B$1,$D$1))"),"Hábil")</f>
+        <v>Hábil</v>
+      </c>
+      <c r="E35" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B35,$B$1,$E$1))"),"Habile")</f>
+        <v>Habile</v>
+      </c>
+      <c r="F35" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B35,$B$1,$F$1))"),"Mahir")</f>
+        <v>Mahir</v>
+      </c>
+      <c r="G35" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B35,$B$1,$G$1))"),"Abile")</f>
+        <v>Abile</v>
+      </c>
+      <c r="H35" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B35,$B$1,$H$1))"),"熟練")</f>
+        <v>熟練</v>
+      </c>
+      <c r="I35" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B35,$B$1,$I$1))"),"잘 만들어진")</f>
+        <v>잘 만들어진</v>
+      </c>
+      <c r="J35" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B35,$B$1,$J$1))"),"Hábil")</f>
+        <v>Hábil</v>
+      </c>
+      <c r="K35" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B35,$B$1,$K$1))"),"Умелый")</f>
+        <v>Умелый</v>
+      </c>
+      <c r="L35" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B35,$B$1,$L$1))"),"มีฝีมือ")</f>
+        <v>มีฝีมือ</v>
+      </c>
+      <c r="M35" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B35,$B$1,$M$1))"),"Yetenekli")</f>
+        <v>Yetenekli</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="O35" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B35,$B$1,$O$1))"),"熟练")</f>
+        <v>熟练</v>
+      </c>
+      <c r="P35" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B35,$B$1,$P$1))"),"熟練")</f>
+        <v>熟練</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B36,$B$1,$C$1))"),"Erfahren")</f>
+        <v>Erfahren</v>
+      </c>
+      <c r="D36" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B36,$B$1,$D$1))"),"Experimentado")</f>
+        <v>Experimentado</v>
+      </c>
+      <c r="E36" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B36,$B$1,$E$1))"),"Expérimenté")</f>
+        <v>Expérimenté</v>
+      </c>
+      <c r="F36" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B36,$B$1,$F$1))"),"Berpengalaman")</f>
+        <v>Berpengalaman</v>
+      </c>
+      <c r="G36" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B36,$B$1,$G$1))"),"Esperto")</f>
+        <v>Esperto</v>
+      </c>
+      <c r="H36" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B36,$B$1,$H$1))"),"経験豊富")</f>
+        <v>経験豊富</v>
+      </c>
+      <c r="I36" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B36,$B$1,$I$1))"),"경험이 풍부합니다")</f>
+        <v>경험이 풍부합니다</v>
+      </c>
+      <c r="J36" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B36,$B$1,$J$1))"),"Com experiência")</f>
+        <v>Com experiência</v>
+      </c>
+      <c r="K36" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B36,$B$1,$K$1))"),"Опытный")</f>
+        <v>Опытный</v>
+      </c>
+      <c r="L36" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B36,$B$1,$L$1))"),"มีประสบการณ์")</f>
+        <v>มีประสบการณ์</v>
+      </c>
+      <c r="M36" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B36,$B$1,$M$1))"),"Tecrübeli")</f>
+        <v>Tecrübeli</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="O36" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B36,$B$1,$O$1))"),"有经验的")</f>
+        <v>有经验的</v>
+      </c>
+      <c r="P36" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B36,$B$1,$P$1))"),"有經驗的")</f>
+        <v>有經驗的</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="C37" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B37,$B$1,$C$1))"),"Experte")</f>
+        <v>Experte</v>
+      </c>
+      <c r="D37" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B37,$B$1,$D$1))"),"Experto")</f>
+        <v>Experto</v>
+      </c>
+      <c r="E37" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B37,$B$1,$E$1))"),"Expert")</f>
+        <v>Expert</v>
+      </c>
+      <c r="F37" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B37,$B$1,$F$1))"),"Pakar")</f>
+        <v>Pakar</v>
+      </c>
+      <c r="G37" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B37,$B$1,$G$1))"),"Esperto")</f>
+        <v>Esperto</v>
+      </c>
+      <c r="H37" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B37,$B$1,$H$1))"),"エキスパート")</f>
+        <v>エキスパート</v>
+      </c>
+      <c r="I37" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B37,$B$1,$I$1))"),"전문가")</f>
+        <v>전문가</v>
+      </c>
+      <c r="J37" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B37,$B$1,$J$1))"),"Especialista")</f>
+        <v>Especialista</v>
+      </c>
+      <c r="K37" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B37,$B$1,$K$1))"),"Эксперт")</f>
+        <v>Эксперт</v>
+      </c>
+      <c r="L37" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B37,$B$1,$L$1))"),"ผู้เชี่ยวชาญ")</f>
+        <v>ผู้เชี่ยวชาญ</v>
+      </c>
+      <c r="M37" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B37,$B$1,$M$1))"),"Uzman")</f>
+        <v>Uzman</v>
+      </c>
+      <c r="N37" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B37,$B$1,$N$1))"),"Chuyên gia")</f>
+        <v>Chuyên gia</v>
+      </c>
+      <c r="O37" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B37,$B$1,$O$1))"),"专家")</f>
+        <v>专家</v>
+      </c>
+      <c r="P37" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B37,$B$1,$P$1))"),"專家")</f>
+        <v>專家</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C38" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B38,$B$1,$C$1))"),"Zeigen Sie keine Erfahrungsstufe")</f>
+        <v>Zeigen Sie keine Erfahrungsstufe</v>
+      </c>
+      <c r="D38" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B38,$B$1,$D$1))"),"No muestres el nivel de experiencia")</f>
+        <v>No muestres el nivel de experiencia</v>
+      </c>
+      <c r="E38" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B38,$B$1,$E$1))"),"Ne montrez pas de niveau d'expérience")</f>
+        <v>Ne montrez pas de niveau d'expérience</v>
+      </c>
+      <c r="F38" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B38,$B$1,$F$1))"),"Jangan tunjukkan tingkat pengalaman")</f>
+        <v>Jangan tunjukkan tingkat pengalaman</v>
+      </c>
+      <c r="G38" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B38,$B$1,$G$1))"),"Non mostrare il livello di esperienza")</f>
+        <v>Non mostrare il livello di esperienza</v>
+      </c>
+      <c r="H38" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B38,$B$1,$H$1))"),"経験レベルを表示しないでください")</f>
+        <v>経験レベルを表示しないでください</v>
+      </c>
+      <c r="I38" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B38,$B$1,$I$1))"),"경험 수준을 보여주지 마십시오")</f>
+        <v>경험 수준을 보여주지 마십시오</v>
+      </c>
+      <c r="J38" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B38,$B$1,$J$1))"),"Não mostre nível de experiência")</f>
+        <v>Não mostre nível de experiência</v>
+      </c>
+      <c r="K38" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B38,$B$1,$K$1))"),"Не показывайте уровень опыта")</f>
+        <v>Не показывайте уровень опыта</v>
+      </c>
+      <c r="L38" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B38,$B$1,$L$1))"),"อย่าแสดงระดับประสบการณ์")</f>
+        <v>อย่าแสดงระดับประสบการณ์</v>
+      </c>
+      <c r="M38" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B38,$B$1,$M$1))"),"Deneyim Seviyesi Gösterme")</f>
+        <v>Deneyim Seviyesi Gösterme</v>
+      </c>
+      <c r="N38" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B38,$B$1,$N$1))"),"Không hiển thị mức độ kinh nghiệm")</f>
+        <v>Không hiển thị mức độ kinh nghiệm</v>
+      </c>
+      <c r="O38" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B38,$B$1,$O$1))"),"不要显示经验水平")</f>
+        <v>不要显示经验水平</v>
+      </c>
+      <c r="P38" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B38,$B$1,$P$1))"),"不要顯示經驗水平")</f>
+        <v>不要顯示經驗水平</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B39,$B$1,$C$1))"),"Nicht angegeben")</f>
+        <v>Nicht angegeben</v>
+      </c>
+      <c r="D39" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B39,$B$1,$D$1))"),"No especificado")</f>
+        <v>No especificado</v>
+      </c>
+      <c r="E39" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B39,$B$1,$E$1))"),"Non spécifié")</f>
+        <v>Non spécifié</v>
+      </c>
+      <c r="F39" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B39,$B$1,$F$1))"),"Tidak ditentukan")</f>
+        <v>Tidak ditentukan</v>
+      </c>
+      <c r="G39" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B39,$B$1,$G$1))"),"Non specificato")</f>
+        <v>Non specificato</v>
+      </c>
+      <c r="H39" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B39,$B$1,$H$1))"),"指定されていない")</f>
+        <v>指定されていない</v>
+      </c>
+      <c r="I39" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B39,$B$1,$I$1))"),"명시되지 않은")</f>
+        <v>명시되지 않은</v>
+      </c>
+      <c r="J39" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B39,$B$1,$J$1))"),"Não especificado")</f>
+        <v>Não especificado</v>
+      </c>
+      <c r="K39" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B39,$B$1,$K$1))"),"Не указан")</f>
+        <v>Не указан</v>
+      </c>
+      <c r="L39" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B39,$B$1,$L$1))"),"ไม่ได้ระบุไว้")</f>
+        <v>ไม่ได้ระบุไว้</v>
+      </c>
+      <c r="M39" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B39,$B$1,$M$1))"),"Belirtilmemiş")</f>
+        <v>Belirtilmemiş</v>
+      </c>
+      <c r="N39" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B39,$B$1,$N$1))"),"Không được chỉ định")</f>
+        <v>Không được chỉ định</v>
+      </c>
+      <c r="O39" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B39,$B$1,$O$1))"),"未指定")</f>
+        <v>未指定</v>
+      </c>
+      <c r="P39" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B39,$B$1,$P$1))"),"未指定")</f>
+        <v>未指定</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C40" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B40,$B$1,$C$1))"),"Fügen Sie noch eine Beschäftigung hinzu")</f>
+        <v>Fügen Sie noch eine Beschäftigung hinzu</v>
+      </c>
+      <c r="D40" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B40,$B$1,$D$1))"),"Agregar un empleo más")</f>
+        <v>Agregar un empleo más</v>
+      </c>
+      <c r="E40" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B40,$B$1,$E$1))"),"Ajouter un emploi de plus")</f>
+        <v>Ajouter un emploi de plus</v>
+      </c>
+      <c r="F40" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B40,$B$1,$F$1))"),"Tambahkan satu pekerjaan lagi")</f>
+        <v>Tambahkan satu pekerjaan lagi</v>
+      </c>
+      <c r="G40" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B40,$B$1,$G$1))"),"Aggiungi un altro impiego")</f>
+        <v>Aggiungi un altro impiego</v>
+      </c>
+      <c r="H40" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B40,$B$1,$H$1))"),"もう1つの雇用を追加します")</f>
+        <v>もう1つの雇用を追加します</v>
+      </c>
+      <c r="I40" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B40,$B$1,$I$1))"),"고용을 하나 더 추가하십시오")</f>
+        <v>고용을 하나 더 추가하십시오</v>
+      </c>
+      <c r="J40" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B40,$B$1,$J$1))"),"Adicione mais um emprego")</f>
+        <v>Adicione mais um emprego</v>
+      </c>
+      <c r="K40" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B40,$B$1,$K$1))"),"Добавить еще одну работу")</f>
+        <v>Добавить еще одну работу</v>
+      </c>
+      <c r="L40" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B40,$B$1,$L$1))"),"เพิ่มการจ้างงานอีกหนึ่งครั้ง")</f>
+        <v>เพิ่มการจ้างงานอีกหนึ่งครั้ง</v>
+      </c>
+      <c r="M40" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B40,$B$1,$M$1))"),"Bir iş daha ekleyin")</f>
+        <v>Bir iş daha ekleyin</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="O40" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B40,$B$1,$O$1))"),"再增加一个工作")</f>
+        <v>再增加一个工作</v>
+      </c>
+      <c r="P40" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B40,$B$1,$P$1))"),"再增加一個工作")</f>
+        <v>再增加一個工作</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C41" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B41,$B$1,$C$1))"),"Fügen Sie noch eine Ausbildung hinzu")</f>
+        <v>Fügen Sie noch eine Ausbildung hinzu</v>
+      </c>
+      <c r="D41" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B41,$B$1,$D$1))"),"Agregar una educación más")</f>
+        <v>Agregar una educación más</v>
+      </c>
+      <c r="E41" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B41,$B$1,$E$1))"),"Ajouter une autre éducation")</f>
+        <v>Ajouter une autre éducation</v>
+      </c>
+      <c r="F41" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B41,$B$1,$F$1))"),"Tambahkan satu pendidikan lagi")</f>
+        <v>Tambahkan satu pendidikan lagi</v>
+      </c>
+      <c r="G41" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B41,$B$1,$G$1))"),"Aggiungi un altro istruzione")</f>
+        <v>Aggiungi un altro istruzione</v>
+      </c>
+      <c r="H41" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B41,$B$1,$H$1))"),"もう1つの教育を追加します")</f>
+        <v>もう1つの教育を追加します</v>
+      </c>
+      <c r="I41" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B41,$B$1,$I$1))"),"교육을 하나 더 추가하십시오")</f>
+        <v>교육을 하나 더 추가하십시오</v>
+      </c>
+      <c r="J41" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B41,$B$1,$J$1))"),"Adicione mais uma educação")</f>
+        <v>Adicione mais uma educação</v>
+      </c>
+      <c r="K41" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B41,$B$1,$K$1))"),"Добавить еще одно образование")</f>
+        <v>Добавить еще одно образование</v>
+      </c>
+      <c r="L41" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B41,$B$1,$L$1))"),"เพิ่มอีกหนึ่งการศึกษา")</f>
+        <v>เพิ่มอีกหนึ่งการศึกษา</v>
+      </c>
+      <c r="M41" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B41,$B$1,$M$1))"),"Bir eğitim daha ekleyin")</f>
+        <v>Bir eğitim daha ekleyin</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="O41" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B41,$B$1,$O$1))"),"再增加一个教育")</f>
+        <v>再增加一个教育</v>
+      </c>
+      <c r="P41" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B41,$B$1,$P$1))"),"再增加一個教育")</f>
+        <v>再增加一個教育</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B42,$B$1,$C$1))"),"Fügen Sie noch einen Links hinzu")</f>
+        <v>Fügen Sie noch einen Links hinzu</v>
+      </c>
+      <c r="D42" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B42,$B$1,$D$1))"),"Agregar un enlaces más")</f>
+        <v>Agregar un enlaces más</v>
+      </c>
+      <c r="E42" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B42,$B$1,$E$1))"),"Ajouter un autre lien")</f>
+        <v>Ajouter un autre lien</v>
+      </c>
+      <c r="F42" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B42,$B$1,$F$1))"),"Tambahkan satu tautan lagi")</f>
+        <v>Tambahkan satu tautan lagi</v>
+      </c>
+      <c r="G42" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B42,$B$1,$G$1))"),"Aggiungi un altro link")</f>
+        <v>Aggiungi un altro link</v>
+      </c>
+      <c r="H42" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B42,$B$1,$H$1))"),"もう1つのリンクを追加します")</f>
+        <v>もう1つのリンクを追加します</v>
+      </c>
+      <c r="I42" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B42,$B$1,$I$1))"),"하나 더 링크를 추가하십시오")</f>
+        <v>하나 더 링크를 추가하십시오</v>
+      </c>
+      <c r="J42" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B42,$B$1,$J$1))"),"Adicione mais um links")</f>
+        <v>Adicione mais um links</v>
+      </c>
+      <c r="K42" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B42,$B$1,$K$1))"),"Добавьте еще одну ссылку")</f>
+        <v>Добавьте еще одну ссылку</v>
+      </c>
+      <c r="L42" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B42,$B$1,$L$1))"),"เพิ่มอีกหนึ่งลิงก์")</f>
+        <v>เพิ่มอีกหนึ่งลิงก์</v>
+      </c>
+      <c r="M42" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B42,$B$1,$M$1))"),"Bir bağlantı daha ekleyin")</f>
+        <v>Bir bağlantı daha ekleyin</v>
+      </c>
+      <c r="N42" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B42,$B$1,$N$1))"),"Thêm một liên kết nữa")</f>
+        <v>Thêm một liên kết nữa</v>
+      </c>
+      <c r="O42" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B42,$B$1,$O$1))"),"添加另一个链接")</f>
+        <v>添加另一个链接</v>
+      </c>
+      <c r="P42" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B42,$B$1,$P$1))"),"添加另一個鏈接")</f>
+        <v>添加另一個鏈接</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C43" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B43,$B$1,$C$1))"),"Fügen Sie noch eine Fähigkeit hinzu")</f>
+        <v>Fügen Sie noch eine Fähigkeit hinzu</v>
+      </c>
+      <c r="D43" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B43,$B$1,$D$1))"),"Agregar una habilidad más")</f>
+        <v>Agregar una habilidad más</v>
+      </c>
+      <c r="E43" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B43,$B$1,$E$1))"),"Ajouter une autre compétence")</f>
+        <v>Ajouter une autre compétence</v>
+      </c>
+      <c r="F43" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B43,$B$1,$F$1))"),"Tambahkan satu keterampilan lagi")</f>
+        <v>Tambahkan satu keterampilan lagi</v>
+      </c>
+      <c r="G43" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B43,$B$1,$G$1))"),"Aggiungi un'altra abilità")</f>
+        <v>Aggiungi un'altra abilità</v>
+      </c>
+      <c r="H43" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B43,$B$1,$H$1))"),"もう1つのスキルを追加します")</f>
+        <v>もう1つのスキルを追加します</v>
+      </c>
+      <c r="I43" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B43,$B$1,$I$1))"),"하나 더 기술을 추가하십시오")</f>
+        <v>하나 더 기술을 추가하십시오</v>
+      </c>
+      <c r="J43" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B43,$B$1,$J$1))"),"Adicione mais uma habilidade")</f>
+        <v>Adicione mais uma habilidade</v>
+      </c>
+      <c r="K43" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B43,$B$1,$K$1))"),"Добавить еще одну навыки")</f>
+        <v>Добавить еще одну навыки</v>
+      </c>
+      <c r="L43" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B43,$B$1,$L$1))"),"เพิ่มอีกหนึ่งทักษะ")</f>
+        <v>เพิ่มอีกหนึ่งทักษะ</v>
+      </c>
+      <c r="M43" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B43,$B$1,$M$1))"),"Bir Beceri Daha Ekleyin")</f>
+        <v>Bir Beceri Daha Ekleyin</v>
+      </c>
+      <c r="N43" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B43,$B$1,$N$1))"),"Thêm một kỹ năng nữa")</f>
+        <v>Thêm một kỹ năng nữa</v>
+      </c>
+      <c r="O43" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B43,$B$1,$O$1))"),"增加一项技能")</f>
+        <v>增加一项技能</v>
+      </c>
+      <c r="P43" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B43,$B$1,$P$1))"),"增加一項技能")</f>
+        <v>增加一項技能</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C44" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B44,$B$1,$C$1))"),"Lebenslauf speichern")</f>
+        <v>Lebenslauf speichern</v>
+      </c>
+      <c r="D44" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B44,$B$1,$D$1))"),"Guardar currículum")</f>
+        <v>Guardar currículum</v>
+      </c>
+      <c r="E44" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B44,$B$1,$E$1))"),"Sauver le CV")</f>
+        <v>Sauver le CV</v>
+      </c>
+      <c r="F44" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B44,$B$1,$F$1))"),"Simpan resume")</f>
+        <v>Simpan resume</v>
+      </c>
+      <c r="G44" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B44,$B$1,$G$1))"),"Salva curriculum")</f>
+        <v>Salva curriculum</v>
+      </c>
+      <c r="H44" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B44,$B$1,$H$1))"),"履歴書を保存します")</f>
+        <v>履歴書を保存します</v>
+      </c>
+      <c r="I44" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B44,$B$1,$I$1))"),"이력서를 저장하십시오")</f>
+        <v>이력서를 저장하십시오</v>
+      </c>
+      <c r="J44" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B44,$B$1,$J$1))"),"Salvar currículo")</f>
+        <v>Salvar currículo</v>
+      </c>
+      <c r="K44" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B44,$B$1,$K$1))"),"Сохраните резюме")</f>
+        <v>Сохраните резюме</v>
+      </c>
+      <c r="L44" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B44,$B$1,$L$1))"),"บันทึกประวัติย่อ")</f>
+        <v>บันทึกประวัติย่อ</v>
+      </c>
+      <c r="M44" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B44,$B$1,$M$1))"),"Özgeçmiş Kaydet")</f>
+        <v>Özgeçmiş Kaydet</v>
+      </c>
+      <c r="N44" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B44,$B$1,$N$1))"),"Lưu sơ yếu lý lịch")</f>
+        <v>Lưu sơ yếu lý lịch</v>
+      </c>
+      <c r="O44" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B44,$B$1,$O$1))"),"保存简历")</f>
+        <v>保存简历</v>
+      </c>
+      <c r="P44" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B44,$B$1,$P$1))"),"保存簡歷")</f>
+        <v>保存簡歷</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="14"/>
+    </row>
+    <row r="46">
+      <c r="B46" s="14"/>
+    </row>
+    <row r="47">
+      <c r="B47" s="14"/>
+    </row>
+    <row r="48">
+      <c r="B48" s="14"/>
+    </row>
+    <row r="49">
+      <c r="B49" s="14"/>
+    </row>
+    <row r="50">
+      <c r="B50" s="14"/>
+    </row>
+    <row r="51">
+      <c r="B51" s="14"/>
+    </row>
+    <row r="52">
+      <c r="B52" s="14"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="14"/>
+    </row>
+    <row r="54">
+      <c r="B54" s="14"/>
+    </row>
+    <row r="55">
+      <c r="B55" s="14"/>
+    </row>
+    <row r="56">
+      <c r="B56" s="14"/>
+    </row>
+    <row r="57">
+      <c r="B57" s="14"/>
+    </row>
+    <row r="58">
+      <c r="B58" s="14"/>
+    </row>
+    <row r="59">
+      <c r="B59" s="14"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="14"/>
+    </row>
+    <row r="61">
+      <c r="B61" s="14"/>
+    </row>
+    <row r="62">
+      <c r="B62" s="14"/>
+    </row>
+    <row r="63">
+      <c r="B63" s="14"/>
+    </row>
+    <row r="64">
+      <c r="B64" s="14"/>
+    </row>
+    <row r="65">
+      <c r="B65" s="14"/>
+    </row>
+    <row r="66">
+      <c r="B66" s="14"/>
+    </row>
+    <row r="67">
+      <c r="B67" s="14"/>
+    </row>
+    <row r="68">
+      <c r="B68" s="14"/>
+    </row>
+    <row r="69">
+      <c r="B69" s="14"/>
+    </row>
+    <row r="70">
+      <c r="B70" s="14"/>
+    </row>
+    <row r="71">
+      <c r="B71" s="14"/>
+    </row>
+    <row r="72">
+      <c r="B72" s="14"/>
+    </row>
+    <row r="73">
+      <c r="B73" s="14"/>
+    </row>
+    <row r="74">
+      <c r="B74" s="14"/>
+    </row>
+    <row r="75">
+      <c r="B75" s="14"/>
+    </row>
+    <row r="76">
+      <c r="B76" s="14"/>
+    </row>
+    <row r="77">
+      <c r="B77" s="14"/>
+    </row>
+    <row r="78">
+      <c r="B78" s="14"/>
+    </row>
+    <row r="79">
+      <c r="B79" s="14"/>
+    </row>
+    <row r="80">
+      <c r="B80" s="14"/>
+    </row>
+    <row r="81">
+      <c r="B81" s="14"/>
+    </row>
+    <row r="82">
+      <c r="B82" s="14"/>
+    </row>
+    <row r="83">
+      <c r="B83" s="14"/>
+    </row>
+    <row r="84">
+      <c r="B84" s="14"/>
+    </row>
+    <row r="85">
+      <c r="B85" s="14"/>
+    </row>
+    <row r="86">
+      <c r="B86" s="14"/>
+    </row>
+    <row r="87">
+      <c r="B87" s="14"/>
+    </row>
+    <row r="88">
+      <c r="B88" s="14"/>
+    </row>
+    <row r="89">
+      <c r="B89" s="14"/>
+    </row>
+    <row r="90">
+      <c r="B90" s="14"/>
+    </row>
+    <row r="91">
+      <c r="B91" s="14"/>
+    </row>
+    <row r="92">
+      <c r="B92" s="14"/>
+    </row>
+    <row r="93">
+      <c r="B93" s="14"/>
+    </row>
+    <row r="94">
+      <c r="B94" s="14"/>
+    </row>
+    <row r="95">
+      <c r="B95" s="14"/>
+    </row>
+    <row r="96">
+      <c r="B96" s="14"/>
+    </row>
+    <row r="97">
+      <c r="B97" s="14"/>
+    </row>
+    <row r="98">
+      <c r="B98" s="14"/>
+    </row>
+    <row r="99">
+      <c r="B99" s="14"/>
+    </row>
+    <row r="100">
+      <c r="B100" s="14"/>
+    </row>
+    <row r="101">
+      <c r="B101" s="14"/>
+    </row>
+    <row r="102">
+      <c r="B102" s="14"/>
+    </row>
+    <row r="103">
+      <c r="B103" s="14"/>
+    </row>
+    <row r="104">
+      <c r="B104" s="14"/>
+    </row>
+    <row r="105">
+      <c r="B105" s="14"/>
+    </row>
+    <row r="106">
+      <c r="B106" s="14"/>
+    </row>
+    <row r="107">
+      <c r="B107" s="14"/>
+    </row>
+    <row r="108">
+      <c r="B108" s="14"/>
+    </row>
+    <row r="109">
+      <c r="B109" s="14"/>
+    </row>
+    <row r="110">
+      <c r="B110" s="14"/>
+    </row>
+    <row r="111">
+      <c r="B111" s="14"/>
+    </row>
+    <row r="112">
+      <c r="B112" s="14"/>
+    </row>
+    <row r="113">
+      <c r="B113" s="14"/>
+    </row>
+    <row r="114">
+      <c r="B114" s="14"/>
+    </row>
+    <row r="115">
+      <c r="B115" s="14"/>
+    </row>
+    <row r="116">
+      <c r="B116" s="14"/>
+    </row>
+    <row r="117">
+      <c r="B117" s="14"/>
+    </row>
+    <row r="118">
+      <c r="B118" s="14"/>
+    </row>
+    <row r="119">
+      <c r="B119" s="14"/>
+    </row>
+    <row r="120">
+      <c r="B120" s="14"/>
+    </row>
+    <row r="121">
+      <c r="B121" s="14"/>
+    </row>
+    <row r="122">
+      <c r="B122" s="14"/>
+    </row>
+    <row r="123">
+      <c r="B123" s="14"/>
+    </row>
+    <row r="124">
+      <c r="B124" s="14"/>
+    </row>
+    <row r="125">
+      <c r="B125" s="14"/>
+    </row>
+    <row r="126">
+      <c r="B126" s="14"/>
+    </row>
+    <row r="127">
+      <c r="B127" s="14"/>
+    </row>
+    <row r="128">
+      <c r="B128" s="14"/>
+    </row>
+    <row r="129">
+      <c r="B129" s="14"/>
+    </row>
+    <row r="130">
+      <c r="B130" s="14"/>
+    </row>
+    <row r="131">
+      <c r="B131" s="14"/>
+    </row>
+    <row r="132">
+      <c r="B132" s="14"/>
+    </row>
+    <row r="133">
+      <c r="B133" s="14"/>
+    </row>
+    <row r="134">
+      <c r="B134" s="14"/>
+    </row>
+    <row r="135">
+      <c r="B135" s="14"/>
+    </row>
+    <row r="136">
+      <c r="B136" s="14"/>
+    </row>
+    <row r="137">
+      <c r="B137" s="14"/>
+    </row>
+    <row r="138">
+      <c r="B138" s="14"/>
+    </row>
+    <row r="139">
+      <c r="B139" s="14"/>
+    </row>
+    <row r="140">
+      <c r="B140" s="14"/>
+    </row>
+    <row r="141">
+      <c r="B141" s="14"/>
+    </row>
+    <row r="142">
+      <c r="B142" s="14"/>
+    </row>
+    <row r="143">
+      <c r="B143" s="14"/>
+    </row>
+    <row r="144">
+      <c r="B144" s="14"/>
+    </row>
+    <row r="145">
+      <c r="B145" s="14"/>
+    </row>
+    <row r="146">
+      <c r="B146" s="14"/>
+    </row>
+    <row r="147">
+      <c r="B147" s="14"/>
+    </row>
+    <row r="148">
+      <c r="B148" s="14"/>
+    </row>
+    <row r="149">
+      <c r="B149" s="14"/>
+    </row>
+    <row r="150">
+      <c r="B150" s="14"/>
+    </row>
+    <row r="151">
+      <c r="B151" s="14"/>
+    </row>
+    <row r="152">
+      <c r="B152" s="14"/>
+    </row>
+    <row r="153">
+      <c r="B153" s="14"/>
+    </row>
+    <row r="154">
+      <c r="B154" s="14"/>
+    </row>
+    <row r="155">
+      <c r="B155" s="14"/>
+    </row>
+    <row r="156">
+      <c r="B156" s="14"/>
+    </row>
+    <row r="157">
+      <c r="B157" s="14"/>
+    </row>
+    <row r="158">
+      <c r="B158" s="14"/>
+    </row>
+    <row r="159">
+      <c r="B159" s="14"/>
+    </row>
+    <row r="160">
+      <c r="B160" s="14"/>
+    </row>
+    <row r="161">
+      <c r="B161" s="14"/>
+    </row>
+    <row r="162">
+      <c r="B162" s="14"/>
+    </row>
+    <row r="163">
+      <c r="B163" s="14"/>
+    </row>
+    <row r="164">
+      <c r="B164" s="14"/>
+    </row>
+    <row r="165">
+      <c r="B165" s="14"/>
+    </row>
+    <row r="166">
+      <c r="B166" s="14"/>
+    </row>
+    <row r="167">
+      <c r="B167" s="14"/>
+    </row>
+    <row r="168">
+      <c r="B168" s="14"/>
+    </row>
+    <row r="169">
+      <c r="B169" s="14"/>
+    </row>
+    <row r="170">
+      <c r="B170" s="14"/>
+    </row>
+    <row r="171">
+      <c r="B171" s="14"/>
+    </row>
+    <row r="172">
+      <c r="B172" s="14"/>
+    </row>
+    <row r="173">
+      <c r="B173" s="14"/>
+    </row>
+    <row r="174">
+      <c r="B174" s="14"/>
+    </row>
+    <row r="175">
+      <c r="B175" s="14"/>
+    </row>
+    <row r="176">
+      <c r="B176" s="14"/>
+    </row>
+    <row r="177">
+      <c r="B177" s="14"/>
+    </row>
+    <row r="178">
+      <c r="B178" s="14"/>
+    </row>
+    <row r="179">
+      <c r="B179" s="14"/>
+    </row>
+    <row r="180">
+      <c r="B180" s="14"/>
+    </row>
+    <row r="181">
+      <c r="B181" s="14"/>
+    </row>
+    <row r="182">
+      <c r="B182" s="14"/>
+    </row>
+    <row r="183">
+      <c r="B183" s="14"/>
+    </row>
+    <row r="184">
+      <c r="B184" s="14"/>
+    </row>
+    <row r="185">
+      <c r="B185" s="14"/>
+    </row>
+    <row r="186">
+      <c r="B186" s="14"/>
+    </row>
+    <row r="187">
+      <c r="B187" s="14"/>
+    </row>
+    <row r="188">
+      <c r="B188" s="14"/>
+    </row>
+    <row r="189">
+      <c r="B189" s="14"/>
+    </row>
+    <row r="190">
+      <c r="B190" s="14"/>
+    </row>
+    <row r="191">
+      <c r="B191" s="14"/>
+    </row>
+    <row r="192">
+      <c r="B192" s="14"/>
+    </row>
+    <row r="193">
+      <c r="B193" s="14"/>
+    </row>
+    <row r="194">
+      <c r="B194" s="14"/>
+    </row>
+    <row r="195">
+      <c r="B195" s="14"/>
+    </row>
+    <row r="196">
+      <c r="B196" s="14"/>
+    </row>
+    <row r="197">
+      <c r="B197" s="14"/>
+    </row>
+    <row r="198">
+      <c r="B198" s="14"/>
+    </row>
+    <row r="199">
+      <c r="B199" s="14"/>
+    </row>
+    <row r="200">
+      <c r="B200" s="14"/>
+    </row>
+    <row r="201">
+      <c r="B201" s="14"/>
+    </row>
+    <row r="202">
+      <c r="B202" s="14"/>
+    </row>
+    <row r="203">
+      <c r="B203" s="14"/>
+    </row>
+    <row r="204">
+      <c r="B204" s="14"/>
+    </row>
+    <row r="205">
+      <c r="B205" s="14"/>
+    </row>
+    <row r="206">
+      <c r="B206" s="14"/>
+    </row>
+    <row r="207">
+      <c r="B207" s="14"/>
+    </row>
+    <row r="208">
+      <c r="B208" s="14"/>
+    </row>
+    <row r="209">
+      <c r="B209" s="14"/>
+    </row>
+    <row r="210">
+      <c r="B210" s="14"/>
+    </row>
+    <row r="211">
+      <c r="B211" s="14"/>
+    </row>
+    <row r="212">
+      <c r="B212" s="14"/>
+    </row>
+    <row r="213">
+      <c r="B213" s="14"/>
+    </row>
+    <row r="214">
+      <c r="B214" s="14"/>
+    </row>
+    <row r="215">
+      <c r="B215" s="14"/>
+    </row>
+    <row r="216">
+      <c r="B216" s="14"/>
+    </row>
+    <row r="217">
+      <c r="B217" s="14"/>
+    </row>
+    <row r="218">
+      <c r="B218" s="14"/>
+    </row>
+    <row r="219">
+      <c r="B219" s="14"/>
+    </row>
+    <row r="220">
+      <c r="B220" s="14"/>
+    </row>
+    <row r="221">
+      <c r="B221" s="14"/>
+    </row>
+    <row r="222">
+      <c r="B222" s="14"/>
+    </row>
+    <row r="223">
+      <c r="B223" s="14"/>
+    </row>
+    <row r="224">
+      <c r="B224" s="14"/>
+    </row>
+    <row r="225">
+      <c r="B225" s="14"/>
+    </row>
+    <row r="226">
+      <c r="B226" s="14"/>
+    </row>
+    <row r="227">
+      <c r="B227" s="14"/>
+    </row>
+    <row r="228">
+      <c r="B228" s="14"/>
+    </row>
+    <row r="229">
+      <c r="B229" s="14"/>
+    </row>
+    <row r="230">
+      <c r="B230" s="14"/>
+    </row>
+    <row r="231">
+      <c r="B231" s="14"/>
+    </row>
+    <row r="232">
+      <c r="B232" s="14"/>
+    </row>
+    <row r="233">
+      <c r="B233" s="14"/>
+    </row>
+    <row r="234">
+      <c r="B234" s="14"/>
+    </row>
+    <row r="235">
+      <c r="B235" s="14"/>
+    </row>
+    <row r="236">
+      <c r="B236" s="14"/>
+    </row>
+    <row r="237">
+      <c r="B237" s="14"/>
+    </row>
+    <row r="238">
+      <c r="B238" s="14"/>
+    </row>
+    <row r="239">
+      <c r="B239" s="14"/>
+    </row>
+    <row r="240">
+      <c r="B240" s="14"/>
+    </row>
+    <row r="241">
+      <c r="B241" s="14"/>
+    </row>
+    <row r="242">
+      <c r="B242" s="14"/>
+    </row>
+    <row r="243">
+      <c r="B243" s="14"/>
+    </row>
+    <row r="244">
+      <c r="B244" s="14"/>
+    </row>
+    <row r="245">
+      <c r="B245" s="14"/>
+    </row>
+    <row r="246">
+      <c r="B246" s="14"/>
+    </row>
+    <row r="247">
+      <c r="B247" s="14"/>
+    </row>
+    <row r="248">
+      <c r="B248" s="14"/>
+    </row>
+    <row r="249">
+      <c r="B249" s="14"/>
+    </row>
+    <row r="250">
+      <c r="B250" s="14"/>
+    </row>
+    <row r="251">
+      <c r="B251" s="14"/>
+    </row>
+    <row r="252">
+      <c r="B252" s="14"/>
+    </row>
+    <row r="253">
+      <c r="B253" s="14"/>
+    </row>
+    <row r="254">
+      <c r="B254" s="14"/>
+    </row>
+    <row r="255">
+      <c r="B255" s="14"/>
+    </row>
+    <row r="256">
+      <c r="B256" s="14"/>
+    </row>
+    <row r="257">
+      <c r="B257" s="14"/>
+    </row>
+    <row r="258">
+      <c r="B258" s="14"/>
+    </row>
+    <row r="259">
+      <c r="B259" s="14"/>
+    </row>
+    <row r="260">
+      <c r="B260" s="14"/>
+    </row>
+    <row r="261">
+      <c r="B261" s="14"/>
+    </row>
+    <row r="262">
+      <c r="B262" s="14"/>
+    </row>
+    <row r="263">
+      <c r="B263" s="14"/>
+    </row>
+    <row r="264">
+      <c r="B264" s="14"/>
+    </row>
+    <row r="265">
+      <c r="B265" s="14"/>
+    </row>
+    <row r="266">
+      <c r="B266" s="14"/>
+    </row>
+    <row r="267">
+      <c r="B267" s="14"/>
+    </row>
+    <row r="268">
+      <c r="B268" s="14"/>
+    </row>
+    <row r="269">
+      <c r="B269" s="14"/>
+    </row>
+    <row r="270">
+      <c r="B270" s="14"/>
+    </row>
+    <row r="271">
+      <c r="B271" s="14"/>
+    </row>
+    <row r="272">
+      <c r="B272" s="14"/>
+    </row>
+    <row r="273">
+      <c r="B273" s="14"/>
+    </row>
+    <row r="274">
+      <c r="B274" s="14"/>
+    </row>
+    <row r="275">
+      <c r="B275" s="14"/>
+    </row>
+    <row r="276">
+      <c r="B276" s="14"/>
+    </row>
+    <row r="277">
+      <c r="B277" s="14"/>
+    </row>
+    <row r="278">
+      <c r="B278" s="14"/>
+    </row>
+    <row r="279">
+      <c r="B279" s="14"/>
+    </row>
+    <row r="280">
+      <c r="B280" s="14"/>
+    </row>
+    <row r="281">
+      <c r="B281" s="14"/>
+    </row>
+    <row r="282">
+      <c r="B282" s="14"/>
+    </row>
+    <row r="283">
+      <c r="B283" s="14"/>
+    </row>
+    <row r="284">
+      <c r="B284" s="14"/>
+    </row>
+    <row r="285">
+      <c r="B285" s="14"/>
+    </row>
+    <row r="286">
+      <c r="B286" s="14"/>
+    </row>
+    <row r="287">
+      <c r="B287" s="14"/>
+    </row>
+    <row r="288">
+      <c r="B288" s="14"/>
+    </row>
+    <row r="289">
+      <c r="B289" s="14"/>
+    </row>
+    <row r="290">
+      <c r="B290" s="14"/>
+    </row>
+    <row r="291">
+      <c r="B291" s="14"/>
+    </row>
+    <row r="292">
+      <c r="B292" s="14"/>
+    </row>
+    <row r="293">
+      <c r="B293" s="14"/>
+    </row>
+    <row r="294">
+      <c r="B294" s="14"/>
+    </row>
+    <row r="295">
+      <c r="B295" s="14"/>
+    </row>
+    <row r="296">
+      <c r="B296" s="14"/>
+    </row>
+    <row r="297">
+      <c r="B297" s="14"/>
+    </row>
+    <row r="298">
+      <c r="B298" s="14"/>
+    </row>
+    <row r="299">
+      <c r="B299" s="14"/>
+    </row>
+    <row r="300">
+      <c r="B300" s="14"/>
+    </row>
+    <row r="301">
+      <c r="B301" s="14"/>
+    </row>
+    <row r="302">
+      <c r="B302" s="14"/>
+    </row>
+    <row r="303">
+      <c r="B303" s="14"/>
+    </row>
+    <row r="304">
+      <c r="B304" s="14"/>
+    </row>
+    <row r="305">
+      <c r="B305" s="14"/>
+    </row>
+    <row r="306">
+      <c r="B306" s="14"/>
+    </row>
+    <row r="307">
+      <c r="B307" s="14"/>
+    </row>
+    <row r="308">
+      <c r="B308" s="14"/>
+    </row>
+    <row r="309">
+      <c r="B309" s="14"/>
+    </row>
+    <row r="310">
+      <c r="B310" s="14"/>
+    </row>
+    <row r="311">
+      <c r="B311" s="14"/>
+    </row>
+    <row r="312">
+      <c r="B312" s="14"/>
+    </row>
+    <row r="313">
+      <c r="B313" s="14"/>
+    </row>
+    <row r="314">
+      <c r="B314" s="14"/>
+    </row>
+    <row r="315">
+      <c r="B315" s="14"/>
+    </row>
+    <row r="316">
+      <c r="B316" s="14"/>
+    </row>
+    <row r="317">
+      <c r="B317" s="14"/>
+    </row>
+    <row r="318">
+      <c r="B318" s="14"/>
+    </row>
+    <row r="319">
+      <c r="B319" s="14"/>
+    </row>
+    <row r="320">
+      <c r="B320" s="14"/>
+    </row>
+    <row r="321">
+      <c r="B321" s="14"/>
+    </row>
+    <row r="322">
+      <c r="B322" s="14"/>
+    </row>
+    <row r="323">
+      <c r="B323" s="14"/>
+    </row>
+    <row r="324">
+      <c r="B324" s="14"/>
+    </row>
+    <row r="325">
+      <c r="B325" s="14"/>
+    </row>
+    <row r="326">
+      <c r="B326" s="14"/>
+    </row>
+    <row r="327">
+      <c r="B327" s="14"/>
+    </row>
+    <row r="328">
+      <c r="B328" s="14"/>
+    </row>
+    <row r="329">
+      <c r="B329" s="14"/>
+    </row>
+    <row r="330">
+      <c r="B330" s="14"/>
+    </row>
+    <row r="331">
+      <c r="B331" s="14"/>
+    </row>
+    <row r="332">
+      <c r="B332" s="14"/>
+    </row>
+    <row r="333">
+      <c r="B333" s="14"/>
+    </row>
+    <row r="334">
+      <c r="B334" s="14"/>
+    </row>
+    <row r="335">
+      <c r="B335" s="14"/>
+    </row>
+    <row r="336">
+      <c r="B336" s="14"/>
+    </row>
+    <row r="337">
+      <c r="B337" s="14"/>
+    </row>
+    <row r="338">
+      <c r="B338" s="14"/>
+    </row>
+    <row r="339">
+      <c r="B339" s="14"/>
+    </row>
+    <row r="340">
+      <c r="B340" s="14"/>
+    </row>
+    <row r="341">
+      <c r="B341" s="14"/>
+    </row>
+    <row r="342">
+      <c r="B342" s="14"/>
+    </row>
+    <row r="343">
+      <c r="B343" s="14"/>
+    </row>
+    <row r="344">
+      <c r="B344" s="14"/>
+    </row>
+    <row r="345">
+      <c r="B345" s="14"/>
+    </row>
+    <row r="346">
+      <c r="B346" s="14"/>
+    </row>
+    <row r="347">
+      <c r="B347" s="14"/>
+    </row>
+    <row r="348">
+      <c r="B348" s="14"/>
+    </row>
+    <row r="349">
+      <c r="B349" s="14"/>
+    </row>
+    <row r="350">
+      <c r="B350" s="14"/>
+    </row>
+    <row r="351">
+      <c r="B351" s="14"/>
+    </row>
+    <row r="352">
+      <c r="B352" s="14"/>
+    </row>
+    <row r="353">
+      <c r="B353" s="14"/>
+    </row>
+    <row r="354">
+      <c r="B354" s="14"/>
+    </row>
+    <row r="355">
+      <c r="B355" s="14"/>
+    </row>
+    <row r="356">
+      <c r="B356" s="14"/>
+    </row>
+    <row r="357">
+      <c r="B357" s="14"/>
+    </row>
+    <row r="358">
+      <c r="B358" s="14"/>
+    </row>
+    <row r="359">
+      <c r="B359" s="14"/>
+    </row>
+    <row r="360">
+      <c r="B360" s="14"/>
+    </row>
+    <row r="361">
+      <c r="B361" s="14"/>
+    </row>
+    <row r="362">
+      <c r="B362" s="14"/>
+    </row>
+    <row r="363">
+      <c r="B363" s="14"/>
+    </row>
+    <row r="364">
+      <c r="B364" s="14"/>
+    </row>
+    <row r="365">
+      <c r="B365" s="14"/>
+    </row>
+    <row r="366">
+      <c r="B366" s="14"/>
+    </row>
+    <row r="367">
+      <c r="B367" s="14"/>
+    </row>
+    <row r="368">
+      <c r="B368" s="14"/>
+    </row>
+    <row r="369">
+      <c r="B369" s="14"/>
+    </row>
+    <row r="370">
+      <c r="B370" s="14"/>
+    </row>
+    <row r="371">
+      <c r="B371" s="14"/>
+    </row>
+    <row r="372">
+      <c r="B372" s="14"/>
+    </row>
+    <row r="373">
+      <c r="B373" s="14"/>
+    </row>
+    <row r="374">
+      <c r="B374" s="14"/>
+    </row>
+    <row r="375">
+      <c r="B375" s="14"/>
+    </row>
+    <row r="376">
+      <c r="B376" s="14"/>
+    </row>
+    <row r="377">
+      <c r="B377" s="14"/>
+    </row>
+    <row r="378">
+      <c r="B378" s="14"/>
+    </row>
+    <row r="379">
+      <c r="B379" s="14"/>
+    </row>
+    <row r="380">
+      <c r="B380" s="14"/>
+    </row>
+    <row r="381">
+      <c r="B381" s="14"/>
+    </row>
+    <row r="382">
+      <c r="B382" s="14"/>
+    </row>
+    <row r="383">
+      <c r="B383" s="14"/>
+    </row>
+    <row r="384">
+      <c r="B384" s="14"/>
+    </row>
+    <row r="385">
+      <c r="B385" s="14"/>
+    </row>
+    <row r="386">
+      <c r="B386" s="14"/>
+    </row>
+    <row r="387">
+      <c r="B387" s="14"/>
+    </row>
+    <row r="388">
+      <c r="B388" s="14"/>
+    </row>
+    <row r="389">
+      <c r="B389" s="14"/>
+    </row>
+    <row r="390">
+      <c r="B390" s="14"/>
+    </row>
+    <row r="391">
+      <c r="B391" s="14"/>
+    </row>
+    <row r="392">
+      <c r="B392" s="14"/>
+    </row>
+    <row r="393">
+      <c r="B393" s="14"/>
+    </row>
+    <row r="394">
+      <c r="B394" s="14"/>
+    </row>
+    <row r="395">
+      <c r="B395" s="14"/>
+    </row>
+    <row r="396">
+      <c r="B396" s="14"/>
+    </row>
+    <row r="397">
+      <c r="B397" s="14"/>
+    </row>
+    <row r="398">
+      <c r="B398" s="14"/>
+    </row>
+    <row r="399">
+      <c r="B399" s="14"/>
+    </row>
+    <row r="400">
+      <c r="B400" s="14"/>
+    </row>
+    <row r="401">
+      <c r="B401" s="14"/>
+    </row>
+    <row r="402">
+      <c r="B402" s="14"/>
+    </row>
+    <row r="403">
+      <c r="B403" s="14"/>
+    </row>
+    <row r="404">
+      <c r="B404" s="14"/>
+    </row>
+    <row r="405">
+      <c r="B405" s="14"/>
+    </row>
+    <row r="406">
+      <c r="B406" s="14"/>
+    </row>
+    <row r="407">
+      <c r="B407" s="14"/>
+    </row>
+    <row r="408">
+      <c r="B408" s="14"/>
+    </row>
+    <row r="409">
+      <c r="B409" s="14"/>
+    </row>
+    <row r="410">
+      <c r="B410" s="14"/>
+    </row>
+    <row r="411">
+      <c r="B411" s="14"/>
+    </row>
+    <row r="412">
+      <c r="B412" s="14"/>
+    </row>
+    <row r="413">
+      <c r="B413" s="14"/>
+    </row>
+    <row r="414">
+      <c r="B414" s="14"/>
+    </row>
+    <row r="415">
+      <c r="B415" s="14"/>
+    </row>
+    <row r="416">
+      <c r="B416" s="14"/>
+    </row>
+    <row r="417">
+      <c r="B417" s="14"/>
+    </row>
+    <row r="418">
+      <c r="B418" s="14"/>
+    </row>
+    <row r="419">
+      <c r="B419" s="14"/>
+    </row>
+    <row r="420">
+      <c r="B420" s="14"/>
+    </row>
+    <row r="421">
+      <c r="B421" s="14"/>
+    </row>
+    <row r="422">
+      <c r="B422" s="14"/>
+    </row>
+    <row r="423">
+      <c r="B423" s="14"/>
+    </row>
+    <row r="424">
+      <c r="B424" s="14"/>
+    </row>
+    <row r="425">
+      <c r="B425" s="14"/>
+    </row>
+    <row r="426">
+      <c r="B426" s="14"/>
+    </row>
+    <row r="427">
+      <c r="B427" s="14"/>
+    </row>
+    <row r="428">
+      <c r="B428" s="14"/>
+    </row>
+    <row r="429">
+      <c r="B429" s="14"/>
+    </row>
+    <row r="430">
+      <c r="B430" s="14"/>
+    </row>
+    <row r="431">
+      <c r="B431" s="14"/>
+    </row>
+    <row r="432">
+      <c r="B432" s="14"/>
+    </row>
+    <row r="433">
+      <c r="B433" s="14"/>
+    </row>
+    <row r="434">
+      <c r="B434" s="14"/>
+    </row>
+    <row r="435">
+      <c r="B435" s="14"/>
+    </row>
+    <row r="436">
+      <c r="B436" s="14"/>
+    </row>
+    <row r="437">
+      <c r="B437" s="14"/>
+    </row>
+    <row r="438">
+      <c r="B438" s="14"/>
+    </row>
+    <row r="439">
+      <c r="B439" s="14"/>
+    </row>
+    <row r="440">
+      <c r="B440" s="14"/>
+    </row>
+    <row r="441">
+      <c r="B441" s="14"/>
+    </row>
+    <row r="442">
+      <c r="B442" s="14"/>
+    </row>
+    <row r="443">
+      <c r="B443" s="14"/>
+    </row>
+    <row r="444">
+      <c r="B444" s="14"/>
+    </row>
+    <row r="445">
+      <c r="B445" s="14"/>
+    </row>
+    <row r="446">
+      <c r="B446" s="14"/>
+    </row>
+    <row r="447">
+      <c r="B447" s="14"/>
+    </row>
+    <row r="448">
+      <c r="B448" s="14"/>
+    </row>
+    <row r="449">
+      <c r="B449" s="14"/>
+    </row>
+    <row r="450">
+      <c r="B450" s="14"/>
+    </row>
+    <row r="451">
+      <c r="B451" s="14"/>
+    </row>
+    <row r="452">
+      <c r="B452" s="14"/>
+    </row>
+    <row r="453">
+      <c r="B453" s="14"/>
+    </row>
+    <row r="454">
+      <c r="B454" s="14"/>
+    </row>
+    <row r="455">
+      <c r="B455" s="14"/>
+    </row>
+    <row r="456">
+      <c r="B456" s="14"/>
+    </row>
+    <row r="457">
+      <c r="B457" s="14"/>
+    </row>
+    <row r="458">
+      <c r="B458" s="14"/>
+    </row>
+    <row r="459">
+      <c r="B459" s="14"/>
+    </row>
+    <row r="460">
+      <c r="B460" s="14"/>
+    </row>
+    <row r="461">
+      <c r="B461" s="14"/>
+    </row>
+    <row r="462">
+      <c r="B462" s="14"/>
+    </row>
+    <row r="463">
+      <c r="B463" s="14"/>
+    </row>
+    <row r="464">
+      <c r="B464" s="14"/>
+    </row>
+    <row r="465">
+      <c r="B465" s="14"/>
+    </row>
+    <row r="466">
+      <c r="B466" s="14"/>
+    </row>
+    <row r="467">
+      <c r="B467" s="14"/>
+    </row>
+    <row r="468">
+      <c r="B468" s="14"/>
+    </row>
+    <row r="469">
+      <c r="B469" s="14"/>
+    </row>
+    <row r="470">
+      <c r="B470" s="14"/>
+    </row>
+    <row r="471">
+      <c r="B471" s="14"/>
+    </row>
+    <row r="472">
+      <c r="B472" s="14"/>
+    </row>
+    <row r="473">
+      <c r="B473" s="14"/>
+    </row>
+    <row r="474">
+      <c r="B474" s="14"/>
+    </row>
+    <row r="475">
+      <c r="B475" s="14"/>
+    </row>
+    <row r="476">
+      <c r="B476" s="14"/>
+    </row>
+    <row r="477">
+      <c r="B477" s="14"/>
+    </row>
+    <row r="478">
+      <c r="B478" s="14"/>
+    </row>
+    <row r="479">
+      <c r="B479" s="14"/>
+    </row>
+    <row r="480">
+      <c r="B480" s="14"/>
+    </row>
+    <row r="481">
+      <c r="B481" s="14"/>
+    </row>
+    <row r="482">
+      <c r="B482" s="14"/>
+    </row>
+    <row r="483">
+      <c r="B483" s="14"/>
+    </row>
+    <row r="484">
+      <c r="B484" s="14"/>
+    </row>
+    <row r="485">
+      <c r="B485" s="14"/>
+    </row>
+    <row r="486">
+      <c r="B486" s="14"/>
+    </row>
+    <row r="487">
+      <c r="B487" s="14"/>
+    </row>
+    <row r="488">
+      <c r="B488" s="14"/>
+    </row>
+    <row r="489">
+      <c r="B489" s="14"/>
+    </row>
+    <row r="490">
+      <c r="B490" s="14"/>
+    </row>
+    <row r="491">
+      <c r="B491" s="14"/>
+    </row>
+    <row r="492">
+      <c r="B492" s="14"/>
+    </row>
+    <row r="493">
+      <c r="B493" s="14"/>
+    </row>
+    <row r="494">
+      <c r="B494" s="14"/>
+    </row>
+    <row r="495">
+      <c r="B495" s="14"/>
+    </row>
+    <row r="496">
+      <c r="B496" s="14"/>
+    </row>
+    <row r="497">
+      <c r="B497" s="14"/>
+    </row>
+    <row r="498">
+      <c r="B498" s="14"/>
+    </row>
+    <row r="499">
+      <c r="B499" s="14"/>
+    </row>
+    <row r="500">
+      <c r="B500" s="14"/>
+    </row>
+    <row r="501">
+      <c r="B501" s="14"/>
+    </row>
+    <row r="502">
+      <c r="B502" s="14"/>
+    </row>
+    <row r="503">
+      <c r="B503" s="14"/>
+    </row>
+    <row r="504">
+      <c r="B504" s="14"/>
+    </row>
+    <row r="505">
+      <c r="B505" s="14"/>
+    </row>
+    <row r="506">
+      <c r="B506" s="14"/>
+    </row>
+    <row r="507">
+      <c r="B507" s="14"/>
+    </row>
+    <row r="508">
+      <c r="B508" s="14"/>
+    </row>
+    <row r="509">
+      <c r="B509" s="14"/>
+    </row>
+    <row r="510">
+      <c r="B510" s="14"/>
+    </row>
+    <row r="511">
+      <c r="B511" s="14"/>
+    </row>
+    <row r="512">
+      <c r="B512" s="14"/>
+    </row>
+    <row r="513">
+      <c r="B513" s="14"/>
+    </row>
+    <row r="514">
+      <c r="B514" s="14"/>
+    </row>
+    <row r="515">
+      <c r="B515" s="14"/>
+    </row>
+    <row r="516">
+      <c r="B516" s="14"/>
+    </row>
+    <row r="517">
+      <c r="B517" s="14"/>
+    </row>
+    <row r="518">
+      <c r="B518" s="14"/>
+    </row>
+    <row r="519">
+      <c r="B519" s="14"/>
+    </row>
+    <row r="520">
+      <c r="B520" s="14"/>
+    </row>
+    <row r="521">
+      <c r="B521" s="14"/>
+    </row>
+    <row r="522">
+      <c r="B522" s="14"/>
+    </row>
+    <row r="523">
+      <c r="B523" s="14"/>
+    </row>
+    <row r="524">
+      <c r="B524" s="14"/>
+    </row>
+    <row r="525">
+      <c r="B525" s="14"/>
+    </row>
+    <row r="526">
+      <c r="B526" s="14"/>
+    </row>
+    <row r="527">
+      <c r="B527" s="14"/>
+    </row>
+    <row r="528">
+      <c r="B528" s="14"/>
+    </row>
+    <row r="529">
+      <c r="B529" s="14"/>
+    </row>
+    <row r="530">
+      <c r="B530" s="14"/>
+    </row>
+    <row r="531">
+      <c r="B531" s="14"/>
+    </row>
+    <row r="532">
+      <c r="B532" s="14"/>
+    </row>
+    <row r="533">
+      <c r="B533" s="14"/>
+    </row>
+    <row r="534">
+      <c r="B534" s="14"/>
+    </row>
+    <row r="535">
+      <c r="B535" s="14"/>
+    </row>
+    <row r="536">
+      <c r="B536" s="14"/>
+    </row>
+    <row r="537">
+      <c r="B537" s="14"/>
+    </row>
+    <row r="538">
+      <c r="B538" s="14"/>
+    </row>
+    <row r="539">
+      <c r="B539" s="14"/>
+    </row>
+    <row r="540">
+      <c r="B540" s="14"/>
+    </row>
+    <row r="541">
+      <c r="B541" s="14"/>
+    </row>
+    <row r="542">
+      <c r="B542" s="14"/>
+    </row>
+    <row r="543">
+      <c r="B543" s="14"/>
+    </row>
+    <row r="544">
+      <c r="B544" s="14"/>
+    </row>
+    <row r="545">
+      <c r="B545" s="14"/>
+    </row>
+    <row r="546">
+      <c r="B546" s="14"/>
+    </row>
+    <row r="547">
+      <c r="B547" s="14"/>
+    </row>
+    <row r="548">
+      <c r="B548" s="14"/>
+    </row>
+    <row r="549">
+      <c r="B549" s="14"/>
+    </row>
+    <row r="550">
+      <c r="B550" s="14"/>
+    </row>
+    <row r="551">
+      <c r="B551" s="14"/>
+    </row>
+    <row r="552">
+      <c r="B552" s="14"/>
+    </row>
+    <row r="553">
+      <c r="B553" s="14"/>
+    </row>
+    <row r="554">
+      <c r="B554" s="14"/>
+    </row>
+    <row r="555">
+      <c r="B555" s="14"/>
+    </row>
+    <row r="556">
+      <c r="B556" s="14"/>
+    </row>
+    <row r="557">
+      <c r="B557" s="14"/>
+    </row>
+    <row r="558">
+      <c r="B558" s="14"/>
+    </row>
+    <row r="559">
+      <c r="B559" s="14"/>
+    </row>
+    <row r="560">
+      <c r="B560" s="14"/>
+    </row>
+    <row r="561">
+      <c r="B561" s="14"/>
+    </row>
+    <row r="562">
+      <c r="B562" s="14"/>
+    </row>
+    <row r="563">
+      <c r="B563" s="14"/>
+    </row>
+    <row r="564">
+      <c r="B564" s="14"/>
+    </row>
+    <row r="565">
+      <c r="B565" s="14"/>
+    </row>
+    <row r="566">
+      <c r="B566" s="14"/>
+    </row>
+    <row r="567">
+      <c r="B567" s="14"/>
+    </row>
+    <row r="568">
+      <c r="B568" s="14"/>
+    </row>
+    <row r="569">
+      <c r="B569" s="14"/>
+    </row>
+    <row r="570">
+      <c r="B570" s="14"/>
+    </row>
+    <row r="571">
+      <c r="B571" s="14"/>
+    </row>
+    <row r="572">
+      <c r="B572" s="14"/>
+    </row>
+    <row r="573">
+      <c r="B573" s="14"/>
+    </row>
+    <row r="574">
+      <c r="B574" s="14"/>
+    </row>
+    <row r="575">
+      <c r="B575" s="14"/>
+    </row>
+    <row r="576">
+      <c r="B576" s="14"/>
+    </row>
+    <row r="577">
+      <c r="B577" s="14"/>
+    </row>
+    <row r="578">
+      <c r="B578" s="14"/>
+    </row>
+    <row r="579">
+      <c r="B579" s="14"/>
+    </row>
+    <row r="580">
+      <c r="B580" s="14"/>
+    </row>
+    <row r="581">
+      <c r="B581" s="14"/>
+    </row>
+    <row r="582">
+      <c r="B582" s="14"/>
+    </row>
+    <row r="583">
+      <c r="B583" s="14"/>
+    </row>
+    <row r="584">
+      <c r="B584" s="14"/>
+    </row>
+    <row r="585">
+      <c r="B585" s="14"/>
+    </row>
+    <row r="586">
+      <c r="B586" s="14"/>
+    </row>
+    <row r="587">
+      <c r="B587" s="14"/>
+    </row>
+    <row r="588">
+      <c r="B588" s="14"/>
+    </row>
+    <row r="589">
+      <c r="B589" s="14"/>
+    </row>
+    <row r="590">
+      <c r="B590" s="14"/>
+    </row>
+    <row r="591">
+      <c r="B591" s="14"/>
+    </row>
+    <row r="592">
+      <c r="B592" s="14"/>
+    </row>
+    <row r="593">
+      <c r="B593" s="14"/>
+    </row>
+    <row r="594">
+      <c r="B594" s="14"/>
+    </row>
+    <row r="595">
+      <c r="B595" s="14"/>
+    </row>
+    <row r="596">
+      <c r="B596" s="14"/>
+    </row>
+    <row r="597">
+      <c r="B597" s="14"/>
+    </row>
+    <row r="598">
+      <c r="B598" s="14"/>
+    </row>
+    <row r="599">
+      <c r="B599" s="14"/>
+    </row>
+    <row r="600">
+      <c r="B600" s="14"/>
+    </row>
+    <row r="601">
+      <c r="B601" s="14"/>
+    </row>
+    <row r="602">
+      <c r="B602" s="14"/>
+    </row>
+    <row r="603">
+      <c r="B603" s="14"/>
+    </row>
+    <row r="604">
+      <c r="B604" s="14"/>
+    </row>
+    <row r="605">
+      <c r="B605" s="14"/>
+    </row>
+    <row r="606">
+      <c r="B606" s="14"/>
+    </row>
+    <row r="607">
+      <c r="B607" s="14"/>
+    </row>
+    <row r="608">
+      <c r="B608" s="14"/>
+    </row>
+    <row r="609">
+      <c r="B609" s="14"/>
+    </row>
+    <row r="610">
+      <c r="B610" s="14"/>
+    </row>
+    <row r="611">
+      <c r="B611" s="14"/>
+    </row>
+    <row r="612">
+      <c r="B612" s="14"/>
+    </row>
+    <row r="613">
+      <c r="B613" s="14"/>
+    </row>
+    <row r="614">
+      <c r="B614" s="14"/>
+    </row>
+    <row r="615">
+      <c r="B615" s="14"/>
+    </row>
+    <row r="616">
+      <c r="B616" s="14"/>
+    </row>
+    <row r="617">
+      <c r="B617" s="14"/>
+    </row>
+    <row r="618">
+      <c r="B618" s="14"/>
+    </row>
+    <row r="619">
+      <c r="B619" s="14"/>
+    </row>
+    <row r="620">
+      <c r="B620" s="14"/>
+    </row>
+    <row r="621">
+      <c r="B621" s="14"/>
+    </row>
+    <row r="622">
+      <c r="B622" s="14"/>
+    </row>
+    <row r="623">
+      <c r="B623" s="14"/>
+    </row>
+    <row r="624">
+      <c r="B624" s="14"/>
+    </row>
+    <row r="625">
+      <c r="B625" s="14"/>
+    </row>
+    <row r="626">
+      <c r="B626" s="14"/>
+    </row>
+    <row r="627">
+      <c r="B627" s="14"/>
+    </row>
+    <row r="628">
+      <c r="B628" s="14"/>
+    </row>
+    <row r="629">
+      <c r="B629" s="14"/>
+    </row>
+    <row r="630">
+      <c r="B630" s="14"/>
+    </row>
+    <row r="631">
+      <c r="B631" s="14"/>
+    </row>
+    <row r="632">
+      <c r="B632" s="14"/>
+    </row>
+    <row r="633">
+      <c r="B633" s="14"/>
+    </row>
+    <row r="634">
+      <c r="B634" s="14"/>
+    </row>
+    <row r="635">
+      <c r="B635" s="14"/>
+    </row>
+    <row r="636">
+      <c r="B636" s="14"/>
+    </row>
+    <row r="637">
+      <c r="B637" s="14"/>
+    </row>
+    <row r="638">
+      <c r="B638" s="14"/>
+    </row>
+    <row r="639">
+      <c r="B639" s="14"/>
+    </row>
+    <row r="640">
+      <c r="B640" s="14"/>
+    </row>
+    <row r="641">
+      <c r="B641" s="14"/>
+    </row>
+    <row r="642">
+      <c r="B642" s="14"/>
+    </row>
+    <row r="643">
+      <c r="B643" s="14"/>
+    </row>
+    <row r="644">
+      <c r="B644" s="14"/>
+    </row>
+    <row r="645">
+      <c r="B645" s="14"/>
+    </row>
+    <row r="646">
+      <c r="B646" s="14"/>
+    </row>
+    <row r="647">
+      <c r="B647" s="14"/>
+    </row>
+    <row r="648">
+      <c r="B648" s="14"/>
+    </row>
+    <row r="649">
+      <c r="B649" s="14"/>
+    </row>
+    <row r="650">
+      <c r="B650" s="14"/>
+    </row>
+    <row r="651">
+      <c r="B651" s="14"/>
+    </row>
+    <row r="652">
+      <c r="B652" s="14"/>
+    </row>
+    <row r="653">
+      <c r="B653" s="14"/>
+    </row>
+    <row r="654">
+      <c r="B654" s="14"/>
+    </row>
+    <row r="655">
+      <c r="B655" s="14"/>
+    </row>
+    <row r="656">
+      <c r="B656" s="14"/>
+    </row>
+    <row r="657">
+      <c r="B657" s="14"/>
+    </row>
+    <row r="658">
+      <c r="B658" s="14"/>
+    </row>
+    <row r="659">
+      <c r="B659" s="14"/>
+    </row>
+    <row r="660">
+      <c r="B660" s="14"/>
+    </row>
+    <row r="661">
+      <c r="B661" s="14"/>
+    </row>
+    <row r="662">
+      <c r="B662" s="14"/>
+    </row>
+    <row r="663">
+      <c r="B663" s="14"/>
+    </row>
+    <row r="664">
+      <c r="B664" s="14"/>
+    </row>
+    <row r="665">
+      <c r="B665" s="14"/>
+    </row>
+    <row r="666">
+      <c r="B666" s="14"/>
+    </row>
+    <row r="667">
+      <c r="B667" s="14"/>
+    </row>
+    <row r="668">
+      <c r="B668" s="14"/>
+    </row>
+    <row r="669">
+      <c r="B669" s="14"/>
+    </row>
+    <row r="670">
+      <c r="B670" s="14"/>
+    </row>
+    <row r="671">
+      <c r="B671" s="14"/>
+    </row>
+    <row r="672">
+      <c r="B672" s="14"/>
+    </row>
+    <row r="673">
+      <c r="B673" s="14"/>
+    </row>
+    <row r="674">
+      <c r="B674" s="14"/>
+    </row>
+    <row r="675">
+      <c r="B675" s="14"/>
+    </row>
+    <row r="676">
+      <c r="B676" s="14"/>
+    </row>
+    <row r="677">
+      <c r="B677" s="14"/>
+    </row>
+    <row r="678">
+      <c r="B678" s="14"/>
+    </row>
+    <row r="679">
+      <c r="B679" s="14"/>
+    </row>
+    <row r="680">
+      <c r="B680" s="14"/>
+    </row>
+    <row r="681">
+      <c r="B681" s="14"/>
+    </row>
+    <row r="682">
+      <c r="B682" s="14"/>
+    </row>
+    <row r="683">
+      <c r="B683" s="14"/>
+    </row>
+    <row r="684">
+      <c r="B684" s="14"/>
+    </row>
+    <row r="685">
+      <c r="B685" s="14"/>
+    </row>
+    <row r="686">
+      <c r="B686" s="14"/>
+    </row>
+    <row r="687">
+      <c r="B687" s="14"/>
+    </row>
+    <row r="688">
+      <c r="B688" s="14"/>
+    </row>
+    <row r="689">
+      <c r="B689" s="14"/>
+    </row>
+    <row r="690">
+      <c r="B690" s="14"/>
+    </row>
+    <row r="691">
+      <c r="B691" s="14"/>
+    </row>
+    <row r="692">
+      <c r="B692" s="14"/>
+    </row>
+    <row r="693">
+      <c r="B693" s="14"/>
+    </row>
+    <row r="694">
+      <c r="B694" s="14"/>
+    </row>
+    <row r="695">
+      <c r="B695" s="14"/>
+    </row>
+    <row r="696">
+      <c r="B696" s="14"/>
+    </row>
+    <row r="697">
+      <c r="B697" s="14"/>
+    </row>
+    <row r="698">
+      <c r="B698" s="14"/>
+    </row>
+    <row r="699">
+      <c r="B699" s="14"/>
+    </row>
+    <row r="700">
+      <c r="B700" s="14"/>
+    </row>
+    <row r="701">
+      <c r="B701" s="14"/>
+    </row>
+    <row r="702">
+      <c r="B702" s="14"/>
+    </row>
+    <row r="703">
+      <c r="B703" s="14"/>
+    </row>
+    <row r="704">
+      <c r="B704" s="14"/>
+    </row>
+    <row r="705">
+      <c r="B705" s="14"/>
+    </row>
+    <row r="706">
+      <c r="B706" s="14"/>
+    </row>
+    <row r="707">
+      <c r="B707" s="14"/>
+    </row>
+    <row r="708">
+      <c r="B708" s="14"/>
+    </row>
+    <row r="709">
+      <c r="B709" s="14"/>
+    </row>
+    <row r="710">
+      <c r="B710" s="14"/>
+    </row>
+    <row r="711">
+      <c r="B711" s="14"/>
+    </row>
+    <row r="712">
+      <c r="B712" s="14"/>
+    </row>
+    <row r="713">
+      <c r="B713" s="14"/>
+    </row>
+    <row r="714">
+      <c r="B714" s="14"/>
+    </row>
+    <row r="715">
+      <c r="B715" s="14"/>
+    </row>
+    <row r="716">
+      <c r="B716" s="14"/>
+    </row>
+    <row r="717">
+      <c r="B717" s="14"/>
+    </row>
+    <row r="718">
+      <c r="B718" s="14"/>
+    </row>
+    <row r="719">
+      <c r="B719" s="14"/>
+    </row>
+    <row r="720">
+      <c r="B720" s="14"/>
+    </row>
+    <row r="721">
+      <c r="B721" s="14"/>
+    </row>
+    <row r="722">
+      <c r="B722" s="14"/>
+    </row>
+    <row r="723">
+      <c r="B723" s="14"/>
+    </row>
+    <row r="724">
+      <c r="B724" s="14"/>
+    </row>
+    <row r="725">
+      <c r="B725" s="14"/>
+    </row>
+    <row r="726">
+      <c r="B726" s="14"/>
+    </row>
+    <row r="727">
+      <c r="B727" s="14"/>
+    </row>
+    <row r="728">
+      <c r="B728" s="14"/>
+    </row>
+    <row r="729">
+      <c r="B729" s="14"/>
+    </row>
+    <row r="730">
+      <c r="B730" s="14"/>
+    </row>
+    <row r="731">
+      <c r="B731" s="14"/>
+    </row>
+    <row r="732">
+      <c r="B732" s="14"/>
+    </row>
+    <row r="733">
+      <c r="B733" s="14"/>
+    </row>
+    <row r="734">
+      <c r="B734" s="14"/>
+    </row>
+    <row r="735">
+      <c r="B735" s="14"/>
+    </row>
+    <row r="736">
+      <c r="B736" s="14"/>
+    </row>
+    <row r="737">
+      <c r="B737" s="14"/>
+    </row>
+    <row r="738">
+      <c r="B738" s="14"/>
+    </row>
+    <row r="739">
+      <c r="B739" s="14"/>
+    </row>
+    <row r="740">
+      <c r="B740" s="14"/>
+    </row>
+    <row r="741">
+      <c r="B741" s="14"/>
+    </row>
+    <row r="742">
+      <c r="B742" s="14"/>
+    </row>
+    <row r="743">
+      <c r="B743" s="14"/>
+    </row>
+    <row r="744">
+      <c r="B744" s="14"/>
+    </row>
+    <row r="745">
+      <c r="B745" s="14"/>
+    </row>
+    <row r="746">
+      <c r="B746" s="14"/>
+    </row>
+    <row r="747">
+      <c r="B747" s="14"/>
+    </row>
+    <row r="748">
+      <c r="B748" s="14"/>
+    </row>
+    <row r="749">
+      <c r="B749" s="14"/>
+    </row>
+    <row r="750">
+      <c r="B750" s="14"/>
+    </row>
+    <row r="751">
+      <c r="B751" s="14"/>
+    </row>
+    <row r="752">
+      <c r="B752" s="14"/>
+    </row>
+    <row r="753">
+      <c r="B753" s="14"/>
+    </row>
+    <row r="754">
+      <c r="B754" s="14"/>
+    </row>
+    <row r="755">
+      <c r="B755" s="14"/>
+    </row>
+    <row r="756">
+      <c r="B756" s="14"/>
+    </row>
+    <row r="757">
+      <c r="B757" s="14"/>
+    </row>
+    <row r="758">
+      <c r="B758" s="14"/>
+    </row>
+    <row r="759">
+      <c r="B759" s="14"/>
+    </row>
+    <row r="760">
+      <c r="B760" s="14"/>
+    </row>
+    <row r="761">
+      <c r="B761" s="14"/>
+    </row>
+    <row r="762">
+      <c r="B762" s="14"/>
+    </row>
+    <row r="763">
+      <c r="B763" s="14"/>
+    </row>
+    <row r="764">
+      <c r="B764" s="14"/>
+    </row>
+    <row r="765">
+      <c r="B765" s="14"/>
+    </row>
+    <row r="766">
+      <c r="B766" s="14"/>
+    </row>
+    <row r="767">
+      <c r="B767" s="14"/>
+    </row>
+    <row r="768">
+      <c r="B768" s="14"/>
+    </row>
+    <row r="769">
+      <c r="B769" s="14"/>
+    </row>
+    <row r="770">
+      <c r="B770" s="14"/>
+    </row>
+    <row r="771">
+      <c r="B771" s="14"/>
+    </row>
+    <row r="772">
+      <c r="B772" s="14"/>
+    </row>
+    <row r="773">
+      <c r="B773" s="14"/>
+    </row>
+    <row r="774">
+      <c r="B774" s="14"/>
+    </row>
+    <row r="775">
+      <c r="B775" s="14"/>
+    </row>
+    <row r="776">
+      <c r="B776" s="14"/>
+    </row>
+    <row r="777">
+      <c r="B777" s="14"/>
+    </row>
+    <row r="778">
+      <c r="B778" s="14"/>
+    </row>
+    <row r="779">
+      <c r="B779" s="14"/>
+    </row>
+    <row r="780">
+      <c r="B780" s="14"/>
+    </row>
+    <row r="781">
+      <c r="B781" s="14"/>
+    </row>
+    <row r="782">
+      <c r="B782" s="14"/>
+    </row>
+    <row r="783">
+      <c r="B783" s="14"/>
+    </row>
+    <row r="784">
+      <c r="B784" s="14"/>
+    </row>
+    <row r="785">
+      <c r="B785" s="14"/>
+    </row>
+    <row r="786">
+      <c r="B786" s="14"/>
+    </row>
+    <row r="787">
+      <c r="B787" s="14"/>
+    </row>
+    <row r="788">
+      <c r="B788" s="14"/>
+    </row>
+    <row r="789">
+      <c r="B789" s="14"/>
+    </row>
+    <row r="790">
+      <c r="B790" s="14"/>
+    </row>
+    <row r="791">
+      <c r="B791" s="14"/>
+    </row>
+    <row r="792">
+      <c r="B792" s="14"/>
+    </row>
+    <row r="793">
+      <c r="B793" s="14"/>
+    </row>
+    <row r="794">
+      <c r="B794" s="14"/>
+    </row>
+    <row r="795">
+      <c r="B795" s="14"/>
+    </row>
+    <row r="796">
+      <c r="B796" s="14"/>
+    </row>
+    <row r="797">
+      <c r="B797" s="14"/>
+    </row>
+    <row r="798">
+      <c r="B798" s="14"/>
+    </row>
+    <row r="799">
+      <c r="B799" s="14"/>
+    </row>
+    <row r="800">
+      <c r="B800" s="14"/>
+    </row>
+    <row r="801">
+      <c r="B801" s="14"/>
+    </row>
+    <row r="802">
+      <c r="B802" s="14"/>
+    </row>
+    <row r="803">
+      <c r="B803" s="14"/>
+    </row>
+    <row r="804">
+      <c r="B804" s="14"/>
+    </row>
+    <row r="805">
+      <c r="B805" s="14"/>
+    </row>
+    <row r="806">
+      <c r="B806" s="14"/>
+    </row>
+    <row r="807">
+      <c r="B807" s="14"/>
+    </row>
+    <row r="808">
+      <c r="B808" s="14"/>
+    </row>
+    <row r="809">
+      <c r="B809" s="14"/>
+    </row>
+    <row r="810">
+      <c r="B810" s="14"/>
+    </row>
+    <row r="811">
+      <c r="B811" s="14"/>
+    </row>
+    <row r="812">
+      <c r="B812" s="14"/>
+    </row>
+    <row r="813">
+      <c r="B813" s="14"/>
+    </row>
+    <row r="814">
+      <c r="B814" s="14"/>
+    </row>
+    <row r="815">
+      <c r="B815" s="14"/>
+    </row>
+    <row r="816">
+      <c r="B816" s="14"/>
+    </row>
+    <row r="817">
+      <c r="B817" s="14"/>
+    </row>
+    <row r="818">
+      <c r="B818" s="14"/>
+    </row>
+    <row r="819">
+      <c r="B819" s="14"/>
+    </row>
+    <row r="820">
+      <c r="B820" s="14"/>
+    </row>
+    <row r="821">
+      <c r="B821" s="14"/>
+    </row>
+    <row r="822">
+      <c r="B822" s="14"/>
+    </row>
+    <row r="823">
+      <c r="B823" s="14"/>
+    </row>
+    <row r="824">
+      <c r="B824" s="14"/>
+    </row>
+    <row r="825">
+      <c r="B825" s="14"/>
+    </row>
+    <row r="826">
+      <c r="B826" s="14"/>
+    </row>
+    <row r="827">
+      <c r="B827" s="14"/>
+    </row>
+    <row r="828">
+      <c r="B828" s="14"/>
+    </row>
+    <row r="829">
+      <c r="B829" s="14"/>
+    </row>
+    <row r="830">
+      <c r="B830" s="14"/>
+    </row>
+    <row r="831">
+      <c r="B831" s="14"/>
+    </row>
+    <row r="832">
+      <c r="B832" s="14"/>
+    </row>
+    <row r="833">
+      <c r="B833" s="14"/>
+    </row>
+    <row r="834">
+      <c r="B834" s="14"/>
+    </row>
+    <row r="835">
+      <c r="B835" s="14"/>
+    </row>
+    <row r="836">
+      <c r="B836" s="14"/>
+    </row>
+    <row r="837">
+      <c r="B837" s="14"/>
+    </row>
+    <row r="838">
+      <c r="B838" s="14"/>
+    </row>
+    <row r="839">
+      <c r="B839" s="14"/>
+    </row>
+    <row r="840">
+      <c r="B840" s="14"/>
+    </row>
+    <row r="841">
+      <c r="B841" s="14"/>
+    </row>
+    <row r="842">
+      <c r="B842" s="14"/>
+    </row>
+    <row r="843">
+      <c r="B843" s="14"/>
+    </row>
+    <row r="844">
+      <c r="B844" s="14"/>
+    </row>
+    <row r="845">
+      <c r="B845" s="14"/>
+    </row>
+    <row r="846">
+      <c r="B846" s="14"/>
+    </row>
+    <row r="847">
+      <c r="B847" s="14"/>
+    </row>
+    <row r="848">
+      <c r="B848" s="14"/>
+    </row>
+    <row r="849">
+      <c r="B849" s="14"/>
+    </row>
+    <row r="850">
+      <c r="B850" s="14"/>
+    </row>
+    <row r="851">
+      <c r="B851" s="14"/>
+    </row>
+    <row r="852">
+      <c r="B852" s="14"/>
+    </row>
+    <row r="853">
+      <c r="B853" s="14"/>
+    </row>
+    <row r="854">
+      <c r="B854" s="14"/>
+    </row>
+    <row r="855">
+      <c r="B855" s="14"/>
+    </row>
+    <row r="856">
+      <c r="B856" s="14"/>
+    </row>
+    <row r="857">
+      <c r="B857" s="14"/>
+    </row>
+    <row r="858">
+      <c r="B858" s="14"/>
+    </row>
+    <row r="859">
+      <c r="B859" s="14"/>
+    </row>
+    <row r="860">
+      <c r="B860" s="14"/>
+    </row>
+    <row r="861">
+      <c r="B861" s="14"/>
+    </row>
+    <row r="862">
+      <c r="B862" s="14"/>
+    </row>
+    <row r="863">
+      <c r="B863" s="14"/>
+    </row>
+    <row r="864">
+      <c r="B864" s="14"/>
+    </row>
+    <row r="865">
+      <c r="B865" s="14"/>
+    </row>
+    <row r="866">
+      <c r="B866" s="14"/>
+    </row>
+    <row r="867">
+      <c r="B867" s="14"/>
+    </row>
+    <row r="868">
+      <c r="B868" s="14"/>
+    </row>
+    <row r="869">
+      <c r="B869" s="14"/>
+    </row>
+    <row r="870">
+      <c r="B870" s="14"/>
+    </row>
+    <row r="871">
+      <c r="B871" s="14"/>
+    </row>
+    <row r="872">
+      <c r="B872" s="14"/>
+    </row>
+    <row r="873">
+      <c r="B873" s="14"/>
+    </row>
+    <row r="874">
+      <c r="B874" s="14"/>
+    </row>
+    <row r="875">
+      <c r="B875" s="14"/>
+    </row>
+    <row r="876">
+      <c r="B876" s="14"/>
+    </row>
+    <row r="877">
+      <c r="B877" s="14"/>
+    </row>
+    <row r="878">
+      <c r="B878" s="14"/>
+    </row>
+    <row r="879">
+      <c r="B879" s="14"/>
+    </row>
+    <row r="880">
+      <c r="B880" s="14"/>
+    </row>
+    <row r="881">
+      <c r="B881" s="14"/>
+    </row>
+    <row r="882">
+      <c r="B882" s="14"/>
+    </row>
+    <row r="883">
+      <c r="B883" s="14"/>
+    </row>
+    <row r="884">
+      <c r="B884" s="14"/>
+    </row>
+    <row r="885">
+      <c r="B885" s="14"/>
+    </row>
+    <row r="886">
+      <c r="B886" s="14"/>
+    </row>
+    <row r="887">
+      <c r="B887" s="14"/>
+    </row>
+    <row r="888">
+      <c r="B888" s="14"/>
+    </row>
+    <row r="889">
+      <c r="B889" s="14"/>
+    </row>
+    <row r="890">
+      <c r="B890" s="14"/>
+    </row>
+    <row r="891">
+      <c r="B891" s="14"/>
+    </row>
+    <row r="892">
+      <c r="B892" s="14"/>
+    </row>
+    <row r="893">
+      <c r="B893" s="14"/>
+    </row>
+    <row r="894">
+      <c r="B894" s="14"/>
+    </row>
+    <row r="895">
+      <c r="B895" s="14"/>
+    </row>
+    <row r="896">
+      <c r="B896" s="14"/>
+    </row>
+    <row r="897">
+      <c r="B897" s="14"/>
+    </row>
+    <row r="898">
+      <c r="B898" s="14"/>
+    </row>
+    <row r="899">
+      <c r="B899" s="14"/>
+    </row>
+    <row r="900">
+      <c r="B900" s="14"/>
+    </row>
+    <row r="901">
+      <c r="B901" s="14"/>
+    </row>
+    <row r="902">
+      <c r="B902" s="14"/>
+    </row>
+    <row r="903">
+      <c r="B903" s="14"/>
+    </row>
+    <row r="904">
+      <c r="B904" s="14"/>
+    </row>
+    <row r="905">
+      <c r="B905" s="14"/>
+    </row>
+    <row r="906">
+      <c r="B906" s="14"/>
+    </row>
+    <row r="907">
+      <c r="B907" s="14"/>
+    </row>
+    <row r="908">
+      <c r="B908" s="14"/>
+    </row>
+    <row r="909">
+      <c r="B909" s="14"/>
+    </row>
+    <row r="910">
+      <c r="B910" s="14"/>
+    </row>
+    <row r="911">
+      <c r="B911" s="14"/>
+    </row>
+    <row r="912">
+      <c r="B912" s="14"/>
+    </row>
+    <row r="913">
+      <c r="B913" s="14"/>
+    </row>
+    <row r="914">
+      <c r="B914" s="14"/>
+    </row>
+    <row r="915">
+      <c r="B915" s="14"/>
+    </row>
+    <row r="916">
+      <c r="B916" s="14"/>
+    </row>
+    <row r="917">
+      <c r="B917" s="14"/>
+    </row>
+    <row r="918">
+      <c r="B918" s="14"/>
+    </row>
+    <row r="919">
+      <c r="B919" s="14"/>
+    </row>
+    <row r="920">
+      <c r="B920" s="14"/>
+    </row>
+    <row r="921">
+      <c r="B921" s="14"/>
+    </row>
+    <row r="922">
+      <c r="B922" s="14"/>
+    </row>
+    <row r="923">
+      <c r="B923" s="14"/>
+    </row>
+    <row r="924">
+      <c r="B924" s="14"/>
+    </row>
+    <row r="925">
+      <c r="B925" s="14"/>
+    </row>
+    <row r="926">
+      <c r="B926" s="14"/>
+    </row>
+    <row r="927">
+      <c r="B927" s="14"/>
+    </row>
+    <row r="928">
+      <c r="B928" s="14"/>
+    </row>
+    <row r="929">
+      <c r="B929" s="14"/>
+    </row>
+    <row r="930">
+      <c r="B930" s="14"/>
+    </row>
+    <row r="931">
+      <c r="B931" s="14"/>
+    </row>
+    <row r="932">
+      <c r="B932" s="14"/>
+    </row>
+    <row r="933">
+      <c r="B933" s="14"/>
+    </row>
+    <row r="934">
+      <c r="B934" s="14"/>
+    </row>
+    <row r="935">
+      <c r="B935" s="14"/>
+    </row>
+    <row r="936">
+      <c r="B936" s="14"/>
+    </row>
+    <row r="937">
+      <c r="B937" s="14"/>
+    </row>
+    <row r="938">
+      <c r="B938" s="14"/>
+    </row>
+    <row r="939">
+      <c r="B939" s="14"/>
+    </row>
+    <row r="940">
+      <c r="B940" s="14"/>
+    </row>
+    <row r="941">
+      <c r="B941" s="14"/>
+    </row>
+    <row r="942">
+      <c r="B942" s="14"/>
+    </row>
+    <row r="943">
+      <c r="B943" s="14"/>
+    </row>
+    <row r="944">
+      <c r="B944" s="14"/>
+    </row>
+    <row r="945">
+      <c r="B945" s="14"/>
+    </row>
+    <row r="946">
+      <c r="B946" s="14"/>
+    </row>
+    <row r="947">
+      <c r="B947" s="14"/>
+    </row>
+    <row r="948">
+      <c r="B948" s="14"/>
+    </row>
+    <row r="949">
+      <c r="B949" s="14"/>
+    </row>
+    <row r="950">
+      <c r="B950" s="14"/>
+    </row>
+    <row r="951">
+      <c r="B951" s="14"/>
+    </row>
+    <row r="952">
+      <c r="B952" s="14"/>
+    </row>
+    <row r="953">
+      <c r="B953" s="14"/>
+    </row>
+    <row r="954">
+      <c r="B954" s="14"/>
+    </row>
+    <row r="955">
+      <c r="B955" s="14"/>
+    </row>
+    <row r="956">
+      <c r="B956" s="14"/>
+    </row>
+    <row r="957">
+      <c r="B957" s="14"/>
+    </row>
+    <row r="958">
+      <c r="B958" s="14"/>
+    </row>
+    <row r="959">
+      <c r="B959" s="14"/>
+    </row>
+    <row r="960">
+      <c r="B960" s="14"/>
+    </row>
+    <row r="961">
+      <c r="B961" s="14"/>
+    </row>
+    <row r="962">
+      <c r="B962" s="14"/>
+    </row>
+    <row r="963">
+      <c r="B963" s="14"/>
+    </row>
+    <row r="964">
+      <c r="B964" s="14"/>
+    </row>
+    <row r="965">
+      <c r="B965" s="14"/>
+    </row>
+    <row r="966">
+      <c r="B966" s="14"/>
+    </row>
+    <row r="967">
+      <c r="B967" s="14"/>
+    </row>
+    <row r="968">
+      <c r="B968" s="14"/>
+    </row>
+    <row r="969">
+      <c r="B969" s="14"/>
+    </row>
+    <row r="970">
+      <c r="B970" s="14"/>
+    </row>
+    <row r="971">
+      <c r="B971" s="14"/>
+    </row>
+    <row r="972">
+      <c r="B972" s="14"/>
+    </row>
+    <row r="973">
+      <c r="B973" s="14"/>
+    </row>
+    <row r="974">
+      <c r="B974" s="14"/>
+    </row>
+    <row r="975">
+      <c r="B975" s="14"/>
+    </row>
+    <row r="976">
+      <c r="B976" s="14"/>
+    </row>
+    <row r="977">
+      <c r="B977" s="14"/>
+    </row>
+    <row r="978">
+      <c r="B978" s="14"/>
+    </row>
+    <row r="979">
+      <c r="B979" s="14"/>
+    </row>
+    <row r="980">
+      <c r="B980" s="14"/>
+    </row>
+    <row r="981">
+      <c r="B981" s="14"/>
+    </row>
+    <row r="982">
+      <c r="B982" s="14"/>
+    </row>
+    <row r="983">
+      <c r="B983" s="14"/>
+    </row>
+    <row r="984">
+      <c r="B984" s="14"/>
+    </row>
+    <row r="985">
+      <c r="B985" s="14"/>
+    </row>
+    <row r="986">
+      <c r="B986" s="14"/>
+    </row>
+    <row r="987">
+      <c r="B987" s="14"/>
+    </row>
+    <row r="988">
+      <c r="B988" s="14"/>
+    </row>
+    <row r="989">
+      <c r="B989" s="14"/>
+    </row>
+    <row r="990">
+      <c r="B990" s="14"/>
+    </row>
+    <row r="991">
+      <c r="B991" s="14"/>
+    </row>
+    <row r="992">
+      <c r="B992" s="14"/>
+    </row>
+    <row r="993">
+      <c r="B993" s="14"/>
+    </row>
+    <row r="994">
+      <c r="B994" s="14"/>
+    </row>
+    <row r="995">
+      <c r="B995" s="14"/>
+    </row>
+    <row r="996">
+      <c r="B996" s="14"/>
+    </row>
+    <row r="997">
+      <c r="B997" s="14"/>
+    </row>
+    <row r="998">
+      <c r="B998" s="14"/>
+    </row>
+    <row r="999">
+      <c r="B999" s="14"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>

--- a/front-end/TLTLocalize.xlsx
+++ b/front-end/TLTLocalize.xlsx
@@ -3,10 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="home" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="template" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="dashboard" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="edit" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="layout" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="home" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="template" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="dashboard" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="edit" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="account" sheetId="6" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -14,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="288">
   <si>
     <t>key</t>
   </si>
@@ -62,6 +64,72 @@
   </si>
   <si>
     <t>zh_Hant</t>
+  </si>
+  <si>
+    <t>layout-resume</t>
+  </si>
+  <si>
+    <t>Resume</t>
+  </si>
+  <si>
+    <t>layout-all-templates</t>
+  </si>
+  <si>
+    <t>All templates</t>
+  </si>
+  <si>
+    <t>layout-creative</t>
+  </si>
+  <si>
+    <t>Creative</t>
+  </si>
+  <si>
+    <t>layout-simple</t>
+  </si>
+  <si>
+    <t>Simple</t>
+  </si>
+  <si>
+    <t>layout-professional</t>
+  </si>
+  <si>
+    <t>Professional</t>
+  </si>
+  <si>
+    <t>layout-modern</t>
+  </si>
+  <si>
+    <t>Modern</t>
+  </si>
+  <si>
+    <t>layout-blogs</t>
+  </si>
+  <si>
+    <t>Blogs</t>
+  </si>
+  <si>
+    <t>layout-account-settings</t>
+  </si>
+  <si>
+    <t>Account Settings</t>
+  </si>
+  <si>
+    <t>layout-logout</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>layout-login</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>layout-signup</t>
+  </si>
+  <si>
+    <t>Sign Up</t>
   </si>
   <si>
     <t>home-title</t>
@@ -148,37 +216,25 @@
     <t>Export your new resume, CV or application letter in one of the available formats. PDF will provide you with the best and most consistent visual formatting. Word files allow you to edit the document further or submit the resume to an online application system. You can also share your career updates online.</t>
   </si>
   <si>
+    <t>Ofline Resume Builder</t>
+  </si>
+  <si>
     <t>template-create-button</t>
   </si>
   <si>
     <t>template-all-tab</t>
   </si>
   <si>
-    <t>All templates</t>
-  </si>
-  <si>
     <t>template-creative-tab</t>
-  </si>
-  <si>
-    <t>Creative</t>
   </si>
   <si>
     <t>template-simple-tab</t>
   </si>
   <si>
-    <t>Simple</t>
-  </si>
-  <si>
     <t>template-professional-tab</t>
   </si>
   <si>
-    <t>Professional</t>
-  </si>
-  <si>
     <t>template-modern-tab</t>
-  </si>
-  <si>
-    <t>Modern</t>
   </si>
   <si>
     <t>template-all-header</t>
@@ -311,6 +367,24 @@
   </si>
   <si>
     <t>Are you sure you want to delete this resume?</t>
+  </si>
+  <si>
+    <t>dashboard-created</t>
+  </si>
+  <si>
+    <t>Created at</t>
+  </si>
+  <si>
+    <t>dashboard-updated</t>
+  </si>
+  <si>
+    <t>Updated at</t>
+  </si>
+  <si>
+    <t>dashboard-create-with-personal</t>
+  </si>
+  <si>
+    <t>Create new with Personal Details</t>
   </si>
   <si>
     <t>edit-wanted-job-title</t>
@@ -600,12 +674,220 @@
   <si>
     <t>Save Resume</t>
   </si>
+  <si>
+    <t>edit-job-seeking</t>
+  </si>
+  <si>
+    <t>Job Seeking</t>
+  </si>
+  <si>
+    <t>edit-select-template</t>
+  </si>
+  <si>
+    <t>Select Template</t>
+  </si>
+  <si>
+    <t>Chọn mẫu</t>
+  </si>
+  <si>
+    <t>edit-download</t>
+  </si>
+  <si>
+    <t>Download</t>
+  </si>
+  <si>
+    <t>edit-editor</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>edit-template</t>
+  </si>
+  <si>
+    <t>Template</t>
+  </si>
+  <si>
+    <t>Mẫu</t>
+  </si>
+  <si>
+    <t>edit-layout</t>
+  </si>
+  <si>
+    <t>Layout</t>
+  </si>
+  <si>
+    <t>Bố cục</t>
+  </si>
+  <si>
+    <t>edit-need-save</t>
+  </si>
+  <si>
+    <t>You must save your information!</t>
+  </si>
+  <si>
+    <t>edit-account-settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">edit-export </t>
+  </si>
+  <si>
+    <t>Export</t>
+  </si>
+  <si>
+    <t>edit-add-page</t>
+  </si>
+  <si>
+    <t>Add more page</t>
+  </si>
+  <si>
+    <t>edit-page</t>
+  </si>
+  <si>
+    <t>Page</t>
+  </si>
+  <si>
+    <t>edit-main</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Chính</t>
+  </si>
+  <si>
+    <t>edit-sidebar</t>
+  </si>
+  <si>
+    <t>Sidebar</t>
+  </si>
+  <si>
+    <t>edit-location</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>edit-all</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>edit-find-job</t>
+  </si>
+  <si>
+    <t>Find Job</t>
+  </si>
+  <si>
+    <t>edit-save-error</t>
+  </si>
+  <si>
+    <t>Problem Occurred When Saving</t>
+  </si>
+  <si>
+    <t>Vấn đề xảy ra khi lưu</t>
+  </si>
+  <si>
+    <t>edit-save-success</t>
+  </si>
+  <si>
+    <t>Save Successfully</t>
+  </si>
+  <si>
+    <t>edit-change-title</t>
+  </si>
+  <si>
+    <t>Change Title</t>
+  </si>
+  <si>
+    <t>edit-delete-title</t>
+  </si>
+  <si>
+    <t>Delete Item</t>
+  </si>
+  <si>
+    <t>edit-delete-des</t>
+  </si>
+  <si>
+    <t>Are you sure you want to delete this item?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bạn có chắc bạn muốn xóa mục này?
+</t>
+  </si>
+  <si>
+    <t>edit-delete-confirm</t>
+  </si>
+  <si>
+    <t>edit-delete-cancel</t>
+  </si>
+  <si>
+    <t>edit-change-title-tooltip</t>
+  </si>
+  <si>
+    <t>Click to change title!</t>
+  </si>
+  <si>
+    <t>account-settings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Account Settings </t>
+  </si>
+  <si>
+    <t>account</t>
+  </si>
+  <si>
+    <t>account-first-name</t>
+  </si>
+  <si>
+    <t>account-last-name</t>
+  </si>
+  <si>
+    <t>account-email</t>
+  </si>
+  <si>
+    <t>account-phone</t>
+  </si>
+  <si>
+    <t>account-country</t>
+  </si>
+  <si>
+    <t>account-city</t>
+  </si>
+  <si>
+    <t>account-address</t>
+  </si>
+  <si>
+    <t>account-save</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Lưu</t>
+  </si>
+  <si>
+    <t>account-save-success</t>
+  </si>
+  <si>
+    <t>account-invalid-email</t>
+  </si>
+  <si>
+    <t>The input is not valid E-mail!</t>
+  </si>
+  <si>
+    <t>account-change-avatar</t>
+  </si>
+  <si>
+    <t>Change avatar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -652,6 +934,11 @@
       <color rgb="FF242424"/>
       <name val="-apple-system"/>
     </font>
+    <font>
+      <sz val="9.0"/>
+      <color theme="1"/>
+      <name val="Google Sans Mono"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -679,7 +966,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -755,6 +1042,9 @@
     <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -776,6 +1066,14 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -979,6 +1277,775 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$C$1))"),"Fortsetzen")</f>
+        <v>Fortsetzen</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$D$1))"),"Reanudar")</f>
+        <v>Reanudar</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$E$1))"),"CV")</f>
+        <v>CV</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$F$1))"),"Melanjutkan")</f>
+        <v>Melanjutkan</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$G$1))"),"Riprendere")</f>
+        <v>Riprendere</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$H$1))"),"履歴書")</f>
+        <v>履歴書</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$I$1))"),"재개하다")</f>
+        <v>재개하다</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$J$1))"),"Retomar")</f>
+        <v>Retomar</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$K$1))"),"Резюме")</f>
+        <v>Резюме</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$L$1))"),"ประวัติย่อ")</f>
+        <v>ประวัติย่อ</v>
+      </c>
+      <c r="M2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$M$1))"),"Sürdürmek")</f>
+        <v>Sürdürmek</v>
+      </c>
+      <c r="N2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$N$1))"),"Bản tóm tắt")</f>
+        <v>Bản tóm tắt</v>
+      </c>
+      <c r="O2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$O$1))"),"恢复")</f>
+        <v>恢复</v>
+      </c>
+      <c r="P2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$P$1))"),"恢復")</f>
+        <v>恢復</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$C$1))"),"Alle Vorlagen")</f>
+        <v>Alle Vorlagen</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$D$1))"),"Todas las plantillas")</f>
+        <v>Todas las plantillas</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$E$1))"),"Tous les modèles")</f>
+        <v>Tous les modèles</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$F$1))"),"Semua templat")</f>
+        <v>Semua templat</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$G$1))"),"Tutti i modelli")</f>
+        <v>Tutti i modelli</v>
+      </c>
+      <c r="H3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$H$1))"),"すべてのテンプレート")</f>
+        <v>すべてのテンプレート</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$I$1))"),"모든 템플릿")</f>
+        <v>모든 템플릿</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$J$1))"),"Todos os modelos")</f>
+        <v>Todos os modelos</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$K$1))"),"Все шаблоны")</f>
+        <v>Все шаблоны</v>
+      </c>
+      <c r="L3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$L$1))"),"เทมเพลตทั้งหมด")</f>
+        <v>เทมเพลตทั้งหมด</v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$M$1))"),"Tüm şablonlar")</f>
+        <v>Tüm şablonlar</v>
+      </c>
+      <c r="N3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$N$1))"),"Tất cả các mẫu")</f>
+        <v>Tất cả các mẫu</v>
+      </c>
+      <c r="O3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$O$1))"),"所有模板")</f>
+        <v>所有模板</v>
+      </c>
+      <c r="P3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$P$1))"),"所有模板")</f>
+        <v>所有模板</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$C$1))"),"Kreativ")</f>
+        <v>Kreativ</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$D$1))"),"Creativo")</f>
+        <v>Creativo</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$E$1))"),"Créatif")</f>
+        <v>Créatif</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$F$1))"),"Kreatif")</f>
+        <v>Kreatif</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$G$1))"),"Creativo")</f>
+        <v>Creativo</v>
+      </c>
+      <c r="H4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$H$1))"),"クリエイティブ")</f>
+        <v>クリエイティブ</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$I$1))"),"창의적인")</f>
+        <v>창의적인</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$J$1))"),"Criativo")</f>
+        <v>Criativo</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$K$1))"),"творческий")</f>
+        <v>творческий</v>
+      </c>
+      <c r="L4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$L$1))"),"ความคิดสร้างสรรค์")</f>
+        <v>ความคิดสร้างสรรค์</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$M$1))"),"Yaratıcı")</f>
+        <v>Yaratıcı</v>
+      </c>
+      <c r="N4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$N$1))"),"Sáng tạo")</f>
+        <v>Sáng tạo</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$O$1))"),"有创造力的")</f>
+        <v>有创造力的</v>
+      </c>
+      <c r="P4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$P$1))"),"有創造力的")</f>
+        <v>有創造力的</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$C$1))"),"Einfach")</f>
+        <v>Einfach</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$D$1))"),"Simple")</f>
+        <v>Simple</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$E$1))"),"Simple")</f>
+        <v>Simple</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$F$1))"),"Sederhana")</f>
+        <v>Sederhana</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$G$1))"),"Semplice")</f>
+        <v>Semplice</v>
+      </c>
+      <c r="H5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$H$1))"),"単純")</f>
+        <v>単純</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$I$1))"),"단순한")</f>
+        <v>단순한</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$J$1))"),"Simples")</f>
+        <v>Simples</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$K$1))"),"Простой")</f>
+        <v>Простой</v>
+      </c>
+      <c r="L5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$L$1))"),"เรียบง่าย")</f>
+        <v>เรียบง่าย</v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$M$1))"),"Basit")</f>
+        <v>Basit</v>
+      </c>
+      <c r="N5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$N$1))"),"Đơn giản")</f>
+        <v>Đơn giản</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$O$1))"),"简单的")</f>
+        <v>简单的</v>
+      </c>
+      <c r="P5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$P$1))"),"簡單的")</f>
+        <v>簡單的</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$C$1))"),"Fachmann")</f>
+        <v>Fachmann</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$D$1))"),"Profesional")</f>
+        <v>Profesional</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$E$1))"),"Professionnel")</f>
+        <v>Professionnel</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$F$1))"),"Profesional")</f>
+        <v>Profesional</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$G$1))"),"Professionale")</f>
+        <v>Professionale</v>
+      </c>
+      <c r="H6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$H$1))"),"プロ")</f>
+        <v>プロ</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$I$1))"),"전문적인")</f>
+        <v>전문적인</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$J$1))"),"Profissional")</f>
+        <v>Profissional</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$K$1))"),"Профессионал")</f>
+        <v>Профессионал</v>
+      </c>
+      <c r="L6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$L$1))"),"มืออาชีพ")</f>
+        <v>มืออาชีพ</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$M$1))"),"Profesyonel")</f>
+        <v>Profesyonel</v>
+      </c>
+      <c r="N6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$N$1))"),"Chuyên nghiệp")</f>
+        <v>Chuyên nghiệp</v>
+      </c>
+      <c r="O6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$O$1))"),"专业的")</f>
+        <v>专业的</v>
+      </c>
+      <c r="P6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$P$1))"),"專業的")</f>
+        <v>專業的</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$C$1))"),"Modern")</f>
+        <v>Modern</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$D$1))"),"Moderno")</f>
+        <v>Moderno</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$E$1))"),"Moderne")</f>
+        <v>Moderne</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$F$1))"),"Modern")</f>
+        <v>Modern</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$G$1))"),"Moderno")</f>
+        <v>Moderno</v>
+      </c>
+      <c r="H7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$H$1))"),"モダン")</f>
+        <v>モダン</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$I$1))"),"현대의")</f>
+        <v>현대의</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$J$1))"),"Moderno")</f>
+        <v>Moderno</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$K$1))"),"Современный")</f>
+        <v>Современный</v>
+      </c>
+      <c r="L7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$L$1))"),"ทันสมัย")</f>
+        <v>ทันสมัย</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$M$1))"),"Modern")</f>
+        <v>Modern</v>
+      </c>
+      <c r="N7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$N$1))"),"Hiện đại")</f>
+        <v>Hiện đại</v>
+      </c>
+      <c r="O7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$O$1))"),"现代的")</f>
+        <v>现代的</v>
+      </c>
+      <c r="P7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$P$1))"),"現代的")</f>
+        <v>現代的</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$C$1))"),"Blogs")</f>
+        <v>Blogs</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$D$1))"),"Blogs")</f>
+        <v>Blogs</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$E$1))"),"Blogs")</f>
+        <v>Blogs</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$F$1))"),"Blog")</f>
+        <v>Blog</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$G$1))"),"Blog")</f>
+        <v>Blog</v>
+      </c>
+      <c r="H8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$H$1))"),"ブログ")</f>
+        <v>ブログ</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$I$1))"),"블로그")</f>
+        <v>블로그</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$J$1))"),"Blogs")</f>
+        <v>Blogs</v>
+      </c>
+      <c r="K8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$K$1))"),"Блоги")</f>
+        <v>Блоги</v>
+      </c>
+      <c r="L8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$L$1))"),"บล็อก")</f>
+        <v>บล็อก</v>
+      </c>
+      <c r="M8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$M$1))"),"Bloglar")</f>
+        <v>Bloglar</v>
+      </c>
+      <c r="N8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$N$1))"),"Blog")</f>
+        <v>Blog</v>
+      </c>
+      <c r="O8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$O$1))"),"博客")</f>
+        <v>博客</v>
+      </c>
+      <c r="P8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$P$1))"),"博客")</f>
+        <v>博客</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$C$1))"),"Account Einstellungen")</f>
+        <v>Account Einstellungen</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$D$1))"),"Configuraciones de la cuenta")</f>
+        <v>Configuraciones de la cuenta</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$E$1))"),"Paramètres du compte")</f>
+        <v>Paramètres du compte</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$F$1))"),"Pengaturan akun")</f>
+        <v>Pengaturan akun</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$G$1))"),"Impostazioni dell'account")</f>
+        <v>Impostazioni dell'account</v>
+      </c>
+      <c r="H9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$H$1))"),"アカウント設定")</f>
+        <v>アカウント設定</v>
+      </c>
+      <c r="I9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$I$1))"),"계정 설정")</f>
+        <v>계정 설정</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$J$1))"),"Configurações de Conta")</f>
+        <v>Configurações de Conta</v>
+      </c>
+      <c r="K9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$K$1))"),"Настройки учетной записи")</f>
+        <v>Настройки учетной записи</v>
+      </c>
+      <c r="L9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$L$1))"),"การตั้งค่าบัญชี")</f>
+        <v>การตั้งค่าบัญชี</v>
+      </c>
+      <c r="M9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$M$1))"),"Hesap ayarları")</f>
+        <v>Hesap ayarları</v>
+      </c>
+      <c r="N9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$N$1))"),"Cài đặt tài khoản")</f>
+        <v>Cài đặt tài khoản</v>
+      </c>
+      <c r="O9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$O$1))"),"帐号设定")</f>
+        <v>帐号设定</v>
+      </c>
+      <c r="P9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$P$1))"),"帳號設定")</f>
+        <v>帳號設定</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$C$1))"),"Ausloggen")</f>
+        <v>Ausloggen</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$D$1))"),"Cerrar sesión")</f>
+        <v>Cerrar sesión</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$E$1))"),"Se déconnecter")</f>
+        <v>Se déconnecter</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$F$1))"),"Keluar")</f>
+        <v>Keluar</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$G$1))"),"Disconnettersi")</f>
+        <v>Disconnettersi</v>
+      </c>
+      <c r="H10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$H$1))"),"ログアウト")</f>
+        <v>ログアウト</v>
+      </c>
+      <c r="I10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$I$1))"),"로그 아웃")</f>
+        <v>로그 아웃</v>
+      </c>
+      <c r="J10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$J$1))"),"Sair")</f>
+        <v>Sair</v>
+      </c>
+      <c r="K10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$K$1))"),"Выйти")</f>
+        <v>Выйти</v>
+      </c>
+      <c r="L10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$L$1))"),"ออกจากระบบ")</f>
+        <v>ออกจากระบบ</v>
+      </c>
+      <c r="M10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$M$1))"),"Çıkış Yap")</f>
+        <v>Çıkış Yap</v>
+      </c>
+      <c r="N10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$N$1))"),"Đăng xuất")</f>
+        <v>Đăng xuất</v>
+      </c>
+      <c r="O10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$O$1))"),"登出")</f>
+        <v>登出</v>
+      </c>
+      <c r="P10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$P$1))"),"登出")</f>
+        <v>登出</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$C$1))"),"Anmeldung")</f>
+        <v>Anmeldung</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$D$1))"),"Acceso")</f>
+        <v>Acceso</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$E$1))"),"Connexion")</f>
+        <v>Connexion</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$F$1))"),"Gabung")</f>
+        <v>Gabung</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$G$1))"),"Login")</f>
+        <v>Login</v>
+      </c>
+      <c r="H11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$H$1))"),"ログイン")</f>
+        <v>ログイン</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$I$1))"),"로그인")</f>
+        <v>로그인</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$J$1))"),"Conecte-se")</f>
+        <v>Conecte-se</v>
+      </c>
+      <c r="K11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$K$1))"),"Авторизоваться")</f>
+        <v>Авторизоваться</v>
+      </c>
+      <c r="L11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$L$1))"),"เข้าสู่ระบบ")</f>
+        <v>เข้าสู่ระบบ</v>
+      </c>
+      <c r="M11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$M$1))"),"Giriş yapmak")</f>
+        <v>Giriş yapmak</v>
+      </c>
+      <c r="N11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$N$1))"),"Đăng nhập")</f>
+        <v>Đăng nhập</v>
+      </c>
+      <c r="O11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$O$1))"),"登录")</f>
+        <v>登录</v>
+      </c>
+      <c r="P11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$P$1))"),"登錄")</f>
+        <v>登錄</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$C$1))"),"Anmeldung")</f>
+        <v>Anmeldung</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$D$1))"),"Inscribirse")</f>
+        <v>Inscribirse</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$E$1))"),"S'inscrire")</f>
+        <v>S'inscrire</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$F$1))"),"Mendaftar")</f>
+        <v>Mendaftar</v>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$G$1))"),"Iscrizione")</f>
+        <v>Iscrizione</v>
+      </c>
+      <c r="H12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$H$1))"),"サインアップ")</f>
+        <v>サインアップ</v>
+      </c>
+      <c r="I12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$I$1))"),"가입하기")</f>
+        <v>가입하기</v>
+      </c>
+      <c r="J12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$J$1))"),"Inscrever-se")</f>
+        <v>Inscrever-se</v>
+      </c>
+      <c r="K12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$K$1))"),"Зарегистрироваться")</f>
+        <v>Зарегистрироваться</v>
+      </c>
+      <c r="L12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$L$1))"),"ลงชื่อ")</f>
+        <v>ลงชื่อ</v>
+      </c>
+      <c r="M12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$M$1))"),"Üye olmak")</f>
+        <v>Üye olmak</v>
+      </c>
+      <c r="N12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$N$1))"),"Đăng ký")</f>
+        <v>Đăng ký</v>
+      </c>
+      <c r="O12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$O$1))"),"报名")</f>
+        <v>报名</v>
+      </c>
+      <c r="P12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$P$1))"),"報名")</f>
+        <v>報名</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1.0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="C2" sqref="C2" pane="topRight"/>
@@ -1048,10 +2115,10 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$C$1))"),"Online -Lebenslauf Builder")</f>
@@ -1112,10 +2179,10 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$C$1))"),"Verwenden Sie professionelle, Feld-getestete Lebenslaufvorlagen, die den exakten Arbeitgebern der ""Lebenslaufregeln"" befolgen")</f>
@@ -1126,16 +2193,16 @@
         <v>Use plantillas de currículum probadas en campo profesionales que sigan las 'reglas de currículum' exactas que los empleadores buscan</v>
       </c>
       <c r="E3" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$E$1))"),"Utilisez des modèles de CV professionnels testés sur le terrain qui suivent les employeurs exacts des «règles de curriculum vitae»")</f>
-        <v>Utilisez des modèles de CV professionnels testés sur le terrain qui suivent les employeurs exacts des «règles de curriculum vitae»</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$E$1))"),"Utilisez des modèles de CV professionnels testés sur le terrain qui suivent les employeurs exacts des «règles de curriculum vitae» recherche")</f>
+        <v>Utilisez des modèles de CV professionnels testés sur le terrain qui suivent les employeurs exacts des «règles de curriculum vitae» recherche</v>
       </c>
       <c r="F3" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$F$1))"),"Gunakan template resume yang telah teruji di lapangan yang mengikuti yang tepat pencarian 'aturan resume' yang tepat")</f>
         <v>Gunakan template resume yang telah teruji di lapangan yang mengikuti yang tepat pencarian 'aturan resume' yang tepat</v>
       </c>
       <c r="G3" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$G$1))"),"Usa i modelli di curriculum testati sul campo professionali che seguono le esatte ""Regole di curriculum"" che cercano i datori di lavoro")</f>
-        <v>Usa i modelli di curriculum testati sul campo professionali che seguono le esatte "Regole di curriculum" che cercano i datori di lavoro</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$G$1))"),"Usa i modelli di curriculum professionisti testati sul campo che seguono le esatte ""Regole di curriculum"" che cercano i datori di lavoro")</f>
+        <v>Usa i modelli di curriculum professionisti testati sul campo che seguono le esatte "Regole di curriculum" che cercano i datori di lavoro</v>
       </c>
       <c r="H3" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$H$1))"),"雇用主が探している正確な「履歴書ルール」に続くプロのフィールドテスト履歴書テンプレートを使用する")</f>
@@ -1176,10 +2243,10 @@
     </row>
     <row r="4">
       <c r="A4" s="6" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$C$1))"),"Erstellen Sie meinen Lebenslauf")</f>
@@ -1240,10 +2307,10 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$C$1))"),"Erstellen Sie perfekte Lebensläufe für den modernen Arbeitsmarkt")</f>
@@ -1304,10 +2371,10 @@
     </row>
     <row r="6">
       <c r="A6" s="6" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$C$1))"),"Das Erstellen eines Lebenslaufs oder eines Anschreibens war noch nie so einfach! Erstellen Sie in drei einfachen Schritten das perfekte Dokument, um Einstellungsmanager und Arbeitgeber zu beeindrucken. Mindestzeit, maximale professionelle Qualität.")</f>
@@ -1368,10 +2435,10 @@
     </row>
     <row r="7">
       <c r="A7" s="9" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$C$1))"),"1. Melden Sie sich an")</f>
@@ -1432,10 +2499,10 @@
     </row>
     <row r="8">
       <c r="A8" s="6" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$C$1))"),"2. Erstellen")</f>
@@ -1496,10 +2563,10 @@
     </row>
     <row r="9">
       <c r="A9" s="6" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$C$1))"),"3. Download")</f>
@@ -1560,10 +2627,10 @@
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$C$1))"),"Dein erster Schritt")</f>
@@ -1590,8 +2657,8 @@
         <v>あなたの最初のステップ</v>
       </c>
       <c r="I10" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$I$1))"),"첫 단계")</f>
-        <v>첫 단계</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$I$1))"),"첫 번째 단계")</f>
+        <v>첫 번째 단계</v>
       </c>
       <c r="J10" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$J$1))"),"Seu primeiro passo")</f>
@@ -1624,10 +2691,10 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$C$1))"),"Wir haben dafür gesorgt, dass sich die Anmeldung bei unseren Lebenslauf -Hersteller -Tools noch bequemer als gewöhnlich ist. Verwenden Sie eines der häufigsten Netzwerke, die von Profis (LinkedIn, Facebook oder Ihrem Google -Konto) verwendet werden, oder "&amp;"überspringen Sie diesen Schritt einfach und geben Sie Ihren Namen und Ihre E -Mail -Adresse ein. Wir bewahren Ihre Daten ausschließlich vertraulich.")</f>
@@ -1688,10 +2755,10 @@
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>58</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$C$1))"),"Mit Leichtigkeit Schönheit erreichen")</f>
@@ -1752,10 +2819,10 @@
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$C$1))"),"Wählen Sie eines unserer schönen, professionell gestalteten Lebenslauf- oder Anschreibenformate. Fügen Sie Ihre persönlichen Informationen hinzu und wählen Sie die erforderlichen Abschnitte aus und bearbeiten Sie sie. Passen Sie das Layout und die Grafike"&amp;"n so gut (oder so wenig) an, wie Sie möchten. Wir bieten eine Menge bereiter Inhalte mit viel Platz für Ihre eigene Kreativität und Bedürfnisse.")</f>
@@ -1816,10 +2883,10 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$C$1))"),"Jetzt gehört es dir!")</f>
@@ -1880,10 +2947,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$C$1))"),"Exportieren Sie Ihren neuen Lebenslauf, Lebenslauf oder Bewerbungsschreiben in einem der verfügbaren Formate. PDF bietet Ihnen die beste und beständigste visuelle Formatierung. Mit Word -Dateien können Sie das Dokument weiter bearbeiten oder den Lebenslau"&amp;"f an ein Online -Bewerbungssystem senden. Sie können Ihre Karriere -Updates auch online teilen.")</f>
@@ -1943,22 +3010,68 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="13"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
+      <c r="A16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$C$1))"),"OFLINE Lebenslauf Builder")</f>
+        <v>OFLINE Lebenslauf Builder</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$D$1))"),"Builder de currículums de Ofline")</f>
+        <v>Builder de currículums de Ofline</v>
+      </c>
+      <c r="E16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$E$1))"),"Ofline CV constructeur")</f>
+        <v>Ofline CV constructeur</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$F$1))"),"Ofline Resume Builder")</f>
+        <v>Ofline Resume Builder</v>
+      </c>
+      <c r="G16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$G$1))"),"Ofline Resume Builder")</f>
+        <v>Ofline Resume Builder</v>
+      </c>
+      <c r="H16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$H$1))"),"Ofline Resume Builder")</f>
+        <v>Ofline Resume Builder</v>
+      </c>
+      <c r="I16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$I$1))"),"Ofline 이력서 빌더")</f>
+        <v>Ofline 이력서 빌더</v>
+      </c>
+      <c r="J16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$J$1))"),"OFLINE RURUMEIRDER")</f>
+        <v>OFLINE RURUMEIRDER</v>
+      </c>
+      <c r="K16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$K$1))"),"ОФИНАЯ Резюме Строитель")</f>
+        <v>ОФИНАЯ Резюме Строитель</v>
+      </c>
+      <c r="L16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$L$1))"),"ผู้สร้างประวัติย่อ")</f>
+        <v>ผู้สร้างประวัติย่อ</v>
+      </c>
+      <c r="M16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$M$1))"),"Ofline özgeçmiş oluşturucu")</f>
+        <v>Ofline özgeçmiş oluşturucu</v>
+      </c>
+      <c r="N16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$N$1))"),"Nhà xây dựng sơ yếu lý lịch")</f>
+        <v>Nhà xây dựng sơ yếu lý lịch</v>
+      </c>
+      <c r="O16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$O$1))"),"Ofline简历构建器")</f>
+        <v>Ofline简历构建器</v>
+      </c>
+      <c r="P16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$P$1))"),"Ofline簡歷構建器")</f>
+        <v>Ofline簡歷構建器</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="13"/>
@@ -18726,7 +19839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -18791,10 +19904,10 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$C$1))"),"Erstellen Sie meinen Lebenslauf")</f>
@@ -18855,10 +19968,10 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$C$1))"),"Alle Vorlagen")</f>
@@ -18919,10 +20032,10 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$C$1))"),"Kreativ")</f>
@@ -18983,10 +20096,10 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$C$1))"),"Einfach")</f>
@@ -19047,10 +20160,10 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$C$1))"),"Fachmann")</f>
@@ -19111,10 +20224,10 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$C$1))"),"Modern")</f>
@@ -19175,10 +20288,10 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$C$1))"),"Job-Preisträger-Lebenslaufvorlagen")</f>
@@ -19205,8 +20318,8 @@
         <v>就職活動の履歴書テンプレート</v>
       </c>
       <c r="I8" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$I$1))"),"직업 이력서 이력서 템플릿")</f>
-        <v>직업 이력서 이력서 템플릿</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$I$1))"),"작업을 수상한 이력서 템플릿")</f>
+        <v>작업을 수상한 이력서 템플릿</v>
       </c>
       <c r="J8" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$J$1))"),"Modelos de currículo vencedor do trabalho")</f>
@@ -19239,22 +20352,22 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>58</v>
+        <v>76</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$C$1))"),"Jede Lebenslaufvorlage ist fachmännisch gestaltet und folgt den genauen „Lebenslaufregeln“ -Mietmanagern, nach denen suchen. Stechen Sie heraus und lassen Sie sich schneller mit Feldvorlagen mit Feldnahrungsläufen einstellen.")</f>
-        <v>Jede Lebenslaufvorlage ist fachmännisch gestaltet und folgt den genauen „Lebenslaufregeln“ -Mietmanagern, nach denen suchen. Stechen Sie heraus und lassen Sie sich schneller mit Feldvorlagen mit Feldnahrungsläufen einstellen.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$C$1))"),"Jede Lebenslaufvorlage ist fachmännisch gestaltet und folgt den genauen Einstellungsmanagern „Lebenslaufregeln“. Stechen Sie heraus und lassen Sie sich schneller mit Feldvorlagen mit Feldnahrungsläufen einstellen.")</f>
+        <v>Jede Lebenslaufvorlage ist fachmännisch gestaltet und folgt den genauen Einstellungsmanagern „Lebenslaufregeln“. Stechen Sie heraus und lassen Sie sich schneller mit Feldvorlagen mit Feldnahrungsläufen einstellen.</v>
       </c>
       <c r="D9" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$D$1))"),"Cada plantilla de currículum está diseñada de manera experta y sigue las ""reglas de currículum"" exacta que buscan los gerentes. Destaca y es contratado más rápido con plantillas de currículum probadas en campo.")</f>
         <v>Cada plantilla de currículum está diseñada de manera experta y sigue las "reglas de currículum" exacta que buscan los gerentes. Destaca y es contratado más rápido con plantillas de currículum probadas en campo.</v>
       </c>
       <c r="E9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$E$1))"),"Chaque modèle de curriculum vitae est conçu de manière experte et suit les gestionnaires de recrutement des «règles de curriculum vitae» exacts. Se démarquez et soyez embauché plus rapidement avec des modèles de curriculum vitae testés sur le terrain.")</f>
-        <v>Chaque modèle de curriculum vitae est conçu de manière experte et suit les gestionnaires de recrutement des «règles de curriculum vitae» exacts. Se démarquez et soyez embauché plus rapidement avec des modèles de curriculum vitae testés sur le terrain.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$E$1))"),"Chaque modèle de curriculum vitae est conçu de manière experte et suit les gestionnaires de recrutement des «règles de CV» exacts. Se démarquez et soyez embauché plus rapidement avec des modèles de curriculum vitae testés sur le terrain.")</f>
+        <v>Chaque modèle de curriculum vitae est conçu de manière experte et suit les gestionnaires de recrutement des «règles de CV» exacts. Se démarquez et soyez embauché plus rapidement avec des modèles de curriculum vitae testés sur le terrain.</v>
       </c>
       <c r="F9" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$F$1))"),"Setiap template resume dirancang dengan ahli dan mengikuti ""aturan resume"" yang tepat yang dicari oleh manajer. Menonjol dan dipekerjakan lebih cepat dengan templat resume yang telah teruji di lapangan.")</f>
@@ -19277,16 +20390,16 @@
         <v>Cada modelo de currículo é projetado com habilidade e segue os gerentes de contratação exatos de “Regras de currículo” procuram. Destaque-se e seja contratado mais rápido com modelos de currículo testados em campo.</v>
       </c>
       <c r="K9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$K$1))"),"Каждый шаблон резюме опытный и следит за точными менеджерами по найму «Правил резюме». Выделитесь и нанимайте быстрее с проверенными на полевых шаблонах резюме.")</f>
-        <v>Каждый шаблон резюме опытный и следит за точными менеджерами по найму «Правил резюме». Выделитесь и нанимайте быстрее с проверенными на полевых шаблонах резюме.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$K$1))"),"Каждый шаблон резюме опытный и следит за тем, как ищут точные менеджеры по найму «Правила резюме». Выделитесь и нанимайте быстрее с проверенными на полевых шаблонах резюме.")</f>
+        <v>Каждый шаблон резюме опытный и следит за тем, как ищут точные менеджеры по найму «Правила резюме». Выделитесь и нанимайте быстрее с проверенными на полевых шаблонах резюме.</v>
       </c>
       <c r="L9" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$L$1))"),"เทมเพลตเรซูเม่แต่ละรายการได้รับการออกแบบอย่างเชี่ยวชาญและติดตามผู้จัดการการจ้างงาน“ Resume Resume” ที่แน่นอน โดดเด่นและได้รับการว่าจ้างเร็วขึ้นด้วยเทมเพลตเรซูเม่ที่ผ่านการทดสอบภาคสนาม")</f>
         <v>เทมเพลตเรซูเม่แต่ละรายการได้รับการออกแบบอย่างเชี่ยวชาญและติดตามผู้จัดการการจ้างงาน“ Resume Resume” ที่แน่นอน โดดเด่นและได้รับการว่าจ้างเร็วขึ้นด้วยเทมเพลตเรซูเม่ที่ผ่านการทดสอบภาคสนาม</v>
       </c>
       <c r="M9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$M$1))"),"Her özgeçmiş şablonu ustaca tasarlanmıştır ve işe alım yöneticilerinin aradığı “özgeçmiş kuralları” nı takip eder. Saha tarafından test edilmiş özgeçmiş şablonları ile öne çıkın ve daha hızlı işe alın.")</f>
-        <v>Her özgeçmiş şablonu ustaca tasarlanmıştır ve işe alım yöneticilerinin aradığı “özgeçmiş kuralları” nı takip eder. Saha tarafından test edilmiş özgeçmiş şablonları ile öne çıkın ve daha hızlı işe alın.</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$M$1))"),"Her özgeçmiş şablonu ustaca tasarlanmıştır ve işe alım yöneticilerinin aradığı tam “özgeçmiş kurallarını” takip eder. Saha tarafından test edilmiş özgeçmiş şablonları ile öne çıkın ve daha hızlı işe alın.")</f>
+        <v>Her özgeçmiş şablonu ustaca tasarlanmıştır ve işe alım yöneticilerinin aradığı tam “özgeçmiş kurallarını” takip eder. Saha tarafından test edilmiş özgeçmiş şablonları ile öne çıkın ve daha hızlı işe alın.</v>
       </c>
       <c r="N9" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$N$1))"),"Mỗi mẫu sơ yếu lý lịch được thiết kế một cách chuyên nghiệp và tuân theo các quy tắc sơ yếu lý lịch chính xác của các nhà quản lý tuyển dụng. Nổi bật và được thuê nhanh hơn với các mẫu sơ yếu lý lịch thử nghiệm trường.")</f>
@@ -19303,10 +20416,10 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="C10" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$C$1))"),"Arbeitspunkte kreative Lebenslaufvorlagen")</f>
@@ -19367,10 +20480,10 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C11" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$C$1))"),"Jede Vorlage ist fachmännisch gestaltet und folgt den genauen Einstellungsmanagern „Lebenslaufregeln“. Stechen Sie heraus und lassen Sie sich schneller mit Feldvorlagen mit Feldnahrungsläufen einstellen.")</f>
@@ -19431,10 +20544,10 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="C12" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$C$1))"),"Arbeitspunkte einfache Lebenslaufvorlagen")</f>
@@ -19495,10 +20608,10 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C13" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$C$1))"),"Jede Vorlage ist fachmännisch gestaltet und folgt den genauen Einstellungsmanagern „Lebenslaufregeln“. Stechen Sie heraus und lassen Sie sich schneller mit Feldvorlagen mit Feldnahrungsläufen einstellen.")</f>
@@ -19559,10 +20672,10 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
       <c r="C14" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$C$1))"),"Berufsgekrönte professionelle Lebenslaufvorlagen")</f>
@@ -19585,16 +20698,16 @@
         <v>Modelli di curriculum professionisti vincitori di lavoro</v>
       </c>
       <c r="H14" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$H$1))"),"仕事に勝つプロの履歴書テンプレート")</f>
-        <v>仕事に勝つプロの履歴書テンプレート</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$H$1))"),"就職活動中のプロの履歴書テンプレート")</f>
+        <v>就職活動中のプロの履歴書テンプレート</v>
       </c>
       <c r="I14" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$I$1))"),"직업을 얻은 전문 이력서 템플릿")</f>
         <v>직업을 얻은 전문 이력서 템플릿</v>
       </c>
       <c r="J14" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$J$1))"),"Modelos de currículo profissional vencedor do emprego")</f>
-        <v>Modelos de currículo profissional vencedor do emprego</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$J$1))"),"Modelos de currículo profissional vencedor de empregos")</f>
+        <v>Modelos de currículo profissional vencedor de empregos</v>
       </c>
       <c r="K14" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$K$1))"),"Завоеванные рабочие профессиональные шаблоны резюме")</f>
@@ -19623,10 +20736,10 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>68</v>
+        <v>86</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C15" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$C$1))"),"Jede Vorlage ist fachmännisch gestaltet und folgt den genauen Einstellungsmanagern „Lebenslaufregeln“. Stechen Sie heraus und lassen Sie sich schneller mit Feldvorlagen mit Feldnahrungsläufen einstellen.")</f>
@@ -19687,18 +20800,18 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="C16" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$C$1))"),"Jobs im Arbeitsplatz moderne Lebenslaufvorlagen")</f>
         <v>Jobs im Arbeitsplatz moderne Lebenslaufvorlagen</v>
       </c>
       <c r="D16" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$D$1))"),"Plantillas de currículum modernas ganadoras de trabajo")</f>
-        <v>Plantillas de currículum modernas ganadoras de trabajo</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$D$1))"),"Plantillas de currículum modernas ganadoras de empleo")</f>
+        <v>Plantillas de currículum modernas ganadoras de empleo</v>
       </c>
       <c r="E16" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$E$1))"),"Modèles de CV modernes gagnants")</f>
@@ -19725,8 +20838,8 @@
         <v>Modelos de currículo modernos vencedores</v>
       </c>
       <c r="K16" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$K$1))"),"Завоеванные работой шаблоны современных резюме")</f>
-        <v>Завоеванные работой шаблоны современных резюме</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$K$1))"),"Завоеванные работы современные шаблоны резюме")</f>
+        <v>Завоеванные работы современные шаблоны резюме</v>
       </c>
       <c r="L16" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$L$1))"),"เทมเพลตเรซูเม่ที่ทันสมัยที่ได้รับรางวัลงาน")</f>
@@ -19751,10 +20864,10 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>71</v>
+        <v>89</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C17" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$C$1))"),"Jede Vorlage ist fachmännisch gestaltet und folgt den genauen Einstellungsmanagern „Lebenslaufregeln“. Stechen Sie heraus und lassen Sie sich schneller mit Feldvorlagen mit Feldnahrungsläufen einstellen.")</f>
@@ -22761,900 +23874,6 @@
     </row>
     <row r="1000">
       <c r="B1000" s="14"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$C$1))"),"Lebensläufe")</f>
-        <v>Lebensläufe</v>
-      </c>
-      <c r="D2" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$D$1))"),"Currículums")</f>
-        <v>Currículums</v>
-      </c>
-      <c r="E2" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$E$1))"),"Curriculum vitae")</f>
-        <v>Curriculum vitae</v>
-      </c>
-      <c r="F2" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$F$1))"),"Resume")</f>
-        <v>Resume</v>
-      </c>
-      <c r="G2" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$G$1))"),"Riprende")</f>
-        <v>Riprende</v>
-      </c>
-      <c r="H2" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$H$1))"),"履歴書")</f>
-        <v>履歴書</v>
-      </c>
-      <c r="I2" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$I$1))"),"재개")</f>
-        <v>재개</v>
-      </c>
-      <c r="J2" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$J$1))"),"Resumos")</f>
-        <v>Resumos</v>
-      </c>
-      <c r="K2" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$K$1))"),"Резюме")</f>
-        <v>Резюме</v>
-      </c>
-      <c r="L2" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$L$1))"),"ประวัติย่อ")</f>
-        <v>ประวัติย่อ</v>
-      </c>
-      <c r="M2" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$M$1))"),"Özgeçmişler")</f>
-        <v>Özgeçmişler</v>
-      </c>
-      <c r="N2" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$N$1))"),"Sơ yếu lý lịch")</f>
-        <v>Sơ yếu lý lịch</v>
-      </c>
-      <c r="O2" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$O$1))"),"简历")</f>
-        <v>简历</v>
-      </c>
-      <c r="P2" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$P$1))"),"簡歷")</f>
-        <v>簡歷</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C3" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$C$1))"),"+ Import")</f>
-        <v>+ Import</v>
-      </c>
-      <c r="D3" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$D$1))"),"+ Importación")</f>
-        <v>+ Importación</v>
-      </c>
-      <c r="E3" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$E$1))"),"+ Importation")</f>
-        <v>+ Importation</v>
-      </c>
-      <c r="F3" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$F$1))"),"+ Impor")</f>
-        <v>+ Impor</v>
-      </c>
-      <c r="G3" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$G$1))"),"+ Importazione")</f>
-        <v>+ Importazione</v>
-      </c>
-      <c r="H3" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$H$1))"),"+インポート")</f>
-        <v>+インポート</v>
-      </c>
-      <c r="I3" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$I$1))"),"+ 가져 오기")</f>
-        <v>+ 가져 오기</v>
-      </c>
-      <c r="J3" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$J$1))"),"+ Importar")</f>
-        <v>+ Importar</v>
-      </c>
-      <c r="K3" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$K$1))"),"+ Импорт")</f>
-        <v>+ Импорт</v>
-      </c>
-      <c r="L3" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$L$1))"),"+ นำเข้า")</f>
-        <v>+ นำเข้า</v>
-      </c>
-      <c r="M3" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$M$1))"),"+ İthalat")</f>
-        <v>+ İthalat</v>
-      </c>
-      <c r="N3" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="O3" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$O$1))"),"+导入")</f>
-        <v>+导入</v>
-      </c>
-      <c r="P3" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$P$1))"),"+導入")</f>
-        <v>+導入</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$C$1))"),"+ Neu erstellen")</f>
-        <v>+ Neu erstellen</v>
-      </c>
-      <c r="D4" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$D$1))"),"+ Crear nuevo")</f>
-        <v>+ Crear nuevo</v>
-      </c>
-      <c r="E4" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$E$1))"),"+ Créer nouveau")</f>
-        <v>+ Créer nouveau</v>
-      </c>
-      <c r="F4" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$F$1))"),"+ Buat baru")</f>
-        <v>+ Buat baru</v>
-      </c>
-      <c r="G4" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$G$1))"),"+ Crea nuovo")</f>
-        <v>+ Crea nuovo</v>
-      </c>
-      <c r="H4" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$H$1))"),"+新規を作成します")</f>
-        <v>+新規を作成します</v>
-      </c>
-      <c r="I4" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$I$1))"),"+ 새 생성")</f>
-        <v>+ 새 생성</v>
-      </c>
-      <c r="J4" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$J$1))"),"+ Crie novo")</f>
-        <v>+ Crie novo</v>
-      </c>
-      <c r="K4" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$K$1))"),"+ Создать новый")</f>
-        <v>+ Создать новый</v>
-      </c>
-      <c r="L4" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$L$1))"),"+ สร้างใหม่")</f>
-        <v>+ สร้างใหม่</v>
-      </c>
-      <c r="M4" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$M$1))"),"+ Yeni Oluştur")</f>
-        <v>+ Yeni Oluştur</v>
-      </c>
-      <c r="N4" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$N$1))"),"+ Tạo mới")</f>
-        <v>+ Tạo mới</v>
-      </c>
-      <c r="O4" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$O$1))"),"+创建新的")</f>
-        <v>+创建新的</v>
-      </c>
-      <c r="P4" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$P$1))"),"+創建新的")</f>
-        <v>+創建新的</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C5" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$C$1))"),"Klicken oder ziehen Sie Datei in diesen Bereich, um hochzuladen")</f>
-        <v>Klicken oder ziehen Sie Datei in diesen Bereich, um hochzuladen</v>
-      </c>
-      <c r="D5" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$D$1))"),"Haga clic o arrastre el archivo a esta área para cargar")</f>
-        <v>Haga clic o arrastre el archivo a esta área para cargar</v>
-      </c>
-      <c r="E5" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$E$1))"),"Cliquez sur ou faites glisser le fichier vers cette zone pour télécharger")</f>
-        <v>Cliquez sur ou faites glisser le fichier vers cette zone pour télécharger</v>
-      </c>
-      <c r="F5" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$F$1))"),"Klik atau seret file ke area ini untuk diunggah")</f>
-        <v>Klik atau seret file ke area ini untuk diunggah</v>
-      </c>
-      <c r="G5" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$G$1))"),"Fare clic o trascinare il file in quest'area per caricare")</f>
-        <v>Fare clic o trascinare il file in quest'area per caricare</v>
-      </c>
-      <c r="H5" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$H$1))"),"[ファイル]をクリックまたはドラッグこの領域にアップロードします")</f>
-        <v>[ファイル]をクリックまたはドラッグこの領域にアップロードします</v>
-      </c>
-      <c r="I5" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$I$1))"),"이 영역으로 파일을 클릭하거나 드래그하여 업로드하십시오")</f>
-        <v>이 영역으로 파일을 클릭하거나 드래그하여 업로드하십시오</v>
-      </c>
-      <c r="J5" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$J$1))"),"Clique ou arraste o arquivo para esta área para fazer upload")</f>
-        <v>Clique ou arraste o arquivo para esta área para fazer upload</v>
-      </c>
-      <c r="K5" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$K$1))"),"Нажмите или перетащите файл в эту область, чтобы загрузить")</f>
-        <v>Нажмите или перетащите файл в эту область, чтобы загрузить</v>
-      </c>
-      <c r="L5" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$L$1))"),"คลิกหรือลากไฟล์ไปยังพื้นที่นี้เพื่ออัปโหลด")</f>
-        <v>คลิกหรือลากไฟล์ไปยังพื้นที่นี้เพื่ออัปโหลด</v>
-      </c>
-      <c r="M5" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$M$1))"),"Yüklemek için bu alana dosyayı tıklayın veya sürükleyin")</f>
-        <v>Yüklemek için bu alana dosyayı tıklayın veya sürükleyin</v>
-      </c>
-      <c r="N5" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$N$1))"),"Nhấp hoặc kéo tệp đến khu vực này để tải lên")</f>
-        <v>Nhấp hoặc kéo tệp đến khu vực này để tải lên</v>
-      </c>
-      <c r="O5" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$O$1))"),"单击或将文件拖到此区域上传")</f>
-        <v>单击或将文件拖到此区域上传</v>
-      </c>
-      <c r="P5" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$P$1))"),"單擊或將文件拖到此區域上傳")</f>
-        <v>單擊或將文件拖到此區域上傳</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C6" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$C$1))"),"Lebenslauf importieren")</f>
-        <v>Lebenslauf importieren</v>
-      </c>
-      <c r="D6" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$D$1))"),"Currículum de importación")</f>
-        <v>Currículum de importación</v>
-      </c>
-      <c r="E6" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$E$1))"),"CV IMPORT")</f>
-        <v>CV IMPORT</v>
-      </c>
-      <c r="F6" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$F$1))"),"Impor resume")</f>
-        <v>Impor resume</v>
-      </c>
-      <c r="G6" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$G$1))"),"Riprendi l'importazione")</f>
-        <v>Riprendi l'importazione</v>
-      </c>
-      <c r="H6" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$H$1))"),"履歴書を輸入します")</f>
-        <v>履歴書を輸入します</v>
-      </c>
-      <c r="I6" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$I$1))"),"수입 이력서")</f>
-        <v>수입 이력서</v>
-      </c>
-      <c r="J6" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$J$1))"),"Importar currículo")</f>
-        <v>Importar currículo</v>
-      </c>
-      <c r="K6" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$K$1))"),"Импортировать резюме")</f>
-        <v>Импортировать резюме</v>
-      </c>
-      <c r="L6" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$L$1))"),"นำเข้าเรซูเม่")</f>
-        <v>นำเข้าเรซูเม่</v>
-      </c>
-      <c r="M6" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$M$1))"),"İthalat Özgeçmişi")</f>
-        <v>İthalat Özgeçmişi</v>
-      </c>
-      <c r="N6" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$N$1))"),"Nhập sơ yếu lý lịch")</f>
-        <v>Nhập sơ yếu lý lịch</v>
-      </c>
-      <c r="O6" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$O$1))"),"导入简历")</f>
-        <v>导入简历</v>
-      </c>
-      <c r="P6" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$P$1))"),"導入簡歷")</f>
-        <v>導入簡歷</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$C$1))"),"Bearbeiten")</f>
-        <v>Bearbeiten</v>
-      </c>
-      <c r="D7" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$D$1))"),"Editar")</f>
-        <v>Editar</v>
-      </c>
-      <c r="E7" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$E$1))"),"Modifier")</f>
-        <v>Modifier</v>
-      </c>
-      <c r="F7" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$F$1))"),"Edit")</f>
-        <v>Edit</v>
-      </c>
-      <c r="G7" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$G$1))"),"Modificare")</f>
-        <v>Modificare</v>
-      </c>
-      <c r="H7" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$H$1))"),"編集")</f>
-        <v>編集</v>
-      </c>
-      <c r="I7" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$I$1))"),"편집하다")</f>
-        <v>편집하다</v>
-      </c>
-      <c r="J7" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$J$1))"),"Editar")</f>
-        <v>Editar</v>
-      </c>
-      <c r="K7" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$K$1))"),"Редактировать")</f>
-        <v>Редактировать</v>
-      </c>
-      <c r="L7" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$L$1))"),"แก้ไข")</f>
-        <v>แก้ไข</v>
-      </c>
-      <c r="M7" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$M$1))"),"Düzenlemek")</f>
-        <v>Düzenlemek</v>
-      </c>
-      <c r="N7" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="O7" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$O$1))"),"编辑")</f>
-        <v>编辑</v>
-      </c>
-      <c r="P7" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$P$1))"),"編輯")</f>
-        <v>編輯</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$C$1))"),"Duplikat")</f>
-        <v>Duplikat</v>
-      </c>
-      <c r="D8" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$D$1))"),"Duplicar")</f>
-        <v>Duplicar</v>
-      </c>
-      <c r="E8" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$E$1))"),"Dupliquer")</f>
-        <v>Dupliquer</v>
-      </c>
-      <c r="F8" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$F$1))"),"Duplikat")</f>
-        <v>Duplikat</v>
-      </c>
-      <c r="G8" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$G$1))"),"Duplicare")</f>
-        <v>Duplicare</v>
-      </c>
-      <c r="H8" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$H$1))"),"複製")</f>
-        <v>複製</v>
-      </c>
-      <c r="I8" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$I$1))"),"복제하다")</f>
-        <v>복제하다</v>
-      </c>
-      <c r="J8" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$J$1))"),"Duplicado")</f>
-        <v>Duplicado</v>
-      </c>
-      <c r="K8" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$K$1))"),"Дублировать")</f>
-        <v>Дублировать</v>
-      </c>
-      <c r="L8" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$L$1))"),"ทำซ้ำ")</f>
-        <v>ทำซ้ำ</v>
-      </c>
-      <c r="M8" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$M$1))"),"Kopyalamak")</f>
-        <v>Kopyalamak</v>
-      </c>
-      <c r="N8" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$N$1))"),"Nhân bản")</f>
-        <v>Nhân bản</v>
-      </c>
-      <c r="O8" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$O$1))"),"复制")</f>
-        <v>复制</v>
-      </c>
-      <c r="P8" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$P$1))"),"複製")</f>
-        <v>複製</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$C$1))"),"Löschen")</f>
-        <v>Löschen</v>
-      </c>
-      <c r="D9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$D$1))"),"Borrar")</f>
-        <v>Borrar</v>
-      </c>
-      <c r="E9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$E$1))"),"Supprimer")</f>
-        <v>Supprimer</v>
-      </c>
-      <c r="F9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$F$1))"),"Menghapus")</f>
-        <v>Menghapus</v>
-      </c>
-      <c r="G9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$G$1))"),"Eliminare")</f>
-        <v>Eliminare</v>
-      </c>
-      <c r="H9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$H$1))"),"消去")</f>
-        <v>消去</v>
-      </c>
-      <c r="I9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$I$1))"),"삭제")</f>
-        <v>삭제</v>
-      </c>
-      <c r="J9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$J$1))"),"Excluir")</f>
-        <v>Excluir</v>
-      </c>
-      <c r="K9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$K$1))"),"Удалить")</f>
-        <v>Удалить</v>
-      </c>
-      <c r="L9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$L$1))"),"ลบ")</f>
-        <v>ลบ</v>
-      </c>
-      <c r="M9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$M$1))"),"Silmek")</f>
-        <v>Silmek</v>
-      </c>
-      <c r="N9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$N$1))"),"Xóa bỏ")</f>
-        <v>Xóa bỏ</v>
-      </c>
-      <c r="O9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$O$1))"),"删除")</f>
-        <v>删除</v>
-      </c>
-      <c r="P9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$P$1))"),"刪除")</f>
-        <v>刪除</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$C$1))"),"Löschen")</f>
-        <v>Löschen</v>
-      </c>
-      <c r="D10" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$D$1))"),"Borrar")</f>
-        <v>Borrar</v>
-      </c>
-      <c r="E10" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$E$1))"),"Supprimer")</f>
-        <v>Supprimer</v>
-      </c>
-      <c r="F10" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$F$1))"),"Menghapus")</f>
-        <v>Menghapus</v>
-      </c>
-      <c r="G10" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$G$1))"),"Eliminare")</f>
-        <v>Eliminare</v>
-      </c>
-      <c r="H10" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$H$1))"),"消去")</f>
-        <v>消去</v>
-      </c>
-      <c r="I10" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$I$1))"),"삭제")</f>
-        <v>삭제</v>
-      </c>
-      <c r="J10" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$J$1))"),"Excluir")</f>
-        <v>Excluir</v>
-      </c>
-      <c r="K10" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$K$1))"),"Удалить")</f>
-        <v>Удалить</v>
-      </c>
-      <c r="L10" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$L$1))"),"ลบ")</f>
-        <v>ลบ</v>
-      </c>
-      <c r="M10" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$M$1))"),"Silmek")</f>
-        <v>Silmek</v>
-      </c>
-      <c r="N10" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$N$1))"),"Xóa bỏ")</f>
-        <v>Xóa bỏ</v>
-      </c>
-      <c r="O10" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$O$1))"),"删除")</f>
-        <v>删除</v>
-      </c>
-      <c r="P10" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$P$1))"),"刪除")</f>
-        <v>刪除</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C11" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$C$1))"),"Stornieren")</f>
-        <v>Stornieren</v>
-      </c>
-      <c r="D11" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$D$1))"),"Cancelar")</f>
-        <v>Cancelar</v>
-      </c>
-      <c r="E11" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$E$1))"),"Annuler")</f>
-        <v>Annuler</v>
-      </c>
-      <c r="F11" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$F$1))"),"Membatalkan")</f>
-        <v>Membatalkan</v>
-      </c>
-      <c r="G11" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$G$1))"),"Annulla")</f>
-        <v>Annulla</v>
-      </c>
-      <c r="H11" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$H$1))"),"キャンセル")</f>
-        <v>キャンセル</v>
-      </c>
-      <c r="I11" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$I$1))"),"취소")</f>
-        <v>취소</v>
-      </c>
-      <c r="J11" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$J$1))"),"Cancelar")</f>
-        <v>Cancelar</v>
-      </c>
-      <c r="K11" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$K$1))"),"Отмена")</f>
-        <v>Отмена</v>
-      </c>
-      <c r="L11" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$L$1))"),"ยกเลิก")</f>
-        <v>ยกเลิก</v>
-      </c>
-      <c r="M11" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$M$1))"),"İptal etmek")</f>
-        <v>İptal etmek</v>
-      </c>
-      <c r="N11" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$N$1))"),"Hủy bỏ")</f>
-        <v>Hủy bỏ</v>
-      </c>
-      <c r="O11" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$O$1))"),"取消")</f>
-        <v>取消</v>
-      </c>
-      <c r="P11" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$P$1))"),"取消")</f>
-        <v>取消</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$C$1))"),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="D12" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$D$1))"),"DE ACUERDO")</f>
-        <v>DE ACUERDO</v>
-      </c>
-      <c r="E12" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$E$1))"),"D'ACCORD")</f>
-        <v>D'ACCORD</v>
-      </c>
-      <c r="F12" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$F$1))"),"OKE")</f>
-        <v>OKE</v>
-      </c>
-      <c r="G12" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$G$1))"),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="H12" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$H$1))"),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="I12" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$I$1))"),"좋아요")</f>
-        <v>좋아요</v>
-      </c>
-      <c r="J12" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$J$1))"),"OK")</f>
-        <v>OK</v>
-      </c>
-      <c r="K12" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$K$1))"),"ХОРОШО")</f>
-        <v>ХОРОШО</v>
-      </c>
-      <c r="L12" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$L$1))"),"ตกลง")</f>
-        <v>ตกลง</v>
-      </c>
-      <c r="M12" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$M$1))"),"TAMAM")</f>
-        <v>TAMAM</v>
-      </c>
-      <c r="N12" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="O12" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$O$1))"),"好的")</f>
-        <v>好的</v>
-      </c>
-      <c r="P12" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$P$1))"),"好的")</f>
-        <v>好的</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C13" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$C$1))"),"Lebenslauf löschen")</f>
-        <v>Lebenslauf löschen</v>
-      </c>
-      <c r="D13" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$D$1))"),"Eliminar currículum")</f>
-        <v>Eliminar currículum</v>
-      </c>
-      <c r="E13" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$E$1))"),"Supprimer le CV")</f>
-        <v>Supprimer le CV</v>
-      </c>
-      <c r="F13" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$F$1))"),"Hapus resume")</f>
-        <v>Hapus resume</v>
-      </c>
-      <c r="G13" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$G$1))"),"Elimina il curriculum")</f>
-        <v>Elimina il curriculum</v>
-      </c>
-      <c r="H13" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$H$1))"),"履歴書を削除します")</f>
-        <v>履歴書を削除します</v>
-      </c>
-      <c r="I13" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$I$1))"),"이력서 삭제")</f>
-        <v>이력서 삭제</v>
-      </c>
-      <c r="J13" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$J$1))"),"Exclua currículo")</f>
-        <v>Exclua currículo</v>
-      </c>
-      <c r="K13" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$K$1))"),"Удалить резюме")</f>
-        <v>Удалить резюме</v>
-      </c>
-      <c r="L13" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$L$1))"),"ลบเรซูเม่")</f>
-        <v>ลบเรซูเม่</v>
-      </c>
-      <c r="M13" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$M$1))"),"Özgeçmişi Sil")</f>
-        <v>Özgeçmişi Sil</v>
-      </c>
-      <c r="N13" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$N$1))"),"Xóa sơ yếu lý lịch")</f>
-        <v>Xóa sơ yếu lý lịch</v>
-      </c>
-      <c r="O13" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$O$1))"),"删除简历")</f>
-        <v>删除简历</v>
-      </c>
-      <c r="P13" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$P$1))"),"刪除簡歷")</f>
-        <v>刪除簡歷</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C14" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$C$1))"),"Sind Sie sicher, dass Sie diesen Lebenslauf löschen möchten?")</f>
-        <v>Sind Sie sicher, dass Sie diesen Lebenslauf löschen möchten?</v>
-      </c>
-      <c r="D14" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$D$1))"),"¿Estás seguro de que quieres eliminar este currículum?")</f>
-        <v>¿Estás seguro de que quieres eliminar este currículum?</v>
-      </c>
-      <c r="E14" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$E$1))"),"Êtes-vous sûr de vouloir supprimer ce curriculum vitae?")</f>
-        <v>Êtes-vous sûr de vouloir supprimer ce curriculum vitae?</v>
-      </c>
-      <c r="F14" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$F$1))"),"Apakah Anda yakin ingin menghapus resume ini?")</f>
-        <v>Apakah Anda yakin ingin menghapus resume ini?</v>
-      </c>
-      <c r="G14" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$G$1))"),"Sei sicuro di voler eliminare questo curriculum?")</f>
-        <v>Sei sicuro di voler eliminare questo curriculum?</v>
-      </c>
-      <c r="H14" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$H$1))"),"この履歴書を削除したいですか？")</f>
-        <v>この履歴書を削除したいですか？</v>
-      </c>
-      <c r="I14" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$I$1))"),"이 이력서를 삭제 하시겠습니까?")</f>
-        <v>이 이력서를 삭제 하시겠습니까?</v>
-      </c>
-      <c r="J14" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$J$1))"),"Tem certeza de que deseja excluir este currículo?")</f>
-        <v>Tem certeza de que deseja excluir este currículo?</v>
-      </c>
-      <c r="K14" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$K$1))"),"Вы уверены, что хотите удалить это резюме?")</f>
-        <v>Вы уверены, что хотите удалить это резюме?</v>
-      </c>
-      <c r="L14" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$L$1))"),"แน่ใจหรือว่าต้องการลบประวัติย่อนี้?")</f>
-        <v>แน่ใจหรือว่าต้องการลบประวัติย่อนี้?</v>
-      </c>
-      <c r="M14" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$M$1))"),"Bu özgeçmişi silmek istediğinden emin misiniz?")</f>
-        <v>Bu özgeçmişi silmek istediğinden emin misiniz?</v>
-      </c>
-      <c r="N14" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$N$1))"),"Bạn có chắc là bạn muốn xóa sơ yếu lý lịch này?")</f>
-        <v>Bạn có chắc là bạn muốn xóa sơ yếu lý lịch này?</v>
-      </c>
-      <c r="O14" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$O$1))"),"您确定要删除此简历吗？")</f>
-        <v>您确定要删除此简历吗？</v>
-      </c>
-      <c r="P14" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$P$1))"),"您確定要刪除此簡歷嗎？")</f>
-        <v>您確定要刪除此簡歷嗎？</v>
-      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -23670,6 +23889,10 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="24.5"/>
+    <col customWidth="1" min="2" max="2" width="34.38"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
@@ -23723,10 +23946,1096 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$C$1))"),"Lebensläufe")</f>
+        <v>Lebensläufe</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$D$1))"),"Currículums")</f>
+        <v>Currículums</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$E$1))"),"Curriculum vitae")</f>
+        <v>Curriculum vitae</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$F$1))"),"Resume")</f>
+        <v>Resume</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$G$1))"),"Riprende")</f>
+        <v>Riprende</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$H$1))"),"履歴書")</f>
+        <v>履歴書</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$I$1))"),"재개")</f>
+        <v>재개</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$J$1))"),"Resumos")</f>
+        <v>Resumos</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$K$1))"),"Резюме")</f>
+        <v>Резюме</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$L$1))"),"ประวัติย่อ")</f>
+        <v>ประวัติย่อ</v>
+      </c>
+      <c r="M2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$M$1))"),"Özgeçmişler")</f>
+        <v>Özgeçmişler</v>
+      </c>
+      <c r="N2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$N$1))"),"Sơ yếu lý lịch")</f>
+        <v>Sơ yếu lý lịch</v>
+      </c>
+      <c r="O2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$O$1))"),"简历")</f>
+        <v>简历</v>
+      </c>
+      <c r="P2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$P$1))"),"簡歷")</f>
+        <v>簡歷</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$C$1))"),"+ Import")</f>
+        <v>+ Import</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$D$1))"),"+ Importación")</f>
+        <v>+ Importación</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$E$1))"),"+ Importation")</f>
+        <v>+ Importation</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$F$1))"),"+ Impor")</f>
+        <v>+ Impor</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$G$1))"),"+ Importazione")</f>
+        <v>+ Importazione</v>
+      </c>
+      <c r="H3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$H$1))"),"+インポート")</f>
+        <v>+インポート</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$I$1))"),"+ 가져 오기")</f>
+        <v>+ 가져 오기</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$J$1))"),"+ Importar")</f>
+        <v>+ Importar</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$K$1))"),"+ Импорт")</f>
+        <v>+ Импорт</v>
+      </c>
+      <c r="L3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$L$1))"),"+ นำเข้า")</f>
+        <v>+ นำเข้า</v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$M$1))"),"+ İthalat")</f>
+        <v>+ İthalat</v>
+      </c>
+      <c r="N3" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="O3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$O$1))"),"+导入")</f>
+        <v>+导入</v>
+      </c>
+      <c r="P3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$P$1))"),"+導入")</f>
+        <v>+導入</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$C$1))"),"+ Neu erstellen")</f>
+        <v>+ Neu erstellen</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$D$1))"),"+ Crear nuevo")</f>
+        <v>+ Crear nuevo</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$E$1))"),"+ Créer nouveau")</f>
+        <v>+ Créer nouveau</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$F$1))"),"+ Buat baru")</f>
+        <v>+ Buat baru</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$G$1))"),"+ Crea nuovo")</f>
+        <v>+ Crea nuovo</v>
+      </c>
+      <c r="H4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$H$1))"),"+新規を作成します")</f>
+        <v>+新規を作成します</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$I$1))"),"+ 새 생성")</f>
+        <v>+ 새 생성</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$J$1))"),"+ Crie novo")</f>
+        <v>+ Crie novo</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$K$1))"),"+ Создать новый")</f>
+        <v>+ Создать новый</v>
+      </c>
+      <c r="L4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$L$1))"),"+ สร้างใหม่")</f>
+        <v>+ สร้างใหม่</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$M$1))"),"+ Yeni Oluştur")</f>
+        <v>+ Yeni Oluştur</v>
+      </c>
+      <c r="N4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$N$1))"),"+ Tạo mới")</f>
+        <v>+ Tạo mới</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$O$1))"),"+创建新的")</f>
+        <v>+创建新的</v>
+      </c>
+      <c r="P4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$P$1))"),"+創建新的")</f>
+        <v>+創建新的</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$C$1))"),"Klicken oder ziehen Sie Datei in diesen Bereich, um hochzuladen")</f>
+        <v>Klicken oder ziehen Sie Datei in diesen Bereich, um hochzuladen</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$D$1))"),"Haga clic o arrastre el archivo a esta área para cargar")</f>
+        <v>Haga clic o arrastre el archivo a esta área para cargar</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$E$1))"),"Cliquez sur ou faites glisser le fichier vers cette zone pour télécharger")</f>
+        <v>Cliquez sur ou faites glisser le fichier vers cette zone pour télécharger</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$F$1))"),"Klik atau seret file ke area ini untuk diunggah")</f>
+        <v>Klik atau seret file ke area ini untuk diunggah</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$G$1))"),"Fare clic o trascinare il file in quest'area per caricare")</f>
+        <v>Fare clic o trascinare il file in quest'area per caricare</v>
+      </c>
+      <c r="H5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$H$1))"),"[ファイル]をクリックまたはドラッグこの領域にアップロードします")</f>
+        <v>[ファイル]をクリックまたはドラッグこの領域にアップロードします</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$I$1))"),"이 영역으로 파일을 클릭하거나 드래그하여 업로드하십시오")</f>
+        <v>이 영역으로 파일을 클릭하거나 드래그하여 업로드하십시오</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$J$1))"),"Clique ou arraste o arquivo para esta área para fazer upload")</f>
+        <v>Clique ou arraste o arquivo para esta área para fazer upload</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$K$1))"),"Нажмите или перетащите файл в эту область, чтобы загрузить")</f>
+        <v>Нажмите или перетащите файл в эту область, чтобы загрузить</v>
+      </c>
+      <c r="L5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$L$1))"),"คลิกหรือลากไฟล์ไปยังพื้นที่นี้เพื่ออัปโหลด")</f>
+        <v>คลิกหรือลากไฟล์ไปยังพื้นที่นี้เพื่ออัปโหลด</v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$M$1))"),"Yüklemek için bu alana dosyayı tıklayın veya sürükleyin")</f>
+        <v>Yüklemek için bu alana dosyayı tıklayın veya sürükleyin</v>
+      </c>
+      <c r="N5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$N$1))"),"Nhấp hoặc kéo tệp đến khu vực này để tải lên")</f>
+        <v>Nhấp hoặc kéo tệp đến khu vực này để tải lên</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$O$1))"),"单击或将文件拖到此区域上传")</f>
+        <v>单击或将文件拖到此区域上传</v>
+      </c>
+      <c r="P5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$P$1))"),"單擊或將文件拖到此區域上傳")</f>
+        <v>單擊或將文件拖到此區域上傳</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
         <v>99</v>
       </c>
+      <c r="B6" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$C$1))"),"Lebenslauf importieren")</f>
+        <v>Lebenslauf importieren</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$D$1))"),"Currículum de importación")</f>
+        <v>Currículum de importación</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$E$1))"),"CV IMPORT")</f>
+        <v>CV IMPORT</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$F$1))"),"Impor resume")</f>
+        <v>Impor resume</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$G$1))"),"Riprendi l'importazione")</f>
+        <v>Riprendi l'importazione</v>
+      </c>
+      <c r="H6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$H$1))"),"履歴書を輸入します")</f>
+        <v>履歴書を輸入します</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$I$1))"),"수입 이력서")</f>
+        <v>수입 이력서</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$J$1))"),"Importar currículo")</f>
+        <v>Importar currículo</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$K$1))"),"Импортировать резюме")</f>
+        <v>Импортировать резюме</v>
+      </c>
+      <c r="L6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$L$1))"),"นำเข้าเรซูเม่")</f>
+        <v>นำเข้าเรซูเม่</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$M$1))"),"İthalat Özgeçmişi")</f>
+        <v>İthalat Özgeçmişi</v>
+      </c>
+      <c r="N6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$N$1))"),"Nhập sơ yếu lý lịch")</f>
+        <v>Nhập sơ yếu lý lịch</v>
+      </c>
+      <c r="O6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$O$1))"),"导入简历")</f>
+        <v>导入简历</v>
+      </c>
+      <c r="P6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$P$1))"),"導入簡歷")</f>
+        <v>導入簡歷</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$C$1))"),"Bearbeiten")</f>
+        <v>Bearbeiten</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$D$1))"),"Editar")</f>
+        <v>Editar</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$E$1))"),"Modifier")</f>
+        <v>Modifier</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$F$1))"),"Edit")</f>
+        <v>Edit</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$G$1))"),"Modificare")</f>
+        <v>Modificare</v>
+      </c>
+      <c r="H7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$H$1))"),"編集")</f>
+        <v>編集</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$I$1))"),"편집하다")</f>
+        <v>편집하다</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$J$1))"),"Editar")</f>
+        <v>Editar</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$K$1))"),"Редактировать")</f>
+        <v>Редактировать</v>
+      </c>
+      <c r="L7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$L$1))"),"แก้ไข")</f>
+        <v>แก้ไข</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$M$1))"),"Düzenlemek")</f>
+        <v>Düzenlemek</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$O$1))"),"编辑")</f>
+        <v>编辑</v>
+      </c>
+      <c r="P7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$P$1))"),"編輯")</f>
+        <v>編輯</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$C$1))"),"Duplikat")</f>
+        <v>Duplikat</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$D$1))"),"Duplicar")</f>
+        <v>Duplicar</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$E$1))"),"Dupliquer")</f>
+        <v>Dupliquer</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$F$1))"),"Duplikat")</f>
+        <v>Duplikat</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$G$1))"),"Duplicare")</f>
+        <v>Duplicare</v>
+      </c>
+      <c r="H8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$H$1))"),"複製")</f>
+        <v>複製</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$I$1))"),"복제하다")</f>
+        <v>복제하다</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$J$1))"),"Duplicado")</f>
+        <v>Duplicado</v>
+      </c>
+      <c r="K8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$K$1))"),"Дублировать")</f>
+        <v>Дублировать</v>
+      </c>
+      <c r="L8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$L$1))"),"ทำซ้ำ")</f>
+        <v>ทำซ้ำ</v>
+      </c>
+      <c r="M8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$M$1))"),"Kopyalamak")</f>
+        <v>Kopyalamak</v>
+      </c>
+      <c r="N8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$N$1))"),"Nhân bản")</f>
+        <v>Nhân bản</v>
+      </c>
+      <c r="O8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$O$1))"),"复制")</f>
+        <v>复制</v>
+      </c>
+      <c r="P8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$P$1))"),"複製")</f>
+        <v>複製</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$C$1))"),"Löschen")</f>
+        <v>Löschen</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$D$1))"),"Borrar")</f>
+        <v>Borrar</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$E$1))"),"Supprimer")</f>
+        <v>Supprimer</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$F$1))"),"Menghapus")</f>
+        <v>Menghapus</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$G$1))"),"Eliminare")</f>
+        <v>Eliminare</v>
+      </c>
+      <c r="H9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$H$1))"),"消去")</f>
+        <v>消去</v>
+      </c>
+      <c r="I9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$I$1))"),"삭제")</f>
+        <v>삭제</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$J$1))"),"Excluir")</f>
+        <v>Excluir</v>
+      </c>
+      <c r="K9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$K$1))"),"Удалить")</f>
+        <v>Удалить</v>
+      </c>
+      <c r="L9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$L$1))"),"ลบ")</f>
+        <v>ลบ</v>
+      </c>
+      <c r="M9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$M$1))"),"Silmek")</f>
+        <v>Silmek</v>
+      </c>
+      <c r="N9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$N$1))"),"Xóa bỏ")</f>
+        <v>Xóa bỏ</v>
+      </c>
+      <c r="O9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$O$1))"),"删除")</f>
+        <v>删除</v>
+      </c>
+      <c r="P9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$P$1))"),"刪除")</f>
+        <v>刪除</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$C$1))"),"Löschen")</f>
+        <v>Löschen</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$D$1))"),"Borrar")</f>
+        <v>Borrar</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$E$1))"),"Supprimer")</f>
+        <v>Supprimer</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$F$1))"),"Menghapus")</f>
+        <v>Menghapus</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$G$1))"),"Eliminare")</f>
+        <v>Eliminare</v>
+      </c>
+      <c r="H10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$H$1))"),"消去")</f>
+        <v>消去</v>
+      </c>
+      <c r="I10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$I$1))"),"삭제")</f>
+        <v>삭제</v>
+      </c>
+      <c r="J10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$J$1))"),"Excluir")</f>
+        <v>Excluir</v>
+      </c>
+      <c r="K10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$K$1))"),"Удалить")</f>
+        <v>Удалить</v>
+      </c>
+      <c r="L10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$L$1))"),"ลบ")</f>
+        <v>ลบ</v>
+      </c>
+      <c r="M10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$M$1))"),"Silmek")</f>
+        <v>Silmek</v>
+      </c>
+      <c r="N10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$N$1))"),"Xóa bỏ")</f>
+        <v>Xóa bỏ</v>
+      </c>
+      <c r="O10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$O$1))"),"删除")</f>
+        <v>删除</v>
+      </c>
+      <c r="P10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$P$1))"),"刪除")</f>
+        <v>刪除</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$C$1))"),"Stornieren")</f>
+        <v>Stornieren</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$D$1))"),"Cancelar")</f>
+        <v>Cancelar</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$E$1))"),"Annuler")</f>
+        <v>Annuler</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$F$1))"),"Membatalkan")</f>
+        <v>Membatalkan</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$G$1))"),"Annulla")</f>
+        <v>Annulla</v>
+      </c>
+      <c r="H11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$H$1))"),"キャンセル")</f>
+        <v>キャンセル</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$I$1))"),"취소")</f>
+        <v>취소</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$J$1))"),"Cancelar")</f>
+        <v>Cancelar</v>
+      </c>
+      <c r="K11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$K$1))"),"Отмена")</f>
+        <v>Отмена</v>
+      </c>
+      <c r="L11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$L$1))"),"ยกเลิก")</f>
+        <v>ยกเลิก</v>
+      </c>
+      <c r="M11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$M$1))"),"İptal etmek")</f>
+        <v>İptal etmek</v>
+      </c>
+      <c r="N11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$N$1))"),"Hủy bỏ")</f>
+        <v>Hủy bỏ</v>
+      </c>
+      <c r="O11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$O$1))"),"取消")</f>
+        <v>取消</v>
+      </c>
+      <c r="P11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$P$1))"),"取消")</f>
+        <v>取消</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$C$1))"),"OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$D$1))"),"DE ACUERDO")</f>
+        <v>DE ACUERDO</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$E$1))"),"D'ACCORD")</f>
+        <v>D'ACCORD</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$F$1))"),"OKE")</f>
+        <v>OKE</v>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$G$1))"),"OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="H12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$H$1))"),"OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="I12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$I$1))"),"좋아요")</f>
+        <v>좋아요</v>
+      </c>
+      <c r="J12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$J$1))"),"OK")</f>
+        <v>OK</v>
+      </c>
+      <c r="K12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$K$1))"),"ХОРОШО")</f>
+        <v>ХОРОШО</v>
+      </c>
+      <c r="L12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$L$1))"),"ตกลง")</f>
+        <v>ตกลง</v>
+      </c>
+      <c r="M12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$M$1))"),"TAMAM")</f>
+        <v>TAMAM</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="O12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$O$1))"),"好的")</f>
+        <v>好的</v>
+      </c>
+      <c r="P12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$P$1))"),"好的")</f>
+        <v>好的</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$C$1))"),"Lebenslauf löschen")</f>
+        <v>Lebenslauf löschen</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$D$1))"),"Eliminar currículum")</f>
+        <v>Eliminar currículum</v>
+      </c>
+      <c r="E13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$E$1))"),"Supprimer le CV")</f>
+        <v>Supprimer le CV</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$F$1))"),"Hapus resume")</f>
+        <v>Hapus resume</v>
+      </c>
+      <c r="G13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$G$1))"),"Elimina il curriculum")</f>
+        <v>Elimina il curriculum</v>
+      </c>
+      <c r="H13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$H$1))"),"履歴書を削除します")</f>
+        <v>履歴書を削除します</v>
+      </c>
+      <c r="I13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$I$1))"),"이력서 삭제")</f>
+        <v>이력서 삭제</v>
+      </c>
+      <c r="J13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$J$1))"),"Exclua currículo")</f>
+        <v>Exclua currículo</v>
+      </c>
+      <c r="K13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$K$1))"),"Удалить резюме")</f>
+        <v>Удалить резюме</v>
+      </c>
+      <c r="L13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$L$1))"),"ลบเรซูเม่")</f>
+        <v>ลบเรซูเม่</v>
+      </c>
+      <c r="M13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$M$1))"),"Özgeçmişi Sil")</f>
+        <v>Özgeçmişi Sil</v>
+      </c>
+      <c r="N13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$N$1))"),"Xóa sơ yếu lý lịch")</f>
+        <v>Xóa sơ yếu lý lịch</v>
+      </c>
+      <c r="O13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$O$1))"),"删除简历")</f>
+        <v>删除简历</v>
+      </c>
+      <c r="P13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$P$1))"),"刪除簡歷")</f>
+        <v>刪除簡歷</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$C$1))"),"Sind Sie sicher, dass Sie diesen Lebenslauf löschen möchten?")</f>
+        <v>Sind Sie sicher, dass Sie diesen Lebenslauf löschen möchten?</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$D$1))"),"¿Estás seguro de que quieres eliminar este currículum?")</f>
+        <v>¿Estás seguro de que quieres eliminar este currículum?</v>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$E$1))"),"Êtes-vous sûr de vouloir supprimer ce curriculum vitae?")</f>
+        <v>Êtes-vous sûr de vouloir supprimer ce curriculum vitae?</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$F$1))"),"Apakah Anda yakin ingin menghapus resume ini?")</f>
+        <v>Apakah Anda yakin ingin menghapus resume ini?</v>
+      </c>
+      <c r="G14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$G$1))"),"Sei sicuro di voler eliminare questo curriculum?")</f>
+        <v>Sei sicuro di voler eliminare questo curriculum?</v>
+      </c>
+      <c r="H14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$H$1))"),"この履歴書を削除したいですか？")</f>
+        <v>この履歴書を削除したいですか？</v>
+      </c>
+      <c r="I14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$I$1))"),"이 이력서를 삭제 하시겠습니까?")</f>
+        <v>이 이력서를 삭제 하시겠습니까?</v>
+      </c>
+      <c r="J14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$J$1))"),"Tem certeza de que deseja excluir este currículo?")</f>
+        <v>Tem certeza de que deseja excluir este currículo?</v>
+      </c>
+      <c r="K14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$K$1))"),"Вы уверены, что хотите удалить это резюме?")</f>
+        <v>Вы уверены, что хотите удалить это резюме?</v>
+      </c>
+      <c r="L14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$L$1))"),"แน่ใจหรือว่าต้องการลบประวัติย่อนี้?")</f>
+        <v>แน่ใจหรือว่าต้องการลบประวัติย่อนี้?</v>
+      </c>
+      <c r="M14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$M$1))"),"Bu özgeçmişi silmek istediğinden emin misiniz?")</f>
+        <v>Bu özgeçmişi silmek istediğinden emin misiniz?</v>
+      </c>
+      <c r="N14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$N$1))"),"Bạn có chắc là bạn muốn xóa sơ yếu lý lịch này?")</f>
+        <v>Bạn có chắc là bạn muốn xóa sơ yếu lý lịch này?</v>
+      </c>
+      <c r="O14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$O$1))"),"您确定要删除此简历吗？")</f>
+        <v>您确定要删除此简历吗？</v>
+      </c>
+      <c r="P14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$P$1))"),"您確定要刪除此簡歷嗎？")</f>
+        <v>您確定要刪除此簡歷嗎？</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$C$1))"),"Hergestellt in")</f>
+        <v>Hergestellt in</v>
+      </c>
+      <c r="D15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$D$1))"),"Creado en")</f>
+        <v>Creado en</v>
+      </c>
+      <c r="E15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$E$1))"),"Créé à")</f>
+        <v>Créé à</v>
+      </c>
+      <c r="F15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$F$1))"),"Dibuat di")</f>
+        <v>Dibuat di</v>
+      </c>
+      <c r="G15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$G$1))"),"Creato a")</f>
+        <v>Creato a</v>
+      </c>
+      <c r="H15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$H$1))"),"で作成されました")</f>
+        <v>で作成されました</v>
+      </c>
+      <c r="I15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$I$1))"),"만들어졌습니다")</f>
+        <v>만들어졌습니다</v>
+      </c>
+      <c r="J15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$J$1))"),"Criado em")</f>
+        <v>Criado em</v>
+      </c>
+      <c r="K15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$K$1))"),"Создан в")</f>
+        <v>Создан в</v>
+      </c>
+      <c r="L15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$L$1))"),"สร้างขึ้นที่")</f>
+        <v>สร้างขึ้นที่</v>
+      </c>
+      <c r="M15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$M$1))"),"Yaratılmış")</f>
+        <v>Yaratılmış</v>
+      </c>
+      <c r="N15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$N$1))"),"Được tạo ra tại")</f>
+        <v>Được tạo ra tại</v>
+      </c>
+      <c r="O15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$O$1))"),"创建在")</f>
+        <v>创建在</v>
+      </c>
+      <c r="P15" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$P$1))"),"創建在")</f>
+        <v>創建在</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$C$1))"),"Aktualisiert am")</f>
+        <v>Aktualisiert am</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$D$1))"),"Actualizado en")</f>
+        <v>Actualizado en</v>
+      </c>
+      <c r="E16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$E$1))"),"Mis à jour à")</f>
+        <v>Mis à jour à</v>
+      </c>
+      <c r="F16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$F$1))"),"Diperbarui di")</f>
+        <v>Diperbarui di</v>
+      </c>
+      <c r="G16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$G$1))"),"Aggiornato a")</f>
+        <v>Aggiornato a</v>
+      </c>
+      <c r="H16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$H$1))"),"で更新されました")</f>
+        <v>で更新されました</v>
+      </c>
+      <c r="I16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$I$1))"),"업데이트")</f>
+        <v>업데이트</v>
+      </c>
+      <c r="J16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$J$1))"),"Atualizado em")</f>
+        <v>Atualizado em</v>
+      </c>
+      <c r="K16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$K$1))"),"Обновлено в")</f>
+        <v>Обновлено в</v>
+      </c>
+      <c r="L16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$L$1))"),"อัปเดตที่")</f>
+        <v>อัปเดตที่</v>
+      </c>
+      <c r="M16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$M$1))"),"Güncellendi")</f>
+        <v>Güncellendi</v>
+      </c>
+      <c r="N16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$N$1))"),"Cập nhật tại")</f>
+        <v>Cập nhật tại</v>
+      </c>
+      <c r="O16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$O$1))"),"更新在")</f>
+        <v>更新在</v>
+      </c>
+      <c r="P16" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$P$1))"),"更新在")</f>
+        <v>更新在</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$C$1))"),"Erstellen Sie Neue mit persönlichen Details")</f>
+        <v>Erstellen Sie Neue mit persönlichen Details</v>
+      </c>
+      <c r="D17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$D$1))"),"Crear nuevo con detalles personales")</f>
+        <v>Crear nuevo con detalles personales</v>
+      </c>
+      <c r="E17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$E$1))"),"Créer nouveau avec des détails personnels")</f>
+        <v>Créer nouveau avec des détails personnels</v>
+      </c>
+      <c r="F17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$F$1))"),"Buat BARU DENGAN Detail Pribadi")</f>
+        <v>Buat BARU DENGAN Detail Pribadi</v>
+      </c>
+      <c r="G17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$G$1))"),"Crea nuovo con i dettagli personali")</f>
+        <v>Crea nuovo con i dettagli personali</v>
+      </c>
+      <c r="H17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$H$1))"),"個人的な詳細を備えた新規を作成します")</f>
+        <v>個人的な詳細を備えた新規を作成します</v>
+      </c>
+      <c r="I17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$I$1))"),"개인 정보로 새로 창출하십시오")</f>
+        <v>개인 정보로 새로 창출하십시오</v>
+      </c>
+      <c r="J17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$J$1))"),"Crie novo com detalhes pessoais")</f>
+        <v>Crie novo com detalhes pessoais</v>
+      </c>
+      <c r="K17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$K$1))"),"Создать новое с личными данными")</f>
+        <v>Создать новое с личными данными</v>
+      </c>
+      <c r="L17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$L$1))"),"สร้างใหม่พร้อมรายละเอียดส่วนบุคคล")</f>
+        <v>สร้างใหม่พร้อมรายละเอียดส่วนบุคคล</v>
+      </c>
+      <c r="M17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$M$1))"),"Kişisel Ayrıntılarla Yeni Oluşturun")</f>
+        <v>Kişisel Ayrıntılarla Yeni Oluşturun</v>
+      </c>
+      <c r="N17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$N$1))"),"Tạo mới với chi tiết cá nhân")</f>
+        <v>Tạo mới với chi tiết cá nhân</v>
+      </c>
+      <c r="O17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$O$1))"),"创建新的个人详细信息")</f>
+        <v>创建新的个人详细信息</v>
+      </c>
+      <c r="P17" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$P$1))"),"創建新的個人詳細信息")</f>
+        <v>創建新的個人詳細信息</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>123</v>
+      </c>
       <c r="B2" s="4" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$C$1))"),"Wollte Berufsbezeichnung")</f>
@@ -23761,8 +25070,8 @@
         <v>Título do trabalho queria</v>
       </c>
       <c r="K2" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$K$1))"),"Разыскивается должность")</f>
-        <v>Разыскивается должность</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$K$1))"),"Разыскивается название работы")</f>
+        <v>Разыскивается название работы</v>
       </c>
       <c r="L2" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$L$1))"),"ต้องการตำแหน่งงาน")</f>
@@ -23773,7 +25082,7 @@
         <v>Aranan iş unvanı</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="O2" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$O$1))"),"想要职位")</f>
@@ -23786,10 +25095,10 @@
     </row>
     <row r="3">
       <c r="A3" s="5" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="C3" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$C$1))"),"Vorname")</f>
@@ -23836,7 +25145,7 @@
         <v>İlk adı</v>
       </c>
       <c r="N3" s="8" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="O3" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$O$1))"),"名")</f>
@@ -23849,10 +25158,10 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="C4" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$C$1))"),"Familienname, Nachname")</f>
@@ -23913,10 +25222,10 @@
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="C5" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$C$1))"),"Email")</f>
@@ -23977,10 +25286,10 @@
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="C6" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$C$1))"),"Telefon")</f>
@@ -24041,10 +25350,10 @@
     </row>
     <row r="7">
       <c r="A7" s="5" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="C7" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$C$1))"),"Land")</f>
@@ -24105,10 +25414,10 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="C8" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$C$1))"),"Stadt")</f>
@@ -24169,10 +25478,10 @@
     </row>
     <row r="9">
       <c r="A9" s="5" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="C9" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$C$1))"),"Adresse")</f>
@@ -24233,10 +25542,10 @@
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>118</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$C$1))"),"Postleitzahl")</f>
@@ -24297,10 +25606,10 @@
     </row>
     <row r="11">
       <c r="A11" s="5" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$C$1))"),"Fahrerlaubnis")</f>
@@ -24361,10 +25670,10 @@
     </row>
     <row r="12">
       <c r="A12" s="5" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>122</v>
+        <v>146</v>
       </c>
       <c r="C12" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$C$1))"),"Staatsangehörigkeit")</f>
@@ -24425,10 +25734,10 @@
     </row>
     <row r="13">
       <c r="A13" s="5" t="s">
-        <v>123</v>
+        <v>147</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>124</v>
+        <v>148</v>
       </c>
       <c r="C13" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$C$1))"),"Geburtsort")</f>
@@ -24489,10 +25798,10 @@
     </row>
     <row r="14">
       <c r="A14" s="5" t="s">
-        <v>125</v>
+        <v>149</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="C14" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$C$1))"),"Geburtsdatum")</f>
@@ -24553,10 +25862,10 @@
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>128</v>
+        <v>152</v>
       </c>
       <c r="C15" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B15,$B$1,$C$1))"),"Weitere Details bearbeiten")</f>
@@ -24617,10 +25926,10 @@
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>129</v>
+        <v>153</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>130</v>
+        <v>154</v>
       </c>
       <c r="C16" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B16,$B$1,$C$1))"),"Weitere Details verbergen")</f>
@@ -24681,10 +25990,10 @@
     </row>
     <row r="17">
       <c r="A17" s="5" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="C17" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$C$1))"),"Schreiben Sie 2-4 kurze und energische Sätze, um den Leser zu interessieren! Erwähnen Sie Ihre Rolle, Erfahrung und am wichtigsten - Ihre größten Errungenschaften, besten Qualitäten und Fähigkeiten.")</f>
@@ -24731,7 +26040,7 @@
         <v>Okuyucuyu ilgilendirmek için 2-4 kısa ve enerjik cümle yazın! Rolünüzden, deneyiminizden ve en önemlisi - en büyük başarılarınız, en iyi nitelikleriniz ve becerilerinizden bahsedin.</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="O17" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B17,$B$1,$O$1))"),"写2-4个简短且充满活力的句子，以使读者感兴趣！提及您的角色，经验，最重要的是 - 您的最大成就，最佳素质和技能。")</f>
@@ -24744,14 +26053,14 @@
     </row>
     <row r="18">
       <c r="A18" s="5" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>135</v>
+        <v>159</v>
       </c>
       <c r="C18" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B18,$B$1,$C$1))"),"Zeigen Sie Ihre relevante Erfahrung (letzten 10 Jahre). Verwenden Sie Aufzählungszeichen, um Ihre Erfolge nach Möglichkeit zu beachten. Verwenden Sie Nummern/Fakten (erreicht x, gemessen durch y, indem Sie Z durchführen).")</f>
-        <v>Zeigen Sie Ihre relevante Erfahrung (letzten 10 Jahre). Verwenden Sie Aufzählungszeichen, um Ihre Erfolge nach Möglichkeit zu beachten. Verwenden Sie Nummern/Fakten (erreicht x, gemessen durch y, indem Sie Z durchführen).</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B18,$B$1,$C$1))"),"Zeigen Sie Ihre relevante Erfahrung (letzten 10 Jahre). Verwenden Sie Aufzählungszeichen, um Ihre Erfolge nach Möglichkeit zu beachten. Verwenden Sie Zahlen/Fakten (erreicht x, gemessen mit y, indem Sie Z durchführen).")</f>
+        <v>Zeigen Sie Ihre relevante Erfahrung (letzten 10 Jahre). Verwenden Sie Aufzählungszeichen, um Ihre Erfolge nach Möglichkeit zu beachten. Verwenden Sie Zahlen/Fakten (erreicht x, gemessen mit y, indem Sie Z durchführen).</v>
       </c>
       <c r="D18" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B18,$B$1,$D$1))"),"Muestre su experiencia relevante (los últimos 10 años). Use puntos de bala para anotar sus logros, si es posible: use números/hechos (logrados x, medidos por y, haciendo z).")</f>
@@ -24770,28 +26079,28 @@
         <v>Mostra la tua esperienza pertinente (ultimi 10 anni). Usa i punti elenco per notare i risultati, se possibile: utilizzare numeri/fatti (raggiunto x, misurato da y, facendo z).</v>
       </c>
       <c r="H18" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B18,$B$1,$H$1))"),"関連する経験を示します（過去10年間）。箇条書きを使用して、可能であれば成果に注意してください - 数字/ファクトを使用します（Z、Yで測定し、Zを実行することで測定）。")</f>
-        <v>関連する経験を示します（過去10年間）。箇条書きを使用して、可能であれば成果に注意してください - 数字/ファクトを使用します（Z、Yで測定し、Zを実行することで測定）。</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B18,$B$1,$H$1))"),"関連する経験を示します（過去10年間）。箇条書きを使用して、可能であれば、成果に注意してください - 数字/事実を使用します（Z、Yで測定し、Zを実行することで測定）。")</f>
+        <v>関連する経験を示します（過去10年間）。箇条書きを使用して、可能であれば、成果に注意してください - 数字/事実を使用します（Z、Yで測定し、Zを実行することで測定）。</v>
       </c>
       <c r="I18" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B18,$B$1,$I$1))"),"관련 경험을 보여주십시오 (지난 10 년). 총알 포인트를 사용하여 가능한 경우 성과를 기록하십시오 (숫자/사실을 사용하여 Z로 측정).")</f>
-        <v>관련 경험을 보여주십시오 (지난 10 년). 총알 포인트를 사용하여 가능한 경우 성과를 기록하십시오 (숫자/사실을 사용하여 Z로 측정).</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B18,$B$1,$I$1))"),"관련 경험을 보여주십시오 (지난 10 년). 총알 포인트를 사용하여 가능한 경우 성과를 기록하십시오. 숫자/사실을 사용하십시오 (x로 측정 한 x, z로 측정).")</f>
+        <v>관련 경험을 보여주십시오 (지난 10 년). 총알 포인트를 사용하여 가능한 경우 성과를 기록하십시오. 숫자/사실을 사용하십시오 (x로 측정 한 x, z로 측정).</v>
       </c>
       <c r="J18" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B18,$B$1,$J$1))"),"Mostre sua experiência relevante (últimos 10 anos). Use pontos de bala para observar suas realizações, se possível - use números/fatos (alcançado x, medido por y, fazendo z).")</f>
         <v>Mostre sua experiência relevante (últimos 10 anos). Use pontos de bala para observar suas realizações, se possível - use números/fatos (alcançado x, medido por y, fazendo z).</v>
       </c>
       <c r="K18" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B18,$B$1,$K$1))"),"Покажите свой соответствующий опыт (последние 10 лет). Используйте пули, чтобы отметить свои достижения, если это возможно - используйте числа/факты (достигнутые x, измеренные с помощью y, выполнив z).")</f>
-        <v>Покажите свой соответствующий опыт (последние 10 лет). Используйте пули, чтобы отметить свои достижения, если это возможно - используйте числа/факты (достигнутые x, измеренные с помощью y, выполнив z).</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B18,$B$1,$K$1))"),"Покажите свой соответствующий опыт (последние 10 лет). Используйте пули, чтобы отметить свои достижения, если это возможно - используйте числа/факты (достигнутые x, измеренные с помощью Y, выполнив z).")</f>
+        <v>Покажите свой соответствующий опыт (последние 10 лет). Используйте пули, чтобы отметить свои достижения, если это возможно - используйте числа/факты (достигнутые x, измеренные с помощью Y, выполнив z).</v>
       </c>
       <c r="L18" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B18,$B$1,$L$1))"),"แสดงประสบการณ์ที่เกี่ยวข้องของคุณ (10 ปีที่ผ่านมา) ใช้สัญลักษณ์แสดงหัวข้อย่อยเพื่อจดบันทึกความสำเร็จของคุณถ้าเป็นไปได้ - ใช้ตัวเลข/ข้อเท็จจริง (ทำได้ X, วัดโดย Y โดยทำ Z)")</f>
         <v>แสดงประสบการณ์ที่เกี่ยวข้องของคุณ (10 ปีที่ผ่านมา) ใช้สัญลักษณ์แสดงหัวข้อย่อยเพื่อจดบันทึกความสำเร็จของคุณถ้าเป็นไปได้ - ใช้ตัวเลข/ข้อเท็จจริง (ทำได้ X, วัดโดย Y โดยทำ Z)</v>
       </c>
       <c r="M18" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B18,$B$1,$M$1))"),"İlgili deneyiminizi gösterin (son 10 yıl). Mümkünse başarılarınızı not etmek için mermi noktalarını kullanın - sayıları/gerçekleri kullanın (Z ile ölçülen x, Z yaparak).")</f>
-        <v>İlgili deneyiminizi gösterin (son 10 yıl). Mümkünse başarılarınızı not etmek için mermi noktalarını kullanın - sayıları/gerçekleri kullanın (Z ile ölçülen x, Z yaparak).</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B18,$B$1,$M$1))"),"İlgili deneyiminizi gösterin (son 10 yıl). Mümkünse başarılarınızı not etmek için mermi noktalarını kullanın - sayıları/gerçekleri kullanın (x, y ile ölçülen, z yaparak).")</f>
+        <v>İlgili deneyiminizi gösterin (son 10 yıl). Mümkünse başarılarınızı not etmek için mermi noktalarını kullanın - sayıları/gerçekleri kullanın (x, y ile ölçülen, z yaparak).</v>
       </c>
       <c r="N18" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B18,$B$1,$N$1))"),"Hiển thị kinh nghiệm có liên quan của bạn (10 năm qua). Sử dụng các điểm cao để lưu ý thành tích của bạn, nếu có thể - sử dụng số/sự kiện (đạt được x, được đo bằng y, bằng cách thực hiện z).")</f>
@@ -24808,10 +26117,10 @@
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>136</v>
+        <v>160</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="C19" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B19,$B$1,$C$1))"),"Eine abwechslungsreiche Ausbildung in Ihrem Lebenslauf fasst den Wert zusammen, den Ihre Erkenntnisse und Ihr Hintergrund für den Job bringen werden.")</f>
@@ -24872,10 +26181,10 @@
     </row>
     <row r="20">
       <c r="A20" s="5" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>139</v>
+        <v>163</v>
       </c>
       <c r="C20" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B20,$B$1,$C$1))"),"Sie können Links zu Websites hinzufügen, die Einstellungsmanager sehen sollen! Möglicherweise handelt es sich um einen Link zu Ihrem Portfolio, Ihrem LinkedIn -Profil oder Ihrem persönlichen Website.")</f>
@@ -24936,10 +26245,10 @@
     </row>
     <row r="21">
       <c r="A21" s="5" t="s">
-        <v>140</v>
+        <v>164</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>141</v>
+        <v>165</v>
       </c>
       <c r="C21" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B21,$B$1,$C$1))"),"Wählen Sie 5 der wichtigsten Fähigkeiten, um Ihre Talente zu zeigen! Stellen Sie sicher, dass sie die Schlüsselwörter der Jobliste entsprechen, wenn sie sich über ein Online -System bewerben.")</f>
@@ -25000,10 +26309,10 @@
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="C22" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B22,$B$1,$C$1))"),"Berufsbezeichnung")</f>
@@ -25064,10 +26373,10 @@
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="C23" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B23,$B$1,$C$1))"),"Arbeitgeber")</f>
@@ -25128,10 +26437,10 @@
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="C24" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B24,$B$1,$C$1))"),"Startdatum")</f>
@@ -25192,10 +26501,10 @@
     </row>
     <row r="25">
       <c r="A25" s="5" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="C25" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B25,$B$1,$C$1))"),"Endtermin")</f>
@@ -25242,7 +26551,7 @@
         <v>Bitiş tarihi</v>
       </c>
       <c r="N25" s="8" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="O25" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B25,$B$1,$O$1))"),"结束日期")</f>
@@ -25255,10 +26564,10 @@
     </row>
     <row r="26">
       <c r="A26" s="5" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="C26" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B26,$B$1,$C$1))"),"Beschreibung")</f>
@@ -25305,7 +26614,7 @@
         <v>Tanım</v>
       </c>
       <c r="N26" s="8" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="O26" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B26,$B$1,$O$1))"),"描述")</f>
@@ -25318,10 +26627,10 @@
     </row>
     <row r="27">
       <c r="A27" s="5" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="C27" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B27,$B$1,$C$1))"),"Schule")</f>
@@ -25382,10 +26691,10 @@
     </row>
     <row r="28">
       <c r="A28" s="5" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="C28" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B28,$B$1,$C$1))"),"Grad")</f>
@@ -25446,10 +26755,10 @@
     </row>
     <row r="29">
       <c r="A29" s="5" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="C29" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B29,$B$1,$C$1))"),"Etikett")</f>
@@ -25510,10 +26819,10 @@
     </row>
     <row r="30">
       <c r="A30" s="5" t="s">
-        <v>160</v>
+        <v>184</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>161</v>
+        <v>185</v>
       </c>
       <c r="C30" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B30,$B$1,$C$1))"),"Verknüpfung")</f>
@@ -25574,10 +26883,10 @@
     </row>
     <row r="31">
       <c r="A31" s="5" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="C31" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B31,$B$1,$C$1))"),"Fähigkeiten")</f>
@@ -25638,10 +26947,10 @@
     </row>
     <row r="32">
       <c r="A32" s="5" t="s">
-        <v>164</v>
+        <v>188</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>165</v>
+        <v>189</v>
       </c>
       <c r="C32" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B32,$B$1,$C$1))"),"Eben")</f>
@@ -25702,10 +27011,10 @@
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="C33" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B33,$B$1,$C$1))"),"Anfänger")</f>
@@ -25752,7 +27061,7 @@
         <v>Acemi</v>
       </c>
       <c r="N33" s="8" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="O33" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B33,$B$1,$O$1))"),"新手")</f>
@@ -25765,10 +27074,10 @@
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="C34" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B34,$B$1,$C$1))"),"Anfänger")</f>
@@ -25829,10 +27138,10 @@
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>171</v>
+        <v>195</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>172</v>
+        <v>196</v>
       </c>
       <c r="C35" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B35,$B$1,$C$1))"),"Geschickt")</f>
@@ -25879,7 +27188,7 @@
         <v>Yetenekli</v>
       </c>
       <c r="N35" s="8" t="s">
-        <v>173</v>
+        <v>197</v>
       </c>
       <c r="O35" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B35,$B$1,$O$1))"),"熟练")</f>
@@ -25892,10 +27201,10 @@
     </row>
     <row r="36">
       <c r="A36" s="5" t="s">
-        <v>174</v>
+        <v>198</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="C36" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B36,$B$1,$C$1))"),"Erfahren")</f>
@@ -25942,7 +27251,7 @@
         <v>Tecrübeli</v>
       </c>
       <c r="N36" s="8" t="s">
-        <v>176</v>
+        <v>200</v>
       </c>
       <c r="O36" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B36,$B$1,$O$1))"),"有经验的")</f>
@@ -25955,10 +27264,10 @@
     </row>
     <row r="37">
       <c r="A37" s="5" t="s">
-        <v>177</v>
+        <v>201</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>178</v>
+        <v>202</v>
       </c>
       <c r="C37" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B37,$B$1,$C$1))"),"Experte")</f>
@@ -26019,14 +27328,14 @@
     </row>
     <row r="38">
       <c r="A38" s="5" t="s">
-        <v>179</v>
+        <v>203</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="C38" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B38,$B$1,$C$1))"),"Zeigen Sie keine Erfahrungsstufe")</f>
-        <v>Zeigen Sie keine Erfahrungsstufe</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B38,$B$1,$C$1))"),"Zeigen Sie keine Erfahrungsniveau")</f>
+        <v>Zeigen Sie keine Erfahrungsniveau</v>
       </c>
       <c r="D38" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B38,$B$1,$D$1))"),"No muestres el nivel de experiencia")</f>
@@ -26083,10 +27392,10 @@
     </row>
     <row r="39">
       <c r="A39" s="5" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="C39" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B39,$B$1,$C$1))"),"Nicht angegeben")</f>
@@ -26147,10 +27456,10 @@
     </row>
     <row r="40">
       <c r="A40" s="5" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="C40" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B40,$B$1,$C$1))"),"Fügen Sie noch eine Beschäftigung hinzu")</f>
@@ -26197,7 +27506,7 @@
         <v>Bir iş daha ekleyin</v>
       </c>
       <c r="N40" s="8" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="O40" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B40,$B$1,$O$1))"),"再增加一个工作")</f>
@@ -26210,10 +27519,10 @@
     </row>
     <row r="41">
       <c r="A41" s="5" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="C41" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B41,$B$1,$C$1))"),"Fügen Sie noch eine Ausbildung hinzu")</f>
@@ -26260,7 +27569,7 @@
         <v>Bir eğitim daha ekleyin</v>
       </c>
       <c r="N41" s="8" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="O41" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B41,$B$1,$O$1))"),"再增加一个教育")</f>
@@ -26273,14 +27582,14 @@
     </row>
     <row r="42">
       <c r="A42" s="5" t="s">
-        <v>189</v>
+        <v>213</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>190</v>
+        <v>214</v>
       </c>
       <c r="C42" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B42,$B$1,$C$1))"),"Fügen Sie noch einen Links hinzu")</f>
-        <v>Fügen Sie noch einen Links hinzu</v>
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B42,$B$1,$C$1))"),"Fügen Sie noch eine Links hinzu")</f>
+        <v>Fügen Sie noch eine Links hinzu</v>
       </c>
       <c r="D42" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B42,$B$1,$D$1))"),"Agregar un enlaces más")</f>
@@ -26337,10 +27646,10 @@
     </row>
     <row r="43">
       <c r="A43" s="5" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="C43" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B43,$B$1,$C$1))"),"Fügen Sie noch eine Fähigkeit hinzu")</f>
@@ -26401,10 +27710,10 @@
     </row>
     <row r="44">
       <c r="A44" s="5" t="s">
-        <v>193</v>
+        <v>217</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="C44" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B44,$B$1,$C$1))"),"Lebenslauf speichern")</f>
@@ -26464,79 +27773,1597 @@
       </c>
     </row>
     <row r="45">
-      <c r="B45" s="14"/>
+      <c r="A45" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B45,$B$1,$C$1))"),"Arbeitssuchend")</f>
+        <v>Arbeitssuchend</v>
+      </c>
+      <c r="D45" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B45,$B$1,$D$1))"),"Buscando trabajo")</f>
+        <v>Buscando trabajo</v>
+      </c>
+      <c r="E45" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B45,$B$1,$E$1))"),"Recherche de travail")</f>
+        <v>Recherche de travail</v>
+      </c>
+      <c r="F45" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B45,$B$1,$F$1))"),"Mencari pekerjaan")</f>
+        <v>Mencari pekerjaan</v>
+      </c>
+      <c r="G45" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B45,$B$1,$G$1))"),"Ricerca di lavoro")</f>
+        <v>Ricerca di lavoro</v>
+      </c>
+      <c r="H45" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B45,$B$1,$H$1))"),"求職")</f>
+        <v>求職</v>
+      </c>
+      <c r="I45" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B45,$B$1,$I$1))"),"구직")</f>
+        <v>구직</v>
+      </c>
+      <c r="J45" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B45,$B$1,$J$1))"),"Procura de emprego")</f>
+        <v>Procura de emprego</v>
+      </c>
+      <c r="K45" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B45,$B$1,$K$1))"),"Поиск работы")</f>
+        <v>Поиск работы</v>
+      </c>
+      <c r="L45" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B45,$B$1,$L$1))"),"การหางาน")</f>
+        <v>การหางาน</v>
+      </c>
+      <c r="M45" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B45,$B$1,$M$1))"),"İş arama")</f>
+        <v>İş arama</v>
+      </c>
+      <c r="N45" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B45,$B$1,$N$1))"),"Tìm việc")</f>
+        <v>Tìm việc</v>
+      </c>
+      <c r="O45" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B45,$B$1,$O$1))"),"找工作")</f>
+        <v>找工作</v>
+      </c>
+      <c r="P45" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B45,$B$1,$P$1))"),"找工作")</f>
+        <v>找工作</v>
+      </c>
     </row>
     <row r="46">
-      <c r="B46" s="14"/>
+      <c r="A46" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="C46" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B46,$B$1,$C$1))"),"Vorlage auswählen")</f>
+        <v>Vorlage auswählen</v>
+      </c>
+      <c r="D46" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B46,$B$1,$D$1))"),"Seleccionar plantilla")</f>
+        <v>Seleccionar plantilla</v>
+      </c>
+      <c r="E46" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B46,$B$1,$E$1))"),"Sélectionner le modèle")</f>
+        <v>Sélectionner le modèle</v>
+      </c>
+      <c r="F46" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B46,$B$1,$F$1))"),"Pilih template")</f>
+        <v>Pilih template</v>
+      </c>
+      <c r="G46" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B46,$B$1,$G$1))"),"Seleziona il modello")</f>
+        <v>Seleziona il modello</v>
+      </c>
+      <c r="H46" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B46,$B$1,$H$1))"),"テンプレートを選択します")</f>
+        <v>テンプレートを選択します</v>
+      </c>
+      <c r="I46" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B46,$B$1,$I$1))"),"템플릿을 선택하십시오")</f>
+        <v>템플릿을 선택하십시오</v>
+      </c>
+      <c r="J46" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B46,$B$1,$J$1))"),"Selecione modelo")</f>
+        <v>Selecione modelo</v>
+      </c>
+      <c r="K46" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B46,$B$1,$K$1))"),"Выберите шаблон")</f>
+        <v>Выберите шаблон</v>
+      </c>
+      <c r="L46" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B46,$B$1,$L$1))"),"เลือกเทมเพลต")</f>
+        <v>เลือกเทมเพลต</v>
+      </c>
+      <c r="M46" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B46,$B$1,$M$1))"),"Şablonu seçin")</f>
+        <v>Şablonu seçin</v>
+      </c>
+      <c r="N46" s="25" t="s">
+        <v>223</v>
+      </c>
+      <c r="O46" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B46,$B$1,$O$1))"),"选择模板")</f>
+        <v>选择模板</v>
+      </c>
+      <c r="P46" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B46,$B$1,$P$1))"),"選擇模板")</f>
+        <v>選擇模板</v>
+      </c>
     </row>
     <row r="47">
-      <c r="B47" s="14"/>
+      <c r="A47" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C47" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B47,$B$1,$C$1))"),"Herunterladen")</f>
+        <v>Herunterladen</v>
+      </c>
+      <c r="D47" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B47,$B$1,$D$1))"),"Descargar")</f>
+        <v>Descargar</v>
+      </c>
+      <c r="E47" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B47,$B$1,$E$1))"),"Télécharger")</f>
+        <v>Télécharger</v>
+      </c>
+      <c r="F47" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B47,$B$1,$F$1))"),"Unduh")</f>
+        <v>Unduh</v>
+      </c>
+      <c r="G47" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B47,$B$1,$G$1))"),"Scaricamento")</f>
+        <v>Scaricamento</v>
+      </c>
+      <c r="H47" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B47,$B$1,$H$1))"),"ダウンロード")</f>
+        <v>ダウンロード</v>
+      </c>
+      <c r="I47" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B47,$B$1,$I$1))"),"다운로드")</f>
+        <v>다운로드</v>
+      </c>
+      <c r="J47" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B47,$B$1,$J$1))"),"Download")</f>
+        <v>Download</v>
+      </c>
+      <c r="K47" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B47,$B$1,$K$1))"),"Скачать")</f>
+        <v>Скачать</v>
+      </c>
+      <c r="L47" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B47,$B$1,$L$1))"),"การดาวน์โหลด")</f>
+        <v>การดาวน์โหลด</v>
+      </c>
+      <c r="M47" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B47,$B$1,$M$1))"),"İndirmek")</f>
+        <v>İndirmek</v>
+      </c>
+      <c r="N47" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B47,$B$1,$N$1))"),"Tải xuống")</f>
+        <v>Tải xuống</v>
+      </c>
+      <c r="O47" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B47,$B$1,$O$1))"),"下载")</f>
+        <v>下载</v>
+      </c>
+      <c r="P47" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B47,$B$1,$P$1))"),"下載")</f>
+        <v>下載</v>
+      </c>
     </row>
     <row r="48">
-      <c r="B48" s="14"/>
+      <c r="A48" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="C48" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B48,$B$1,$C$1))"),"Editor")</f>
+        <v>Editor</v>
+      </c>
+      <c r="D48" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B48,$B$1,$D$1))"),"Editor")</f>
+        <v>Editor</v>
+      </c>
+      <c r="E48" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B48,$B$1,$E$1))"),"Éditeur")</f>
+        <v>Éditeur</v>
+      </c>
+      <c r="F48" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B48,$B$1,$F$1))"),"Editor")</f>
+        <v>Editor</v>
+      </c>
+      <c r="G48" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B48,$B$1,$G$1))"),"Editore")</f>
+        <v>Editore</v>
+      </c>
+      <c r="H48" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B48,$B$1,$H$1))"),"編集者")</f>
+        <v>編集者</v>
+      </c>
+      <c r="I48" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B48,$B$1,$I$1))"),"편집자")</f>
+        <v>편집자</v>
+      </c>
+      <c r="J48" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B48,$B$1,$J$1))"),"editor")</f>
+        <v>editor</v>
+      </c>
+      <c r="K48" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B48,$B$1,$K$1))"),"редактор")</f>
+        <v>редактор</v>
+      </c>
+      <c r="L48" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B48,$B$1,$L$1))"),"บรรณาธิการ")</f>
+        <v>บรรณาธิการ</v>
+      </c>
+      <c r="M48" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B48,$B$1,$M$1))"),"Editör")</f>
+        <v>Editör</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O48" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B48,$B$1,$O$1))"),"编辑")</f>
+        <v>编辑</v>
+      </c>
+      <c r="P48" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B48,$B$1,$P$1))"),"編輯")</f>
+        <v>編輯</v>
+      </c>
     </row>
     <row r="49">
-      <c r="B49" s="14"/>
+      <c r="A49" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="C49" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B49,$B$1,$C$1))"),"Vorlage")</f>
+        <v>Vorlage</v>
+      </c>
+      <c r="D49" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B49,$B$1,$D$1))"),"Plantilla")</f>
+        <v>Plantilla</v>
+      </c>
+      <c r="E49" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B49,$B$1,$E$1))"),"Modèle")</f>
+        <v>Modèle</v>
+      </c>
+      <c r="F49" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B49,$B$1,$F$1))"),"Templat")</f>
+        <v>Templat</v>
+      </c>
+      <c r="G49" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B49,$B$1,$G$1))"),"Modello")</f>
+        <v>Modello</v>
+      </c>
+      <c r="H49" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B49,$B$1,$H$1))"),"レンプレート")</f>
+        <v>レンプレート</v>
+      </c>
+      <c r="I49" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B49,$B$1,$I$1))"),"주형")</f>
+        <v>주형</v>
+      </c>
+      <c r="J49" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B49,$B$1,$J$1))"),"Modelo")</f>
+        <v>Modelo</v>
+      </c>
+      <c r="K49" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B49,$B$1,$K$1))"),"Шаблон")</f>
+        <v>Шаблон</v>
+      </c>
+      <c r="L49" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B49,$B$1,$L$1))"),"เทมเพลต")</f>
+        <v>เทมเพลต</v>
+      </c>
+      <c r="M49" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B49,$B$1,$M$1))"),"Şablon")</f>
+        <v>Şablon</v>
+      </c>
+      <c r="N49" s="25" t="s">
+        <v>230</v>
+      </c>
+      <c r="O49" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B49,$B$1,$O$1))"),"模板")</f>
+        <v>模板</v>
+      </c>
+      <c r="P49" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B49,$B$1,$P$1))"),"模板")</f>
+        <v>模板</v>
+      </c>
     </row>
     <row r="50">
-      <c r="B50" s="14"/>
+      <c r="A50" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C50" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B50,$B$1,$C$1))"),"Layout")</f>
+        <v>Layout</v>
+      </c>
+      <c r="D50" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B50,$B$1,$D$1))"),"Disposición")</f>
+        <v>Disposición</v>
+      </c>
+      <c r="E50" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B50,$B$1,$E$1))"),"Mise en page")</f>
+        <v>Mise en page</v>
+      </c>
+      <c r="F50" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B50,$B$1,$F$1))"),"Tata letak")</f>
+        <v>Tata letak</v>
+      </c>
+      <c r="G50" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B50,$B$1,$G$1))"),"Disposizione")</f>
+        <v>Disposizione</v>
+      </c>
+      <c r="H50" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B50,$B$1,$H$1))"),"レイアウト")</f>
+        <v>レイアウト</v>
+      </c>
+      <c r="I50" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B50,$B$1,$I$1))"),"공들여 나열한 것")</f>
+        <v>공들여 나열한 것</v>
+      </c>
+      <c r="J50" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B50,$B$1,$J$1))"),"Layout")</f>
+        <v>Layout</v>
+      </c>
+      <c r="K50" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B50,$B$1,$K$1))"),"Макет")</f>
+        <v>Макет</v>
+      </c>
+      <c r="L50" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B50,$B$1,$L$1))"),"เค้าโครง")</f>
+        <v>เค้าโครง</v>
+      </c>
+      <c r="M50" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B50,$B$1,$M$1))"),"Düzen")</f>
+        <v>Düzen</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="O50" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B50,$B$1,$O$1))"),"布局")</f>
+        <v>布局</v>
+      </c>
+      <c r="P50" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B50,$B$1,$P$1))"),"佈局")</f>
+        <v>佈局</v>
+      </c>
     </row>
     <row r="51">
-      <c r="B51" s="14"/>
+      <c r="A51" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C51" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B51,$B$1,$C$1))"),"Sie müssen Ihre Informationen speichern!")</f>
+        <v>Sie müssen Ihre Informationen speichern!</v>
+      </c>
+      <c r="D51" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B51,$B$1,$D$1))"),"¡Debe guardar su información!")</f>
+        <v>¡Debe guardar su información!</v>
+      </c>
+      <c r="E51" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B51,$B$1,$E$1))"),"Vous devez enregistrer vos informations!")</f>
+        <v>Vous devez enregistrer vos informations!</v>
+      </c>
+      <c r="F51" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B51,$B$1,$F$1))"),"Anda harus menyimpan informasi Anda!")</f>
+        <v>Anda harus menyimpan informasi Anda!</v>
+      </c>
+      <c r="G51" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B51,$B$1,$G$1))"),"Devi salvare le tue informazioni!")</f>
+        <v>Devi salvare le tue informazioni!</v>
+      </c>
+      <c r="H51" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B51,$B$1,$H$1))"),"あなたはあなたの情報を保存する必要があります！")</f>
+        <v>あなたはあなたの情報を保存する必要があります！</v>
+      </c>
+      <c r="I51" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B51,$B$1,$I$1))"),"정보를 저장해야합니다!")</f>
+        <v>정보를 저장해야합니다!</v>
+      </c>
+      <c r="J51" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B51,$B$1,$J$1))"),"Você deve salvar suas informações!")</f>
+        <v>Você deve salvar suas informações!</v>
+      </c>
+      <c r="K51" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B51,$B$1,$K$1))"),"Вы должны сохранить свою информацию!")</f>
+        <v>Вы должны сохранить свою информацию!</v>
+      </c>
+      <c r="L51" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B51,$B$1,$L$1))"),"คุณต้องบันทึกข้อมูลของคุณ!")</f>
+        <v>คุณต้องบันทึกข้อมูลของคุณ!</v>
+      </c>
+      <c r="M51" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B51,$B$1,$M$1))"),"Bilgilerinizi kaydetmelisiniz!")</f>
+        <v>Bilgilerinizi kaydetmelisiniz!</v>
+      </c>
+      <c r="N51" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B51,$B$1,$N$1))"),"Bạn phải lưu thông tin của bạn!")</f>
+        <v>Bạn phải lưu thông tin của bạn!</v>
+      </c>
+      <c r="O51" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B51,$B$1,$O$1))"),"您必须保存您的信息！")</f>
+        <v>您必须保存您的信息！</v>
+      </c>
+      <c r="P51" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B51,$B$1,$P$1))"),"您必須保存您的信息！")</f>
+        <v>您必須保存您的信息！</v>
+      </c>
     </row>
     <row r="52">
-      <c r="B52" s="14"/>
+      <c r="A52" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C52" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B52,$B$1,$C$1))"),"Account Einstellungen")</f>
+        <v>Account Einstellungen</v>
+      </c>
+      <c r="D52" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B52,$B$1,$D$1))"),"Configuraciones de la cuenta")</f>
+        <v>Configuraciones de la cuenta</v>
+      </c>
+      <c r="E52" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B52,$B$1,$E$1))"),"Paramètres du compte")</f>
+        <v>Paramètres du compte</v>
+      </c>
+      <c r="F52" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B52,$B$1,$F$1))"),"Pengaturan akun")</f>
+        <v>Pengaturan akun</v>
+      </c>
+      <c r="G52" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B52,$B$1,$G$1))"),"Impostazioni dell'account")</f>
+        <v>Impostazioni dell'account</v>
+      </c>
+      <c r="H52" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B52,$B$1,$H$1))"),"アカウント設定")</f>
+        <v>アカウント設定</v>
+      </c>
+      <c r="I52" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B52,$B$1,$I$1))"),"계정 설정")</f>
+        <v>계정 설정</v>
+      </c>
+      <c r="J52" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B52,$B$1,$J$1))"),"Configurações de Conta")</f>
+        <v>Configurações de Conta</v>
+      </c>
+      <c r="K52" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B52,$B$1,$K$1))"),"Настройки учетной записи")</f>
+        <v>Настройки учетной записи</v>
+      </c>
+      <c r="L52" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B52,$B$1,$L$1))"),"การตั้งค่าบัญชี")</f>
+        <v>การตั้งค่าบัญชี</v>
+      </c>
+      <c r="M52" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B52,$B$1,$M$1))"),"Hesap ayarları")</f>
+        <v>Hesap ayarları</v>
+      </c>
+      <c r="N52" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B52,$B$1,$N$1))"),"Cài đặt tài khoản")</f>
+        <v>Cài đặt tài khoản</v>
+      </c>
+      <c r="O52" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B52,$B$1,$O$1))"),"帐号设定")</f>
+        <v>帐号设定</v>
+      </c>
+      <c r="P52" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B52,$B$1,$P$1))"),"帳號設定")</f>
+        <v>帳號設定</v>
+      </c>
     </row>
     <row r="53">
-      <c r="B53" s="14"/>
+      <c r="A53" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C53" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B53,$B$1,$C$1))"),"Export")</f>
+        <v>Export</v>
+      </c>
+      <c r="D53" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B53,$B$1,$D$1))"),"Exportar")</f>
+        <v>Exportar</v>
+      </c>
+      <c r="E53" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B53,$B$1,$E$1))"),"Exporter")</f>
+        <v>Exporter</v>
+      </c>
+      <c r="F53" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B53,$B$1,$F$1))"),"Ekspor")</f>
+        <v>Ekspor</v>
+      </c>
+      <c r="G53" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B53,$B$1,$G$1))"),"Esportare")</f>
+        <v>Esportare</v>
+      </c>
+      <c r="H53" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B53,$B$1,$H$1))"),"輸出")</f>
+        <v>輸出</v>
+      </c>
+      <c r="I53" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B53,$B$1,$I$1))"),"내보내다")</f>
+        <v>내보내다</v>
+      </c>
+      <c r="J53" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B53,$B$1,$J$1))"),"Exportar")</f>
+        <v>Exportar</v>
+      </c>
+      <c r="K53" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B53,$B$1,$K$1))"),"Экспорт")</f>
+        <v>Экспорт</v>
+      </c>
+      <c r="L53" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B53,$B$1,$L$1))"),"ส่งออก")</f>
+        <v>ส่งออก</v>
+      </c>
+      <c r="M53" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B53,$B$1,$M$1))"),"İhracat")</f>
+        <v>İhracat</v>
+      </c>
+      <c r="N53" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B53,$B$1,$N$1))"),"Xuất khẩu")</f>
+        <v>Xuất khẩu</v>
+      </c>
+      <c r="O53" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B53,$B$1,$O$1))"),"出口")</f>
+        <v>出口</v>
+      </c>
+      <c r="P53" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B53,$B$1,$P$1))"),"出口")</f>
+        <v>出口</v>
+      </c>
     </row>
     <row r="54">
-      <c r="B54" s="14"/>
+      <c r="A54" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C54" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B54,$B$1,$C$1))"),"Fügen Sie weitere Seite hinzu")</f>
+        <v>Fügen Sie weitere Seite hinzu</v>
+      </c>
+      <c r="D54" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B54,$B$1,$D$1))"),"Agregar más página")</f>
+        <v>Agregar más página</v>
+      </c>
+      <c r="E54" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B54,$B$1,$E$1))"),"Ajouter plus de page")</f>
+        <v>Ajouter plus de page</v>
+      </c>
+      <c r="F54" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B54,$B$1,$F$1))"),"Tambahkan lebih banyak halaman")</f>
+        <v>Tambahkan lebih banyak halaman</v>
+      </c>
+      <c r="G54" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B54,$B$1,$G$1))"),"Aggiungi più pagina")</f>
+        <v>Aggiungi più pagina</v>
+      </c>
+      <c r="H54" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B54,$B$1,$H$1))"),"ページを追加します")</f>
+        <v>ページを追加します</v>
+      </c>
+      <c r="I54" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B54,$B$1,$I$1))"),"더 많은 페이지를 추가하십시오")</f>
+        <v>더 많은 페이지를 추가하십시오</v>
+      </c>
+      <c r="J54" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B54,$B$1,$J$1))"),"Adicione mais página")</f>
+        <v>Adicione mais página</v>
+      </c>
+      <c r="K54" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B54,$B$1,$K$1))"),"Добавить больше страницы")</f>
+        <v>Добавить больше страницы</v>
+      </c>
+      <c r="L54" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B54,$B$1,$L$1))"),"เพิ่มหน้าเพิ่มเติม")</f>
+        <v>เพิ่มหน้าเพิ่มเติม</v>
+      </c>
+      <c r="M54" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B54,$B$1,$M$1))"),"Daha Fazla Sayfa Ekle")</f>
+        <v>Daha Fazla Sayfa Ekle</v>
+      </c>
+      <c r="N54" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B54,$B$1,$N$1))"),"Thêm trang khác")</f>
+        <v>Thêm trang khác</v>
+      </c>
+      <c r="O54" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B54,$B$1,$O$1))"),"添加更多页面")</f>
+        <v>添加更多页面</v>
+      </c>
+      <c r="P54" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B54,$B$1,$P$1))"),"添加更多頁面")</f>
+        <v>添加更多頁面</v>
+      </c>
     </row>
     <row r="55">
-      <c r="B55" s="14"/>
+      <c r="A55" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C55" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B55,$B$1,$C$1))"),"Buchseite")</f>
+        <v>Buchseite</v>
+      </c>
+      <c r="D55" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B55,$B$1,$D$1))"),"Página")</f>
+        <v>Página</v>
+      </c>
+      <c r="E55" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B55,$B$1,$E$1))"),"Page")</f>
+        <v>Page</v>
+      </c>
+      <c r="F55" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B55,$B$1,$F$1))"),"Halaman")</f>
+        <v>Halaman</v>
+      </c>
+      <c r="G55" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B55,$B$1,$G$1))"),"Pagina")</f>
+        <v>Pagina</v>
+      </c>
+      <c r="H55" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B55,$B$1,$H$1))"),"ページ")</f>
+        <v>ページ</v>
+      </c>
+      <c r="I55" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B55,$B$1,$I$1))"),"페이지")</f>
+        <v>페이지</v>
+      </c>
+      <c r="J55" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B55,$B$1,$J$1))"),"Página")</f>
+        <v>Página</v>
+      </c>
+      <c r="K55" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B55,$B$1,$K$1))"),"Страница")</f>
+        <v>Страница</v>
+      </c>
+      <c r="L55" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B55,$B$1,$L$1))"),"หน้าหนังสือ")</f>
+        <v>หน้าหนังสือ</v>
+      </c>
+      <c r="M55" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B55,$B$1,$M$1))"),"Sayfa")</f>
+        <v>Sayfa</v>
+      </c>
+      <c r="N55" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B55,$B$1,$N$1))"),"Trang")</f>
+        <v>Trang</v>
+      </c>
+      <c r="O55" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B55,$B$1,$O$1))"),"页")</f>
+        <v>页</v>
+      </c>
+      <c r="P55" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B55,$B$1,$P$1))"),"頁")</f>
+        <v>頁</v>
+      </c>
     </row>
     <row r="56">
-      <c r="B56" s="14"/>
+      <c r="A56" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="C56" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B56,$B$1,$C$1))"),"Hauptsächlich")</f>
+        <v>Hauptsächlich</v>
+      </c>
+      <c r="D56" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B56,$B$1,$D$1))"),"Principal")</f>
+        <v>Principal</v>
+      </c>
+      <c r="E56" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B56,$B$1,$E$1))"),"Principal")</f>
+        <v>Principal</v>
+      </c>
+      <c r="F56" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B56,$B$1,$F$1))"),"Utama")</f>
+        <v>Utama</v>
+      </c>
+      <c r="G56" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B56,$B$1,$G$1))"),"Principale")</f>
+        <v>Principale</v>
+      </c>
+      <c r="H56" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B56,$B$1,$H$1))"),"主要")</f>
+        <v>主要</v>
+      </c>
+      <c r="I56" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B56,$B$1,$I$1))"),"기본")</f>
+        <v>기본</v>
+      </c>
+      <c r="J56" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B56,$B$1,$J$1))"),"Principal")</f>
+        <v>Principal</v>
+      </c>
+      <c r="K56" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B56,$B$1,$K$1))"),"Основной")</f>
+        <v>Основной</v>
+      </c>
+      <c r="L56" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B56,$B$1,$L$1))"),"หลัก")</f>
+        <v>หลัก</v>
+      </c>
+      <c r="M56" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B56,$B$1,$M$1))"),"Ana")</f>
+        <v>Ana</v>
+      </c>
+      <c r="N56" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="O56" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B56,$B$1,$O$1))"),"主要的")</f>
+        <v>主要的</v>
+      </c>
+      <c r="P56" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B56,$B$1,$P$1))"),"主要的")</f>
+        <v>主要的</v>
+      </c>
     </row>
     <row r="57">
-      <c r="B57" s="14"/>
+      <c r="A57" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C57" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B57,$B$1,$C$1))"),"Seitenleiste")</f>
+        <v>Seitenleiste</v>
+      </c>
+      <c r="D57" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B57,$B$1,$D$1))"),"Barra lateral")</f>
+        <v>Barra lateral</v>
+      </c>
+      <c r="E57" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B57,$B$1,$E$1))"),"Barre latérale")</f>
+        <v>Barre latérale</v>
+      </c>
+      <c r="F57" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B57,$B$1,$F$1))"),"Bilah sisi")</f>
+        <v>Bilah sisi</v>
+      </c>
+      <c r="G57" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B57,$B$1,$G$1))"),"Barra laterale")</f>
+        <v>Barra laterale</v>
+      </c>
+      <c r="H57" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B57,$B$1,$H$1))"),"サイドバー")</f>
+        <v>サイドバー</v>
+      </c>
+      <c r="I57" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B57,$B$1,$I$1))"),"사이드 바")</f>
+        <v>사이드 바</v>
+      </c>
+      <c r="J57" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B57,$B$1,$J$1))"),"Barra Lateral")</f>
+        <v>Barra Lateral</v>
+      </c>
+      <c r="K57" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B57,$B$1,$K$1))"),"Боковая панель")</f>
+        <v>Боковая панель</v>
+      </c>
+      <c r="L57" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B57,$B$1,$L$1))"),"แถบด้านข้าง")</f>
+        <v>แถบด้านข้าง</v>
+      </c>
+      <c r="M57" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B57,$B$1,$M$1))"),"Kenar çubuğu")</f>
+        <v>Kenar çubuğu</v>
+      </c>
+      <c r="N57" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B57,$B$1,$N$1))"),"Thanh bên")</f>
+        <v>Thanh bên</v>
+      </c>
+      <c r="O57" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B57,$B$1,$O$1))"),"侧边栏")</f>
+        <v>侧边栏</v>
+      </c>
+      <c r="P57" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B57,$B$1,$P$1))"),"側邊欄")</f>
+        <v>側邊欄</v>
+      </c>
     </row>
     <row r="58">
-      <c r="B58" s="14"/>
+      <c r="A58" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C58" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B58,$B$1,$C$1))"),"Standort")</f>
+        <v>Standort</v>
+      </c>
+      <c r="D58" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B58,$B$1,$D$1))"),"Ubicación")</f>
+        <v>Ubicación</v>
+      </c>
+      <c r="E58" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B58,$B$1,$E$1))"),"Emplacement")</f>
+        <v>Emplacement</v>
+      </c>
+      <c r="F58" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B58,$B$1,$F$1))"),"Lokasi")</f>
+        <v>Lokasi</v>
+      </c>
+      <c r="G58" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B58,$B$1,$G$1))"),"Posizione")</f>
+        <v>Posizione</v>
+      </c>
+      <c r="H58" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B58,$B$1,$H$1))"),"位置")</f>
+        <v>位置</v>
+      </c>
+      <c r="I58" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B58,$B$1,$I$1))"),"위치")</f>
+        <v>위치</v>
+      </c>
+      <c r="J58" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B58,$B$1,$J$1))"),"Localização")</f>
+        <v>Localização</v>
+      </c>
+      <c r="K58" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B58,$B$1,$K$1))"),"Расположение")</f>
+        <v>Расположение</v>
+      </c>
+      <c r="L58" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B58,$B$1,$L$1))"),"ที่ตั้ง")</f>
+        <v>ที่ตั้ง</v>
+      </c>
+      <c r="M58" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B58,$B$1,$M$1))"),"Konum")</f>
+        <v>Konum</v>
+      </c>
+      <c r="N58" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B58,$B$1,$N$1))"),"Vị trí")</f>
+        <v>Vị trí</v>
+      </c>
+      <c r="O58" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B58,$B$1,$O$1))"),"地点")</f>
+        <v>地点</v>
+      </c>
+      <c r="P58" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B58,$B$1,$P$1))"),"地點")</f>
+        <v>地點</v>
+      </c>
     </row>
     <row r="59">
-      <c r="B59" s="14"/>
+      <c r="A59" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B59,$B$1,$C$1))"),"Alle")</f>
+        <v>Alle</v>
+      </c>
+      <c r="D59" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B59,$B$1,$D$1))"),"Todo")</f>
+        <v>Todo</v>
+      </c>
+      <c r="E59" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B59,$B$1,$E$1))"),"Tous")</f>
+        <v>Tous</v>
+      </c>
+      <c r="F59" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B59,$B$1,$F$1))"),"Semua")</f>
+        <v>Semua</v>
+      </c>
+      <c r="G59" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B59,$B$1,$G$1))"),"Tutto")</f>
+        <v>Tutto</v>
+      </c>
+      <c r="H59" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B59,$B$1,$H$1))"),"全て")</f>
+        <v>全て</v>
+      </c>
+      <c r="I59" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B59,$B$1,$I$1))"),"모두")</f>
+        <v>모두</v>
+      </c>
+      <c r="J59" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B59,$B$1,$J$1))"),"Todos")</f>
+        <v>Todos</v>
+      </c>
+      <c r="K59" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B59,$B$1,$K$1))"),"Все")</f>
+        <v>Все</v>
+      </c>
+      <c r="L59" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B59,$B$1,$L$1))"),"ทั้งหมด")</f>
+        <v>ทั้งหมด</v>
+      </c>
+      <c r="M59" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B59,$B$1,$M$1))"),"Tüm")</f>
+        <v>Tüm</v>
+      </c>
+      <c r="N59" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B59,$B$1,$N$1))"),"Tất cả")</f>
+        <v>Tất cả</v>
+      </c>
+      <c r="O59" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B59,$B$1,$O$1))"),"全部")</f>
+        <v>全部</v>
+      </c>
+      <c r="P59" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B59,$B$1,$P$1))"),"全部")</f>
+        <v>全部</v>
+      </c>
     </row>
     <row r="60">
-      <c r="B60" s="14"/>
+      <c r="A60" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C60" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B60,$B$1,$C$1))"),"Job finden")</f>
+        <v>Job finden</v>
+      </c>
+      <c r="D60" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B60,$B$1,$D$1))"),"Encuentra trabajo")</f>
+        <v>Encuentra trabajo</v>
+      </c>
+      <c r="E60" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B60,$B$1,$E$1))"),"Trouver un emploi")</f>
+        <v>Trouver un emploi</v>
+      </c>
+      <c r="F60" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B60,$B$1,$F$1))"),"Mencari pekerjaan")</f>
+        <v>Mencari pekerjaan</v>
+      </c>
+      <c r="G60" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B60,$B$1,$G$1))"),"Trovare lavoro")</f>
+        <v>Trovare lavoro</v>
+      </c>
+      <c r="H60" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B60,$B$1,$H$1))"),"仕事を探す")</f>
+        <v>仕事を探す</v>
+      </c>
+      <c r="I60" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B60,$B$1,$I$1))"),"직업을 찾으십시오")</f>
+        <v>직업을 찾으십시오</v>
+      </c>
+      <c r="J60" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B60,$B$1,$J$1))"),"Encontrar emprego")</f>
+        <v>Encontrar emprego</v>
+      </c>
+      <c r="K60" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B60,$B$1,$K$1))"),"Найти работу")</f>
+        <v>Найти работу</v>
+      </c>
+      <c r="L60" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B60,$B$1,$L$1))"),"หางาน")</f>
+        <v>หางาน</v>
+      </c>
+      <c r="M60" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B60,$B$1,$M$1))"),"İş bul")</f>
+        <v>İş bul</v>
+      </c>
+      <c r="N60" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B60,$B$1,$N$1))"),"Tìm việc làm")</f>
+        <v>Tìm việc làm</v>
+      </c>
+      <c r="O60" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B60,$B$1,$O$1))"),"找工作")</f>
+        <v>找工作</v>
+      </c>
+      <c r="P60" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B60,$B$1,$P$1))"),"找工作")</f>
+        <v>找工作</v>
+      </c>
     </row>
     <row r="61">
-      <c r="B61" s="14"/>
+      <c r="A61" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B61,$B$1,$C$1))"),"Berufsbezeichnung")</f>
+        <v>Berufsbezeichnung</v>
+      </c>
+      <c r="D61" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B61,$B$1,$D$1))"),"Título profesional")</f>
+        <v>Título profesional</v>
+      </c>
+      <c r="E61" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B61,$B$1,$E$1))"),"Titre d'emploi")</f>
+        <v>Titre d'emploi</v>
+      </c>
+      <c r="F61" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B61,$B$1,$F$1))"),"Judul pekerjaan")</f>
+        <v>Judul pekerjaan</v>
+      </c>
+      <c r="G61" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B61,$B$1,$G$1))"),"Titolo di lavoro")</f>
+        <v>Titolo di lavoro</v>
+      </c>
+      <c r="H61" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B61,$B$1,$H$1))"),"職名")</f>
+        <v>職名</v>
+      </c>
+      <c r="I61" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B61,$B$1,$I$1))"),"직위")</f>
+        <v>직위</v>
+      </c>
+      <c r="J61" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B61,$B$1,$J$1))"),"Cargo")</f>
+        <v>Cargo</v>
+      </c>
+      <c r="K61" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B61,$B$1,$K$1))"),"Должность")</f>
+        <v>Должность</v>
+      </c>
+      <c r="L61" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B61,$B$1,$L$1))"),"ตำแหน่งงาน")</f>
+        <v>ตำแหน่งงาน</v>
+      </c>
+      <c r="M61" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B61,$B$1,$M$1))"),"İş unvanı")</f>
+        <v>İş unvanı</v>
+      </c>
+      <c r="N61" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B61,$B$1,$N$1))"),"Tiêu đề công việc")</f>
+        <v>Tiêu đề công việc</v>
+      </c>
+      <c r="O61" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B61,$B$1,$O$1))"),"职称")</f>
+        <v>职称</v>
+      </c>
+      <c r="P61" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B61,$B$1,$P$1))"),"職稱")</f>
+        <v>職稱</v>
+      </c>
     </row>
     <row r="62">
-      <c r="B62" s="14"/>
+      <c r="A62" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="C62" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B62,$B$1,$C$1))"),"Problem trat beim Speichern auf")</f>
+        <v>Problem trat beim Speichern auf</v>
+      </c>
+      <c r="D62" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B62,$B$1,$D$1))"),"El problema ocurrió al ahorrar")</f>
+        <v>El problema ocurrió al ahorrar</v>
+      </c>
+      <c r="E62" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B62,$B$1,$E$1))"),"Le problème s'est produit lors de l'économie")</f>
+        <v>Le problème s'est produit lors de l'économie</v>
+      </c>
+      <c r="F62" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B62,$B$1,$F$1))"),"Masalah terjadi saat menabung")</f>
+        <v>Masalah terjadi saat menabung</v>
+      </c>
+      <c r="G62" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B62,$B$1,$G$1))"),"Il problema si è verificato durante il salvataggio")</f>
+        <v>Il problema si è verificato durante il salvataggio</v>
+      </c>
+      <c r="H62" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B62,$B$1,$H$1))"),"保存時に問題が発生しました")</f>
+        <v>保存時に問題が発生しました</v>
+      </c>
+      <c r="I62" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B62,$B$1,$I$1))"),"저장할 때 문제가 발생했습니다")</f>
+        <v>저장할 때 문제가 발생했습니다</v>
+      </c>
+      <c r="J62" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B62,$B$1,$J$1))"),"Problema ocorreu ao salvar")</f>
+        <v>Problema ocorreu ao salvar</v>
+      </c>
+      <c r="K62" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B62,$B$1,$K$1))"),"Проблема произошла при сбережении")</f>
+        <v>Проблема произошла при сбережении</v>
+      </c>
+      <c r="L62" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B62,$B$1,$L$1))"),"ปัญหาเกิดขึ้นเมื่อออม")</f>
+        <v>ปัญหาเกิดขึ้นเมื่อออม</v>
+      </c>
+      <c r="M62" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B62,$B$1,$M$1))"),"Tasarruf ederken sorun meydana geldi")</f>
+        <v>Tasarruf ederken sorun meydana geldi</v>
+      </c>
+      <c r="N62" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="O62" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B62,$B$1,$O$1))"),"保存时发生问题")</f>
+        <v>保存时发生问题</v>
+      </c>
+      <c r="P62" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B62,$B$1,$P$1))"),"保存時發生問題")</f>
+        <v>保存時發生問題</v>
+      </c>
     </row>
     <row r="63">
-      <c r="B63" s="14"/>
+      <c r="A63" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C63" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B63,$B$1,$C$1))"),"Erfolgreich gespeichert")</f>
+        <v>Erfolgreich gespeichert</v>
+      </c>
+      <c r="D63" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B63,$B$1,$D$1))"),"Guardar con éxito")</f>
+        <v>Guardar con éxito</v>
+      </c>
+      <c r="E63" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B63,$B$1,$E$1))"),"Sauvegarde réussie")</f>
+        <v>Sauvegarde réussie</v>
+      </c>
+      <c r="F63" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B63,$B$1,$F$1))"),"Simpan dengan sukses")</f>
+        <v>Simpan dengan sukses</v>
+      </c>
+      <c r="G63" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B63,$B$1,$G$1))"),"Salvato con successo")</f>
+        <v>Salvato con successo</v>
+      </c>
+      <c r="H63" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B63,$B$1,$H$1))"),"セーブに成功")</f>
+        <v>セーブに成功</v>
+      </c>
+      <c r="I63" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B63,$B$1,$I$1))"),"성공적으로 저장하십시오")</f>
+        <v>성공적으로 저장하십시오</v>
+      </c>
+      <c r="J63" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B63,$B$1,$J$1))"),"Salvo com sucesso")</f>
+        <v>Salvo com sucesso</v>
+      </c>
+      <c r="K63" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B63,$B$1,$K$1))"),"Сохранить успешно")</f>
+        <v>Сохранить успешно</v>
+      </c>
+      <c r="L63" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B63,$B$1,$L$1))"),"ประหยัดได้สำเร็จ")</f>
+        <v>ประหยัดได้สำเร็จ</v>
+      </c>
+      <c r="M63" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B63,$B$1,$M$1))"),"Başarılı bir şekilde kaydedin")</f>
+        <v>Başarılı bir şekilde kaydedin</v>
+      </c>
+      <c r="N63" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B63,$B$1,$N$1))"),"Lưu lại thành công")</f>
+        <v>Lưu lại thành công</v>
+      </c>
+      <c r="O63" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B63,$B$1,$O$1))"),"保存成功")</f>
+        <v>保存成功</v>
+      </c>
+      <c r="P63" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B63,$B$1,$P$1))"),"保存成功")</f>
+        <v>保存成功</v>
+      </c>
     </row>
     <row r="64">
-      <c r="B64" s="14"/>
+      <c r="A64" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="C64" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B64,$B$1,$C$1))"),"Ändere den Titel")</f>
+        <v>Ändere den Titel</v>
+      </c>
+      <c r="D64" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B64,$B$1,$D$1))"),"Cambiar título")</f>
+        <v>Cambiar título</v>
+      </c>
+      <c r="E64" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B64,$B$1,$E$1))"),"Titre de changement")</f>
+        <v>Titre de changement</v>
+      </c>
+      <c r="F64" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B64,$B$1,$F$1))"),"Ubah judul")</f>
+        <v>Ubah judul</v>
+      </c>
+      <c r="G64" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B64,$B$1,$G$1))"),"Cambia il titolo")</f>
+        <v>Cambia il titolo</v>
+      </c>
+      <c r="H64" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B64,$B$1,$H$1))"),"タイトルを変更します")</f>
+        <v>タイトルを変更します</v>
+      </c>
+      <c r="I64" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B64,$B$1,$I$1))"),"제목 변경")</f>
+        <v>제목 변경</v>
+      </c>
+      <c r="J64" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B64,$B$1,$J$1))"),"Alterar o título")</f>
+        <v>Alterar o título</v>
+      </c>
+      <c r="K64" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B64,$B$1,$K$1))"),"Изменить заголовок")</f>
+        <v>Изменить заголовок</v>
+      </c>
+      <c r="L64" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B64,$B$1,$L$1))"),"เปลี่ยนชื่อ")</f>
+        <v>เปลี่ยนชื่อ</v>
+      </c>
+      <c r="M64" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B64,$B$1,$M$1))"),"Başlığı değiştir")</f>
+        <v>Başlığı değiştir</v>
+      </c>
+      <c r="N64" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B64,$B$1,$N$1))"),"Thay đổi tiêu đề")</f>
+        <v>Thay đổi tiêu đề</v>
+      </c>
+      <c r="O64" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B64,$B$1,$O$1))"),"更改标题")</f>
+        <v>更改标题</v>
+      </c>
+      <c r="P64" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B64,$B$1,$P$1))"),"更改標題")</f>
+        <v>更改標題</v>
+      </c>
     </row>
     <row r="65">
-      <c r="B65" s="14"/>
+      <c r="A65" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="C65" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B65,$B$1,$C$1))"),"Element löschen")</f>
+        <v>Element löschen</v>
+      </c>
+      <c r="D65" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B65,$B$1,$D$1))"),"Eliminar elemento")</f>
+        <v>Eliminar elemento</v>
+      </c>
+      <c r="E65" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B65,$B$1,$E$1))"),"Effacer l'article")</f>
+        <v>Effacer l'article</v>
+      </c>
+      <c r="F65" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B65,$B$1,$F$1))"),"Hapus item")</f>
+        <v>Hapus item</v>
+      </c>
+      <c r="G65" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B65,$B$1,$G$1))"),"Cancella oggetto")</f>
+        <v>Cancella oggetto</v>
+      </c>
+      <c r="H65" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B65,$B$1,$H$1))"),"アイテムを削除します")</f>
+        <v>アイテムを削除します</v>
+      </c>
+      <c r="I65" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B65,$B$1,$I$1))"),"항목 삭제")</f>
+        <v>항목 삭제</v>
+      </c>
+      <c r="J65" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B65,$B$1,$J$1))"),"Apagar item")</f>
+        <v>Apagar item</v>
+      </c>
+      <c r="K65" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B65,$B$1,$K$1))"),"Удалить пункт")</f>
+        <v>Удалить пункт</v>
+      </c>
+      <c r="L65" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B65,$B$1,$L$1))"),"ลบรายการ")</f>
+        <v>ลบรายการ</v>
+      </c>
+      <c r="M65" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B65,$B$1,$M$1))"),"Öğeyi silmek")</f>
+        <v>Öğeyi silmek</v>
+      </c>
+      <c r="N65" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B65,$B$1,$N$1))"),"Xóa mục")</f>
+        <v>Xóa mục</v>
+      </c>
+      <c r="O65" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B65,$B$1,$O$1))"),"删除项目")</f>
+        <v>删除项目</v>
+      </c>
+      <c r="P65" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B65,$B$1,$P$1))"),"刪除項目")</f>
+        <v>刪除項目</v>
+      </c>
     </row>
     <row r="66">
-      <c r="B66" s="14"/>
+      <c r="A66" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="C66" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B66,$B$1,$C$1))"),"Sind Sie sicher, dass Sie diesen Artikel löschen möchten?")</f>
+        <v>Sind Sie sicher, dass Sie diesen Artikel löschen möchten?</v>
+      </c>
+      <c r="D66" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B66,$B$1,$D$1))"),"¿Estás seguro de que quieres eliminar este artículo?")</f>
+        <v>¿Estás seguro de que quieres eliminar este artículo?</v>
+      </c>
+      <c r="E66" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B66,$B$1,$E$1))"),"Êtes-vous sûr de bien vouloir supprimer cet élément?")</f>
+        <v>Êtes-vous sûr de bien vouloir supprimer cet élément?</v>
+      </c>
+      <c r="F66" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B66,$B$1,$F$1))"),"Anda yakin ingin menghapus item ini?")</f>
+        <v>Anda yakin ingin menghapus item ini?</v>
+      </c>
+      <c r="G66" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B66,$B$1,$G$1))"),"Sei sicuro di voler eliminare questo articolo?")</f>
+        <v>Sei sicuro di voler eliminare questo articolo?</v>
+      </c>
+      <c r="H66" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B66,$B$1,$H$1))"),"このアイテムを削除したいですか？")</f>
+        <v>このアイテムを削除したいですか？</v>
+      </c>
+      <c r="I66" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B66,$B$1,$I$1))"),"이 항목을 삭제 하시겠습니까?")</f>
+        <v>이 항목을 삭제 하시겠습니까?</v>
+      </c>
+      <c r="J66" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B66,$B$1,$J$1))"),"Tem certeza de que deseja excluir este item?")</f>
+        <v>Tem certeza de que deseja excluir este item?</v>
+      </c>
+      <c r="K66" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B66,$B$1,$K$1))"),"Вы уверены, что хотите удалить этот элемент?")</f>
+        <v>Вы уверены, что хотите удалить этот элемент?</v>
+      </c>
+      <c r="L66" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B66,$B$1,$L$1))"),"คุณแน่ใจหรือว่าต้องการลบรายการนี้หรือไม่?")</f>
+        <v>คุณแน่ใจหรือว่าต้องการลบรายการนี้หรือไม่?</v>
+      </c>
+      <c r="M66" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B66,$B$1,$M$1))"),"Bu öğeyi silmek istediğinizden emin misiniz?")</f>
+        <v>Bu öğeyi silmek istediğinizden emin misiniz?</v>
+      </c>
+      <c r="N66" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="O66" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B66,$B$1,$O$1))"),"你确定要删除这个项目吗？")</f>
+        <v>你确定要删除这个项目吗？</v>
+      </c>
+      <c r="P66" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B66,$B$1,$P$1))"),"你確定要刪除這個項目嗎？")</f>
+        <v>你確定要刪除這個項目嗎？</v>
+      </c>
     </row>
     <row r="67">
-      <c r="B67" s="14"/>
+      <c r="A67" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C67" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B67,$B$1,$C$1))"),"Löschen")</f>
+        <v>Löschen</v>
+      </c>
+      <c r="D67" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B67,$B$1,$D$1))"),"Borrar")</f>
+        <v>Borrar</v>
+      </c>
+      <c r="E67" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B67,$B$1,$E$1))"),"Supprimer")</f>
+        <v>Supprimer</v>
+      </c>
+      <c r="F67" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B67,$B$1,$F$1))"),"Menghapus")</f>
+        <v>Menghapus</v>
+      </c>
+      <c r="G67" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B67,$B$1,$G$1))"),"Eliminare")</f>
+        <v>Eliminare</v>
+      </c>
+      <c r="H67" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B67,$B$1,$H$1))"),"消去")</f>
+        <v>消去</v>
+      </c>
+      <c r="I67" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B67,$B$1,$I$1))"),"삭제")</f>
+        <v>삭제</v>
+      </c>
+      <c r="J67" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B67,$B$1,$J$1))"),"Excluir")</f>
+        <v>Excluir</v>
+      </c>
+      <c r="K67" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B67,$B$1,$K$1))"),"Удалить")</f>
+        <v>Удалить</v>
+      </c>
+      <c r="L67" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B67,$B$1,$L$1))"),"ลบ")</f>
+        <v>ลบ</v>
+      </c>
+      <c r="M67" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B67,$B$1,$M$1))"),"Silmek")</f>
+        <v>Silmek</v>
+      </c>
+      <c r="N67" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B67,$B$1,$N$1))"),"Xóa bỏ")</f>
+        <v>Xóa bỏ</v>
+      </c>
+      <c r="O67" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B67,$B$1,$O$1))"),"删除")</f>
+        <v>删除</v>
+      </c>
+      <c r="P67" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B67,$B$1,$P$1))"),"刪除")</f>
+        <v>刪除</v>
+      </c>
     </row>
     <row r="68">
-      <c r="B68" s="14"/>
+      <c r="A68" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C68" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B68,$B$1,$C$1))"),"Stornieren")</f>
+        <v>Stornieren</v>
+      </c>
+      <c r="D68" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B68,$B$1,$D$1))"),"Cancelar")</f>
+        <v>Cancelar</v>
+      </c>
+      <c r="E68" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B68,$B$1,$E$1))"),"Annuler")</f>
+        <v>Annuler</v>
+      </c>
+      <c r="F68" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B68,$B$1,$F$1))"),"Membatalkan")</f>
+        <v>Membatalkan</v>
+      </c>
+      <c r="G68" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B68,$B$1,$G$1))"),"Annulla")</f>
+        <v>Annulla</v>
+      </c>
+      <c r="H68" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B68,$B$1,$H$1))"),"キャンセル")</f>
+        <v>キャンセル</v>
+      </c>
+      <c r="I68" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B68,$B$1,$I$1))"),"취소")</f>
+        <v>취소</v>
+      </c>
+      <c r="J68" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B68,$B$1,$J$1))"),"Cancelar")</f>
+        <v>Cancelar</v>
+      </c>
+      <c r="K68" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B68,$B$1,$K$1))"),"Отмена")</f>
+        <v>Отмена</v>
+      </c>
+      <c r="L68" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B68,$B$1,$L$1))"),"ยกเลิก")</f>
+        <v>ยกเลิก</v>
+      </c>
+      <c r="M68" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B68,$B$1,$M$1))"),"İptal etmek")</f>
+        <v>İptal etmek</v>
+      </c>
+      <c r="N68" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B68,$B$1,$N$1))"),"Hủy bỏ")</f>
+        <v>Hủy bỏ</v>
+      </c>
+      <c r="O68" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B68,$B$1,$O$1))"),"取消")</f>
+        <v>取消</v>
+      </c>
+      <c r="P68" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B68,$B$1,$P$1))"),"取消")</f>
+        <v>取消</v>
+      </c>
     </row>
     <row r="69">
-      <c r="B69" s="14"/>
+      <c r="A69" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C69" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B69,$B$1,$C$1))"),"Klicken Sie hier, um den Titel zu ändern!")</f>
+        <v>Klicken Sie hier, um den Titel zu ändern!</v>
+      </c>
+      <c r="D69" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B69,$B$1,$D$1))"),"Haga clic para cambiar el título!")</f>
+        <v>Haga clic para cambiar el título!</v>
+      </c>
+      <c r="E69" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B69,$B$1,$E$1))"),"Cliquez pour modifier le titre!")</f>
+        <v>Cliquez pour modifier le titre!</v>
+      </c>
+      <c r="F69" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B69,$B$1,$F$1))"),"Klik untuk mengubah judul!")</f>
+        <v>Klik untuk mengubah judul!</v>
+      </c>
+      <c r="G69" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B69,$B$1,$G$1))"),"Fai clic per cambiare il titolo!")</f>
+        <v>Fai clic per cambiare il titolo!</v>
+      </c>
+      <c r="H69" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B69,$B$1,$H$1))"),"クリックしてタイトルを変更してください！")</f>
+        <v>クリックしてタイトルを変更してください！</v>
+      </c>
+      <c r="I69" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B69,$B$1,$I$1))"),"제목을 변경하려면 클릭하십시오!")</f>
+        <v>제목을 변경하려면 클릭하십시오!</v>
+      </c>
+      <c r="J69" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B69,$B$1,$J$1))"),"Clique para alterar o título!")</f>
+        <v>Clique para alterar o título!</v>
+      </c>
+      <c r="K69" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B69,$B$1,$K$1))"),"Нажмите, чтобы изменить заголовок!")</f>
+        <v>Нажмите, чтобы изменить заголовок!</v>
+      </c>
+      <c r="L69" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B69,$B$1,$L$1))"),"คลิกเพื่อเปลี่ยนชื่อ!")</f>
+        <v>คลิกเพื่อเปลี่ยนชื่อ!</v>
+      </c>
+      <c r="M69" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B69,$B$1,$M$1))"),"Başlığı değiştirmek için tıklayın!")</f>
+        <v>Başlığı değiştirmek için tıklayın!</v>
+      </c>
+      <c r="N69" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B69,$B$1,$N$1))"),"Bấm để thay đổi tiêu đề!")</f>
+        <v>Bấm để thay đổi tiêu đề!</v>
+      </c>
+      <c r="O69" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B69,$B$1,$O$1))"),"点击更改标题！")</f>
+        <v>点击更改标题！</v>
+      </c>
+      <c r="P69" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B69,$B$1,$P$1))"),"點擊更改標題！")</f>
+        <v>點擊更改標題！</v>
+      </c>
     </row>
     <row r="70">
       <c r="B70" s="14"/>
@@ -29327,6 +32154,906 @@
     </row>
     <row r="999">
       <c r="B999" s="14"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="13.25"/>
+    <col customWidth="1" min="15" max="15" width="11.38"/>
+    <col customWidth="1" min="16" max="16" width="12.25"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$C$1))"),"Account Einstellungen")</f>
+        <v>Account Einstellungen</v>
+      </c>
+      <c r="D2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$D$1))"),"Configuraciones de la cuenta")</f>
+        <v>Configuraciones de la cuenta</v>
+      </c>
+      <c r="E2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$E$1))"),"Paramètres du compte")</f>
+        <v>Paramètres du compte</v>
+      </c>
+      <c r="F2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$F$1))"),"Pengaturan akun")</f>
+        <v>Pengaturan akun</v>
+      </c>
+      <c r="G2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$G$1))"),"Impostazioni dell'account")</f>
+        <v>Impostazioni dell'account</v>
+      </c>
+      <c r="H2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$H$1))"),"アカウント設定")</f>
+        <v>アカウント設定</v>
+      </c>
+      <c r="I2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$I$1))"),"계정 설정")</f>
+        <v>계정 설정</v>
+      </c>
+      <c r="J2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$J$1))"),"Configurações de Conta")</f>
+        <v>Configurações de Conta</v>
+      </c>
+      <c r="K2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$K$1))"),"Настройки учетной записи")</f>
+        <v>Настройки учетной записи</v>
+      </c>
+      <c r="L2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$L$1))"),"การตั้งค่าบัญชี")</f>
+        <v>การตั้งค่าบัญชี</v>
+      </c>
+      <c r="M2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$M$1))"),"Hesap ayarları")</f>
+        <v>Hesap ayarları</v>
+      </c>
+      <c r="N2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$N$1))"),"Cài đặt tài khoản")</f>
+        <v>Cài đặt tài khoản</v>
+      </c>
+      <c r="O2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$O$1))"),"帐号设定")</f>
+        <v>帐号设定</v>
+      </c>
+      <c r="P2" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B2,$B$1,$P$1))"),"帳號設定")</f>
+        <v>帳號設定</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$C$1))"),"Account Einstellungen")</f>
+        <v>Account Einstellungen</v>
+      </c>
+      <c r="D3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$D$1))"),"Configuraciones de la cuenta")</f>
+        <v>Configuraciones de la cuenta</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$E$1))"),"Paramètres du compte")</f>
+        <v>Paramètres du compte</v>
+      </c>
+      <c r="F3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$F$1))"),"Pengaturan akun")</f>
+        <v>Pengaturan akun</v>
+      </c>
+      <c r="G3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$G$1))"),"Impostazioni dell'account")</f>
+        <v>Impostazioni dell'account</v>
+      </c>
+      <c r="H3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$H$1))"),"アカウント設定")</f>
+        <v>アカウント設定</v>
+      </c>
+      <c r="I3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$I$1))"),"계정 설정")</f>
+        <v>계정 설정</v>
+      </c>
+      <c r="J3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$J$1))"),"Configurações de Conta")</f>
+        <v>Configurações de Conta</v>
+      </c>
+      <c r="K3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$K$1))"),"Настройки учетной записи")</f>
+        <v>Настройки учетной записи</v>
+      </c>
+      <c r="L3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$L$1))"),"การตั้งค่าบัญชี")</f>
+        <v>การตั้งค่าบัญชี</v>
+      </c>
+      <c r="M3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$M$1))"),"Hesap ayarları")</f>
+        <v>Hesap ayarları</v>
+      </c>
+      <c r="N3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$N$1))"),"Cài đặt tài khoản")</f>
+        <v>Cài đặt tài khoản</v>
+      </c>
+      <c r="O3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$O$1))"),"帐号设定")</f>
+        <v>帐号设定</v>
+      </c>
+      <c r="P3" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B3,$B$1,$P$1))"),"帳號設定")</f>
+        <v>帳號設定</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$C$1))"),"Vorname")</f>
+        <v>Vorname</v>
+      </c>
+      <c r="D4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$D$1))"),"Nombre de pila")</f>
+        <v>Nombre de pila</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$E$1))"),"Prénom")</f>
+        <v>Prénom</v>
+      </c>
+      <c r="F4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$F$1))"),"Nama depan")</f>
+        <v>Nama depan</v>
+      </c>
+      <c r="G4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$G$1))"),"Nome di battesimo")</f>
+        <v>Nome di battesimo</v>
+      </c>
+      <c r="H4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$H$1))"),"ファーストネーム")</f>
+        <v>ファーストネーム</v>
+      </c>
+      <c r="I4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$I$1))"),"이름")</f>
+        <v>이름</v>
+      </c>
+      <c r="J4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$J$1))"),"Primeiro nome")</f>
+        <v>Primeiro nome</v>
+      </c>
+      <c r="K4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$K$1))"),"Имя")</f>
+        <v>Имя</v>
+      </c>
+      <c r="L4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$L$1))"),"ชื่อจริง")</f>
+        <v>ชื่อจริง</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$M$1))"),"İlk adı")</f>
+        <v>İlk adı</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="O4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$O$1))"),"名")</f>
+        <v>名</v>
+      </c>
+      <c r="P4" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B4,$B$1,$P$1))"),"名")</f>
+        <v>名</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$C$1))"),"Familienname, Nachname")</f>
+        <v>Familienname, Nachname</v>
+      </c>
+      <c r="D5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$D$1))"),"Apellido")</f>
+        <v>Apellido</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$E$1))"),"Nom de famille")</f>
+        <v>Nom de famille</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$F$1))"),"Nama keluarga")</f>
+        <v>Nama keluarga</v>
+      </c>
+      <c r="G5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$G$1))"),"Cognome")</f>
+        <v>Cognome</v>
+      </c>
+      <c r="H5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$H$1))"),"苗字")</f>
+        <v>苗字</v>
+      </c>
+      <c r="I5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$I$1))"),"성")</f>
+        <v>성</v>
+      </c>
+      <c r="J5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$J$1))"),"Sobrenome")</f>
+        <v>Sobrenome</v>
+      </c>
+      <c r="K5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$K$1))"),"Фамилия")</f>
+        <v>Фамилия</v>
+      </c>
+      <c r="L5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$L$1))"),"นามสกุล")</f>
+        <v>นามสกุล</v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$M$1))"),"Soy isim")</f>
+        <v>Soy isim</v>
+      </c>
+      <c r="N5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$N$1))"),"Họ")</f>
+        <v>Họ</v>
+      </c>
+      <c r="O5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$O$1))"),"姓")</f>
+        <v>姓</v>
+      </c>
+      <c r="P5" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B5,$B$1,$P$1))"),"姓")</f>
+        <v>姓</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$C$1))"),"Email")</f>
+        <v>Email</v>
+      </c>
+      <c r="D6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$D$1))"),"Correo electrónico")</f>
+        <v>Correo electrónico</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$E$1))"),"E-mail")</f>
+        <v>E-mail</v>
+      </c>
+      <c r="F6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$F$1))"),"Surel")</f>
+        <v>Surel</v>
+      </c>
+      <c r="G6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$G$1))"),"E-mail")</f>
+        <v>E-mail</v>
+      </c>
+      <c r="H6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$H$1))"),"Eメール")</f>
+        <v>Eメール</v>
+      </c>
+      <c r="I6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$I$1))"),"이메일")</f>
+        <v>이메일</v>
+      </c>
+      <c r="J6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$J$1))"),"E-mail")</f>
+        <v>E-mail</v>
+      </c>
+      <c r="K6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$K$1))"),"Электронная почта")</f>
+        <v>Электронная почта</v>
+      </c>
+      <c r="L6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$L$1))"),"อีเมล")</f>
+        <v>อีเมล</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$M$1))"),"E -posta")</f>
+        <v>E -posta</v>
+      </c>
+      <c r="N6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$N$1))"),"E-mail")</f>
+        <v>E-mail</v>
+      </c>
+      <c r="O6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$O$1))"),"电子邮件")</f>
+        <v>电子邮件</v>
+      </c>
+      <c r="P6" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B6,$B$1,$P$1))"),"電子郵件")</f>
+        <v>電子郵件</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$C$1))"),"Telefon")</f>
+        <v>Telefon</v>
+      </c>
+      <c r="D7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$D$1))"),"Teléfono")</f>
+        <v>Teléfono</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$E$1))"),"Téléphone")</f>
+        <v>Téléphone</v>
+      </c>
+      <c r="F7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$F$1))"),"Telepon")</f>
+        <v>Telepon</v>
+      </c>
+      <c r="G7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$G$1))"),"Telefono")</f>
+        <v>Telefono</v>
+      </c>
+      <c r="H7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$H$1))"),"電話")</f>
+        <v>電話</v>
+      </c>
+      <c r="I7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$I$1))"),"핸드폰")</f>
+        <v>핸드폰</v>
+      </c>
+      <c r="J7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$J$1))"),"Telefone")</f>
+        <v>Telefone</v>
+      </c>
+      <c r="K7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$K$1))"),"Телефон")</f>
+        <v>Телефон</v>
+      </c>
+      <c r="L7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$L$1))"),"โทรศัพท์")</f>
+        <v>โทรศัพท์</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$M$1))"),"Telefon")</f>
+        <v>Telefon</v>
+      </c>
+      <c r="N7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$N$1))"),"Điện thoại")</f>
+        <v>Điện thoại</v>
+      </c>
+      <c r="O7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$O$1))"),"电话")</f>
+        <v>电话</v>
+      </c>
+      <c r="P7" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B7,$B$1,$P$1))"),"電話")</f>
+        <v>電話</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$C$1))"),"Land")</f>
+        <v>Land</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$D$1))"),"País")</f>
+        <v>País</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$E$1))"),"Pays")</f>
+        <v>Pays</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$F$1))"),"Negara")</f>
+        <v>Negara</v>
+      </c>
+      <c r="G8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$G$1))"),"Paese")</f>
+        <v>Paese</v>
+      </c>
+      <c r="H8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$H$1))"),"国")</f>
+        <v>国</v>
+      </c>
+      <c r="I8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$I$1))"),"국가")</f>
+        <v>국가</v>
+      </c>
+      <c r="J8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$J$1))"),"País")</f>
+        <v>País</v>
+      </c>
+      <c r="K8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$K$1))"),"Страна")</f>
+        <v>Страна</v>
+      </c>
+      <c r="L8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$L$1))"),"ประเทศ")</f>
+        <v>ประเทศ</v>
+      </c>
+      <c r="M8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$M$1))"),"Ülke")</f>
+        <v>Ülke</v>
+      </c>
+      <c r="N8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$N$1))"),"Quốc gia")</f>
+        <v>Quốc gia</v>
+      </c>
+      <c r="O8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$O$1))"),"国家")</f>
+        <v>国家</v>
+      </c>
+      <c r="P8" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B8,$B$1,$P$1))"),"國家")</f>
+        <v>國家</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$C$1))"),"Stadt")</f>
+        <v>Stadt</v>
+      </c>
+      <c r="D9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$D$1))"),"Ciudad")</f>
+        <v>Ciudad</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$E$1))"),"Ville")</f>
+        <v>Ville</v>
+      </c>
+      <c r="F9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$F$1))"),"Kota")</f>
+        <v>Kota</v>
+      </c>
+      <c r="G9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$G$1))"),"Città")</f>
+        <v>Città</v>
+      </c>
+      <c r="H9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$H$1))"),"街")</f>
+        <v>街</v>
+      </c>
+      <c r="I9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$I$1))"),"도시")</f>
+        <v>도시</v>
+      </c>
+      <c r="J9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$J$1))"),"Cidade")</f>
+        <v>Cidade</v>
+      </c>
+      <c r="K9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$K$1))"),"Город")</f>
+        <v>Город</v>
+      </c>
+      <c r="L9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$L$1))"),"เมือง")</f>
+        <v>เมือง</v>
+      </c>
+      <c r="M9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$M$1))"),"Şehir")</f>
+        <v>Şehir</v>
+      </c>
+      <c r="N9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$N$1))"),"Thành phố")</f>
+        <v>Thành phố</v>
+      </c>
+      <c r="O9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$O$1))"),"城市")</f>
+        <v>城市</v>
+      </c>
+      <c r="P9" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B9,$B$1,$P$1))"),"城市")</f>
+        <v>城市</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$C$1))"),"Adresse")</f>
+        <v>Adresse</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$D$1))"),"DIRECCIÓN")</f>
+        <v>DIRECCIÓN</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$E$1))"),"Adresse")</f>
+        <v>Adresse</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$F$1))"),"Alamat")</f>
+        <v>Alamat</v>
+      </c>
+      <c r="G10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$G$1))"),"Indirizzo")</f>
+        <v>Indirizzo</v>
+      </c>
+      <c r="H10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$H$1))"),"住所")</f>
+        <v>住所</v>
+      </c>
+      <c r="I10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$I$1))"),"주소")</f>
+        <v>주소</v>
+      </c>
+      <c r="J10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$J$1))"),"Endereço")</f>
+        <v>Endereço</v>
+      </c>
+      <c r="K10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$K$1))"),"Адрес")</f>
+        <v>Адрес</v>
+      </c>
+      <c r="L10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$L$1))"),"ที่อยู่")</f>
+        <v>ที่อยู่</v>
+      </c>
+      <c r="M10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$M$1))"),"Adres")</f>
+        <v>Adres</v>
+      </c>
+      <c r="N10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$N$1))"),"Địa chỉ")</f>
+        <v>Địa chỉ</v>
+      </c>
+      <c r="O10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$O$1))"),"地址")</f>
+        <v>地址</v>
+      </c>
+      <c r="P10" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B10,$B$1,$P$1))"),"地址")</f>
+        <v>地址</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$C$1))"),"Speichern")</f>
+        <v>Speichern</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$D$1))"),"Ahorrar")</f>
+        <v>Ahorrar</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$E$1))"),"Sauvegarder")</f>
+        <v>Sauvegarder</v>
+      </c>
+      <c r="F11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$F$1))"),"Menyimpan")</f>
+        <v>Menyimpan</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$G$1))"),"Salva")</f>
+        <v>Salva</v>
+      </c>
+      <c r="H11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$H$1))"),"保存")</f>
+        <v>保存</v>
+      </c>
+      <c r="I11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$I$1))"),"구하다")</f>
+        <v>구하다</v>
+      </c>
+      <c r="J11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$J$1))"),"Salvar")</f>
+        <v>Salvar</v>
+      </c>
+      <c r="K11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$K$1))"),"Сохранять")</f>
+        <v>Сохранять</v>
+      </c>
+      <c r="L11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$L$1))"),"บันทึก")</f>
+        <v>บันทึก</v>
+      </c>
+      <c r="M11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$M$1))"),"Kaydetmek")</f>
+        <v>Kaydetmek</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="O11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$O$1))"),"节省")</f>
+        <v>节省</v>
+      </c>
+      <c r="P11" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B11,$B$1,$P$1))"),"節省")</f>
+        <v>節省</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$C$1))"),"Erfolgreich gespeichert")</f>
+        <v>Erfolgreich gespeichert</v>
+      </c>
+      <c r="D12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$D$1))"),"Guardar con éxito")</f>
+        <v>Guardar con éxito</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$E$1))"),"Sauvegarde réussie")</f>
+        <v>Sauvegarde réussie</v>
+      </c>
+      <c r="F12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$F$1))"),"Simpan dengan sukses")</f>
+        <v>Simpan dengan sukses</v>
+      </c>
+      <c r="G12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$G$1))"),"Salvato con successo")</f>
+        <v>Salvato con successo</v>
+      </c>
+      <c r="H12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$H$1))"),"セーブに成功")</f>
+        <v>セーブに成功</v>
+      </c>
+      <c r="I12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$I$1))"),"성공적으로 저장하십시오")</f>
+        <v>성공적으로 저장하십시오</v>
+      </c>
+      <c r="J12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$J$1))"),"Salvo com sucesso")</f>
+        <v>Salvo com sucesso</v>
+      </c>
+      <c r="K12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$K$1))"),"Сохранить успешно")</f>
+        <v>Сохранить успешно</v>
+      </c>
+      <c r="L12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$L$1))"),"ประหยัดได้สำเร็จ")</f>
+        <v>ประหยัดได้สำเร็จ</v>
+      </c>
+      <c r="M12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$M$1))"),"Başarılı bir şekilde kaydedin")</f>
+        <v>Başarılı bir şekilde kaydedin</v>
+      </c>
+      <c r="N12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$N$1))"),"Lưu lại thành công")</f>
+        <v>Lưu lại thành công</v>
+      </c>
+      <c r="O12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$O$1))"),"保存成功")</f>
+        <v>保存成功</v>
+      </c>
+      <c r="P12" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B12,$B$1,$P$1))"),"保存成功")</f>
+        <v>保存成功</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$C$1))"),"Die Eingabe ist keine gültige E-Mail!")</f>
+        <v>Die Eingabe ist keine gültige E-Mail!</v>
+      </c>
+      <c r="D13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$D$1))"),"¡La entrada no es un correo electrónico válido!")</f>
+        <v>¡La entrada no es un correo electrónico válido!</v>
+      </c>
+      <c r="E13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$E$1))"),"L'entrée n'est pas un e-mail valide!")</f>
+        <v>L'entrée n'est pas un e-mail valide!</v>
+      </c>
+      <c r="F13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$F$1))"),"Inputnya bukan email yang valid!")</f>
+        <v>Inputnya bukan email yang valid!</v>
+      </c>
+      <c r="G13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$G$1))"),"L'input non è valido e-mail!")</f>
+        <v>L'input non è valido e-mail!</v>
+      </c>
+      <c r="H13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$H$1))"),"入力は有効な電子メールではありません！")</f>
+        <v>入力は有効な電子メールではありません！</v>
+      </c>
+      <c r="I13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$I$1))"),"입력은 유효한 이메일이 아닙니다!")</f>
+        <v>입력은 유효한 이메일이 아닙니다!</v>
+      </c>
+      <c r="J13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$J$1))"),"A entrada não é um e-mail válido!")</f>
+        <v>A entrada não é um e-mail válido!</v>
+      </c>
+      <c r="K13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$K$1))"),"Вход не является действительным электронным письмом!")</f>
+        <v>Вход не является действительным электронным письмом!</v>
+      </c>
+      <c r="L13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$L$1))"),"อินพุตไม่ถูกต้องอีเมล!")</f>
+        <v>อินพุตไม่ถูกต้องอีเมล!</v>
+      </c>
+      <c r="M13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$M$1))"),"Giriş geçerli e-posta değil!")</f>
+        <v>Giriş geçerli e-posta değil!</v>
+      </c>
+      <c r="N13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$N$1))"),"Đầu vào không phải là e-mail hợp lệ!")</f>
+        <v>Đầu vào không phải là e-mail hợp lệ!</v>
+      </c>
+      <c r="O13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$O$1))"),"输入不是有效的电子邮件！")</f>
+        <v>输入不是有效的电子邮件！</v>
+      </c>
+      <c r="P13" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B13,$B$1,$P$1))"),"輸入不是有效的電子郵件！")</f>
+        <v>輸入不是有效的電子郵件！</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$C$1))"),"Avatar ändern")</f>
+        <v>Avatar ändern</v>
+      </c>
+      <c r="D14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$D$1))"),"Cambiar avatar")</f>
+        <v>Cambiar avatar</v>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$E$1))"),"Changer d'avatar")</f>
+        <v>Changer d'avatar</v>
+      </c>
+      <c r="F14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$F$1))"),"Mengubah avatar")</f>
+        <v>Mengubah avatar</v>
+      </c>
+      <c r="G14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$G$1))"),"Cambia avatar")</f>
+        <v>Cambia avatar</v>
+      </c>
+      <c r="H14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$H$1))"),"アバターを変更します")</f>
+        <v>アバターを変更します</v>
+      </c>
+      <c r="I14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$I$1))"),"아바타를 변경하십시오")</f>
+        <v>아바타를 변경하십시오</v>
+      </c>
+      <c r="J14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$J$1))"),"Mudar Avatar")</f>
+        <v>Mudar Avatar</v>
+      </c>
+      <c r="K14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$K$1))"),"Сменить аватар")</f>
+        <v>Сменить аватар</v>
+      </c>
+      <c r="L14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$L$1))"),"เปลี่ยนอวตาร")</f>
+        <v>เปลี่ยนอวตาร</v>
+      </c>
+      <c r="M14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$M$1))"),"Avatarı değiştir")</f>
+        <v>Avatarı değiştir</v>
+      </c>
+      <c r="N14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$N$1))"),"Thay đổi Avatar")</f>
+        <v>Thay đổi Avatar</v>
+      </c>
+      <c r="O14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$O$1))"),"更改头像")</f>
+        <v>更改头像</v>
+      </c>
+      <c r="P14" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("(GOOGLETRANSLATE($B14,$B$1,$P$1))"),"更改頭像")</f>
+        <v>更改頭像</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
